--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D079F5DD-C1EA-F44F-9373-198CB8FD8327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555D7E2-7C81-CA4F-B08D-7B7A0D87DF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="67540" windowHeight="11300" activeTab="1" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="67500" windowHeight="10940" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="503">
   <si>
     <t>Nr</t>
   </si>
@@ -1020,21 +1020,12 @@
     <t>Triangulation</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
     <t>Machine Vision</t>
   </si>
   <si>
     <t>ISBN 978-0-070-32018-5</t>
   </si>
   <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>289-291</t>
-  </si>
-  <si>
     <t>1335-1336</t>
   </si>
   <si>
@@ -1114,13 +1105,457 @@
   </si>
   <si>
     <t>A novel algorithm for distance measurement using stereo camera</t>
+  </si>
+  <si>
+    <t>A novel binocular vision system for accurate 3-D reconstruction in large-scale scene based on improved calibration and stereo matching methods</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-022-12866-4</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11042-022-12866-4#citeas</t>
+  </si>
+  <si>
+    <t>2022_s11042-022-12866-4.pdf</t>
+  </si>
+  <si>
+    <t>Multimedia Tools and Applications, vol. 81</t>
+  </si>
+  <si>
+    <t>Wang, Daolei; Sun, Hao; Lu, Wu; Zhao, Wenbin; Liu, Yiteng; Chai, Pingping; Han, Yang</t>
+  </si>
+  <si>
+    <t>Wang, D. et al.</t>
+  </si>
+  <si>
+    <t>26273-26275</t>
+  </si>
+  <si>
+    <t>Berechnung der x-Koordinate eines 3D Punkts</t>
+  </si>
+  <si>
+    <t>Berechnung der y-Koordinate eines 3D Punkts</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>179-180</t>
+  </si>
+  <si>
+    <t>26273-26274</t>
+  </si>
+  <si>
+    <t>26274</t>
+  </si>
+  <si>
+    <t>2021_Registration_of_Point_Clouds_A_Survey.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=9757937</t>
+  </si>
+  <si>
+    <t>Registration of Point Clouds: A Survey</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>10.1109/INSAI54028.2021.00034</t>
+  </si>
+  <si>
+    <t>Xie, Dongfang; Zhu, Wei; Rong, Fengxiang; Xia, Xu; Shang, Huiliang</t>
+  </si>
+  <si>
+    <t>Xie, D. et al.</t>
+  </si>
+  <si>
+    <t>nternational Conference on Networking Systems of AI (INSAI), Shanghai, China</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.02690</t>
+  </si>
+  <si>
+    <t>Registrierung</t>
+  </si>
+  <si>
+    <t>10.48550/ARXIV.2103.02690</t>
+  </si>
+  <si>
+    <t>Huang, Xiaoshui; Mei, Guofeng; Zhang, Jian; Abbas, Rana</t>
+  </si>
+  <si>
+    <t>Huang, X. et al.</t>
+  </si>
+  <si>
+    <t>A comprehensive survey on point cloud registration</t>
+  </si>
+  <si>
+    <t>2021_Survey_Point_Cloud_Registration.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/121791</t>
+  </si>
+  <si>
+    <t>1992_Primärquelle_A_method_for_registration_of_3-D_shapes.pdf</t>
+  </si>
+  <si>
+    <t>A method for registration of 3-D shapes</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>10.1109/34.121791</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Pattern Analysis and Machine Intelligence, vol. 14, no. 2</t>
+  </si>
+  <si>
+    <t>Besl, P. J.; McKay, Neil D.</t>
+  </si>
+  <si>
+    <t>Besl, P.; McKay, N.</t>
+  </si>
+  <si>
+    <t>239-255</t>
+  </si>
+  <si>
+    <t>10.1109/tpami.2015.2513405</t>
+  </si>
+  <si>
+    <t>Yang, Jiaolong; Li, Hongdong; Campbell, Dylan; Jia, Yunde</t>
+  </si>
+  <si>
+    <t>Yang, J. et al.</t>
+  </si>
+  <si>
+    <t>Go-ICP</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1605.03344</t>
+  </si>
+  <si>
+    <t>Go-ICP.pdf</t>
+  </si>
+  <si>
+    <t>Go-ICP: A Globally Optimal Solution to 3D ICP Point-Set Registration</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Pattern Analysis and Machine Intelligence, vol. 38, no. 11</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9560835</t>
+  </si>
+  <si>
+    <t>2021_VGICP.pdf</t>
+  </si>
+  <si>
+    <t>Voxelized GICP for Fast and Accurate 3D Point Cloud Registration</t>
+  </si>
+  <si>
+    <t>VGICP</t>
+  </si>
+  <si>
+    <t>10.1109/ICRA48506.2021.9560835</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Robotics and Automation (ICRA), Xi'an, China</t>
+  </si>
+  <si>
+    <t>Koide, Kenji; Yokozuka, Masashi; Oishi, Shuji; Banno, Atsuhiko</t>
+  </si>
+  <si>
+    <t>Koide, K. et al.</t>
+  </si>
+  <si>
+    <t>11054-11059</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>242-244</t>
+  </si>
+  <si>
+    <t>243-244</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>411, 559, 728-729</t>
+  </si>
+  <si>
+    <t>244-247</t>
+  </si>
+  <si>
+    <t>138-139</t>
+  </si>
+  <si>
+    <t>Schematischer Ablauf des ICP-Algorithmus</t>
+  </si>
+  <si>
+    <t>icp.svg</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-030-91892-7_90</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/357059605_2D_Lidar_Data_Matching_Using_Simulated_Annealing_on_Point-Based_Method</t>
+  </si>
+  <si>
+    <t>Linh, Tao; Nguyen, Van-Tinh; Nguyen, Trung; Ito, Toshio; Bui, Ngoc-Tam</t>
+  </si>
+  <si>
+    <t>Linh, T. et al.</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>946-947, 949</t>
+  </si>
+  <si>
+    <t>Mukundan, R.</t>
+  </si>
+  <si>
+    <t>Mukundan, Ramakrishnan</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>3D Mesh Processing and Character Animation: With Examples Using OpenGL, OpenMesh and Assimp</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-030-81354-3_2</t>
+  </si>
+  <si>
+    <t>2022_Ramakrishnan Mukundan - 3D Mesh Processing and Character Animation_ With Examples Using OpenGL, OpenMesh and Assimp-Springer (2022).pdf</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-030-81354-3_2</t>
+  </si>
+  <si>
+    <t>ISBN 978-3-030-81353-6</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>The Diamond Laplace for Polygonal and Polyhedral Meshes</t>
+  </si>
+  <si>
+    <t>10.1111/cgf.14369</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/cgf.14369</t>
+  </si>
+  <si>
+    <t>2021_The Diamond Laplace for Polygonal and Polyhedral Meshes.pdf</t>
+  </si>
+  <si>
+    <t>Bunge, A.; Botsch, M.; Alexa, M.</t>
+  </si>
+  <si>
+    <t>Bunge, A. et al.</t>
+  </si>
+  <si>
+    <t>John Wiley &amp; Sons, Ltd., Computer Graphics Forum, vol. 40, no. 5</t>
+  </si>
+  <si>
+    <t>6-7, 11-12</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>https://www.google.de/books/edition/Sentimental_Analysis_and_Deep_Learning/wW5KEAAAQBAJ?hl=de&amp;gbpv=1&amp;dq=triangulation+is+the+process+of+mesh+generation&amp;pg=PA627&amp;printsec=frontcover</t>
+  </si>
+  <si>
+    <t>Delaunay-Triangulation</t>
+  </si>
+  <si>
+    <t>Sentimental Analysis and Deep Learning: Proceedings of ICSADL 2021</t>
+  </si>
+  <si>
+    <t>Du, Ke-Lin; Kamolphiwong, Sinchai; Shakya, Subarna; Emilia Balas, Valentina</t>
+  </si>
+  <si>
+    <t>Du, K.</t>
+  </si>
+  <si>
+    <t>Delaunay, B.</t>
+  </si>
+  <si>
+    <t>Sur la sphère vide. A la mémoire de Georges Voronoï</t>
+  </si>
+  <si>
+    <t>https://www.mathnet.ru/php/archive.phtml?wshow=paper&amp;jrnid=im&amp;paperid=4937&amp;option_lang=eng</t>
+  </si>
+  <si>
+    <t>Primärquelle_Delaunay.pdf</t>
+  </si>
+  <si>
+    <t>Bulletin de l'Académie des Sciences de l'URSS, no. 6</t>
+  </si>
+  <si>
+    <t>793-800</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>https://www.google.de/books/edition/Einf%C3%BChrung_in_die_Geowissenschaften/go2eDQAAQBAJ?hl=de&amp;gbpv=1&amp;dq=triangulation+dreieck+netz&amp;pg=PA198&amp;printsec=frontcover</t>
+  </si>
+  <si>
+    <t>Einführung in die Geowissenschaften</t>
+  </si>
+  <si>
+    <t>Arndt, Jörg; Mertmann, Dorothee; Götze, Hans-Jürgen; Riller, Ulrich</t>
+  </si>
+  <si>
+    <t>Arndt, J. et al.</t>
+  </si>
+  <si>
+    <t>UTB GmbH</t>
+  </si>
+  <si>
+    <t>793-794</t>
+  </si>
+  <si>
+    <t>Liu, Yong; Zheng, Yanwei</t>
+  </si>
+  <si>
+    <t>Liu, Y.; Zheng, Y.</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Scientific Programming, ResearchGate</t>
+  </si>
+  <si>
+    <t>10.1155/2021/6613264</t>
+  </si>
+  <si>
+    <t>Bowyer-Watson Algorithmus</t>
+  </si>
+  <si>
+    <t>Accurate Volume Calculation Driven by Delaunay Triangulation for Coal Measurement</t>
+  </si>
+  <si>
+    <t>Volume_Calculation_Delaunay_Triangulation.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/350935996_Accurate_Volume_Calculation_Driven_by_Delaunay_Triangulation_for_Coal_Measurement</t>
+  </si>
+  <si>
+    <t>Bowyer, A.</t>
+  </si>
+  <si>
+    <t>Bowyer, Adrian</t>
+  </si>
+  <si>
+    <t>10.1093/comjnl/24.2.162</t>
+  </si>
+  <si>
+    <t>Primärquelle_Bowyer_1981.pdf</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/comjnl/article/24/2/162/338193</t>
+  </si>
+  <si>
+    <t>Computing Dirichlet tessellations</t>
+  </si>
+  <si>
+    <t>162-166</t>
+  </si>
+  <si>
+    <t>The Computer Journal, vol. 24, no. 2</t>
+  </si>
+  <si>
+    <t>1981_240167.pdf</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/comjnl/article/24/2/167/338200?login=false</t>
+  </si>
+  <si>
+    <t>Computing the n-dimensional Delaunay tessellation with application to Voronoi polytopes</t>
+  </si>
+  <si>
+    <t>10.1093/comjnl/24.2.167</t>
+  </si>
+  <si>
+    <t>Watson, David F.</t>
+  </si>
+  <si>
+    <t>Watson, D.</t>
+  </si>
+  <si>
+    <t>The Computer Journal, vol. 24, no. 3</t>
+  </si>
+  <si>
+    <t>167-172</t>
+  </si>
+  <si>
+    <t>167-169</t>
+  </si>
+  <si>
+    <t>162, 165-166</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Umkreis</t>
+  </si>
+  <si>
+    <t>4, 6</t>
+  </si>
+  <si>
+    <t>Umkugel</t>
+  </si>
+  <si>
+    <t>10.1016/0141-1195(84)90003-2</t>
+  </si>
+  <si>
+    <t>Advances in Engineering Software, vol. 6, no. 4</t>
+  </si>
+  <si>
+    <t>193-194</t>
+  </si>
+  <si>
+    <t>Sloan, S. W.; Houlsby, G. T.</t>
+  </si>
+  <si>
+    <t>Sloan, S.; Houlsby, G.</t>
+  </si>
+  <si>
+    <t>An implementation of Watson's algorithm for computing 2-dimensional delaunay triangulations</t>
+  </si>
+  <si>
+    <t>07_An-implementation-of-Watsons-algorithm-for-computing-two-dimensional-Delaunay-triangulations</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/0141119584900032</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1183,6 +1618,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1198,7 +1640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1243,12 +1685,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1350,29 +1805,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1396,11 +1830,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1719,19 +2156,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="145" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="59" style="7" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="36.1640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="64.1640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" style="26" customWidth="1"/>
@@ -2067,51 +2504,51 @@
         <v>Vgl. Do, P.; Nguyen, Q., 3D Rekonstruktion, 2019, S. 139.</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="39">
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="21">
         <v>2022</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="N8" s="44" t="str">
+      <c r="N8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Vgl. Szeliski, R., Computer Vision, 2022, S. 3, 6-8, 11, 16-20.</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2931,92 +3368,92 @@
         <v>Vgl. Maio, D.; Baqersad, J., Kamerakalibrierung, 2021, S. 15.</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="21">
         <v>2022</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="N27" s="44" t="str">
+      <c r="N27" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Vgl. Szeliski, R., Computer Vision, 2022, S. 30-36, 59-61.</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="42" t="s">
+      <c r="J28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="21">
         <v>2022</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="N28" s="44" t="str">
+      <c r="N28" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Vgl. Szeliski, R., Computer Vision, 2022, S. 41-43, 48.</v>
       </c>
@@ -3343,37 +3780,37 @@
       <c r="A36" s="21">
         <v>35</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="42" t="s">
+      <c r="I36" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="42" t="s">
+      <c r="J36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="21">
         <v>2022</v>
       </c>
       <c r="M36" s="23" t="s">
@@ -3388,37 +3825,37 @@
       <c r="A37" s="21">
         <v>36</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="42" t="s">
+      <c r="J37" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="21">
         <v>2022</v>
       </c>
       <c r="M37" s="23" t="s">
@@ -3433,37 +3870,37 @@
       <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="42" t="s">
+      <c r="J38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="21">
         <v>2022</v>
       </c>
       <c r="M38" s="23" t="s">
@@ -3478,37 +3915,37 @@
       <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="42" t="s">
+      <c r="J39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="21">
         <v>2022</v>
       </c>
       <c r="M39" s="24" t="s">
@@ -3577,7 +4014,7 @@
       <c r="D41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="42" t="s">
         <v>201</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3595,13 +4032,13 @@
       <c r="J41" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="43" t="s">
         <v>202</v>
       </c>
       <c r="L41" s="21">
         <v>2023</v>
       </c>
-      <c r="M41" s="53" t="s">
+      <c r="M41" s="44" t="s">
         <v>198</v>
       </c>
       <c r="N41" s="17" t="str">
@@ -3661,7 +4098,7 @@
       <c r="B43" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -3748,37 +4185,37 @@
       <c r="A45" s="21">
         <v>44</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I45" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="42" t="s">
+      <c r="J45" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="21">
         <v>2022</v>
       </c>
       <c r="M45" s="24" t="s">
@@ -3838,37 +4275,37 @@
       <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="42" t="s">
+      <c r="I47" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="42" t="s">
+      <c r="J47" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="21">
         <v>2022</v>
       </c>
       <c r="M47" s="24" t="s">
@@ -3883,37 +4320,37 @@
       <c r="A48" s="21">
         <v>47</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="57" t="s">
+      <c r="G48" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="42" t="s">
+      <c r="H48" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I48" s="42" t="s">
+      <c r="I48" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="42" t="s">
+      <c r="J48" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="21">
         <v>2022</v>
       </c>
       <c r="M48" s="24" t="s">
@@ -3988,7 +4425,7 @@
       <c r="F50" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="47" t="s">
         <v>229</v>
       </c>
       <c r="H50" s="24" t="s">
@@ -4033,7 +4470,7 @@
       <c r="F51" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="G51" s="56" t="s">
+      <c r="G51" s="47" t="s">
         <v>247</v>
       </c>
       <c r="H51" s="24" t="s">
@@ -4162,7 +4599,7 @@
       <c r="D54" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="56" t="s">
+      <c r="E54" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F54" s="24" t="s">
@@ -4183,7 +4620,7 @@
       <c r="K54" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="21">
         <v>2004</v>
       </c>
       <c r="M54" s="23" t="s">
@@ -4207,7 +4644,7 @@
       <c r="D55" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F55" s="24" t="s">
@@ -4228,10 +4665,10 @@
       <c r="K55" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="21">
         <v>2004</v>
       </c>
-      <c r="M55" s="48" t="s">
+      <c r="M55" s="23" t="s">
         <v>258</v>
       </c>
       <c r="N55" s="17" t="str">
@@ -4252,7 +4689,7 @@
       <c r="D56" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F56" s="24" t="s">
@@ -4273,10 +4710,10 @@
       <c r="K56" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="21">
         <v>2004</v>
       </c>
-      <c r="M56" s="42" t="s">
+      <c r="M56" s="24" t="s">
         <v>263</v>
       </c>
       <c r="N56" s="17" t="str">
@@ -4387,7 +4824,7 @@
       <c r="D59" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F59" s="24" t="s">
@@ -4408,7 +4845,7 @@
       <c r="K59" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L59" s="39">
+      <c r="L59" s="21">
         <v>2004</v>
       </c>
       <c r="M59" s="24">
@@ -4477,7 +4914,7 @@
       <c r="D61" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F61" s="24" t="s">
@@ -4498,7 +4935,7 @@
       <c r="K61" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L61" s="39">
+      <c r="L61" s="21">
         <v>2004</v>
       </c>
       <c r="M61" s="24" t="s">
@@ -4522,7 +4959,7 @@
       <c r="D62" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F62" s="24" t="s">
@@ -4543,7 +4980,7 @@
       <c r="K62" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="21">
         <v>2004</v>
       </c>
       <c r="M62" s="24" t="s">
@@ -4702,7 +5139,7 @@
       <c r="D66" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E66" s="56" t="s">
+      <c r="E66" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F66" s="24" t="s">
@@ -4723,7 +5160,7 @@
       <c r="K66" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="21">
         <v>2004</v>
       </c>
       <c r="M66" s="24">
@@ -4747,7 +5184,7 @@
       <c r="D67" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E67" s="56" t="s">
+      <c r="E67" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F67" s="24" t="s">
@@ -4768,7 +5205,7 @@
       <c r="K67" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L67" s="39">
+      <c r="L67" s="21">
         <v>2004</v>
       </c>
       <c r="M67" s="24">
@@ -4792,7 +5229,7 @@
       <c r="D68" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F68" s="24" t="s">
@@ -4813,7 +5250,7 @@
       <c r="K68" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L68" s="21">
         <v>2004</v>
       </c>
       <c r="M68" s="24" t="s">
@@ -4837,7 +5274,7 @@
       <c r="D69" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F69" s="24" t="s">
@@ -4858,7 +5295,7 @@
       <c r="K69" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L69" s="39">
+      <c r="L69" s="21">
         <v>2004</v>
       </c>
       <c r="M69" s="24" t="s">
@@ -4882,7 +5319,7 @@
       <c r="D70" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E70" s="56" t="s">
+      <c r="E70" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F70" s="24" t="s">
@@ -4903,7 +5340,7 @@
       <c r="K70" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L70" s="39">
+      <c r="L70" s="21">
         <v>2004</v>
       </c>
       <c r="M70" s="24">
@@ -4927,7 +5364,7 @@
       <c r="D71" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F71" s="24" t="s">
@@ -4948,7 +5385,7 @@
       <c r="K71" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L71" s="39">
+      <c r="L71" s="21">
         <v>2004</v>
       </c>
       <c r="M71" s="24" t="s">
@@ -4972,7 +5409,7 @@
       <c r="D72" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="47" t="s">
         <v>255</v>
       </c>
       <c r="F72" s="24" t="s">
@@ -4993,7 +5430,7 @@
       <c r="K72" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L72" s="39">
+      <c r="L72" s="21">
         <v>2004</v>
       </c>
       <c r="M72" s="24">
@@ -5065,7 +5502,7 @@
       <c r="E74" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G74" s="24" t="s">
@@ -5110,7 +5547,7 @@
       <c r="E75" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F75" s="40" t="s">
+      <c r="F75" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G75" s="24" t="s">
@@ -5155,7 +5592,7 @@
       <c r="E76" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F76" s="40" t="s">
+      <c r="F76" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G76" s="24" t="s">
@@ -5200,7 +5637,7 @@
       <c r="E77" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G77" s="24" t="s">
@@ -5233,37 +5670,37 @@
       <c r="A78" s="14">
         <v>77</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="40" t="s">
+      <c r="F78" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="G78" s="57" t="s">
+      <c r="G78" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="42" t="s">
+      <c r="H78" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I78" s="42" t="s">
+      <c r="I78" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J78" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="42" t="s">
+      <c r="J78" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L78" s="39">
+      <c r="L78" s="21">
         <v>2022</v>
       </c>
       <c r="M78" s="24">
@@ -5290,7 +5727,7 @@
       <c r="E79" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G79" s="24" t="s">
@@ -5335,7 +5772,7 @@
       <c r="E80" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F80" s="40" t="s">
+      <c r="F80" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G80" s="24" t="s">
@@ -5380,7 +5817,7 @@
       <c r="E81" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F81" s="40" t="s">
+      <c r="F81" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G81" s="24" t="s">
@@ -5425,7 +5862,7 @@
       <c r="E82" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="17" t="s">
         <v>283</v>
       </c>
       <c r="G82" s="24" t="s">
@@ -5470,7 +5907,7 @@
       <c r="E83" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="17" t="s">
         <v>283</v>
       </c>
       <c r="G83" s="24" t="s">
@@ -5560,7 +5997,7 @@
       <c r="E85" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="17" t="s">
         <v>277</v>
       </c>
       <c r="G85" s="24" t="s">
@@ -5593,37 +6030,37 @@
       <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="G86" s="57" t="s">
+      <c r="G86" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="H86" s="42" t="s">
+      <c r="H86" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="I86" s="42" t="s">
+      <c r="I86" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="J86" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" s="42" t="s">
+      <c r="J86" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="L86" s="39">
+      <c r="L86" s="21">
         <v>2022</v>
       </c>
       <c r="M86" s="23" t="s">
@@ -6100,7 +6537,7 @@
       <c r="E97" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F97" s="40" t="s">
+      <c r="F97" s="20" t="s">
         <v>283</v>
       </c>
       <c r="G97" s="24" t="s">
@@ -6143,7 +6580,7 @@
         <v>320</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F98" s="36" t="s">
         <v>325</v>
@@ -6167,14 +6604,14 @@
         <v>1995</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N98" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Vgl. Jain, R. et al., Triangulation, 1995, S. 289.</v>
+        <v>Vgl. Jain, R. et al., Triangulation, 1995, S. 289-290.</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -6182,44 +6619,44 @@
         <v>98</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G99" s="36" t="s">
-        <v>15</v>
+        <v>354</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>351</v>
       </c>
       <c r="H99" s="38" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="J99" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K99" s="31" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="L99" s="28">
-        <v>1995</v>
+        <v>2022</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="N99" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Vgl. Jain, R. et al., Triangulation, 1995, S. 290.</v>
+        <v>Vgl. Adil, E. et al., Epipolargeometrie, 2022, S. 179.</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
@@ -6227,44 +6664,44 @@
         <v>99</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="F100" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G100" s="36" t="s">
-        <v>15</v>
+        <v>354</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G100" s="40" t="s">
+        <v>351</v>
       </c>
       <c r="H100" s="38" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="J100" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K100" s="31" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="L100" s="28">
-        <v>1995</v>
+        <v>2022</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="N100" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Vgl. Jain, R. et al., Triangulation, 1995, S. 289-291.</v>
+        <v>Vgl. Adil, E. et al., Epipolargeometrie, 2022, S. 179-180.</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -6272,47 +6709,47 @@
         <v>100</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="F101" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>15</v>
+        <v>354</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>351</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="J101" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K101" s="31" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="L101" s="28">
-        <v>1995</v>
+        <v>2022</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="N101" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Vgl. Jain, R. et al., Triangulation, 1995, S. 289-290.</v>
+        <v>Vgl. Adil, E. et al., Epipolargeometrie, 2022, S. 179-180.</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -6323,19 +6760,19 @@
         <v>17</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F102" s="36" t="s">
         <v>325</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H102" s="24" t="s">
         <v>199</v>
@@ -6347,13 +6784,13 @@
         <v>15</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L102" s="21">
         <v>2021</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N102" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6368,19 +6805,19 @@
         <v>17</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F103" s="36" t="s">
         <v>325</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H103" s="24" t="s">
         <v>199</v>
@@ -6392,13 +6829,13 @@
         <v>15</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L103" s="21">
         <v>2021</v>
       </c>
       <c r="M103" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N103" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6413,19 +6850,19 @@
         <v>17</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F104" s="36" t="s">
         <v>325</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H104" s="24" t="s">
         <v>199</v>
@@ -6437,13 +6874,13 @@
         <v>15</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L104" s="21">
         <v>2021</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N104" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6458,40 +6895,40 @@
         <v>51</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F105" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="G105" s="49" t="s">
-        <v>354</v>
+      <c r="G105" s="40" t="s">
+        <v>351</v>
       </c>
       <c r="H105" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J105" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="I105" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="J105" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" s="31" t="s">
-        <v>355</v>
       </c>
       <c r="L105" s="28">
         <v>2022</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N105" s="17" t="str">
-        <f t="shared" ref="N105:N108" si="4">"Vgl. "&amp;H105&amp;", "&amp;F105&amp;", "&amp;L105&amp;", S. "&amp;M105&amp;"."</f>
+        <f t="shared" ref="N105:N129" si="4">"Vgl. "&amp;H105&amp;", "&amp;F105&amp;", "&amp;L105&amp;", S. "&amp;M105&amp;"."</f>
         <v>Vgl. Adil, E. et al., Triangulation, 2022, S. 181.</v>
       </c>
     </row>
@@ -6509,7 +6946,7 @@
         <v>320</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F106" s="36" t="s">
         <v>325</v>
@@ -6533,7 +6970,7 @@
         <v>1995</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N106" s="17" t="str">
         <f t="shared" si="4"/>
@@ -6548,31 +6985,31 @@
         <v>51</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F107" s="36" t="s">
         <v>325</v>
       </c>
       <c r="G107" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="I107" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="31" t="s">
         <v>346</v>
-      </c>
-      <c r="H107" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="I107" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="J107" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" s="31" t="s">
-        <v>349</v>
       </c>
       <c r="L107" s="28">
         <v>2022</v>
@@ -6589,945 +7026,2034 @@
       <c r="A108" s="21">
         <v>107</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="23"/>
+      <c r="B108" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H108" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="I108" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="L108" s="28">
+        <v>2022</v>
+      </c>
+      <c r="M108" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="N108" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Jang, M. et al., Triangulation, 2022, S. 1.</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>108</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="23"/>
+      <c r="B109" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="H109" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I109" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J109" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="L109" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M109" s="23" t="s">
+        <v>367</v>
+      </c>
       <c r="N109" s="17" t="str">
-        <f t="shared" ref="N104:N110" si="5">"Vgl. "&amp;H110&amp;", "&amp;F110&amp;", "&amp;L110&amp;", S. "&amp;M110&amp;"."</f>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="4"/>
+        <v>Vgl. Wang, D. et al., 3D Rekonstruktion, 2022, S. 26273-26274.</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>109</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="23"/>
+      <c r="B110" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="H110" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I110" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J110" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="L110" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M110" s="23" t="s">
+        <v>368</v>
+      </c>
       <c r="N110" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="4"/>
+        <v>Vgl. Wang, D. et al., 3D Rekonstruktion, 2022, S. 26274.</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>110</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="23"/>
+      <c r="B111" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J111" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L111" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="N111" s="17" t="str">
-        <f t="shared" ref="N105:N168" si="6">"Vgl. "&amp;H111&amp;", "&amp;F111&amp;", "&amp;L111&amp;", S. "&amp;M111&amp;"."</f>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="4"/>
+        <v>Vgl. Xie, D. et al., 3D Rekonstruktion, 2021, S. 136.</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
         <v>111</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="23"/>
+      <c r="B112" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="H112" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I112" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J112" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="L112" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>368</v>
+      </c>
       <c r="N112" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Wang, D. et al., 3D Rekonstruktion, 2022, S. 26274.</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>112</v>
       </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="23"/>
+      <c r="B113" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="J113" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L113" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M113" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="N113" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Huang, X. et al., Registrierung, 2021, S. 1.</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>113</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="21"/>
-      <c r="M114" s="23"/>
+      <c r="B114" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I114" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="J114" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="L114" s="21">
+        <v>1992</v>
+      </c>
+      <c r="M114" s="23" t="s">
+        <v>392</v>
+      </c>
       <c r="N114" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Besl, P.; McKay, N., ICP, 1992, S. 239-255.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>114</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="23"/>
+      <c r="B115" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="I115" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="J115" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="L115" s="21">
+        <v>2016</v>
+      </c>
+      <c r="M115" s="23" t="s">
+        <v>401</v>
+      </c>
       <c r="N115" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Yang, J. et al., Go-ICP, 2016, S. 1-13.</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>115</v>
       </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="23"/>
+      <c r="B116" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="I116" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="J116" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="L116" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M116" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="N116" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Koide, K. et al., VGICP, 2021, S. 11054-11059.</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>116</v>
       </c>
-      <c r="B117" s="21"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="23"/>
+      <c r="B117" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J117" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L117" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M117" s="23" t="s">
+        <v>411</v>
+      </c>
       <c r="N117" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Xie, D. et al., ICP, 2021, S. 138.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>117</v>
       </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="23"/>
+      <c r="B118" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I118" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="J118" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="L118" s="21">
+        <v>1992</v>
+      </c>
+      <c r="M118" s="23" t="s">
+        <v>412</v>
+      </c>
       <c r="N118" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Besl, P.; McKay, N., ICP, 1992, S. 242-244.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>118</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="23"/>
+      <c r="B119" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I119" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="J119" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="L119" s="21">
+        <v>1992</v>
+      </c>
+      <c r="M119" s="23" t="s">
+        <v>286</v>
+      </c>
       <c r="N119" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Besl, P.; McKay, N., ICP, 1992, S. 239-240.</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
         <v>119</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="21"/>
-      <c r="M120" s="23"/>
+      <c r="B120" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I120" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="J120" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="L120" s="21">
+        <v>1992</v>
+      </c>
+      <c r="M120" s="23" t="s">
+        <v>413</v>
+      </c>
       <c r="N120" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Besl, P.; McKay, N., ICP, 1992, S. 243-244.</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>120</v>
       </c>
-      <c r="B121" s="21"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="23"/>
+      <c r="B121" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I121" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J121" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L121" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M121" s="23" t="s">
+        <v>417</v>
+      </c>
       <c r="N121" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Xie, D. et al., ICP, 2021, S. 138-139.</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>121</v>
       </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="23"/>
+      <c r="B122" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="J122" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="L122" s="21">
+        <v>1992</v>
+      </c>
+      <c r="M122" s="23" t="s">
+        <v>416</v>
+      </c>
       <c r="N122" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Besl, P.; McKay, N., ICP, 1992, S. 244-247.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>122</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="23"/>
+      <c r="B123" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I123" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L123" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M123" s="23" t="s">
+        <v>417</v>
+      </c>
       <c r="N123" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Xie, D. et al., ICP, 2021, S. 138-139.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>123</v>
       </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="23"/>
+      <c r="B124" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J124" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L124" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M124" s="23" t="s">
+        <v>415</v>
+      </c>
       <c r="N124" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Szeliski, R., SVD, 2022, S. 411, 559, 728-729.</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
         <v>124</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="23"/>
+      <c r="B125" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I125" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J125" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L125" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M125" s="23" t="s">
+        <v>417</v>
+      </c>
       <c r="N125" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Xie, D. et al., ICP, 2021, S. 138-139.</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>125</v>
       </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="23"/>
+      <c r="B126" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="J126" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="L126" s="21">
+        <v>1992</v>
+      </c>
+      <c r="M126" s="23" t="s">
+        <v>413</v>
+      </c>
       <c r="N126" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Besl, P.; McKay, N., ICP, 1992, S. 243-244.</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>126</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="23"/>
+      <c r="B127" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J127" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L127" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M127" s="23" t="s">
+        <v>411</v>
+      </c>
       <c r="N127" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Xie, D. et al., ICP, 2021, S. 138.</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>127</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="23"/>
+      <c r="B128" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L128" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M128" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="N128" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Mukundan, R., Mesh, 2022, S. 6-7.</v>
+      </c>
+      <c r="O128" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>128</v>
       </c>
-      <c r="B129" s="21"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="21"/>
-      <c r="M129" s="23"/>
+      <c r="B129" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L129" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M129" s="23" t="s">
+        <v>442</v>
+      </c>
       <c r="N129" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>Vgl. Mukundan, R., Mesh, 2022, S. 6-7, 11-12.</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>129</v>
       </c>
-      <c r="B130" s="21"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="23"/>
+      <c r="B130" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="J130" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="L130" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M130" s="23" t="s">
+        <v>434</v>
+      </c>
       <c r="N130" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N130:N168" si="5">"Vgl. "&amp;H130&amp;", "&amp;F130&amp;", "&amp;L130&amp;", S. "&amp;M130&amp;"."</f>
+        <v>Vgl. Bunge, A. et al., Mesh, 2021, S. 217.</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>130</v>
       </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="23"/>
+      <c r="B131" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="J131" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L131" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M131" s="23" t="s">
+        <v>443</v>
+      </c>
       <c r="N131" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Mukundan, R., Mesh, 2022, S. 9-11.</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>131</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="23"/>
+      <c r="B132" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G132" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="J132" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="L132" s="21">
+        <v>2015</v>
+      </c>
+      <c r="M132" s="23" t="s">
+        <v>456</v>
+      </c>
       <c r="N132" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Arndt, J. et al., Triangulation, 2015, S. 198.</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>132</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="23"/>
+      <c r="B133" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J133" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L133" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M133" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N133" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Du, K., Delaunay-Triangulation, 2022, S. 627.</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>133</v>
       </c>
-      <c r="B134" s="21"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="23"/>
+      <c r="B134" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="J134" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="L134" s="21">
+        <v>1934</v>
+      </c>
+      <c r="M134" s="23" t="s">
+        <v>455</v>
+      </c>
       <c r="N134" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Delaunay, B., Delaunay-Triangulation, 1934, S. 793-800.</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>134</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="25"/>
-      <c r="K135" s="24"/>
-      <c r="L135" s="21"/>
-      <c r="M135" s="23"/>
+      <c r="B135" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="J135" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="L135" s="21">
+        <v>1934</v>
+      </c>
+      <c r="M135" s="23" t="s">
+        <v>462</v>
+      </c>
       <c r="N135" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Delaunay, B., Delaunay-Triangulation, 1934, S. 793-794.</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>135</v>
       </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="23"/>
+      <c r="B136" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="J136" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="L136" s="21">
+        <v>1934</v>
+      </c>
+      <c r="M136" s="23" t="s">
+        <v>462</v>
+      </c>
       <c r="N136" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Delaunay, B., Delaunay-Triangulation, 1934, S. 793-794.</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>136</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="24"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="25"/>
-      <c r="K137" s="24"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="23"/>
+      <c r="B137" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J137" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="L137" s="21">
+        <v>1981</v>
+      </c>
+      <c r="M137" s="23" t="s">
+        <v>489</v>
+      </c>
       <c r="N137" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Bowyer, A., Delaunay-Triangulation, 1981, S. 162, 165-166.</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>137</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="25"/>
-      <c r="K138" s="24"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="23"/>
+      <c r="B138" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I138" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J138" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="L138" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M138" s="23" t="s">
+        <v>465</v>
+      </c>
       <c r="N138" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Liu, Y.; Zheng, Y., Bowyer-Watson Algorithmus, 2021, S. 4-5.</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>138</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="23"/>
+      <c r="B139" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J139" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="L139" s="21">
+        <v>1981</v>
+      </c>
+      <c r="M139" s="23" t="s">
+        <v>478</v>
+      </c>
       <c r="N139" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Bowyer, A., Bowyer-Watson Algorithmus, 1981, S. 162-166.</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
         <v>139</v>
       </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="21"/>
-      <c r="M140" s="23"/>
+      <c r="B140" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H140" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="I140" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="J140" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="L140" s="21">
+        <v>1981</v>
+      </c>
+      <c r="M140" s="23" t="s">
+        <v>487</v>
+      </c>
       <c r="N140" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+        <f>"Vgl. "&amp;H140&amp;", "&amp;F140&amp;", "&amp;L140&amp;", S. "&amp;M140&amp;"."</f>
+        <v>Vgl. Watson, D., Bowyer-Watson Algorithmus, 1981, S. 167-172.</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>140</v>
       </c>
-      <c r="B141" s="21"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="23"/>
+      <c r="B141" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="J141" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K141" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="L141" s="21">
+        <v>1981</v>
+      </c>
+      <c r="M141" s="23" t="s">
+        <v>488</v>
+      </c>
       <c r="N141" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+        <f>"Vgl. "&amp;H141&amp;", "&amp;F141&amp;", "&amp;L141&amp;", S. "&amp;M141&amp;"."</f>
+        <v>Vgl. Watson, D., Bowyer-Watson Algorithmus, 1981, S. 167-169.</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>141</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="25"/>
-      <c r="K142" s="24"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="23"/>
+      <c r="B142" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J142" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="L142" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M142" s="23" t="s">
+        <v>490</v>
+      </c>
       <c r="N142" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Vgl. Liu, Y.; Zheng, Y., Bowyer-Watson Algorithmus, 2021, S. 4.</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>142</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="21"/>
-      <c r="M143" s="23"/>
+      <c r="B143" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J143" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K143" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L143" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M143" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N143" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+        <f>"Vgl. "&amp;H143&amp;", "&amp;F143&amp;", "&amp;L143&amp;", S. "&amp;M143&amp;"."</f>
+        <v>Vgl. Du, K., Delaunay-Triangulation, 2022, S. 627.</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>143</v>
       </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="24"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="24"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="23"/>
+      <c r="B144" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I144" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J144" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K144" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L144" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M144" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N144" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f>"Vgl. "&amp;H144&amp;", "&amp;F144&amp;", "&amp;L144&amp;", S. "&amp;M144&amp;"."</f>
+        <v>Vgl. Du, K., Delaunay-Triangulation, 2022, S. 627.</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>144</v>
       </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="21"/>
-      <c r="M145" s="23"/>
+      <c r="B145" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J145" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K145" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="L145" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M145" s="23" t="s">
+        <v>492</v>
+      </c>
       <c r="N145" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Liu, Y.; Zheng, Y., Umkreis, 2021, S. 4, 6.</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>145</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="24"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="25"/>
-      <c r="K146" s="24"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="23"/>
+      <c r="B146" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J146" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L146" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M146" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N146" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Du, K., Umkugel, 2022, S. 627.</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>146</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="24"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="24"/>
-      <c r="L147" s="21"/>
-      <c r="M147" s="23"/>
+      <c r="B147" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J147" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L147" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M147" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N147" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Du, K., Delaunay-Triangulation, 2022, S. 627.</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>147</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="25"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="23"/>
+      <c r="B148" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="H148" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="J148" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="L148" s="21">
+        <v>1984</v>
+      </c>
+      <c r="M148" s="23" t="s">
+        <v>496</v>
+      </c>
       <c r="N148" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Sloan, S.; Houlsby, G., Bowyer-Watson Algorithmus, 1984, S. 193-194.</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>148</v>
       </c>
-      <c r="B149" s="21"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="21"/>
-      <c r="M149" s="23"/>
+      <c r="B149" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="I149" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="J149" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="L149" s="21">
+        <v>1984</v>
+      </c>
+      <c r="M149" s="23" t="s">
+        <v>496</v>
+      </c>
       <c r="N149" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Sloan, S.; Houlsby, G., Bowyer-Watson Algorithmus, 1984, S. 193-194.</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="14">
         <v>149</v>
       </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="23"/>
+      <c r="B150" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I150" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J150" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L150" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M150" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N150" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Du, K., Bowyer-Watson Algorithmus, 2022, S. 627.</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>150</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="25"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="23"/>
+      <c r="B151" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I151" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J151" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K151" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L151" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M151" s="23" t="s">
+        <v>444</v>
+      </c>
       <c r="N151" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Du, K., Bowyer-Watson Algorithmus, 2022, S. 627.</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>151</v>
       </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="23"/>
+      <c r="B152" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="J152" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="L152" s="21">
+        <v>1984</v>
+      </c>
+      <c r="M152" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="N152" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Sloan, S.; Houlsby, G., Bowyer-Watson Algorithmus, 1984, S. 194.</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -7547,7 +9073,7 @@
       <c r="L153" s="21"/>
       <c r="M153" s="23"/>
       <c r="N153" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7568,7 +9094,7 @@
       <c r="L154" s="21"/>
       <c r="M154" s="23"/>
       <c r="N154" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7589,7 +9115,7 @@
       <c r="L155" s="21"/>
       <c r="M155" s="23"/>
       <c r="N155" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7610,7 +9136,7 @@
       <c r="L156" s="21"/>
       <c r="M156" s="23"/>
       <c r="N156" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7631,7 +9157,7 @@
       <c r="L157" s="21"/>
       <c r="M157" s="23"/>
       <c r="N157" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7652,7 +9178,7 @@
       <c r="L158" s="21"/>
       <c r="M158" s="23"/>
       <c r="N158" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7673,7 +9199,7 @@
       <c r="L159" s="21"/>
       <c r="M159" s="23"/>
       <c r="N159" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7694,7 +9220,7 @@
       <c r="L160" s="21"/>
       <c r="M160" s="23"/>
       <c r="N160" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7715,7 +9241,7 @@
       <c r="L161" s="21"/>
       <c r="M161" s="23"/>
       <c r="N161" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7736,7 +9262,7 @@
       <c r="L162" s="21"/>
       <c r="M162" s="23"/>
       <c r="N162" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7757,7 +9283,7 @@
       <c r="L163" s="21"/>
       <c r="M163" s="23"/>
       <c r="N163" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7778,7 +9304,7 @@
       <c r="L164" s="21"/>
       <c r="M164" s="23"/>
       <c r="N164" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7799,7 +9325,7 @@
       <c r="L165" s="21"/>
       <c r="M165" s="23"/>
       <c r="N165" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7820,7 +9346,7 @@
       <c r="L166" s="21"/>
       <c r="M166" s="23"/>
       <c r="N166" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7841,7 +9367,7 @@
       <c r="L167" s="21"/>
       <c r="M167" s="23"/>
       <c r="N167" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7862,7 +9388,7 @@
       <c r="L168" s="21"/>
       <c r="M168" s="23"/>
       <c r="N168" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7883,7 +9409,7 @@
       <c r="L169" s="21"/>
       <c r="M169" s="23"/>
       <c r="N169" s="17" t="str">
-        <f t="shared" ref="N169:N202" si="7">"Vgl. "&amp;H169&amp;", "&amp;F169&amp;", "&amp;L169&amp;", S. "&amp;M169&amp;"."</f>
+        <f t="shared" ref="N169:N202" si="6">"Vgl. "&amp;H169&amp;", "&amp;F169&amp;", "&amp;L169&amp;", S. "&amp;M169&amp;"."</f>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7904,7 +9430,7 @@
       <c r="L170" s="21"/>
       <c r="M170" s="23"/>
       <c r="N170" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7925,7 +9451,7 @@
       <c r="L171" s="21"/>
       <c r="M171" s="23"/>
       <c r="N171" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7946,7 +9472,7 @@
       <c r="L172" s="21"/>
       <c r="M172" s="23"/>
       <c r="N172" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7967,7 +9493,7 @@
       <c r="L173" s="21"/>
       <c r="M173" s="23"/>
       <c r="N173" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -7988,7 +9514,7 @@
       <c r="L174" s="21"/>
       <c r="M174" s="23"/>
       <c r="N174" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8009,7 +9535,7 @@
       <c r="L175" s="21"/>
       <c r="M175" s="23"/>
       <c r="N175" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8030,7 +9556,7 @@
       <c r="L176" s="21"/>
       <c r="M176" s="23"/>
       <c r="N176" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8051,7 +9577,7 @@
       <c r="L177" s="21"/>
       <c r="M177" s="23"/>
       <c r="N177" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8072,7 +9598,7 @@
       <c r="L178" s="21"/>
       <c r="M178" s="23"/>
       <c r="N178" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8093,7 +9619,7 @@
       <c r="L179" s="21"/>
       <c r="M179" s="23"/>
       <c r="N179" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8114,7 +9640,7 @@
       <c r="L180" s="21"/>
       <c r="M180" s="23"/>
       <c r="N180" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8135,7 +9661,7 @@
       <c r="L181" s="21"/>
       <c r="M181" s="23"/>
       <c r="N181" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8156,7 +9682,7 @@
       <c r="L182" s="21"/>
       <c r="M182" s="23"/>
       <c r="N182" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8177,7 +9703,7 @@
       <c r="L183" s="21"/>
       <c r="M183" s="23"/>
       <c r="N183" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8198,7 +9724,7 @@
       <c r="L184" s="21"/>
       <c r="M184" s="23"/>
       <c r="N184" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8219,7 +9745,7 @@
       <c r="L185" s="21"/>
       <c r="M185" s="23"/>
       <c r="N185" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8240,7 +9766,7 @@
       <c r="L186" s="21"/>
       <c r="M186" s="23"/>
       <c r="N186" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8261,7 +9787,7 @@
       <c r="L187" s="21"/>
       <c r="M187" s="23"/>
       <c r="N187" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8282,7 +9808,7 @@
       <c r="L188" s="21"/>
       <c r="M188" s="23"/>
       <c r="N188" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8303,7 +9829,7 @@
       <c r="L189" s="21"/>
       <c r="M189" s="23"/>
       <c r="N189" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8324,7 +9850,7 @@
       <c r="L190" s="21"/>
       <c r="M190" s="23"/>
       <c r="N190" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8345,7 +9871,7 @@
       <c r="L191" s="21"/>
       <c r="M191" s="23"/>
       <c r="N191" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8366,7 +9892,7 @@
       <c r="L192" s="21"/>
       <c r="M192" s="23"/>
       <c r="N192" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8387,7 +9913,7 @@
       <c r="L193" s="21"/>
       <c r="M193" s="23"/>
       <c r="N193" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8408,7 +9934,7 @@
       <c r="L194" s="21"/>
       <c r="M194" s="23"/>
       <c r="N194" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8429,7 +9955,7 @@
       <c r="L195" s="21"/>
       <c r="M195" s="23"/>
       <c r="N195" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8450,7 +9976,7 @@
       <c r="L196" s="21"/>
       <c r="M196" s="23"/>
       <c r="N196" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8471,7 +9997,7 @@
       <c r="L197" s="21"/>
       <c r="M197" s="23"/>
       <c r="N197" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8492,7 +10018,7 @@
       <c r="L198" s="21"/>
       <c r="M198" s="23"/>
       <c r="N198" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8513,7 +10039,7 @@
       <c r="L199" s="21"/>
       <c r="M199" s="23"/>
       <c r="N199" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8534,7 +10060,7 @@
       <c r="L200" s="21"/>
       <c r="M200" s="23"/>
       <c r="N200" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8555,7 +10081,7 @@
       <c r="L201" s="21"/>
       <c r="M201" s="23"/>
       <c r="N201" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8574,7 +10100,7 @@
       <c r="L202" s="21"/>
       <c r="M202" s="23"/>
       <c r="N202" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Vgl. , , , S. .</v>
       </c>
     </row>
@@ -8689,14 +10215,58 @@
     <hyperlink ref="C96" r:id="rId95" xr:uid="{04A82EA3-3FCF-5542-B5A2-042BDCFC25A6}"/>
     <hyperlink ref="C97" r:id="rId96" xr:uid="{1178C65D-2071-0042-8D0F-C762C3E5896D}"/>
     <hyperlink ref="C98" r:id="rId97" xr:uid="{C7B7CDD2-ED04-C44A-8010-A038EC69A21B}"/>
-    <hyperlink ref="C99" r:id="rId98" xr:uid="{06169C82-F44B-604D-9975-4282A9A2EAA3}"/>
-    <hyperlink ref="C100" r:id="rId99" xr:uid="{CEDF7434-E51F-7942-90DD-11ACC582ACF4}"/>
-    <hyperlink ref="C102" r:id="rId100" xr:uid="{913E074F-CC45-D846-8EBB-739879F6D3C3}"/>
-    <hyperlink ref="C103" r:id="rId101" xr:uid="{6211AAB5-29F2-064B-98F0-89CF5F414004}"/>
-    <hyperlink ref="C104" r:id="rId102" xr:uid="{6012DB32-3999-A747-9FAD-DD15301172E7}"/>
-    <hyperlink ref="C101" r:id="rId103" xr:uid="{A0CC3FEB-755F-2849-8E7D-843408142B5A}"/>
-    <hyperlink ref="C106" r:id="rId104" xr:uid="{AB2A1A71-9ACA-6443-B09F-857BC9CF69FB}"/>
-    <hyperlink ref="C105" r:id="rId105" xr:uid="{A5286CD5-B399-4B45-9E19-8718EA112BF1}"/>
+    <hyperlink ref="C102" r:id="rId98" xr:uid="{913E074F-CC45-D846-8EBB-739879F6D3C3}"/>
+    <hyperlink ref="C103" r:id="rId99" xr:uid="{6211AAB5-29F2-064B-98F0-89CF5F414004}"/>
+    <hyperlink ref="C104" r:id="rId100" xr:uid="{6012DB32-3999-A747-9FAD-DD15301172E7}"/>
+    <hyperlink ref="C106" r:id="rId101" xr:uid="{AB2A1A71-9ACA-6443-B09F-857BC9CF69FB}"/>
+    <hyperlink ref="C105" r:id="rId102" xr:uid="{A5286CD5-B399-4B45-9E19-8718EA112BF1}"/>
+    <hyperlink ref="C99" r:id="rId103" xr:uid="{B6270FBB-5501-9244-856C-1DEB36A37D84}"/>
+    <hyperlink ref="C100" r:id="rId104" xr:uid="{B6D65643-5DB7-F343-A1E5-A55B6B956BB8}"/>
+    <hyperlink ref="C101" r:id="rId105" xr:uid="{96452D0D-F3F1-8745-8631-8A0F7852D16A}"/>
+    <hyperlink ref="C109" r:id="rId106" location="citeas" xr:uid="{C04D10B0-0FA9-F445-BE31-EC4DE70D834E}"/>
+    <hyperlink ref="C110" r:id="rId107" location="citeas" xr:uid="{CC230C74-EE07-7C46-B17A-ACCF775DBDE8}"/>
+    <hyperlink ref="C112" r:id="rId108" location="citeas" xr:uid="{06FB8C15-9495-E449-B561-E61BB9E8FD11}"/>
+    <hyperlink ref="C111" r:id="rId109" xr:uid="{844BFD5C-E4F9-5543-918D-66AFB01C33D0}"/>
+    <hyperlink ref="C113" r:id="rId110" xr:uid="{B1BA645E-205C-8F43-817A-799656D71C98}"/>
+    <hyperlink ref="C114" r:id="rId111" xr:uid="{BFD41E28-FB6D-5F4F-9448-29FDFAE36686}"/>
+    <hyperlink ref="C115" r:id="rId112" xr:uid="{5ED2A37B-BF30-7C49-AD4A-0E469361C061}"/>
+    <hyperlink ref="C116" r:id="rId113" xr:uid="{F6B40874-BAC8-6D4D-9323-F3C70A5BB6F9}"/>
+    <hyperlink ref="C117" r:id="rId114" xr:uid="{8628D230-CEBD-694F-86F7-616848EFA9C3}"/>
+    <hyperlink ref="C118" r:id="rId115" xr:uid="{6377D446-A124-8C44-ABC6-24AF8B6DB560}"/>
+    <hyperlink ref="C119" r:id="rId116" xr:uid="{14262258-E8C8-CF40-AC5C-1A941722886F}"/>
+    <hyperlink ref="C120" r:id="rId117" xr:uid="{AB6B5AE7-5CA1-4A40-B776-69167303AB42}"/>
+    <hyperlink ref="C124" r:id="rId118" xr:uid="{EE0DB08F-FFC3-4846-B878-CC883B00AC44}"/>
+    <hyperlink ref="C126" r:id="rId119" xr:uid="{F3A24D7F-E2C8-494A-BE1E-F799C0E78DF4}"/>
+    <hyperlink ref="C122" r:id="rId120" xr:uid="{85957697-7A32-1A48-8499-411EEB3A3147}"/>
+    <hyperlink ref="C127" r:id="rId121" xr:uid="{3F6EA87A-C9F7-DC4A-8BD3-FE5131C4159D}"/>
+    <hyperlink ref="C125" r:id="rId122" xr:uid="{F12CB857-FCCF-B04A-A903-EEBC8A9411B2}"/>
+    <hyperlink ref="C123" r:id="rId123" xr:uid="{8CCCE43E-DF2C-4D4A-B5D6-83297DEBEF94}"/>
+    <hyperlink ref="C121" r:id="rId124" xr:uid="{E4957A97-F808-8347-AD7F-7799A2A70009}"/>
+    <hyperlink ref="C128" r:id="rId125" xr:uid="{E6662351-9C3E-6349-940A-50AECD45647B}"/>
+    <hyperlink ref="C129" r:id="rId126" xr:uid="{6B7A2D0A-AB48-814D-BCF7-CDF0AB672318}"/>
+    <hyperlink ref="C130" r:id="rId127" xr:uid="{C0684C73-25CA-4542-A3CC-83256609763C}"/>
+    <hyperlink ref="C131" r:id="rId128" xr:uid="{91DF8067-3822-8C42-ABC8-1C71B6196869}"/>
+    <hyperlink ref="C133" r:id="rId129" xr:uid="{04020D43-8DE5-E546-8169-961B529BCCB6}"/>
+    <hyperlink ref="C134" r:id="rId130" xr:uid="{21286097-A9E1-5D45-93F3-362A84D4465D}"/>
+    <hyperlink ref="C132" r:id="rId131" xr:uid="{81EB7A25-9111-1342-A147-33EECEB6361A}"/>
+    <hyperlink ref="C135" r:id="rId132" xr:uid="{BBCF364E-C341-B546-A230-46E9C0DD2E53}"/>
+    <hyperlink ref="C136" r:id="rId133" xr:uid="{DCC8D3C9-4D74-0E4B-B2F2-2FAB65907A78}"/>
+    <hyperlink ref="C138" r:id="rId134" xr:uid="{7AB101C9-C9C3-4040-BBEE-5582FD6F7FFE}"/>
+    <hyperlink ref="C139" r:id="rId135" xr:uid="{B354BFDD-D615-544C-95EB-4ED718BEF648}"/>
+    <hyperlink ref="C140" r:id="rId136" xr:uid="{DD2C8688-5231-2A44-A6C0-77F0670FF759}"/>
+    <hyperlink ref="C141" r:id="rId137" xr:uid="{827C182E-9616-B843-A2A8-0562723B467B}"/>
+    <hyperlink ref="C137" r:id="rId138" xr:uid="{EFA8BA96-62AF-1B4E-8E88-8949532A11C1}"/>
+    <hyperlink ref="C142" r:id="rId139" xr:uid="{F2E5DE4A-D983-E742-B050-AA8E841AC532}"/>
+    <hyperlink ref="C143" r:id="rId140" xr:uid="{D6963D59-0755-7240-967E-0D8926C6C1CD}"/>
+    <hyperlink ref="C144" r:id="rId141" xr:uid="{90B49314-E1DA-6C46-96D5-A0C5E629936A}"/>
+    <hyperlink ref="C147" r:id="rId142" xr:uid="{ABB8E741-61ED-6542-94C6-0AEAFA870BE1}"/>
+    <hyperlink ref="C145" r:id="rId143" xr:uid="{2776234D-D8F4-FD47-A1D2-CCCC6A677AC8}"/>
+    <hyperlink ref="C146" r:id="rId144" xr:uid="{E2C742D7-2EF2-C14A-91B6-D032909828EE}"/>
+    <hyperlink ref="C148" r:id="rId145" xr:uid="{12D320C0-82AE-074D-A78B-A9B7530F65BB}"/>
+    <hyperlink ref="C149" r:id="rId146" xr:uid="{3DECE334-C02E-5443-9BE4-27BE4C5F649F}"/>
+    <hyperlink ref="C150" r:id="rId147" xr:uid="{DA666082-F26D-6A42-B7DF-3A3773D141EE}"/>
+    <hyperlink ref="C151" r:id="rId148" xr:uid="{6E1845B6-4C45-B240-92C2-C9E177980429}"/>
+    <hyperlink ref="C152" r:id="rId149" xr:uid="{0B9295B3-1F82-3E41-BB00-1AD614A66DB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8707,8 +10277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C48A7A-8BD0-CF4B-BE42-71F225EF32B1}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="G1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8795,7 +10365,7 @@
       <c r="K2" s="2">
         <v>138</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -8831,7 +10401,7 @@
       <c r="K3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -8849,10 +10419,10 @@
       <c r="E4" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="24" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="38" t="s">
@@ -8861,13 +10431,13 @@
       <c r="I4" s="12">
         <v>2022</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="20" t="s">
         <v>183</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L4" s="49"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -8883,45 +10453,67 @@
         <v>318</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F5" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>352</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>355</v>
       </c>
       <c r="I5" s="12">
         <v>2022</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K5" s="2">
         <v>180</v>
       </c>
-      <c r="L5" s="49" t="s">
-        <v>354</v>
+      <c r="L5" s="40" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="49"/>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2022</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -8937,7 +10529,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="49"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -8953,7 +10545,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="49"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -8969,7 +10561,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="49"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -8985,7 +10577,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="49"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -9001,7 +10593,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="49"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -9017,7 +10609,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="49"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -9033,7 +10625,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="49"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -9049,7 +10641,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="49"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -9065,7 +10657,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="49"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -9081,7 +10673,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="49"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -9097,7 +10689,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="49"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -9113,7 +10705,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="49"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -9129,7 +10721,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -9145,7 +10737,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="49"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -9161,7 +10753,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="49"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -9177,7 +10769,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="49"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -9193,7 +10785,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -9209,7 +10801,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="49"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -9225,7 +10817,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="49"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -9241,7 +10833,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="49"/>
+      <c r="L26" s="40"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -9257,7 +10849,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="49"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -9306,6 +10898,7 @@
     <hyperlink ref="E3" r:id="rId3" location="citeas" xr:uid="{07E69061-CE02-E748-B7A9-A7251E39A28C}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{DA54CC3D-E2C6-814C-8135-ED7908FDC10E}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{CD036F67-6E04-E043-A191-F6F8C841A3A0}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{972E71EE-38C7-2848-B599-01D8A0B345FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9809,21 +11402,21 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="54" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="45" customWidth="1"/>
     <col min="4" max="4" width="35.83203125" customWidth="1"/>
     <col min="5" max="5" width="43.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" style="50" customWidth="1"/>
+    <col min="7" max="7" width="12" style="41" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="50"/>
-    <col min="10" max="12" width="10.83203125" style="54"/>
+    <col min="9" max="9" width="10.83203125" style="41"/>
+    <col min="10" max="12" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -9868,31 +11461,31 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="24" t="s">
         <v>182</v>
       </c>
       <c r="G2" s="2">
         <v>2022</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="23" t="s">
         <v>183</v>
       </c>
       <c r="I2" s="2">
         <v>46</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="24" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="23" t="s">
@@ -9944,31 +11537,31 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="24" t="s">
         <v>182</v>
       </c>
       <c r="G4" s="2">
         <v>2022</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="23" t="s">
         <v>183</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="24" t="s">
         <v>61</v>
       </c>
       <c r="K4" s="23" t="s">
@@ -10032,7 +11625,7 @@
       <c r="E6" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="24" t="s">
         <v>281</v>
       </c>
       <c r="G6" s="12">
@@ -10062,36 +11655,36 @@
         <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D7" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>355</v>
       </c>
       <c r="G7" s="2">
         <v>2022</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I7" s="2">
         <v>181</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="K7" s="36" t="s">
-        <v>357</v>
-      </c>
       <c r="L7" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" s="58"/>
+        <v>350</v>
+      </c>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -10101,67 +11694,111 @@
         <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D8" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>355</v>
       </c>
       <c r="G8" s="2">
         <v>2022</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I8" s="2">
         <v>181</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>357</v>
-      </c>
       <c r="L8" s="29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -10217,7 +11854,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10478,6 +12115,8 @@
     <hyperlink ref="L6" r:id="rId5" xr:uid="{3A21678B-4010-524D-8739-A747369A8F56}"/>
     <hyperlink ref="L7" r:id="rId6" xr:uid="{AE51CA91-AF80-9646-BB01-F250AA3ECF70}"/>
     <hyperlink ref="L8" r:id="rId7" xr:uid="{9D945A69-59B2-844C-BB89-267FDD954506}"/>
+    <hyperlink ref="L9" r:id="rId8" location="citeas" xr:uid="{E93028B3-D238-D84E-856F-FE78DE64030A}"/>
+    <hyperlink ref="L10" r:id="rId9" location="citeas" xr:uid="{CAEA1B2E-B154-6643-A49E-03F3EC750188}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555D7E2-7C81-CA4F-B08D-7B7A0D87DF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F677721-11D5-0043-B162-59F7D099FE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="67500" windowHeight="10940" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="67420" windowHeight="10940" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="636">
   <si>
     <t>Nr</t>
   </si>
@@ -1518,9 +1518,6 @@
     <t>Umkreis</t>
   </si>
   <si>
-    <t>4, 6</t>
-  </si>
-  <si>
     <t>Umkugel</t>
   </si>
   <si>
@@ -1549,6 +1546,408 @@
   </si>
   <si>
     <t>194</t>
+  </si>
+  <si>
+    <t>162-163</t>
+  </si>
+  <si>
+    <t>Dreidimensionales Mesh mit Tetraeder und Umkugel</t>
+  </si>
+  <si>
+    <t>mesh_tetraeder_umkugel.svg</t>
+  </si>
+  <si>
+    <t>https://www.google.de/books/edition/Computational_Engineering_Introduction_t/bEw5EAAAQBAJ?hl=de&amp;gbpv=1</t>
+  </si>
+  <si>
+    <t>Schematischer Ablauf des Bowyer-Watson Algorithmus</t>
+  </si>
+  <si>
+    <t>delaunay_triangulation_1.svg; delaunay_triangulation_2.svg</t>
+  </si>
+  <si>
+    <t>Schäfer, M.</t>
+  </si>
+  <si>
+    <t>Schäfer, Michael</t>
+  </si>
+  <si>
+    <t>77-79</t>
+  </si>
+  <si>
+    <t>Computational Engineering - Introduction to Numerical Methods</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>9783030760274</t>
+  </si>
+  <si>
+    <t>4, 6-7</t>
+  </si>
+  <si>
+    <t>Gesamtvolumen eines 3D Meshs</t>
+  </si>
+  <si>
+    <t>Berechnung des Gesamtvolumens eines 3D Meshs</t>
+  </si>
+  <si>
+    <t>Berechnung des Volumens eines Tetraeders</t>
+  </si>
+  <si>
+    <t>Weisstein, Eric W.</t>
+  </si>
+  <si>
+    <t>Weisstein, E.</t>
+  </si>
+  <si>
+    <t>MathWorld--A Wolfram Web Resource.</t>
+  </si>
+  <si>
+    <t>o. S.</t>
+  </si>
+  <si>
+    <t>Tetrahedron</t>
+  </si>
+  <si>
+    <t>https://mathworld.wolfram.com/Tetrahedron.html</t>
+  </si>
+  <si>
+    <t>793-796</t>
+  </si>
+  <si>
+    <t>2018_Differenzmethode_Volume_estimation_of_strawberries_mushrooms_and_to.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/327132182_Volume_estimation_of_strawberries_mushrooms_and_tomatoes_with_a_machine_vision_system</t>
+  </si>
+  <si>
+    <t>Differenzmethode</t>
+  </si>
+  <si>
+    <t>Volume estimation of strawberries, mushrooms, and tomatoes with a machine vision system</t>
+  </si>
+  <si>
+    <t>Concha-Meyer, Aníbal; Eifert, Joseph; Wang, Hengjian; Sanglay, Gabriel</t>
+  </si>
+  <si>
+    <t>Concha-Meyer, A. et al.</t>
+  </si>
+  <si>
+    <t>10.1080/10942912.2018.1508156</t>
+  </si>
+  <si>
+    <t>International Journal of Food Properties, vol. 21, no. 1</t>
+  </si>
+  <si>
+    <t>1868-1869</t>
+  </si>
+  <si>
+    <t>2017_ManualforBuildingTreeVolumeandBiomassAllometricEquationforBangladesh.pdf</t>
+  </si>
+  <si>
+    <t>Hossain, Mahmood; Siddique, Mohammad Raqibul Hasan; Abdullah, S.M.R.; Akhter, Mariam; SMZ, Islam</t>
+  </si>
+  <si>
+    <t>Bangladesh Forest Department</t>
+  </si>
+  <si>
+    <t>differenzmethode.svg</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/322593979_MANUAL_FOR_BUILDING_TREE_VOLUME_AND_BIOMASS_ALLOMETRIC_EQUATION_FOR_BANGLADESH</t>
+  </si>
+  <si>
+    <t>Hossain, M. et al.</t>
+  </si>
+  <si>
+    <t>978-984-34-2711-3</t>
+  </si>
+  <si>
+    <t>Manual for building tree volume and biomass allometric equation for bangladesh</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>Photogrammetry-Based Volume Measurement Framework for the Particle Density Estimation of LECA</t>
+  </si>
+  <si>
+    <t>2022_Differenzmethode_Archimedes.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1996-1944/15/15/5388</t>
+  </si>
+  <si>
+    <t>10.3390/ma15155388</t>
+  </si>
+  <si>
+    <t>Brzeziński, Karol; Duda, Adam; Styk, Adam; Kowaluk, Tomasz</t>
+  </si>
+  <si>
+    <t>Brzeziński, K. et al.</t>
+  </si>
+  <si>
+    <t>MDPI, Materials, vol. 15, no. 15</t>
+  </si>
+  <si>
+    <t>Bundle Adjustment - A Modern Synthesis</t>
+  </si>
+  <si>
+    <t>10.1007/3-540-44480-7_21</t>
+  </si>
+  <si>
+    <t>Triggs, Bill; McLauchlan, Philip F.; Hartley, Richard; Fitzgibbon, Andrew William</t>
+  </si>
+  <si>
+    <t>Triggs, B. et al.</t>
+  </si>
+  <si>
+    <t>Triggs, B., Zisserman, A., Szeliski, R. (eds) Vision Algorithms: Theory and Practice. IWVA 1999. Lecture Notes in Computer Science, vol 1883. Springer, Berlin, Heidelberg</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/3-540-44480-7_21#citeas</t>
+  </si>
+  <si>
+    <t>2000_Triggs.pdf</t>
+  </si>
+  <si>
+    <t>298-300</t>
+  </si>
+  <si>
+    <t>bundle adjustment</t>
+  </si>
+  <si>
+    <t>299, 304-305</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/11744023_32</t>
+  </si>
+  <si>
+    <t>Primärquelle_SURF.pdf</t>
+  </si>
+  <si>
+    <t>SURF: Speeded Up Robust Features</t>
+  </si>
+  <si>
+    <t>SURF</t>
+  </si>
+  <si>
+    <t>10.1007/11744023_32</t>
+  </si>
+  <si>
+    <t>Bay, Herbert; Tuytelaars, Tinne; Van Gool, Luc</t>
+  </si>
+  <si>
+    <t>Bay, H. et al.</t>
+  </si>
+  <si>
+    <t>Leonardis, A., Bischof, H., Pinz, A. (eds) Computer Vision – ECCV 2006. ECCV 2006. Lecture Notes in Computer Science, vol 3951. Springer, Berlin, Heidelberg</t>
+  </si>
+  <si>
+    <t>978-3-540-33832-1</t>
+  </si>
+  <si>
+    <t>404-417</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>2D object recognition: a comparative analysis of SIFT, SURF and ORB feature descriptors</t>
+  </si>
+  <si>
+    <t>SIFT_vs_SURF_vs_ORB.pdf</t>
+  </si>
+  <si>
+    <t>Bansal, Monika; Kumar, Munish; Kumar, Manish</t>
+  </si>
+  <si>
+    <t>Bansal, M. et al.</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-021-10646-0</t>
+  </si>
+  <si>
+    <t>SIFT vs. SURF</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11042-021-10646-0</t>
+  </si>
+  <si>
+    <t>Multimedia Tools and Applications, vol. 80</t>
+  </si>
+  <si>
+    <t>18843-18844</t>
+  </si>
+  <si>
+    <t>Accurate, Dense, and Robust Multiview Stereopsis</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/44683582_Accurate_Dense_and_Robust_Multiview_Stereopsis</t>
+  </si>
+  <si>
+    <t>PMVS</t>
+  </si>
+  <si>
+    <t>2010_PMVS.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/TPAMI.2009.161</t>
+  </si>
+  <si>
+    <t>Furukawa, Yasutaka; Ponce, Jean</t>
+  </si>
+  <si>
+    <t>Furukawa, Y.; Ponce, J.</t>
+  </si>
+  <si>
+    <t>IEEE transactions on pattern analysis and machine intelligence, vol. 32, no. 8</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1, 3-4</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2076-3417/12/9/4581</t>
+  </si>
+  <si>
+    <t>applsci-12-04581-v3.pdf</t>
+  </si>
+  <si>
+    <t>Multi-Scale Upsampling GAN Based Hole-Filling Framework for High-Quality 3D Cultural Heritage Artifacts</t>
+  </si>
+  <si>
+    <t>hole filling methods</t>
+  </si>
+  <si>
+    <t>10.3390/app12094581</t>
+  </si>
+  <si>
+    <t>MDPI, Applied Sciences, vol. 12, no. 9</t>
+  </si>
+  <si>
+    <t>Ren, Yong; Chu, Tong; Jiao, Yifei; Zhou, Mingquan; Geng, Guohua; Li, Kang; Cao, Xin</t>
+  </si>
+  <si>
+    <t>Ren, Y. et al.</t>
+  </si>
+  <si>
+    <t>Wang, Xinying; Xu, Dikai; Gu, Fangming</t>
+  </si>
+  <si>
+    <t>Wang, X. et al.</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2020.3024288</t>
+  </si>
+  <si>
+    <t>3D-DCGAN</t>
+  </si>
+  <si>
+    <t>3D Model Inpainting Based on 3D Deep Convolutional Generative Adversarial Network</t>
+  </si>
+  <si>
+    <t>3D_Model_Inpainting_Based_on_3D_Deep_Convolutional_Generative_Adversarial_Network.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9197608</t>
+  </si>
+  <si>
+    <t>IEEE Access, vol. 8</t>
+  </si>
+  <si>
+    <t>170355-170363</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>MU-GAN</t>
+  </si>
+  <si>
+    <t>170355-170356</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/videos/wwdc2021/?q=object%20capture</t>
+  </si>
+  <si>
+    <t>WWDC21</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/RealityKit/capturing-photographs-for-realitykit-object-capture</t>
+  </si>
+  <si>
+    <t>RealityKit Object Capture</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/augmented-reality/</t>
+  </si>
+  <si>
+    <t>Dive into the world of augmented reality.</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>A Head-Mounted Three Dimensional Display</t>
+  </si>
+  <si>
+    <t>Sutherland, Ivan E.</t>
+  </si>
+  <si>
+    <t>Sutherland, I.</t>
+  </si>
+  <si>
+    <t>10.1145/1476589.1476686</t>
+  </si>
+  <si>
+    <t>Primärquelle_1968_Ivan.pdf</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/1476589.1476686</t>
+  </si>
+  <si>
+    <t>Association for Computing Machinery, USA, New York</t>
+  </si>
+  <si>
+    <t>9781450378994</t>
+  </si>
+  <si>
+    <t>757-764</t>
+  </si>
+  <si>
+    <t>2022_AR.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2073-431X/11/2/28</t>
+  </si>
+  <si>
+    <t>An Overview of Augmented Reality</t>
+  </si>
+  <si>
+    <t>10.3390/computers11020028</t>
+  </si>
+  <si>
+    <t>Arena, Fabio; Collotta, Mario; Pau, Giovanni; Termine, Francesco</t>
+  </si>
+  <si>
+    <t>Arena, F. et al.</t>
+  </si>
+  <si>
+    <t>MDPI, Computers, vol. 11, no. 2</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/augmented-reality/object-capture/</t>
+  </si>
+  <si>
+    <t>Introducing Object Capture</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +2039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1698,12 +2097,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1839,6 +2249,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2156,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="145" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8734,11 +9155,11 @@
         <v>2021</v>
       </c>
       <c r="M145" s="23" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="N145" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Liu, Y.; Zheng, Y., Umkreis, 2021, S. 4, 6.</v>
+        <v>Vgl. Liu, Y.; Zheng, Y., Umkreis, 2021, S. 4, 6-7.</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -8758,7 +9179,7 @@
         <v>447</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G146" s="24" t="s">
         <v>15</v>
@@ -8839,37 +9260,37 @@
         <v>51</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F148" s="24" t="s">
         <v>468</v>
       </c>
       <c r="G148" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="H148" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="J148" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="H148" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="I148" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="J148" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K148" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="L148" s="21">
         <v>1984</v>
       </c>
       <c r="M148" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N148" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8884,37 +9305,37 @@
         <v>51</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F149" s="24" t="s">
         <v>468</v>
       </c>
       <c r="G149" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="I149" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="J149" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="H149" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="I149" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="J149" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K149" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="L149" s="21">
         <v>1984</v>
       </c>
       <c r="M149" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N149" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9019,37 +9440,37 @@
         <v>51</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F152" s="24" t="s">
         <v>468</v>
       </c>
       <c r="G152" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="J152" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="H152" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="I152" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="J152" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K152" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="L152" s="21">
         <v>1984</v>
       </c>
       <c r="M152" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N152" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9060,840 +9481,1806 @@
       <c r="A153" s="14">
         <v>152</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="23"/>
+      <c r="B153" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I153" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J153" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K153" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="L153" s="21">
+        <v>1981</v>
+      </c>
+      <c r="M153" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="N153" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Bowyer, A., Bowyer-Watson Algorithmus, 1981, S. 162-163.</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>153</v>
       </c>
-      <c r="B154" s="21"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="24"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="24"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="23"/>
+      <c r="B154" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="G154" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="I154" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="J154" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K154" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="L154" s="21">
+        <v>1934</v>
+      </c>
+      <c r="M154" s="23" t="s">
+        <v>524</v>
+      </c>
       <c r="N154" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Delaunay, B., Delaunay-Triangulation, 1934, S. 793-796.</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>154</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="25"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="21"/>
-      <c r="M155" s="23"/>
+      <c r="B155" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I155" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J155" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K155" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="L155" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M155" s="23" t="s">
+        <v>268</v>
+      </c>
       <c r="N155" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Liu, Y.; Zheng, Y., Gesamtvolumen eines 3D Meshs, 2021, S. 3.</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>155</v>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="23"/>
+      <c r="B156" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F156" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="G156" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H156" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J156" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K156" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="L156" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M156" s="23" t="s">
+        <v>268</v>
+      </c>
       <c r="N156" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Liu, Y.; Zheng, Y., Gesamtvolumen eines 3D Meshs, 2021, S. 3.</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>156</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="24"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="23"/>
+      <c r="B157" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I157" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="J157" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="L157" s="21">
+        <v>2018</v>
+      </c>
+      <c r="M157" s="23" t="s">
+        <v>533</v>
+      </c>
       <c r="N157" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Concha-Meyer, A. et al., Differenzmethode, 2018, S. 1868-1869.</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>157</v>
       </c>
-      <c r="B158" s="21"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="25"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="23"/>
+      <c r="B158" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G158" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H158" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I158" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="J158" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="L158" s="21">
+        <v>2018</v>
+      </c>
+      <c r="M158" s="23" t="s">
+        <v>533</v>
+      </c>
       <c r="N158" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Concha-Meyer, A. et al., Differenzmethode, 2018, S. 1868-1869.</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>158</v>
       </c>
-      <c r="B159" s="21"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="25"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="21"/>
-      <c r="M159" s="23"/>
+      <c r="B159" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D159" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H159" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I159" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="J159" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="L159" s="21">
+        <v>2018</v>
+      </c>
+      <c r="M159" s="23" t="s">
+        <v>533</v>
+      </c>
       <c r="N159" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Concha-Meyer, A. et al., Differenzmethode, 2018, S. 1868-1869.</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
         <v>159</v>
       </c>
-      <c r="B160" s="21"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="23"/>
+      <c r="B160" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G160" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H160" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I160" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="J160" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="L160" s="21">
+        <v>2018</v>
+      </c>
+      <c r="M160" s="23" t="s">
+        <v>533</v>
+      </c>
       <c r="N160" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Concha-Meyer, A. et al., Differenzmethode, 2018, S. 1868-1869.</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>160</v>
       </c>
-      <c r="B161" s="21"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="23"/>
+      <c r="B161" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="F161" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="H161" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="I161" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="J161" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K161" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="L161" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M161" s="23" t="s">
+        <v>542</v>
+      </c>
       <c r="N161" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Brzeziński, K. et al., Differenzmethode, 2022, S. 7-8.</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>161</v>
       </c>
-      <c r="B162" s="21"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="25"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="23"/>
+      <c r="B162" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F162" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G162" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H162" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I162" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="J162" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K162" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="L162" s="21">
+        <v>2018</v>
+      </c>
+      <c r="M162" s="23" t="s">
+        <v>533</v>
+      </c>
       <c r="N162" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Concha-Meyer, A. et al., Differenzmethode, 2018, S. 1868-1869.</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
         <v>162</v>
       </c>
-      <c r="B163" s="21"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="25"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="21"/>
-      <c r="M163" s="23"/>
+      <c r="B163" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="I163" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="J163" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K163" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="L163" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M163" s="23" t="s">
+        <v>557</v>
+      </c>
       <c r="N163" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Triggs, B. et al., bundle adjustment, 2000, S. 298-300.</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>163</v>
       </c>
-      <c r="B164" s="21"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="25"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="21"/>
-      <c r="M164" s="23"/>
+      <c r="B164" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="G164" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="H164" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="I164" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="J164" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K164" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="L164" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M164" s="23" t="s">
+        <v>557</v>
+      </c>
       <c r="N164" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Triggs, B. et al., bundle adjustment, 2000, S. 298-300.</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="14">
         <v>164</v>
       </c>
-      <c r="B165" s="21"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="25"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="21"/>
-      <c r="M165" s="23"/>
+      <c r="B165" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="H165" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="I165" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="J165" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K165" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="L165" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M165" s="23" t="s">
+        <v>559</v>
+      </c>
       <c r="N165" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Triggs, B. et al., bundle adjustment, 2000, S. 299, 304-305.</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
         <v>165</v>
       </c>
-      <c r="B166" s="21"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="25"/>
-      <c r="K166" s="24"/>
-      <c r="L166" s="21"/>
-      <c r="M166" s="23"/>
+      <c r="B166" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="E166" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="F166" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="G166" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="H166" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="I166" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="J166" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K166" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="L166" s="21">
+        <v>2006</v>
+      </c>
+      <c r="M166" s="23" t="s">
+        <v>569</v>
+      </c>
       <c r="N166" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Bay, H. et al., SURF, 2006, S. 404-417.</v>
+      </c>
+      <c r="O166" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>166</v>
       </c>
-      <c r="B167" s="21"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="25"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="23"/>
+      <c r="B167" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="I167" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="J167" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K167" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="L167" s="21">
+        <v>2006</v>
+      </c>
+      <c r="M167" s="23" t="s">
+        <v>570</v>
+      </c>
       <c r="N167" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Bay, H. et al., SURF, 2006, S. 404.</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14">
         <v>167</v>
       </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="25"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="21"/>
-      <c r="M168" s="23"/>
+      <c r="B168" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="E168" s="47" t="s">
+        <v>571</v>
+      </c>
+      <c r="F168" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="G168" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="H168" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="I168" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="J168" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K168" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="L168" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M168" s="23" t="s">
+        <v>579</v>
+      </c>
       <c r="N168" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Bansal, M. et al., SIFT vs. SURF, 2021, S. 18843-18844.</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>168</v>
       </c>
-      <c r="B169" s="21"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="25"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="21"/>
-      <c r="M169" s="23"/>
+      <c r="B169" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="E169" s="47" t="s">
+        <v>571</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="G169" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="H169" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="I169" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="J169" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K169" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="L169" s="21">
+        <v>2021</v>
+      </c>
+      <c r="M169" s="23" t="s">
+        <v>579</v>
+      </c>
       <c r="N169" s="17" t="str">
         <f t="shared" ref="N169:N202" si="6">"Vgl. "&amp;H169&amp;", "&amp;F169&amp;", "&amp;L169&amp;", S. "&amp;M169&amp;"."</f>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Bansal, M. et al., SIFT vs. SURF, 2021, S. 18843-18844.</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>169</v>
       </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="24"/>
-      <c r="I170" s="24"/>
-      <c r="J170" s="25"/>
-      <c r="K170" s="24"/>
-      <c r="L170" s="21"/>
-      <c r="M170" s="23"/>
+      <c r="B170" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="H170" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="I170" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="J170" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K170" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="L170" s="21">
+        <v>2010</v>
+      </c>
+      <c r="M170" s="23" t="s">
+        <v>588</v>
+      </c>
       <c r="N170" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Furukawa, Y.; Ponce, J., PMVS, 2010, S. 1-8.</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="14">
         <v>170</v>
       </c>
-      <c r="B171" s="21"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="25"/>
-      <c r="K171" s="24"/>
-      <c r="L171" s="21"/>
-      <c r="M171" s="23"/>
+      <c r="B171" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="H171" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="I171" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="J171" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K171" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="L171" s="21">
+        <v>2010</v>
+      </c>
+      <c r="M171" s="23" t="s">
+        <v>264</v>
+      </c>
       <c r="N171" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Furukawa, Y.; Ponce, J., PMVS, 2010, S. 1-3.</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>171</v>
       </c>
-      <c r="B172" s="21"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="24"/>
-      <c r="I172" s="24"/>
-      <c r="J172" s="25"/>
-      <c r="K172" s="24"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="23"/>
+      <c r="B172" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="G172" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="H172" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="I172" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="J172" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K172" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="L172" s="21">
+        <v>2010</v>
+      </c>
+      <c r="M172" s="23" t="s">
+        <v>589</v>
+      </c>
       <c r="N172" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Furukawa, Y.; Ponce, J., PMVS, 2010, S. 1, 3-4.</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>172</v>
       </c>
-      <c r="B173" s="21"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="24"/>
-      <c r="I173" s="24"/>
-      <c r="J173" s="25"/>
-      <c r="K173" s="24"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="23"/>
+      <c r="B173" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="G173" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="H173" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="I173" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="J173" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K173" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="L173" s="21">
+        <v>2020</v>
+      </c>
+      <c r="M173" s="23" t="s">
+        <v>609</v>
+      </c>
       <c r="N173" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Wang, X. et al., 3D-DCGAN, 2020, S. 170355-170356.</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="14">
         <v>173</v>
       </c>
-      <c r="B174" s="21"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="24"/>
-      <c r="J174" s="25"/>
-      <c r="K174" s="24"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="23"/>
+      <c r="B174" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="H174" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="I174" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="J174" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="L174" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M174" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="N174" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Ren, Y. et al., hole filling methods, 2022, S. 1.</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>174</v>
       </c>
-      <c r="B175" s="21"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="25"/>
-      <c r="K175" s="24"/>
-      <c r="L175" s="21"/>
-      <c r="M175" s="23"/>
+      <c r="B175" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="I175" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="J175" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K175" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="L175" s="21">
+        <v>2020</v>
+      </c>
+      <c r="M175" s="23" t="s">
+        <v>606</v>
+      </c>
       <c r="N175" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Wang, X. et al., 3D-DCGAN, 2020, S. 170355-170363.</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>175</v>
       </c>
-      <c r="B176" s="21"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="24"/>
-      <c r="J176" s="25"/>
-      <c r="K176" s="24"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="23"/>
+      <c r="B176" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="H176" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="I176" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="J176" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K176" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="L176" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M176" s="23" t="s">
+        <v>607</v>
+      </c>
       <c r="N176" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Ren, Y. et al., MU-GAN, 2022, S. 1-14.</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="14">
         <v>176</v>
       </c>
-      <c r="B177" s="21"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="24"/>
-      <c r="I177" s="24"/>
-      <c r="J177" s="25"/>
-      <c r="K177" s="24"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="23"/>
+      <c r="B177" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I177" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J177" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K177" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L177" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M177" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N177" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., WWDC21, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>177</v>
       </c>
-      <c r="B178" s="21"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="25"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="21"/>
-      <c r="M178" s="23"/>
+      <c r="B178" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I178" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J178" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K178" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M178" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N178" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>178</v>
       </c>
-      <c r="B179" s="21"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="25"/>
-      <c r="K179" s="24"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="23"/>
+      <c r="B179" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="G179" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I179" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J179" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K179" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L179" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M179" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N179" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., AR, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="14">
         <v>179</v>
       </c>
-      <c r="B180" s="21"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
-      <c r="H180" s="24"/>
-      <c r="I180" s="24"/>
-      <c r="J180" s="25"/>
-      <c r="K180" s="24"/>
-      <c r="L180" s="21"/>
-      <c r="M180" s="23"/>
+      <c r="B180" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C180" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="H180" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="I180" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="J180" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K180" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="L180" s="21">
+        <v>1968</v>
+      </c>
+      <c r="M180" s="23" t="s">
+        <v>626</v>
+      </c>
       <c r="N180" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Sutherland, I., AR, 1968, S. 757-764.</v>
+      </c>
+      <c r="O180" s="55" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>180</v>
       </c>
-      <c r="B181" s="21"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
-      <c r="J181" s="25"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="21"/>
-      <c r="M181" s="23"/>
+      <c r="B181" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="G181" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="H181" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="I181" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="J181" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K181" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="L181" s="21">
+        <v>2022</v>
+      </c>
+      <c r="M181" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="N181" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Arena, F. et al., AR, 2022, S. 1-2.</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>181</v>
       </c>
-      <c r="B182" s="21"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="24"/>
-      <c r="J182" s="25"/>
-      <c r="K182" s="24"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="23"/>
+      <c r="B182" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I182" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J182" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K182" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L182" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M182" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N182" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="14">
         <v>182</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="24"/>
-      <c r="I183" s="24"/>
-      <c r="J183" s="25"/>
-      <c r="K183" s="24"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="23"/>
+      <c r="B183" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G183" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J183" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K183" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L183" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M183" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N183" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>183</v>
       </c>
-      <c r="B184" s="21"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="24"/>
-      <c r="I184" s="24"/>
-      <c r="J184" s="25"/>
-      <c r="K184" s="24"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="23"/>
+      <c r="B184" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G184" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I184" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J184" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K184" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L184" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M184" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N184" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>184</v>
       </c>
-      <c r="B185" s="21"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="24"/>
-      <c r="I185" s="24"/>
-      <c r="J185" s="25"/>
-      <c r="K185" s="24"/>
-      <c r="L185" s="21"/>
-      <c r="M185" s="23"/>
+      <c r="B185" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I185" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J185" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K185" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L185" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M185" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N185" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="14">
         <v>185</v>
       </c>
-      <c r="B186" s="21"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="24"/>
-      <c r="J186" s="25"/>
-      <c r="K186" s="24"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="23"/>
+      <c r="B186" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I186" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J186" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K186" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L186" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M186" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N186" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>186</v>
       </c>
-      <c r="B187" s="21"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="24"/>
-      <c r="I187" s="24"/>
-      <c r="J187" s="25"/>
-      <c r="K187" s="24"/>
-      <c r="L187" s="21"/>
-      <c r="M187" s="23"/>
+      <c r="B187" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I187" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J187" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K187" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L187" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M187" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N187" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>187</v>
       </c>
-      <c r="B188" s="21"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="24"/>
-      <c r="I188" s="24"/>
-      <c r="J188" s="25"/>
-      <c r="K188" s="24"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="23"/>
+      <c r="B188" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F188" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G188" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I188" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J188" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K188" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L188" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M188" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N188" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="14">
         <v>188</v>
       </c>
-      <c r="B189" s="21"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="24"/>
-      <c r="I189" s="24"/>
-      <c r="J189" s="25"/>
-      <c r="K189" s="24"/>
-      <c r="L189" s="21"/>
-      <c r="M189" s="23"/>
+      <c r="B189" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I189" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J189" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K189" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L189" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M189" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N189" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="21">
         <v>189</v>
       </c>
-      <c r="B190" s="21"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="24"/>
-      <c r="I190" s="24"/>
-      <c r="J190" s="25"/>
-      <c r="K190" s="24"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="23"/>
+      <c r="B190" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F190" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I190" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J190" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K190" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L190" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M190" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N190" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="21">
         <v>190</v>
       </c>
-      <c r="B191" s="21"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="24"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="25"/>
-      <c r="K191" s="24"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="23"/>
+      <c r="B191" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G191" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I191" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J191" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K191" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L191" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M191" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N191" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="14">
         <v>191</v>
       </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="24"/>
-      <c r="I192" s="24"/>
-      <c r="J192" s="25"/>
-      <c r="K192" s="24"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="23"/>
+      <c r="B192" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G192" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I192" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J192" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="K192" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L192" s="21">
+        <v>2023</v>
+      </c>
+      <c r="M192" s="23" t="s">
+        <v>521</v>
+      </c>
       <c r="N192" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl. , , , S. .</v>
+        <v>Vgl. Apple Inc., RealityKit Object Capture, 2023, S. o. S..</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -10267,6 +11654,46 @@
     <hyperlink ref="C150" r:id="rId147" xr:uid="{DA666082-F26D-6A42-B7DF-3A3773D141EE}"/>
     <hyperlink ref="C151" r:id="rId148" xr:uid="{6E1845B6-4C45-B240-92C2-C9E177980429}"/>
     <hyperlink ref="C152" r:id="rId149" xr:uid="{0B9295B3-1F82-3E41-BB00-1AD614A66DB0}"/>
+    <hyperlink ref="C153" r:id="rId150" xr:uid="{E54EA9E0-C4EA-8242-A765-EC84D3E3A048}"/>
+    <hyperlink ref="C156" r:id="rId151" xr:uid="{CECDAC76-BFA6-9649-9F6C-1275D55950DD}"/>
+    <hyperlink ref="C155" r:id="rId152" xr:uid="{593CA1D9-8B27-DD49-9EDB-DE4FE444FA88}"/>
+    <hyperlink ref="C154" r:id="rId153" xr:uid="{38A42C96-E847-674C-850C-EBEAB933D601}"/>
+    <hyperlink ref="C159" r:id="rId154" xr:uid="{6F6FF947-047F-7C41-88B3-65286682D3AE}"/>
+    <hyperlink ref="C157" r:id="rId155" xr:uid="{4CF9D765-7499-864E-8091-24A550C2F96F}"/>
+    <hyperlink ref="C158" r:id="rId156" xr:uid="{D09399FF-90C2-274B-9127-1241D3F2A96F}"/>
+    <hyperlink ref="C160" r:id="rId157" xr:uid="{29C29B04-FC6A-FA4C-838D-5C56C7FA579D}"/>
+    <hyperlink ref="C162" r:id="rId158" xr:uid="{0D1BF240-A589-DD46-AB4F-D5FB8CAAE3DC}"/>
+    <hyperlink ref="C161" r:id="rId159" xr:uid="{0A3E6E3D-121A-7646-A301-0DC4A5483518}"/>
+    <hyperlink ref="C163" r:id="rId160" location="citeas" xr:uid="{D0CB4034-BD6B-E146-8697-EE26E18FFFE9}"/>
+    <hyperlink ref="C164" r:id="rId161" location="citeas" xr:uid="{469FFD05-E43C-5B46-A15C-06225E5D5024}"/>
+    <hyperlink ref="C165" r:id="rId162" location="citeas" xr:uid="{87B58E25-7AB4-A440-85D2-6C40BAA3425A}"/>
+    <hyperlink ref="C166" r:id="rId163" xr:uid="{BE62531B-E371-6542-84B6-363A60E44A57}"/>
+    <hyperlink ref="C167" r:id="rId164" xr:uid="{6FBF000E-C4B0-7E41-9999-2DA7A2A8FC3A}"/>
+    <hyperlink ref="C168" r:id="rId165" xr:uid="{55C84FDA-174B-E841-AA6D-A81DD65534ED}"/>
+    <hyperlink ref="C169" r:id="rId166" xr:uid="{70D01F60-433A-3F43-A56E-2E02D6F45870}"/>
+    <hyperlink ref="C170" r:id="rId167" xr:uid="{F3971876-1FC8-0B45-BF8E-C4812B651555}"/>
+    <hyperlink ref="C171" r:id="rId168" xr:uid="{CCFB26C5-B7F3-2745-9412-7B5BF5794848}"/>
+    <hyperlink ref="C172" r:id="rId169" xr:uid="{A140097F-DC7A-DD41-9A5C-22F61542BDF0}"/>
+    <hyperlink ref="C174" r:id="rId170" xr:uid="{1BB87E92-5C5A-4B49-ABFC-B300C3FB49DF}"/>
+    <hyperlink ref="C175" r:id="rId171" xr:uid="{E5A96435-2B65-1C4B-BC01-C7A2F3B6CBBE}"/>
+    <hyperlink ref="C176" r:id="rId172" xr:uid="{126BB29F-4D1F-1649-8C5D-DC5DAB5302C0}"/>
+    <hyperlink ref="C173" r:id="rId173" xr:uid="{47C23292-AC8D-AC48-8BE4-6DEA26C292C7}"/>
+    <hyperlink ref="C177" r:id="rId174" xr:uid="{46CDA66F-1188-E141-BB82-2713DF20651D}"/>
+    <hyperlink ref="C178" r:id="rId175" xr:uid="{9C50888C-D413-EE4C-9F84-15D7B6E33D40}"/>
+    <hyperlink ref="C179" r:id="rId176" xr:uid="{75EB647A-AE8E-0240-B507-BEF427BBE2F8}"/>
+    <hyperlink ref="C180" r:id="rId177" xr:uid="{4D117CD9-F7A8-AC42-A63A-194013A4122E}"/>
+    <hyperlink ref="C181" r:id="rId178" xr:uid="{549EA58B-D42F-DD47-BDB4-A2F91E82EEF2}"/>
+    <hyperlink ref="C182" r:id="rId179" xr:uid="{935C9F91-9341-3740-BAD9-82ABDDE8FB36}"/>
+    <hyperlink ref="C183" r:id="rId180" xr:uid="{0542D0C3-4E9E-884D-B8B8-977C3F5FF3A3}"/>
+    <hyperlink ref="C184" r:id="rId181" xr:uid="{DDA39FC2-0F09-F142-9CE6-C6FC4F7994CE}"/>
+    <hyperlink ref="C185" r:id="rId182" xr:uid="{D35AA936-4345-9346-A674-231B5B02F908}"/>
+    <hyperlink ref="C186" r:id="rId183" xr:uid="{BBEAC91B-4FDB-5947-BD92-23B98725E477}"/>
+    <hyperlink ref="C187" r:id="rId184" xr:uid="{FE919FD4-4438-1E4B-B095-D8B0ED810ACD}"/>
+    <hyperlink ref="C188" r:id="rId185" xr:uid="{BB168FB2-044C-D948-AF09-8DE988FDE904}"/>
+    <hyperlink ref="C189" r:id="rId186" xr:uid="{3B0FDD7F-59E4-8F49-883C-58094FFF77AC}"/>
+    <hyperlink ref="C190" r:id="rId187" xr:uid="{662A0FB8-DF8B-074A-A351-CC58E416740D}"/>
+    <hyperlink ref="C191" r:id="rId188" xr:uid="{121DF433-ECA7-EA47-8E80-CF6833C1A7F6}"/>
+    <hyperlink ref="C192" r:id="rId189" xr:uid="{53EDC8CE-2062-384B-BB8D-D56A8FD9B829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10275,10 +11702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C48A7A-8BD0-CF4B-BE42-71F225EF32B1}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10291,9 +11718,11 @@
     <col min="8" max="8" width="30.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="40.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10330,18 +11759,24 @@
       <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -10367,17 +11802,17 @@
       </c>
       <c r="L2" s="40"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>270</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -10403,17 +11838,17 @@
       </c>
       <c r="L3" s="40"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>284</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -10439,17 +11874,17 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>318</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -10477,17 +11912,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>419</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -10515,77 +11950,155 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2021</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1981</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" s="2">
+        <v>166</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2017</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="K9" s="2">
+        <v>36</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>541</v>
+      </c>
+      <c r="N9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="40"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="9"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10595,7 +12108,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10611,7 +12124,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10627,7 +12140,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10643,7 +12156,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10659,7 +12172,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10899,6 +12412,9 @@
     <hyperlink ref="E4" r:id="rId4" xr:uid="{DA54CC3D-E2C6-814C-8135-ED7908FDC10E}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{CD036F67-6E04-E043-A191-F6F8C841A3A0}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{972E71EE-38C7-2848-B599-01D8A0B345FB}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{50ADBD92-83B1-2045-A287-23814659131C}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{A391AB37-BA15-5346-98D0-9DA0F9B9773A}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{1DF39F88-C72C-BB44-B81F-7071CCD22EAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11401,8 +12917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC829A-15CB-4349-B67F-7F5156541E53}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11804,33 +13320,77 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2023</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2021</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -12117,6 +13677,8 @@
     <hyperlink ref="L8" r:id="rId7" xr:uid="{9D945A69-59B2-844C-BB89-267FDD954506}"/>
     <hyperlink ref="L9" r:id="rId8" location="citeas" xr:uid="{E93028B3-D238-D84E-856F-FE78DE64030A}"/>
     <hyperlink ref="L10" r:id="rId9" location="citeas" xr:uid="{CAEA1B2E-B154-6643-A49E-03F3EC750188}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{050392BF-DD43-FC4E-BFDA-AD8D5D5B0855}"/>
+    <hyperlink ref="L11" r:id="rId11" xr:uid="{65CE9CE3-F67C-7045-A1B6-F858124A3CA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC508C2C-90E5-8447-985D-673FD4F38FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56AFFA-D0B2-C247-8D9A-58A4540CA188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="67540" windowHeight="20900" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="35320" yWindow="500" windowWidth="33480" windowHeight="28300" activeTab="5" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
     <sheet name="Abbildungen" sheetId="2" r:id="rId2"/>
     <sheet name="Tabellen" sheetId="3" r:id="rId3"/>
     <sheet name="Formeln" sheetId="4" r:id="rId4"/>
+    <sheet name="Kombinationen" sheetId="5" r:id="rId5"/>
+    <sheet name="Suchbegriffe" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$N$24</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="998">
   <si>
     <t>Nr</t>
   </si>
@@ -2659,13 +2661,541 @@
   </si>
   <si>
     <t>ISBN 978-3-030-37628-4</t>
+  </si>
+  <si>
+    <t>Begründung</t>
+  </si>
+  <si>
+    <t>Suchabfrage</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>computer vision</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>portion; size</t>
+  </si>
+  <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>dietary</t>
+  </si>
+  <si>
+    <t>reconstruction</t>
+  </si>
+  <si>
+    <t>Synonyme (absteigend sortiert nach Häufigkeit)</t>
+  </si>
+  <si>
+    <t>imaging; photograph</t>
+  </si>
+  <si>
+    <t>intake; nutritional value; food value</t>
+  </si>
+  <si>
+    <t>Fachlich</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für fachlichen Fokus auf Volumenbestimmung von Lebensmitteln</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für fachlichen Fokus auf Nährstoffbestimmung von Lebensmitteln</t>
+  </si>
+  <si>
+    <t>Kombination gewählt, da diese
+häufig in der Suchwörter-übersicht unterhalb der Abstracts der Literaturquellen identifiziert wurde</t>
+  </si>
+  <si>
+    <t>Beispielhafte
+Suchbegriffskombinationen</t>
+  </si>
+  <si>
+    <t>Lfd.
+Nr.</t>
+  </si>
+  <si>
+    <t>diet; automatic-diet</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>stereo</t>
+  </si>
+  <si>
+    <t>binocular; two; multiple</t>
+  </si>
+  <si>
+    <t>nutriment; meal; object</t>
+  </si>
+  <si>
+    <t>vision; image understanding</t>
+  </si>
+  <si>
+    <t>Suchbegriffe</t>
+  </si>
+  <si>
+    <t>processing; transformation; extraction; synthesis</t>
+  </si>
+  <si>
+    <t>( "food" OR "nutriment" OR "object" OR "meal" )
+   AND
+( "volume" OR "portion" OR "size" )
+   AND
+( "measurement" OR "estimation" OR "assessment" )</t>
+  </si>
+  <si>
+    <t>( "calorie" OR "intake" OR "food value" )
+   AND
+( "measurement" OR "estimation" OR "assessment" )</t>
+  </si>
+  <si>
+    <t>( "dietary" OR "diet" OR "automatic-diet" )
+   AND
+( "measurement" OR "assessment" )</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche zum Thema 3D Rekonstruktion
+auf Basis von
+Tiefenkameras 
+bzw. ToF-Sensoren</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>sensor; sensors</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>deep learning; model-based; neural networks</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche zum Thema 3D Rekonstruktion
+auf Basis des
+maschinellen Lernens</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche zum Thema 3D Rekonstruktion
+auf Basis vordefinierter
+Modelle</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>food volume measurement;
+food portion estimation;
+meal size assessment;
+object size measurement</t>
+  </si>
+  <si>
+    <t>calorie measurement;
+calorie estimation;
+intake estimation;
+food value estimation</t>
+  </si>
+  <si>
+    <t>dietary measurement;
+dietary assessment;
+automatic-diet measurement;
+diet measurement</t>
+  </si>
+  <si>
+    <t>( "machine learning" OR "deep learning" )
+AND
+( "object" OR "food" )
+AND
+( "volume" OR "portion" OR "size" )
+AND
+( "3d reconstruction" OR "visual odometry" )</t>
+  </si>
+  <si>
+    <t>( "model" OR "model-based" )
+AND
+( "object" OR "food" )
+AND
+( "volume" OR "portion" OR "size" )
+AND
+( "estimation" OR "measurement" )</t>
+  </si>
+  <si>
+    <t>machine learning object volume visual odometry;
+machine learning food volume 3d reconstruction;
+deep learning food portion 3d reconstruction;
+deep learning object volume 
+visual odometry</t>
+  </si>
+  <si>
+    <t>model-based food volume estimation;
+model object volume measurement;
+model-based food portion estimation;
+model-based food size measurement</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche zum Thema 3D Rekonstruktion
+auf Basis von 
+Photogrammetrie
+Techniken</t>
+  </si>
+  <si>
+    <t>Begründung für Auswahl</t>
+  </si>
+  <si>
+    <t>view; perspective; perception</t>
+  </si>
+  <si>
+    <t>photogrammetry</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>triangulation</t>
+  </si>
+  <si>
+    <t>Technisch
+(bestehende Forschungsansätze &amp; theoretische Grundlagen)</t>
+  </si>
+  <si>
+    <t>intrinsic calibration; extrinsic calibration</t>
+  </si>
+  <si>
+    <t>food; model</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>features; pixels</t>
+  </si>
+  <si>
+    <t>epipolar geometry</t>
+  </si>
+  <si>
+    <t>depth map</t>
+  </si>
+  <si>
+    <t>disparity map</t>
+  </si>
+  <si>
+    <t>point cloud; surface structure</t>
+  </si>
+  <si>
+    <t>3d mesh</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>algorithms; techniques</t>
+  </si>
+  <si>
+    <t>depth-based; ToF; RGB-D; LiDAR</t>
+  </si>
+  <si>
+    <t>3d reconstruction; modeling; visual odometry</t>
+  </si>
+  <si>
+    <t>( "depth" OR "depth-based" OR "ToF" OR "RGB-D" )
+AND
+( "camera" OR "sensors" )
+AND
+( "object" OR "food" )
+AND
+( "volume" OR "portion" OR "size" )
+AND
+( "3d reconstruction" OR "3d modeling" )</t>
+  </si>
+  <si>
+    <t>depth camera object volume 3d reconstruction;
+depth-based camera object size 3d modeling;
+depth-based sensors food portion 3d reconstruction;
+ToF sensors food volume 3d modeling;
+RGB-D sensors food volume 
+3d reconstruction</t>
+  </si>
+  <si>
+    <t>( "stereo" OR "binocular" OR "two" OR "mulitple" )
+AND
+( "vision" OR "view" OR "perspective" OR "perception" )
+AND
+( "object" OR "food" )
+AND
+( "volume" OR "portion" OR "size" )
+AND
+( "3d reconstruction" OR "3d modeling" )</t>
+  </si>
+  <si>
+    <t>stereo vision object size 3d modeling;
+stereo view food portion 3d modeling;
+binocular vision food volume 3d reconstruction;
+two view object size 3d reconstruction;
+multiple perspective food volume 3d reconstruction</t>
+  </si>
+  <si>
+    <t>geometry; triangulation</t>
+  </si>
+  <si>
+    <t>transform; rotation; scaling; orientation</t>
+  </si>
+  <si>
+    <t>realitykit object capture</t>
+  </si>
+  <si>
+    <t>object capture</t>
+  </si>
+  <si>
+    <t>3d reconstruction from multiple images</t>
+  </si>
+  <si>
+    <t>…, da ein direkter Bezug zur Forschungsfrage besteht</t>
+  </si>
+  <si>
+    <t>…, da ein indirekter Bezug zur Forschungsfrage besteht</t>
+  </si>
+  <si>
+    <t>…, da das Thema diesen Forschungsbereich tangiert</t>
+  </si>
+  <si>
+    <t>…, da diese Technik im Detail zu betrachen ist</t>
+  </si>
+  <si>
+    <t>…, da universeller Einsatz</t>
+  </si>
+  <si>
+    <t>…, da das Thema diese Grundlage tangiert</t>
+  </si>
+  <si>
+    <t>…, da das Thema diesen Forschungsansatz tangiert</t>
+  </si>
+  <si>
+    <t>…, da ein direkter Bezug zur 3D Rekonstruktion besteht</t>
+  </si>
+  <si>
+    <t>( "food" OR "object" )
+AND
+( "volume" OR "portion" OR "size" )
+AND
+( "estimation" OR "measurement" )
+AND
+( "realitykit object capture" OR "object capture" )</t>
+  </si>
+  <si>
+    <t>food volume estimation object capture;
+food volume estimation realitykit object capture;
+object volume measurement object capture;
+object size estimation object capture</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( "computer vision" )
+AND
+( "methods" OR "techniques" OR "algorithms" )
+AND
+( "3d reconstruction" OR "photogrammetry" )
+</t>
+  </si>
+  <si>
+    <t>computer vision methods 3d reconstruction;
+computer vision techniques 3d reconstruction;
+computer vision methods 
+photogrammetry;
+computer vision algorithms photogrammetry</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( "epipolar geometry" OR "geometry" )
+AND
+( "camera calibration" OR "intrinsic calibration" OR "extrinsic calibration" ) </t>
+  </si>
+  <si>
+    <t>epipolar geometry camera calibration;
+epipolar geometry intrinsic calibration;
+epipolar geometry extrinsic calibration;
+geometry camera calibration</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche nach
+Techniken zur 3D Rekonstruktion
+im Bereich des Computer Visions
+(Grundlagen)</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche nach
+Techniken zur Kamerakalibrierung
+(Grundlagen)</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche zum Thema der 
+Forschungsfrage
+(direkter Bezug)</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>completion; arrangement</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche nach
+Techniken zur Verknüpfung von
+mehreren 3D Punktwolken / Oberflächenrekonstruktion
+(Grundlagen)</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>estimation; assessment; calculation</t>
+  </si>
+  <si>
+    <t>( "depth map" OR "disparity map" )
+AND
+( "estimation" OR "calculation" )
+AND
+( "stereo vision" OR "multiple images" )</t>
+  </si>
+  <si>
+    <t>depth map estimation stereo vision;
+disparity map calculation multiple images;
+depth map calculation stereo vision;
+disparity map estimation stereo vision</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche nach
+Techniken zur Rekonstruktion der Tiefenkarte eines Bildes auf Basis mehrerer Bilder / der Stereosicht
+(Grundlagen)</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Informationssuche 
+zur Softwareimplementierung
+Apple RealityKit
+Object Capture
+(direkter Bezug)</t>
+  </si>
+  <si>
+    <t>( "apple realitykit" OR "realitykit" )
+AND
+( "object capture" )</t>
+  </si>
+  <si>
+    <t>apple realitykit object capture;
+realitykit object capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( "3d mesh" OR "3d model" )
+AND
+( "point cloud" OR "surface" )
+AND
+( "registration" OR "completion" OR "reconstruction"
+OR "generation" ) </t>
+  </si>
+  <si>
+    <t>3d mesh point cloud registration;
+3d model surface reconstruction;
+3d mesh surface completion;
+3d model point cloud registration;
+3d mesh surface generation</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>( "delaunay triangulation" OR "triangulation"
+OR "triangulated" )
+AND
+( "mesh" OR "model" )
+AND
+( "volume calculation" )</t>
+  </si>
+  <si>
+    <t>delaunay triangulation mesh volume calculation;
+triangulated mesh volume calculation;
+triangulation model volume calculation</t>
+  </si>
+  <si>
+    <t>Kombination gewählt für 
+gezielte Literatursuche nach
+Techniken zur Berechnung des Volumens eines 3D Meshs / Modells
+(Grundlagen)</t>
+  </si>
+  <si>
+    <t>delaunay triangulation; triangulated; calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2735,8 +3265,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2749,8 +3286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF029687"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2819,12 +3362,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2983,6 +3552,68 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2990,6 +3621,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF029687"/>
+      <color rgb="FFC5E9E7"/>
+      <color rgb="FFBEDFDB"/>
+      <color rgb="FF01C2B0"/>
+      <color rgb="FF01C3B2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3300,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
   <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView topLeftCell="A131" zoomScale="145" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12675,7 +13315,7 @@
       <c r="L207" s="20"/>
       <c r="M207" s="22"/>
       <c r="N207" s="16" t="str">
-        <f t="shared" ref="N194:N209" si="4">"Vgl. "&amp;H207&amp;" ("&amp;L207&amp;"), S. "&amp;M207&amp;"."</f>
+        <f t="shared" ref="N207:N209" si="4">"Vgl. "&amp;H207&amp;" ("&amp;L207&amp;"), S. "&amp;M207&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O207" s="19"/>
@@ -12741,7 +13381,7 @@
       <c r="L210" s="20"/>
       <c r="M210" s="22"/>
       <c r="N210" s="16" t="str">
-        <f t="shared" ref="N194:N211" si="5">"Vgl. "&amp;H210&amp;" ("&amp;L210&amp;"), S. "&amp;M210&amp;"."</f>
+        <f t="shared" ref="N210:N211" si="5">"Vgl. "&amp;H210&amp;" ("&amp;L210&amp;"), S. "&amp;M210&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O210" s="19"/>
@@ -12785,7 +13425,7 @@
       <c r="L212" s="20"/>
       <c r="M212" s="22"/>
       <c r="N212" s="16" t="str">
-        <f t="shared" ref="N194:N215" si="6">"Vgl. "&amp;H212&amp;" ("&amp;L212&amp;"), S. "&amp;M212&amp;"."</f>
+        <f t="shared" ref="N212:N215" si="6">"Vgl. "&amp;H212&amp;" ("&amp;L212&amp;"), S. "&amp;M212&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O212" s="19"/>
@@ -12873,7 +13513,7 @@
       <c r="L216" s="20"/>
       <c r="M216" s="22"/>
       <c r="N216" s="16" t="str">
-        <f t="shared" ref="N194:N218" si="7">"Vgl. "&amp;H216&amp;" ("&amp;L216&amp;"), S. "&amp;M216&amp;"."</f>
+        <f t="shared" ref="N216:N218" si="7">"Vgl. "&amp;H216&amp;" ("&amp;L216&amp;"), S. "&amp;M216&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O216" s="19"/>
@@ -12939,7 +13579,7 @@
       <c r="L219" s="20"/>
       <c r="M219" s="22"/>
       <c r="N219" s="16" t="str">
-        <f t="shared" ref="N194:N220" si="8">"Vgl. "&amp;H219&amp;" ("&amp;L219&amp;"), S. "&amp;M219&amp;"."</f>
+        <f t="shared" ref="N219:N220" si="8">"Vgl. "&amp;H219&amp;" ("&amp;L219&amp;"), S. "&amp;M219&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O219" s="19"/>
@@ -12983,7 +13623,7 @@
       <c r="L221" s="20"/>
       <c r="M221" s="22"/>
       <c r="N221" s="16" t="str">
-        <f t="shared" ref="N194:N224" si="9">"Vgl. "&amp;H221&amp;" ("&amp;L221&amp;"), S. "&amp;M221&amp;"."</f>
+        <f t="shared" ref="N221:N224" si="9">"Vgl. "&amp;H221&amp;" ("&amp;L221&amp;"), S. "&amp;M221&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O221" s="19"/>
@@ -13071,7 +13711,7 @@
       <c r="L225" s="20"/>
       <c r="M225" s="22"/>
       <c r="N225" s="16" t="str">
-        <f t="shared" ref="N194:N225" si="10">"Vgl. "&amp;H225&amp;" ("&amp;L225&amp;"), S. "&amp;M225&amp;"."</f>
+        <f t="shared" ref="N225" si="10">"Vgl. "&amp;H225&amp;" ("&amp;L225&amp;"), S. "&amp;M225&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="O225" s="19"/>
@@ -15058,10 +15698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C48A7A-8BD0-CF4B-BE42-71F225EF32B1}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A31" sqref="A31:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15720,57 +16360,16 @@
       <c r="K27" s="2"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="12">
-        <v>2021</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="2">
-        <v>134</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E33" r:id="rId1" xr:uid="{A3384137-4C6C-0B40-A6E4-8001DBA63AD0}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{3F841E31-D721-CF40-9C08-5C0DF169F1CD}"/>
-    <hyperlink ref="E3" r:id="rId3" location="citeas" xr:uid="{07E69061-CE02-E748-B7A9-A7251E39A28C}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{DA54CC3D-E2C6-814C-8135-ED7908FDC10E}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{CD036F67-6E04-E043-A191-F6F8C841A3A0}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{972E71EE-38C7-2848-B599-01D8A0B345FB}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{50ADBD92-83B1-2045-A287-23814659131C}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{A391AB37-BA15-5346-98D0-9DA0F9B9773A}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{1DF39F88-C72C-BB44-B81F-7071CCD22EAB}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3F841E31-D721-CF40-9C08-5C0DF169F1CD}"/>
+    <hyperlink ref="E3" r:id="rId2" location="citeas" xr:uid="{07E69061-CE02-E748-B7A9-A7251E39A28C}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{DA54CC3D-E2C6-814C-8135-ED7908FDC10E}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{CD036F67-6E04-E043-A191-F6F8C841A3A0}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{972E71EE-38C7-2848-B599-01D8A0B345FB}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{50ADBD92-83B1-2045-A287-23814659131C}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{A391AB37-BA15-5346-98D0-9DA0F9B9773A}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{1DF39F88-C72C-BB44-B81F-7071CCD22EAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15781,7 +16380,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16271,10 +16870,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC829A-15CB-4349-B67F-7F5156541E53}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A31" sqref="A31:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16988,40 +17587,6 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="12">
-        <v>2021</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2">
-        <v>134</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{6D20E3CD-9389-014A-9C90-DBD293132B3D}"/>
@@ -17038,4 +17603,715 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA91D5D-B4B9-B643-A974-AC5D2CAF9678}">
+  <dimension ref="B2:H78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="177" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" customWidth="1"/>
+    <col min="11" max="16" width="53.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="74" t="s">
+        <v>898</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>874</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>897</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>873</v>
+      </c>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="66"/>
+    </row>
+    <row r="4" spans="2:8" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="76" t="s">
+        <v>875</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>910</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>922</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="2:8" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="76" t="s">
+        <v>876</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>911</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>923</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="76" t="s">
+        <v>877</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>912</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>924</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>896</v>
+      </c>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="61"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="2:8" ht="161" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="76" t="s">
+        <v>878</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>953</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>954</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>929</v>
+      </c>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="2:8" ht="163" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="76" t="s">
+        <v>879</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>951</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>952</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>913</v>
+      </c>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:8" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="78" t="s">
+        <v>916</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>925</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>927</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:8" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="78" t="s">
+        <v>917</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>926</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>928</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:5" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="78" t="s">
+        <v>921</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>968</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>969</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="76" t="s">
+        <v>970</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>971</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>972</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="76" t="s">
+        <v>973</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>974</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>975</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="76" t="s">
+        <v>979</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>984</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>985</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:5" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="76" t="s">
+        <v>982</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>991</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>992</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="76" t="s">
+        <v>987</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>994</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>995</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="B30" s="76" t="s">
+        <v>993</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>989</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>990</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10595B82-9886-8E4B-B403-0D19ED33494D}">
+  <dimension ref="B1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="73" t="s">
+        <v>908</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>890</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="72" t="s">
+        <v>893</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>883</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="80"/>
+      <c r="C4" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="80"/>
+      <c r="C5" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="80"/>
+      <c r="C6" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>892</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="81"/>
+      <c r="C7" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="82"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>958</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="70"/>
+      <c r="C10" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>907</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="70"/>
+      <c r="C11" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>931</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="70"/>
+      <c r="C12" s="37" t="s">
+        <v>932</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="70"/>
+      <c r="C13" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="70"/>
+      <c r="C14" s="37" t="s">
+        <v>889</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="70"/>
+      <c r="C15" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="70"/>
+      <c r="C16" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="70"/>
+      <c r="C17" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="70"/>
+      <c r="C18" s="37" t="s">
+        <v>914</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>915</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="70"/>
+      <c r="C19" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="70"/>
+      <c r="C20" s="37" t="s">
+        <v>933</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>980</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="70"/>
+      <c r="C21" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>937</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="70"/>
+      <c r="C22" s="37" t="s">
+        <v>935</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>997</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="70"/>
+      <c r="C23" s="37" t="s">
+        <v>939</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>940</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="70"/>
+      <c r="C24" s="37" t="s">
+        <v>941</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="70"/>
+      <c r="C25" s="67" t="s">
+        <v>942</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="70"/>
+      <c r="C26" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="70"/>
+      <c r="C27" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>918</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="70"/>
+      <c r="C28" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>909</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="71"/>
+      <c r="C29" s="68" t="s">
+        <v>947</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>964</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="B3:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45966C15-DD7C-3644-9AC6-AF3C12A30CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A821C-7E5C-1B4F-802A-5BB57EB14FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="67540" windowHeight="25040" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="2140" yWindow="1240" windowWidth="33460" windowHeight="21100" activeTab="10" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Suchabfragen" sheetId="5" r:id="rId6"/>
     <sheet name="Quellenauswahl" sheetId="7" r:id="rId7"/>
     <sheet name="Quellenübesicht" sheetId="8" r:id="rId8"/>
+    <sheet name="FA Client" sheetId="9" r:id="rId9"/>
+    <sheet name="FA Server" sheetId="10" r:id="rId10"/>
+    <sheet name="Anwendungsfälle" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$P$301</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1306">
   <si>
     <t>Nr</t>
   </si>
@@ -3881,12 +3884,324 @@
   <si>
     <t>Brocke, Jan vom; Simons, Alexander; Niehaves, Björn; Riemer, Kai; Plattfaut, Ralf; Cleven, Anne</t>
   </si>
+  <si>
+    <t>Anforderungsbeschreibung</t>
+  </si>
+  <si>
+    <t>Zielerreichung</t>
+  </si>
+  <si>
+    <t>Lfd. Nr.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Aufnahme von Bildern.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss in der Lage sein das Volumen des zu vermessenden Lebensmittels zu bestimmen.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss über einen Mechanismus zum Hochladen der aufgezeichneten Bilder auf den Server verfügen.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Anzeige zum Zählen der bereits hochgeladenen Bildern.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss dem Endanwender zu erkennen geben, wie viele Bilder bereits an den Server zur Verarbeitung gesendet wurden.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Darstellung des ermittelten Volumens.</t>
+  </si>
+  <si>
+    <t>Darstellung</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Übersichtsansicht
+zur Auflistung aller gespeicherten Messergebnisse.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss für den Endanwender bzgl. der Bedienung verständlich und benutzerfreundlich gestaltet sein.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss in der Lage sein, das Messergebnis zur Dokumentation und weiterführenden Auswertung zu speichern.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Übersichtsansicht bereitstellen, über die im Vorfeld oder Nachgang an eine Messung alle gespeicherten Messergebnisse aufrufbar sind.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht zur Einführung und Funktionserläuterung für die korrekt Bedienung durch den Endanwender bereitstellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Einführung und Funktionserläuterung.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt nur über die zur Abdeckung
+der Kernfunktionalitäten notwendigen
+grafischen Bedienelemente.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht für Ladezeiten bereitstellen, die dem Endanwender eine mögliche zeitliche Verzögerung signalisiert.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss im Anschluss an die 
+Ergebnisdarstellung die Möglichkeiten bieten das Messergebnis inkl. eines Zeitstempels clientseitig zu speichern.</t>
+  </si>
+  <si>
+    <t>Die iOS App ermöglicht das Speichern von Messergebnissen inkl. Zeitstempel. Ebenso können gespeicherte Messergebnisse zu einem späteren Zeitpunkt abgerufen werden.</t>
+  </si>
+  <si>
+    <t>Funktion</t>
+  </si>
+  <si>
+    <t>Kernfunktion</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht bereitstellen, über die Details zu einem gespeicherten Messergebnis angezeigt werden können.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Anzeige der Details zu einem gespeicherten Messergebnis. Die Detailansicht ist über die Auswahl eines Eintrags in der Übersichtsseite aufrufbar.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht zur Aufnahme von Bildern bereitstellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Funktion zum Fotografieren des Lebensmittels bereitstellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App ermöglicht das Festlegen eines Konfigurationsprofiles für die Objektrekonstruktion von Object Capture pro Messung.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss einen Mechanismus
+bereitstellen, der die serverseitige Verarbeitung
+startet.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht zur Darstellung des serverseitig ermittelten Volumens (Messergebnis) bereitstellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App prüft automatisch, ob das API erreichbar ist und informiert den Endanwender im Falle der Nicht-Erreichbarkeit.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss in der Lage sein das zu vermessende Lebensmittel zu erfassen.</t>
+  </si>
+  <si>
+    <t>Die iOS App bietet die Möglichkeit das zu vermessende Lebensmittels fotografieren.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss über einen Mechanismus zum Aufruf der Server APIs verfügen.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über einen Mechanismus zur clientseitigen Speicherung, sodass das gespeicherte Messergebnis nach Beendigung der Applikation weiterhin vorgehalten werden kann.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss einen Mechanismus bereitstellen, der vor einer Messung prüft, ob das Server API netzwerkseitig erreichbar ist.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ladeansicht, die
+im Falle möglicher Wartezeiten angezeigt wird.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Auswahl aller Konfigurationsprofile von Object Capture ermöglichen, um die Einstellungen der Objektrekonstruktion clientseitig pro Messung steuern zu können.</t>
+  </si>
+  <si>
+    <t>C-FA01</t>
+  </si>
+  <si>
+    <t>C-FA01.1</t>
+  </si>
+  <si>
+    <t>C-FA01.2</t>
+  </si>
+  <si>
+    <t>C-FA02</t>
+  </si>
+  <si>
+    <t>C-FA02.1</t>
+  </si>
+  <si>
+    <t>C-FA02.2</t>
+  </si>
+  <si>
+    <t>C-FA02.3</t>
+  </si>
+  <si>
+    <t>C-FA02.4</t>
+  </si>
+  <si>
+    <t>C-FA02.5</t>
+  </si>
+  <si>
+    <t>C-FA03</t>
+  </si>
+  <si>
+    <t>C-FA03.1</t>
+  </si>
+  <si>
+    <t>C-FA03.2</t>
+  </si>
+  <si>
+    <t>C-FA03.3</t>
+  </si>
+  <si>
+    <t>C-FA04</t>
+  </si>
+  <si>
+    <t>C-FA04.1</t>
+  </si>
+  <si>
+    <t>C-FA04.2</t>
+  </si>
+  <si>
+    <t>C-FA04.3</t>
+  </si>
+  <si>
+    <t>C-FA04.4</t>
+  </si>
+  <si>
+    <t>S-FA01</t>
+  </si>
+  <si>
+    <t>S-FA02</t>
+  </si>
+  <si>
+    <t>Der Server muss ein API bereitstellen, über das die Verfügbarkeit der serverseitigen APIs im lokalen Netzwerk abgefragt werden kann.</t>
+  </si>
+  <si>
+    <t>Der Server stellt ein API für die Abfrage der Verfügbarkeit im lokalen Netzwerk bereit.</t>
+  </si>
+  <si>
+    <t>Der Server muss ein API bereitstellen, über das Bilder hochgeladen und auf dem Server abgelegt werden können.</t>
+  </si>
+  <si>
+    <t>S-FA03</t>
+  </si>
+  <si>
+    <t>Der Server stellt ein API für das Hochladen und die Ablage von Bildern bereit.</t>
+  </si>
+  <si>
+    <t>Der Server muss ein API bereitstellen, über das die Objektrekonstruktion mittels Object Capture und die anschließende Volumenberechnung gestartet werden kann.</t>
+  </si>
+  <si>
+    <t>S-FA03.1</t>
+  </si>
+  <si>
+    <t>Das bereitzustellende API muss hierbei Eingabeparameter zur clientseitigen
+Einstellung des Konfigurationsprofils von
+Object Capture akzeptieren und an Object
+Capture zur Objektrekonstruktion weiterreichen.</t>
+  </si>
+  <si>
+    <t>Das API akzeptiert clientseitige 
+Eingabeparameter zur Einstellung des Konfigurationsprofils von
+Object Capture und ermöglicht so eine clientseitige Steuerung der Objektrekonstruktion.</t>
+  </si>
+  <si>
+    <t>Der Server stellt ein API zur Ausführung der Objektrekonstruktion durch Object Capture und anschließenden Volumenberechnung bereit. Das Ergebnis dieser Verarbeitung wird an den Client zur Darstellung zurückgeschickt.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Schaltfläche zur Erstellung von Bildern des Lebensmittels.</t>
+  </si>
+  <si>
+    <t>Die iOS App bietet die Möglichkeit die aufgezeichneten Bilder an das entsprechende Server API zur Ablage auf dem Server zu schicken.</t>
+  </si>
+  <si>
+    <t>Die iOS App bietet die Möglichkeit das serverseitig ermittelte Volumen des vorliegenden Lebensmittels abzurufen und darzustellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App bietet die Möglichkeit netzwerkseitige Anfragen an die Server APIs zu senden und Antworten von diesen zu empfangen.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Schaltfläche zum Starten der serverseitigen Verarbeitung.</t>
+  </si>
+  <si>
+    <t>S-FA03.2</t>
+  </si>
+  <si>
+    <t>Das bereitzustellende API muss für die
+anschließende Performanceanalyse von Object
+Capture die benötigte Zeit für die
+Objektrekonstruktion messen und diese in der Antwort an den Client mit zurückgeben.</t>
+  </si>
+  <si>
+    <t>Das API misst die Zeit, die Object Capture zur
+Objektrekonstruktion benötigt und gibt sie an
+den aufrufenden Client als weitere Information innerhalb der Antwort zurück.</t>
+  </si>
+  <si>
+    <t>Akteure</t>
+  </si>
+  <si>
+    <t>Auslöser</t>
+  </si>
+  <si>
+    <t>Vorbedingung</t>
+  </si>
+  <si>
+    <t>Nachbedingung</t>
+  </si>
+  <si>
+    <t>Ablauf</t>
+  </si>
+  <si>
+    <t>Anforderungen</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt das Applikationsicon
+auf dem Homescreen aus.</t>
+  </si>
+  <si>
+    <t>iOS Applikation starten</t>
+  </si>
+  <si>
+    <t>Benutzer, iOS Applikation</t>
+  </si>
+  <si>
+    <t>Die iOS Applikation wurde durch den Benutzer gestartet.</t>
+  </si>
+  <si>
+    <t>Die iOS Applikation ist auf dem Smartphone installiert.</t>
+  </si>
+  <si>
+    <t>Der Benutzer sieht den Startprozess der iOS Applikation und gelangt zum Einführungsbildschirm.</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Die iOS Applikation wartet auf weitere Benutzereingaben.</t>
+  </si>
+  <si>
+    <t>Der Einführungsbildschirm wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Startprozess der iOS Applikation ist abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Der Startprozess der iOS Applikation wird initialisiert.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt das App Icon auf dem Homescreen aus.</t>
+  </si>
+  <si>
+    <t>Anwendungsfall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3962,8 +4277,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3988,8 +4310,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E9E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -4156,12 +4484,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4443,6 +4908,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4470,9 +4959,113 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4482,10 +5075,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF029687"/>
       <color rgb="FFC5E9E7"/>
       <color rgb="FFBEDFDB"/>
       <color rgb="FF01C2B0"/>
+      <color rgb="FF029687"/>
       <color rgb="FF01C3B2"/>
     </mruColors>
   </colors>
@@ -4799,7 +5392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="A203" zoomScale="145" workbookViewId="0">
       <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
@@ -5088,7 +5681,7 @@
         <v>729</v>
       </c>
       <c r="P5" s="16" t="str">
-        <f>"Vgl. "&amp;I5&amp;" ("&amp;N5&amp;"), S. "&amp;O5&amp;"."</f>
+        <f t="shared" ref="P5:P68" si="1">"Vgl. "&amp;I5&amp;" ("&amp;N5&amp;"), S. "&amp;O5&amp;"."</f>
         <v>Vgl. Hevner et al. (2004), S. 75–105.</v>
       </c>
       <c r="Q5" s="19" t="s">
@@ -5142,7 +5735,7 @@
         <v>735</v>
       </c>
       <c r="P6" s="16" t="str">
-        <f>"Vgl. "&amp;I6&amp;" ("&amp;N6&amp;"), S. "&amp;O6&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Chapman et al. (2000), S. 1-78.</v>
       </c>
       <c r="Q6" s="19"/>
@@ -5194,7 +5787,7 @@
         <v>745</v>
       </c>
       <c r="P7" s="16" t="str">
-        <f>"Vgl. "&amp;I7&amp;" ("&amp;N7&amp;"), S. "&amp;O7&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Schröer, Kruse, Gómez (2021), S. 526-528.</v>
       </c>
       <c r="Q7" s="19" t="s">
@@ -5248,7 +5841,7 @@
         <v>748</v>
       </c>
       <c r="P8" s="16" t="str">
-        <f>"Vgl. "&amp;I8&amp;" ("&amp;N8&amp;"), S. "&amp;O8&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hevner et al. (2004), S. 75, 77, 79-80, 85-86.</v>
       </c>
       <c r="Q8" s="19" t="s">
@@ -5302,7 +5895,7 @@
         <v>756</v>
       </c>
       <c r="P9" s="16" t="str">
-        <f>"Vgl. "&amp;I9&amp;" ("&amp;N9&amp;"), S. "&amp;O9&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hevner, Chatterjee (2010), S. 5, 16-19.</v>
       </c>
       <c r="Q9" s="19" t="s">
@@ -5356,7 +5949,7 @@
         <v>757</v>
       </c>
       <c r="P10" s="16" t="str">
-        <f>"Vgl. "&amp;I10&amp;" ("&amp;N10&amp;"), S. "&amp;O10&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hevner (2007), S. 88-89.</v>
       </c>
       <c r="Q10" s="19"/>
@@ -5408,7 +6001,7 @@
         <v>768</v>
       </c>
       <c r="P11" s="16" t="str">
-        <f>"Vgl. "&amp;I11&amp;" ("&amp;N11&amp;"), S. "&amp;O11&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Brocke et al. (2009), S. 1-2, 10.</v>
       </c>
       <c r="Q11" s="19"/>
@@ -5460,7 +6053,7 @@
         <v>1197</v>
       </c>
       <c r="P12" s="16" t="str">
-        <f>"Vgl. "&amp;I12&amp;" ("&amp;N12&amp;"), S. "&amp;O12&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Petticrew, Roberts (2006), S. 74-74.</v>
       </c>
       <c r="Q12" s="19" t="s">
@@ -5514,7 +6107,7 @@
         <v>824</v>
       </c>
       <c r="P13" s="16" t="str">
-        <f>"Vgl. "&amp;I13&amp;" ("&amp;N13&amp;"), S. "&amp;O13&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Petticrew, Roberts (2006), S. 74-75.</v>
       </c>
       <c r="Q13" s="19" t="s">
@@ -5568,7 +6161,7 @@
         <v>208</v>
       </c>
       <c r="P14" s="16" t="str">
-        <f>"Vgl. "&amp;I14&amp;" ("&amp;N14&amp;"), S. "&amp;O14&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Brocke et al. (2015), S. 208.</v>
       </c>
       <c r="Q14" s="19"/>
@@ -5620,7 +6213,7 @@
         <v>1203</v>
       </c>
       <c r="P15" s="16" t="str">
-        <f>"Vgl. "&amp;I15&amp;" ("&amp;N15&amp;"), S. "&amp;O15&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Brocke et al. (2015), S. 212-213.</v>
       </c>
       <c r="Q15" s="19"/>
@@ -5672,7 +6265,7 @@
         <v>1204</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f>"Vgl. "&amp;I16&amp;" ("&amp;N16&amp;"), S. "&amp;O16&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Brocke et al. (2015), S. 208-209.</v>
       </c>
       <c r="Q16" s="19"/>
@@ -5724,7 +6317,7 @@
         <v>214</v>
       </c>
       <c r="P17" s="16" t="str">
-        <f>"Vgl. "&amp;I17&amp;" ("&amp;N17&amp;"), S. "&amp;O17&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Brocke et al. (2015), S. 214.</v>
       </c>
       <c r="Q17" s="19"/>
@@ -5776,7 +6369,7 @@
         <v>776</v>
       </c>
       <c r="P18" s="16" t="str">
-        <f>"Vgl. "&amp;I18&amp;" ("&amp;N18&amp;"), S. "&amp;O18&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Webster, Watson (2002), S. 16.</v>
       </c>
       <c r="Q18" s="19"/>
@@ -5828,7 +6421,7 @@
         <v>777</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f>"Vgl. "&amp;I19&amp;" ("&amp;N19&amp;"), S. "&amp;O19&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Sommerville (2021), S. 102-107, 134.</v>
       </c>
       <c r="Q19" s="19" t="s">
@@ -5882,7 +6475,7 @@
         <v>784</v>
       </c>
       <c r="P20" s="16" t="str">
-        <f>"Vgl. "&amp;I20&amp;" ("&amp;N20&amp;"), S. "&amp;O20&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hevner et al. (2004), S. 87-88.</v>
       </c>
       <c r="Q20" s="19"/>
@@ -5934,7 +6527,7 @@
         <v>785</v>
       </c>
       <c r="P21" s="16" t="str">
-        <f>"Vgl. "&amp;I21&amp;" ("&amp;N21&amp;"), S. "&amp;O21&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hevner, Chatterjee (2010), S. 17-18.</v>
       </c>
       <c r="Q21" s="19"/>
@@ -5986,7 +6579,7 @@
         <v>786</v>
       </c>
       <c r="P22" s="16" t="str">
-        <f>"Vgl. "&amp;I22&amp;" ("&amp;N22&amp;"), S. "&amp;O22&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hevner, Chatterjee (2010), S. 18-19.</v>
       </c>
       <c r="Q22" s="19"/>
@@ -6038,7 +6631,7 @@
         <v>807</v>
       </c>
       <c r="P23" s="16" t="str">
-        <f>"Vgl. "&amp;I23&amp;" ("&amp;N23&amp;"), S. "&amp;O23&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Royce (1987), S. 328–338.</v>
       </c>
       <c r="Q23" s="19"/>
@@ -6090,7 +6683,7 @@
         <v>449</v>
       </c>
       <c r="P24" s="16" t="str">
-        <f>"Vgl. "&amp;I24&amp;" ("&amp;N24&amp;"), S. "&amp;O24&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Beck et al. (2001), S. o. S..</v>
       </c>
       <c r="Q24" s="19"/>
@@ -6142,7 +6735,7 @@
         <v>802</v>
       </c>
       <c r="P25" s="16" t="str">
-        <f>"Vgl. "&amp;I25&amp;" ("&amp;N25&amp;"), S. "&amp;O25&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Sommerville (2021), S. 73-76, 98.</v>
       </c>
       <c r="Q25" s="19" t="s">
@@ -6196,7 +6789,7 @@
         <v>449</v>
       </c>
       <c r="P26" s="16" t="str">
-        <f>"Vgl. "&amp;I26&amp;" ("&amp;N26&amp;"), S. "&amp;O26&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Beck et al. (2001), S. o. S..</v>
       </c>
       <c r="Q26" s="19"/>
@@ -6248,7 +6841,7 @@
         <v>787</v>
       </c>
       <c r="P27" s="16" t="str">
-        <f>"Vgl. "&amp;I27&amp;" ("&amp;N27&amp;"), S. "&amp;O27&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Sommerville (2021), S. 84-86.</v>
       </c>
       <c r="Q27" s="19" t="s">
@@ -6302,7 +6895,7 @@
         <v>796</v>
       </c>
       <c r="P28" s="16" t="str">
-        <f>"Vgl. "&amp;I28&amp;" ("&amp;N28&amp;"), S. "&amp;O28&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Schwaber, Beedle (2001), S. 1-154.</v>
       </c>
       <c r="Q28" s="19" t="s">
@@ -6356,7 +6949,7 @@
         <v>824</v>
       </c>
       <c r="P29" s="16" t="str">
-        <f>"Vgl. "&amp;I29&amp;" ("&amp;N29&amp;"), S. "&amp;O29&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Sommerville (2018), S. 74-75.</v>
       </c>
       <c r="Q29" s="19" t="s">
@@ -6410,7 +7003,7 @@
         <v>815</v>
       </c>
       <c r="P30" s="16" t="str">
-        <f>"Vgl. "&amp;I30&amp;" ("&amp;N30&amp;"), S. "&amp;O30&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Floyd (1984), S. 6-11.</v>
       </c>
       <c r="Q30" s="19" t="s">
@@ -6464,7 +7057,7 @@
         <v>829</v>
       </c>
       <c r="P31" s="16" t="str">
-        <f>"Vgl. "&amp;I31&amp;" ("&amp;N31&amp;"), S. "&amp;O31&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Object Management Group® (2017), S. 595-599.</v>
       </c>
       <c r="Q31" s="19"/>
@@ -6516,7 +7109,7 @@
         <v>837</v>
       </c>
       <c r="P32" s="16" t="str">
-        <f>"Vgl. "&amp;I32&amp;" ("&amp;N32&amp;"), S. "&amp;O32&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Leavy (2022), S. 106-113, 127-128.</v>
       </c>
       <c r="Q32" s="19" t="s">
@@ -6570,7 +7163,7 @@
         <v>355</v>
       </c>
       <c r="P33" s="16" t="str">
-        <f>"Vgl. "&amp;I33&amp;" ("&amp;N33&amp;"), S. "&amp;O33&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Do, Nguyen (2019), S. 138-139.</v>
       </c>
       <c r="Q33" s="19"/>
@@ -6622,7 +7215,7 @@
         <v>62</v>
       </c>
       <c r="P34" s="16" t="str">
-        <f>"Vgl. "&amp;I34&amp;" ("&amp;N34&amp;"), S. "&amp;O34&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Ahmed et al. (2020), S. 511-512.</v>
       </c>
       <c r="Q34" s="19" t="s">
@@ -6676,7 +7269,7 @@
         <v>25</v>
       </c>
       <c r="P35" s="16" t="str">
-        <f>"Vgl. "&amp;I35&amp;" ("&amp;N35&amp;"), S. "&amp;O35&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Ruilu, Hongjuan, Liping (2021), S. 1-2.</v>
       </c>
       <c r="Q35" s="19"/>
@@ -6728,7 +7321,7 @@
         <v>593</v>
       </c>
       <c r="P36" s="16" t="str">
-        <f>"Vgl. "&amp;I36&amp;" ("&amp;N36&amp;"), S. "&amp;O36&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Luhmann et al. (2019), S. 593.</v>
       </c>
       <c r="Q36" s="19" t="s">
@@ -6782,7 +7375,7 @@
         <v>512</v>
       </c>
       <c r="P37" s="16" t="str">
-        <f>"Vgl. "&amp;I37&amp;" ("&amp;N37&amp;"), S. "&amp;O37&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Ahmed et al. (2020), S. 512.</v>
       </c>
       <c r="Q37" s="19"/>
@@ -6834,7 +7427,7 @@
         <v>85</v>
       </c>
       <c r="P38" s="16" t="str">
-        <f>"Vgl. "&amp;I38&amp;" ("&amp;N38&amp;"), S. "&amp;O38&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Altuntas (2021), S. 825-826.</v>
       </c>
       <c r="Q38" s="19"/>
@@ -6886,7 +7479,7 @@
         <v>513</v>
       </c>
       <c r="P39" s="16" t="str">
-        <f>"Vgl. "&amp;I39&amp;" ("&amp;N39&amp;"), S. "&amp;O39&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Ahmed et al. (2020), S. 513.</v>
       </c>
       <c r="Q39" s="19"/>
@@ -6938,7 +7531,7 @@
         <v>139</v>
       </c>
       <c r="P40" s="16" t="str">
-        <f>"Vgl. "&amp;I40&amp;" ("&amp;N40&amp;"), S. "&amp;O40&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Do, Nguyen (2019), S. 139.</v>
       </c>
       <c r="Q40" s="19"/>
@@ -6990,7 +7583,7 @@
         <v>76</v>
       </c>
       <c r="P41" s="16" t="str">
-        <f>"Vgl. "&amp;I41&amp;" ("&amp;N41&amp;"), S. "&amp;O41&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Verykokou, Ioannidis (2023), S. 6-7.</v>
       </c>
       <c r="Q41" s="19"/>
@@ -7042,7 +7635,7 @@
         <v>70</v>
       </c>
       <c r="P42" s="16" t="str">
-        <f>"Vgl. "&amp;I42&amp;" ("&amp;N42&amp;"), S. "&amp;O42&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Do, Nguyen (2019), S. 139-140.</v>
       </c>
       <c r="Q42" s="19"/>
@@ -7094,7 +7687,7 @@
         <v>86</v>
       </c>
       <c r="P43" s="16" t="str">
-        <f>"Vgl. "&amp;I43&amp;" ("&amp;N43&amp;"), S. "&amp;O43&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Altuntas (2021), S. 826-827.</v>
       </c>
       <c r="Q43" s="19"/>
@@ -7146,7 +7739,7 @@
         <v>449</v>
       </c>
       <c r="P44" s="16" t="str">
-        <f>"Vgl. "&amp;I44&amp;" ("&amp;N44&amp;"), S. "&amp;O44&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q44" s="19"/>
@@ -7198,7 +7791,7 @@
         <v>139</v>
       </c>
       <c r="P45" s="16" t="str">
-        <f>"Vgl. "&amp;I45&amp;" ("&amp;N45&amp;"), S. "&amp;O45&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Do, Nguyen (2019), S. 139.</v>
       </c>
       <c r="Q45" s="19"/>
@@ -7250,7 +7843,7 @@
         <v>101</v>
       </c>
       <c r="P46" s="16" t="str">
-        <f>"Vgl. "&amp;I46&amp;" ("&amp;N46&amp;"), S. "&amp;O46&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Karunachandra, Herath (2020), S. 689-690.</v>
       </c>
       <c r="Q46" s="19"/>
@@ -7302,7 +7895,7 @@
         <v>109</v>
       </c>
       <c r="P47" s="16" t="str">
-        <f>"Vgl. "&amp;I47&amp;" ("&amp;N47&amp;"), S. "&amp;O47&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Ding, Levi (2021), S. 11-12.</v>
       </c>
       <c r="Q47" s="19"/>
@@ -7354,7 +7947,7 @@
         <v>70</v>
       </c>
       <c r="P48" s="16" t="str">
-        <f>"Vgl. "&amp;I48&amp;" ("&amp;N48&amp;"), S. "&amp;O48&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Do, Nguyen (2019), S. 139-140.</v>
       </c>
       <c r="Q48" s="19"/>
@@ -7406,7 +7999,7 @@
         <v>70</v>
       </c>
       <c r="P49" s="16" t="str">
-        <f>"Vgl. "&amp;I49&amp;" ("&amp;N49&amp;"), S. "&amp;O49&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Do, Nguyen (2019), S. 139-140.</v>
       </c>
       <c r="Q49" s="19"/>
@@ -7458,7 +8051,7 @@
         <v>449</v>
       </c>
       <c r="P50" s="16" t="str">
-        <f>"Vgl. "&amp;I50&amp;" ("&amp;N50&amp;"), S. "&amp;O50&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Statista (2019), S. o. S..</v>
       </c>
       <c r="Q50" s="19" t="s">
@@ -7512,7 +8105,7 @@
         <v>119</v>
       </c>
       <c r="P51" s="16" t="str">
-        <f>"Vgl. "&amp;I51&amp;" ("&amp;N51&amp;"), S. "&amp;O51&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Butt, Taj (2022), S. 2649.</v>
       </c>
       <c r="Q51" s="19"/>
@@ -7564,7 +8157,7 @@
         <v>117</v>
       </c>
       <c r="P52" s="16" t="str">
-        <f>"Vgl. "&amp;I52&amp;" ("&amp;N52&amp;"), S. "&amp;O52&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Maio, Baqersad (2021), S. 15.</v>
       </c>
       <c r="Q52" s="19"/>
@@ -7616,7 +8209,7 @@
         <v>157</v>
       </c>
       <c r="P53" s="16" t="str">
-        <f>"Vgl. "&amp;I53&amp;" ("&amp;N53&amp;"), S. "&amp;O53&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Szeliski (2022), S. 30-36, 59-61.</v>
       </c>
       <c r="Q53" s="19"/>
@@ -7668,7 +8261,7 @@
         <v>158</v>
       </c>
       <c r="P54" s="16" t="str">
-        <f>"Vgl. "&amp;I54&amp;" ("&amp;N54&amp;"), S. "&amp;O54&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Szeliski (2022), S. 41-43, 48.</v>
       </c>
       <c r="Q54" s="19"/>
@@ -7720,7 +8313,7 @@
         <v>140</v>
       </c>
       <c r="P55" s="16" t="str">
-        <f>"Vgl. "&amp;I55&amp;" ("&amp;N55&amp;"), S. "&amp;O55&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Harris, Stephens (1988), S. 147-151.</v>
       </c>
       <c r="Q55" s="19"/>
@@ -7772,7 +8365,7 @@
         <v>224</v>
       </c>
       <c r="P56" s="16" t="str">
-        <f>"Vgl. "&amp;I56&amp;" ("&amp;N56&amp;"), S. "&amp;O56&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Lowe (1999), S. 1-7.</v>
       </c>
       <c r="Q56" s="19"/>
@@ -7824,7 +8417,7 @@
         <v>840</v>
       </c>
       <c r="P57" s="16" t="str">
-        <f>"Vgl. "&amp;I57&amp;" ("&amp;N57&amp;"), S. "&amp;O57&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Zhang (2000), S. 1330-1333.</v>
       </c>
       <c r="Q57" s="19"/>
@@ -7876,7 +8469,7 @@
         <v>149</v>
       </c>
       <c r="P58" s="16" t="str">
-        <f>"Vgl. "&amp;I58&amp;" ("&amp;N58&amp;"), S. "&amp;O58&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 88-90, 115-116.</v>
       </c>
       <c r="Q58" s="19" t="s">
@@ -7930,7 +8523,7 @@
         <v>159</v>
       </c>
       <c r="P59" s="16" t="str">
-        <f>"Vgl. "&amp;I59&amp;" ("&amp;N59&amp;"), S. "&amp;O59&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Szeliski (2022), S. 44-46.</v>
       </c>
       <c r="Q59" s="19"/>
@@ -7982,7 +8575,7 @@
         <v>841</v>
       </c>
       <c r="P60" s="16" t="str">
-        <f>"Vgl. "&amp;I60&amp;" ("&amp;N60&amp;"), S. "&amp;O60&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Szeliski (2022), S. 44, 46-47, 49, 51.</v>
       </c>
       <c r="Q60" s="19"/>
@@ -8034,7 +8627,7 @@
         <v>1239</v>
       </c>
       <c r="P61" s="16" t="str">
-        <f>"Vgl. "&amp;I61&amp;" ("&amp;N61&amp;"), S. "&amp;O61&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Shi et al. (2021), S. 1239.</v>
       </c>
       <c r="Q61" s="19"/>
@@ -8086,7 +8679,7 @@
         <v>167</v>
       </c>
       <c r="P62" s="16" t="str">
-        <f>"Vgl. "&amp;I62&amp;" ("&amp;N62&amp;"), S. "&amp;O62&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Zhang (2023), S. 56-57.</v>
       </c>
       <c r="Q62" s="19"/>
@@ -8138,7 +8731,7 @@
         <v>1237</v>
       </c>
       <c r="P63" s="16" t="str">
-        <f>"Vgl. "&amp;I63&amp;" ("&amp;N63&amp;"), S. "&amp;O63&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Shi et al. (2021), S. 1237.</v>
       </c>
       <c r="Q63" s="54"/>
@@ -8190,7 +8783,7 @@
         <v>174</v>
       </c>
       <c r="P64" s="16" t="str">
-        <f>"Vgl. "&amp;I64&amp;" ("&amp;N64&amp;"), S. "&amp;O64&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Zhang (2000), S. 1330-1331.</v>
       </c>
       <c r="Q64" s="54"/>
@@ -8242,7 +8835,7 @@
         <v>2</v>
       </c>
       <c r="P65" s="16" t="str">
-        <f>"Vgl. "&amp;I65&amp;" ("&amp;N65&amp;"), S. "&amp;O65&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Jacob, Sreeja, Dathan (2022), S. 2.</v>
       </c>
       <c r="Q65" s="19"/>
@@ -8294,7 +8887,7 @@
         <v>183</v>
       </c>
       <c r="P66" s="16" t="str">
-        <f>"Vgl. "&amp;I66&amp;" ("&amp;N66&amp;"), S. "&amp;O66&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Szeliski (2022), S. 41, 44.</v>
       </c>
       <c r="Q66" s="19"/>
@@ -8346,7 +8939,7 @@
         <v>185</v>
       </c>
       <c r="P67" s="16" t="str">
-        <f>"Vgl. "&amp;I67&amp;" ("&amp;N67&amp;"), S. "&amp;O67&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 153-155.</v>
       </c>
       <c r="Q67" s="19"/>
@@ -8398,7 +8991,7 @@
         <v>189</v>
       </c>
       <c r="P68" s="16" t="str">
-        <f>"Vgl. "&amp;I68&amp;" ("&amp;N68&amp;"), S. "&amp;O68&amp;"."</f>
+        <f t="shared" si="1"/>
         <v>Vgl. Szeliski (2022), S. 41, 43.</v>
       </c>
       <c r="Q68" s="19"/>
@@ -8450,7 +9043,7 @@
         <v>190</v>
       </c>
       <c r="P69" s="16" t="str">
-        <f>"Vgl. "&amp;I69&amp;" ("&amp;N69&amp;"), S. "&amp;O69&amp;"."</f>
+        <f t="shared" ref="P69:P132" si="2">"Vgl. "&amp;I69&amp;" ("&amp;N69&amp;"), S. "&amp;O69&amp;"."</f>
         <v>Vgl. Szeliski (2022), S. 41, 43-46.</v>
       </c>
       <c r="Q69" s="19"/>
@@ -8502,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="P70" s="16" t="str">
-        <f>"Vgl. "&amp;I70&amp;" ("&amp;N70&amp;"), S. "&amp;O70&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Victor, Neigel (2021), S. 1.</v>
       </c>
       <c r="Q70" s="19"/>
@@ -8554,7 +9147,7 @@
         <v>1959</v>
       </c>
       <c r="P71" s="22" t="str">
-        <f>"Vgl. "&amp;I71&amp;" ("&amp;N71&amp;"), S. "&amp;O71&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xu, Zhang (2020), S. 1959.</v>
       </c>
       <c r="Q71" s="19"/>
@@ -8606,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="P72" s="22" t="str">
-        <f>"Vgl. "&amp;I72&amp;" ("&amp;N72&amp;"), S. "&amp;O72&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Chandrashekar et al. (2021), S. 2.</v>
       </c>
       <c r="Q72" s="19"/>
@@ -8658,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="16" t="str">
-        <f>"Vgl. "&amp;I73&amp;" ("&amp;N73&amp;"), S. "&amp;O73&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Tao, Xiang, You (2022), S. 1.</v>
       </c>
       <c r="Q73" s="19"/>
@@ -8710,7 +9303,7 @@
         <v>223</v>
       </c>
       <c r="P74" s="16" t="str">
-        <f>"Vgl. "&amp;I74&amp;" ("&amp;N74&amp;"), S. "&amp;O74&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1.</v>
       </c>
       <c r="Q74" s="19"/>
@@ -8762,7 +9355,7 @@
         <v>230</v>
       </c>
       <c r="P75" s="16" t="str">
-        <f>"Vgl. "&amp;I75&amp;" ("&amp;N75&amp;"), S. "&amp;O75&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 3.</v>
       </c>
       <c r="Q75" s="19"/>
@@ -8814,7 +9407,7 @@
         <v>220</v>
       </c>
       <c r="P76" s="16" t="str">
-        <f>"Vgl. "&amp;I76&amp;" ("&amp;N76&amp;"), S. "&amp;O76&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 25.</v>
       </c>
       <c r="Q76" s="19"/>
@@ -8866,7 +9459,7 @@
         <v>225</v>
       </c>
       <c r="P77" s="16" t="str">
-        <f>"Vgl. "&amp;I77&amp;" ("&amp;N77&amp;"), S. "&amp;O77&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 1-2, 10-13, 16.</v>
       </c>
       <c r="Q77" s="19"/>
@@ -8918,7 +9511,7 @@
         <v>25</v>
       </c>
       <c r="P78" s="16" t="str">
-        <f>"Vgl. "&amp;I78&amp;" ("&amp;N78&amp;"), S. "&amp;O78&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1-2.</v>
       </c>
       <c r="Q78" s="19"/>
@@ -8970,7 +9563,7 @@
         <v>223</v>
       </c>
       <c r="P79" s="16" t="str">
-        <f>"Vgl. "&amp;I79&amp;" ("&amp;N79&amp;"), S. "&amp;O79&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1.</v>
       </c>
       <c r="Q79" s="19"/>
@@ -9022,7 +9615,7 @@
         <v>3</v>
       </c>
       <c r="P80" s="16" t="str">
-        <f>"Vgl. "&amp;I80&amp;" ("&amp;N80&amp;"), S. "&amp;O80&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 3.</v>
       </c>
       <c r="Q80" s="19"/>
@@ -9074,7 +9667,7 @@
         <v>226</v>
       </c>
       <c r="P81" s="16" t="str">
-        <f>"Vgl. "&amp;I81&amp;" ("&amp;N81&amp;"), S. "&amp;O81&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1-3.</v>
       </c>
       <c r="Q81" s="19"/>
@@ -9126,7 +9719,7 @@
         <v>227</v>
       </c>
       <c r="P82" s="16" t="str">
-        <f>"Vgl. "&amp;I82&amp;" ("&amp;N82&amp;"), S. "&amp;O82&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 14-16.</v>
       </c>
       <c r="Q82" s="19"/>
@@ -9178,7 +9771,7 @@
         <v>228</v>
       </c>
       <c r="P83" s="16" t="str">
-        <f>"Vgl. "&amp;I83&amp;" ("&amp;N83&amp;"), S. "&amp;O83&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 1-3, 14-17.</v>
       </c>
       <c r="Q83" s="19"/>
@@ -9230,7 +9823,7 @@
         <v>229</v>
       </c>
       <c r="P84" s="16" t="str">
-        <f>"Vgl. "&amp;I84&amp;" ("&amp;N84&amp;"), S. "&amp;O84&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 2-3.</v>
       </c>
       <c r="Q84" s="19"/>
@@ -9282,7 +9875,7 @@
         <v>226</v>
       </c>
       <c r="P85" s="16" t="str">
-        <f>"Vgl. "&amp;I85&amp;" ("&amp;N85&amp;"), S. "&amp;O85&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1-3.</v>
       </c>
       <c r="Q85" s="19"/>
@@ -9334,7 +9927,7 @@
         <v>230</v>
       </c>
       <c r="P86" s="16" t="str">
-        <f>"Vgl. "&amp;I86&amp;" ("&amp;N86&amp;"), S. "&amp;O86&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 3.</v>
       </c>
       <c r="Q86" s="19"/>
@@ -9386,7 +9979,7 @@
         <v>1125</v>
       </c>
       <c r="P87" s="16" t="str">
-        <f>"Vgl. "&amp;I87&amp;" ("&amp;N87&amp;"), S. "&amp;O87&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luhmann et al. (2019), S. 502-503.</v>
       </c>
       <c r="Q87" s="19"/>
@@ -9438,7 +10031,7 @@
         <v>842</v>
       </c>
       <c r="P88" s="16" t="str">
-        <f>"Vgl. "&amp;I88&amp;" ("&amp;N88&amp;"), S. "&amp;O88&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 2, 13-16.</v>
       </c>
       <c r="Q88" s="19"/>
@@ -9490,7 +10083,7 @@
         <v>22</v>
       </c>
       <c r="P89" s="16" t="str">
-        <f>"Vgl. "&amp;I89&amp;" ("&amp;N89&amp;"), S. "&amp;O89&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 22.</v>
       </c>
       <c r="Q89" s="19"/>
@@ -9542,7 +10135,7 @@
         <v>1124</v>
       </c>
       <c r="P90" s="16" t="str">
-        <f>"Vgl. "&amp;I90&amp;" ("&amp;N90&amp;"), S. "&amp;O90&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luhmann et al. (2019), S. 335-336.</v>
       </c>
       <c r="Q90" s="19"/>
@@ -9594,7 +10187,7 @@
         <v>43</v>
       </c>
       <c r="P91" s="16" t="str">
-        <f>"Vgl. "&amp;I91&amp;" ("&amp;N91&amp;"), S. "&amp;O91&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luong, Faugeras (1996), S. 43.</v>
       </c>
       <c r="Q91" s="19"/>
@@ -9646,7 +10239,7 @@
         <v>600</v>
       </c>
       <c r="P92" s="16" t="str">
-        <f>"Vgl. "&amp;I92&amp;" ("&amp;N92&amp;"), S. "&amp;O92&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Szeliski (2022), S. 600.</v>
       </c>
       <c r="Q92" s="19"/>
@@ -9698,7 +10291,7 @@
         <v>239</v>
       </c>
       <c r="P93" s="16" t="str">
-        <f>"Vgl. "&amp;I93&amp;" ("&amp;N93&amp;"), S. "&amp;O93&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 239.</v>
       </c>
       <c r="Q93" s="19"/>
@@ -9750,7 +10343,7 @@
         <v>244</v>
       </c>
       <c r="P94" s="16" t="str">
-        <f>"Vgl. "&amp;I94&amp;" ("&amp;N94&amp;"), S. "&amp;O94&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 239-240.</v>
       </c>
       <c r="Q94" s="19"/>
@@ -9802,7 +10395,7 @@
         <v>1123</v>
       </c>
       <c r="P95" s="16" t="str">
-        <f>"Vgl. "&amp;I95&amp;" ("&amp;N95&amp;"), S. "&amp;O95&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luhmann et al. (2019), S. 320-321, 328-329.</v>
       </c>
       <c r="Q95" s="19"/>
@@ -9854,7 +10447,7 @@
         <v>843</v>
       </c>
       <c r="P96" s="16" t="str">
-        <f>"Vgl. "&amp;I96&amp;" ("&amp;N96&amp;"), S. "&amp;O96&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luong, Faugeras (1996), S. 45-47.</v>
       </c>
       <c r="Q96" s="19"/>
@@ -9906,7 +10499,7 @@
         <v>257</v>
       </c>
       <c r="P97" s="16" t="str">
-        <f>"Vgl. "&amp;I97&amp;" ("&amp;N97&amp;"), S. "&amp;O97&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Fischler, Bolles (1981), S. 381-395.</v>
       </c>
       <c r="Q97" s="19"/>
@@ -9958,7 +10551,7 @@
         <v>290</v>
       </c>
       <c r="P98" s="16" t="str">
-        <f>"Vgl. "&amp;I98&amp;" ("&amp;N98&amp;"), S. "&amp;O98&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 290.</v>
       </c>
       <c r="Q98" s="19"/>
@@ -10010,7 +10603,7 @@
         <v>251</v>
       </c>
       <c r="P99" s="16" t="str">
-        <f>"Vgl. "&amp;I99&amp;" ("&amp;N99&amp;"), S. "&amp;O99&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Martínez-Otzeta et al. (2022), S. 1-2, 11, 21.</v>
       </c>
       <c r="Q99" s="19"/>
@@ -10062,7 +10655,7 @@
         <v>258</v>
       </c>
       <c r="P100" s="16" t="str">
-        <f>"Vgl. "&amp;I100&amp;" ("&amp;N100&amp;"), S. "&amp;O100&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 290-291.</v>
       </c>
       <c r="Q100" s="19"/>
@@ -10114,7 +10707,7 @@
         <v>844</v>
       </c>
       <c r="P101" s="16" t="str">
-        <f>"Vgl. "&amp;I101&amp;" ("&amp;N101&amp;"), S. "&amp;O101&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Fischler, Bolles (1981), S. 381-385, 389.</v>
       </c>
       <c r="Q101" s="19"/>
@@ -10166,7 +10759,7 @@
         <v>291</v>
       </c>
       <c r="P102" s="16" t="str">
-        <f>"Vgl. "&amp;I102&amp;" ("&amp;N102&amp;"), S. "&amp;O102&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 291.</v>
       </c>
       <c r="Q102" s="19"/>
@@ -10218,7 +10811,7 @@
         <v>258</v>
       </c>
       <c r="P103" s="16" t="str">
-        <f>"Vgl. "&amp;I103&amp;" ("&amp;N103&amp;"), S. "&amp;O103&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Hartley, Zisserman (2004), S. 290-291.</v>
       </c>
       <c r="Q103" s="19"/>
@@ -10270,7 +10863,7 @@
         <v>267</v>
       </c>
       <c r="P104" s="16" t="str">
-        <f>"Vgl. "&amp;I104&amp;" ("&amp;N104&amp;"), S. "&amp;O104&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Li, Yuan (2021), S. 3-7.</v>
       </c>
       <c r="Q104" s="19"/>
@@ -10322,7 +10915,7 @@
         <v>46</v>
       </c>
       <c r="P105" s="16" t="str">
-        <f>"Vgl. "&amp;I105&amp;" ("&amp;N105&amp;"), S. "&amp;O105&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luong, Faugeras (1996), S. 46.</v>
       </c>
       <c r="Q105" s="19"/>
@@ -10374,7 +10967,7 @@
         <v>287</v>
       </c>
       <c r="P106" s="16" t="str">
-        <f>"Vgl. "&amp;I106&amp;" ("&amp;N106&amp;"), S. "&amp;O106&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Jain, Kasturi, Schunck (1995), S. 289-290.</v>
       </c>
       <c r="Q106" s="19" t="s">
@@ -10428,7 +11021,7 @@
         <v>278</v>
       </c>
       <c r="P107" s="16" t="str">
-        <f>"Vgl. "&amp;I107&amp;" ("&amp;N107&amp;"), S. "&amp;O107&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Zhang (2021), S. 1335-1336.</v>
       </c>
       <c r="Q107" s="19"/>
@@ -10480,7 +11073,7 @@
         <v>285</v>
       </c>
       <c r="P108" s="16" t="str">
-        <f>"Vgl. "&amp;I108&amp;" ("&amp;N108&amp;"), S. "&amp;O108&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Zhang (2021), S. 1336.</v>
       </c>
       <c r="Q108" s="19"/>
@@ -10532,7 +11125,7 @@
         <v>285</v>
       </c>
       <c r="P109" s="16" t="str">
-        <f>"Vgl. "&amp;I109&amp;" ("&amp;N109&amp;"), S. "&amp;O109&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Zhang (2021), S. 1336.</v>
       </c>
       <c r="Q109" s="19"/>
@@ -10584,7 +11177,7 @@
         <v>845</v>
       </c>
       <c r="P110" s="16" t="str">
-        <f>"Vgl. "&amp;I110&amp;" ("&amp;N110&amp;"), S. "&amp;O110&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Adil, Mikou, Mouhsen (2022), S. 179-181.</v>
       </c>
       <c r="Q110" s="19" t="s">
@@ -10638,7 +11231,7 @@
         <v>288</v>
       </c>
       <c r="P111" s="16" t="str">
-        <f>"Vgl. "&amp;I111&amp;" ("&amp;N111&amp;"), S. "&amp;O111&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Jain, Kasturi, Schunck (1995), S. 291.</v>
       </c>
       <c r="Q111" s="19"/>
@@ -10690,7 +11283,7 @@
         <v>223</v>
       </c>
       <c r="P112" s="16" t="str">
-        <f>"Vgl. "&amp;I112&amp;" ("&amp;N112&amp;"), S. "&amp;O112&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Jang et al. (2022), S. 1.</v>
       </c>
       <c r="Q112" s="19"/>
@@ -10742,7 +11335,7 @@
         <v>223</v>
       </c>
       <c r="P113" s="16" t="str">
-        <f>"Vgl. "&amp;I113&amp;" ("&amp;N113&amp;"), S. "&amp;O113&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Jang et al. (2022), S. 1.</v>
       </c>
       <c r="Q113" s="19"/>
@@ -10794,7 +11387,7 @@
         <v>311</v>
       </c>
       <c r="P114" s="16" t="str">
-        <f>"Vgl. "&amp;I114&amp;" ("&amp;N114&amp;"), S. "&amp;O114&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Wang et al. (2022), S. 26273-26274.</v>
       </c>
       <c r="Q114" s="19"/>
@@ -10846,7 +11439,7 @@
         <v>316</v>
       </c>
       <c r="P115" s="16" t="str">
-        <f>"Vgl. "&amp;I115&amp;" ("&amp;N115&amp;"), S. "&amp;O115&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xie et al. (2021), S. 136.</v>
       </c>
       <c r="Q115" s="19"/>
@@ -10898,7 +11491,7 @@
         <v>312</v>
       </c>
       <c r="P116" s="16" t="str">
-        <f>"Vgl. "&amp;I116&amp;" ("&amp;N116&amp;"), S. "&amp;O116&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Wang et al. (2022), S. 26274.</v>
       </c>
       <c r="Q116" s="19"/>
@@ -10950,7 +11543,7 @@
         <v>223</v>
       </c>
       <c r="P117" s="16" t="str">
-        <f>"Vgl. "&amp;I117&amp;" ("&amp;N117&amp;"), S. "&amp;O117&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Huang et al. (2021), S. 1.</v>
       </c>
       <c r="Q117" s="19"/>
@@ -11002,7 +11595,7 @@
         <v>332</v>
       </c>
       <c r="P118" s="16" t="str">
-        <f>"Vgl. "&amp;I118&amp;" ("&amp;N118&amp;"), S. "&amp;O118&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Besl, McKay (1992), S. 239-255.</v>
       </c>
       <c r="Q118" s="19"/>
@@ -11054,7 +11647,7 @@
         <v>340</v>
       </c>
       <c r="P119" s="16" t="str">
-        <f>"Vgl. "&amp;I119&amp;" ("&amp;N119&amp;"), S. "&amp;O119&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Yang et al. (2016), S. 1-13.</v>
       </c>
       <c r="Q119" s="19"/>
@@ -11106,7 +11699,7 @@
         <v>348</v>
       </c>
       <c r="P120" s="16" t="str">
-        <f>"Vgl. "&amp;I120&amp;" ("&amp;N120&amp;"), S. "&amp;O120&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Koide et al. (2021), S. 11054-11059.</v>
       </c>
       <c r="Q120" s="19"/>
@@ -11158,7 +11751,7 @@
         <v>349</v>
       </c>
       <c r="P121" s="16" t="str">
-        <f>"Vgl. "&amp;I121&amp;" ("&amp;N121&amp;"), S. "&amp;O121&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xie et al. (2021), S. 138.</v>
       </c>
       <c r="Q121" s="19"/>
@@ -11210,7 +11803,7 @@
         <v>350</v>
       </c>
       <c r="P122" s="16" t="str">
-        <f>"Vgl. "&amp;I122&amp;" ("&amp;N122&amp;"), S. "&amp;O122&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Besl, McKay (1992), S. 242-244.</v>
       </c>
       <c r="Q122" s="19"/>
@@ -11262,7 +11855,7 @@
         <v>244</v>
       </c>
       <c r="P123" s="16" t="str">
-        <f>"Vgl. "&amp;I123&amp;" ("&amp;N123&amp;"), S. "&amp;O123&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Besl, McKay (1992), S. 239-240.</v>
       </c>
       <c r="Q123" s="19"/>
@@ -11314,7 +11907,7 @@
         <v>351</v>
       </c>
       <c r="P124" s="16" t="str">
-        <f>"Vgl. "&amp;I124&amp;" ("&amp;N124&amp;"), S. "&amp;O124&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Besl, McKay (1992), S. 243-244.</v>
       </c>
       <c r="Q124" s="19"/>
@@ -11366,7 +11959,7 @@
         <v>355</v>
       </c>
       <c r="P125" s="16" t="str">
-        <f>"Vgl. "&amp;I125&amp;" ("&amp;N125&amp;"), S. "&amp;O125&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xie et al. (2021), S. 138-139.</v>
       </c>
       <c r="Q125" s="19"/>
@@ -11418,7 +12011,7 @@
         <v>354</v>
       </c>
       <c r="P126" s="16" t="str">
-        <f>"Vgl. "&amp;I126&amp;" ("&amp;N126&amp;"), S. "&amp;O126&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Besl, McKay (1992), S. 244-247.</v>
       </c>
       <c r="Q126" s="19"/>
@@ -11470,7 +12063,7 @@
         <v>355</v>
       </c>
       <c r="P127" s="16" t="str">
-        <f>"Vgl. "&amp;I127&amp;" ("&amp;N127&amp;"), S. "&amp;O127&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xie et al. (2021), S. 138-139.</v>
       </c>
       <c r="Q127" s="19"/>
@@ -11522,7 +12115,7 @@
         <v>353</v>
       </c>
       <c r="P128" s="16" t="str">
-        <f>"Vgl. "&amp;I128&amp;" ("&amp;N128&amp;"), S. "&amp;O128&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Szeliski (2022), S. 411, 559, 728-729.</v>
       </c>
       <c r="Q128" s="19"/>
@@ -11574,7 +12167,7 @@
         <v>355</v>
       </c>
       <c r="P129" s="16" t="str">
-        <f>"Vgl. "&amp;I129&amp;" ("&amp;N129&amp;"), S. "&amp;O129&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xie et al. (2021), S. 138-139.</v>
       </c>
       <c r="Q129" s="19"/>
@@ -11626,7 +12219,7 @@
         <v>351</v>
       </c>
       <c r="P130" s="16" t="str">
-        <f>"Vgl. "&amp;I130&amp;" ("&amp;N130&amp;"), S. "&amp;O130&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Besl, McKay (1992), S. 243-244.</v>
       </c>
       <c r="Q130" s="19"/>
@@ -11678,7 +12271,7 @@
         <v>349</v>
       </c>
       <c r="P131" s="16" t="str">
-        <f>"Vgl. "&amp;I131&amp;" ("&amp;N131&amp;"), S. "&amp;O131&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xie et al. (2021), S. 138.</v>
       </c>
       <c r="Q131" s="19"/>
@@ -11730,7 +12323,7 @@
         <v>76</v>
       </c>
       <c r="P132" s="16" t="str">
-        <f>"Vgl. "&amp;I132&amp;" ("&amp;N132&amp;"), S. "&amp;O132&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Mukundan (2022), S. 6-7.</v>
       </c>
       <c r="Q132" s="19" t="s">
@@ -11784,7 +12377,7 @@
         <v>378</v>
       </c>
       <c r="P133" s="16" t="str">
-        <f>"Vgl. "&amp;I133&amp;" ("&amp;N133&amp;"), S. "&amp;O133&amp;"."</f>
+        <f t="shared" ref="P133:P196" si="3">"Vgl. "&amp;I133&amp;" ("&amp;N133&amp;"), S. "&amp;O133&amp;"."</f>
         <v>Vgl. Mukundan (2022), S. 6-7, 11-12.</v>
       </c>
       <c r="Q133" s="19" t="s">
@@ -11838,7 +12431,7 @@
         <v>371</v>
       </c>
       <c r="P134" s="16" t="str">
-        <f>"Vgl. "&amp;I134&amp;" ("&amp;N134&amp;"), S. "&amp;O134&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bunge, Botsch, Alexa (2021), S. 217.</v>
       </c>
       <c r="Q134" s="19"/>
@@ -11890,7 +12483,7 @@
         <v>379</v>
       </c>
       <c r="P135" s="16" t="str">
-        <f>"Vgl. "&amp;I135&amp;" ("&amp;N135&amp;"), S. "&amp;O135&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Mukundan (2022), S. 9-11.</v>
       </c>
       <c r="Q135" s="19" t="s">
@@ -11944,7 +12537,7 @@
         <v>391</v>
       </c>
       <c r="P136" s="16" t="str">
-        <f>"Vgl. "&amp;I136&amp;" ("&amp;N136&amp;"), S. "&amp;O136&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Arndt et al. (2015), S. 198.</v>
       </c>
       <c r="Q136" s="19"/>
@@ -11996,7 +12589,7 @@
         <v>380</v>
       </c>
       <c r="P137" s="16" t="str">
-        <f>"Vgl. "&amp;I137&amp;" ("&amp;N137&amp;"), S. "&amp;O137&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q137" s="19"/>
@@ -12048,7 +12641,7 @@
         <v>390</v>
       </c>
       <c r="P138" s="16" t="str">
-        <f>"Vgl. "&amp;I138&amp;" ("&amp;N138&amp;"), S. "&amp;O138&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-800.</v>
       </c>
       <c r="Q138" s="19"/>
@@ -12100,7 +12693,7 @@
         <v>396</v>
       </c>
       <c r="P139" s="16" t="str">
-        <f>"Vgl. "&amp;I139&amp;" ("&amp;N139&amp;"), S. "&amp;O139&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-794.</v>
       </c>
       <c r="Q139" s="19"/>
@@ -12152,7 +12745,7 @@
         <v>396</v>
       </c>
       <c r="P140" s="16" t="str">
-        <f>"Vgl. "&amp;I140&amp;" ("&amp;N140&amp;"), S. "&amp;O140&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-794.</v>
       </c>
       <c r="Q140" s="19"/>
@@ -12204,7 +12797,7 @@
         <v>420</v>
       </c>
       <c r="P141" s="16" t="str">
-        <f>"Vgl. "&amp;I141&amp;" ("&amp;N141&amp;"), S. "&amp;O141&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bowyer (1981), S. 162, 165-166.</v>
       </c>
       <c r="Q141" s="19"/>
@@ -12256,7 +12849,7 @@
         <v>398</v>
       </c>
       <c r="P142" s="16" t="str">
-        <f>"Vgl. "&amp;I142&amp;" ("&amp;N142&amp;"), S. "&amp;O142&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 4-5.</v>
       </c>
       <c r="Q142" s="19"/>
@@ -12308,7 +12901,7 @@
         <v>411</v>
       </c>
       <c r="P143" s="16" t="str">
-        <f>"Vgl. "&amp;I143&amp;" ("&amp;N143&amp;"), S. "&amp;O143&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bowyer (1981), S. 162-166.</v>
       </c>
       <c r="Q143" s="19"/>
@@ -12360,7 +12953,7 @@
         <v>419</v>
       </c>
       <c r="P144" s="16" t="str">
-        <f>"Vgl. "&amp;I144&amp;" ("&amp;N144&amp;"), S. "&amp;O144&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Watson (1981), S. 167-172.</v>
       </c>
       <c r="Q144" s="19"/>
@@ -12412,7 +13005,7 @@
         <v>421</v>
       </c>
       <c r="P145" s="16" t="str">
-        <f>"Vgl. "&amp;I145&amp;" ("&amp;N145&amp;"), S. "&amp;O145&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 4.</v>
       </c>
       <c r="Q145" s="19"/>
@@ -12464,7 +13057,7 @@
         <v>380</v>
       </c>
       <c r="P146" s="16" t="str">
-        <f>"Vgl. "&amp;I146&amp;" ("&amp;N146&amp;"), S. "&amp;O146&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q146" s="19"/>
@@ -12516,7 +13109,7 @@
         <v>380</v>
       </c>
       <c r="P147" s="16" t="str">
-        <f>"Vgl. "&amp;I147&amp;" ("&amp;N147&amp;"), S. "&amp;O147&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q147" s="19"/>
@@ -12568,7 +13161,7 @@
         <v>443</v>
       </c>
       <c r="P148" s="16" t="str">
-        <f>"Vgl. "&amp;I148&amp;" ("&amp;N148&amp;"), S. "&amp;O148&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 4, 6-7.</v>
       </c>
       <c r="Q148" s="19"/>
@@ -12620,7 +13213,7 @@
         <v>380</v>
       </c>
       <c r="P149" s="16" t="str">
-        <f>"Vgl. "&amp;I149&amp;" ("&amp;N149&amp;"), S. "&amp;O149&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q149" s="19"/>
@@ -12672,7 +13265,7 @@
         <v>380</v>
       </c>
       <c r="P150" s="16" t="str">
-        <f>"Vgl. "&amp;I150&amp;" ("&amp;N150&amp;"), S. "&amp;O150&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q150" s="19"/>
@@ -12724,7 +13317,7 @@
         <v>426</v>
       </c>
       <c r="P151" s="16" t="str">
-        <f>"Vgl. "&amp;I151&amp;" ("&amp;N151&amp;"), S. "&amp;O151&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Sloan, Houlsby (1984), S. 193-194.</v>
       </c>
       <c r="Q151" s="19"/>
@@ -12776,7 +13369,7 @@
         <v>426</v>
       </c>
       <c r="P152" s="16" t="str">
-        <f>"Vgl. "&amp;I152&amp;" ("&amp;N152&amp;"), S. "&amp;O152&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Sloan, Houlsby (1984), S. 193-194.</v>
       </c>
       <c r="Q152" s="19"/>
@@ -12828,7 +13421,7 @@
         <v>380</v>
       </c>
       <c r="P153" s="16" t="str">
-        <f>"Vgl. "&amp;I153&amp;" ("&amp;N153&amp;"), S. "&amp;O153&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q153" s="19"/>
@@ -12880,7 +13473,7 @@
         <v>380</v>
       </c>
       <c r="P154" s="16" t="str">
-        <f>"Vgl. "&amp;I154&amp;" ("&amp;N154&amp;"), S. "&amp;O154&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="Q154" s="19"/>
@@ -12932,7 +13525,7 @@
         <v>430</v>
       </c>
       <c r="P155" s="16" t="str">
-        <f>"Vgl. "&amp;I155&amp;" ("&amp;N155&amp;"), S. "&amp;O155&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Sloan, Houlsby (1984), S. 194.</v>
       </c>
       <c r="Q155" s="19"/>
@@ -12984,7 +13577,7 @@
         <v>431</v>
       </c>
       <c r="P156" s="16" t="str">
-        <f>"Vgl. "&amp;I156&amp;" ("&amp;N156&amp;"), S. "&amp;O156&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bowyer (1981), S. 162-163.</v>
       </c>
       <c r="Q156" s="19"/>
@@ -13036,7 +13629,7 @@
         <v>452</v>
       </c>
       <c r="P157" s="16" t="str">
-        <f>"Vgl. "&amp;I157&amp;" ("&amp;N157&amp;"), S. "&amp;O157&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-796.</v>
       </c>
       <c r="Q157" s="19"/>
@@ -13088,7 +13681,7 @@
         <v>230</v>
       </c>
       <c r="P158" s="16" t="str">
-        <f>"Vgl. "&amp;I158&amp;" ("&amp;N158&amp;"), S. "&amp;O158&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 3.</v>
       </c>
       <c r="Q158" s="19"/>
@@ -13140,7 +13733,7 @@
         <v>230</v>
       </c>
       <c r="P159" s="16" t="str">
-        <f>"Vgl. "&amp;I159&amp;" ("&amp;N159&amp;"), S. "&amp;O159&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 3.</v>
       </c>
       <c r="Q159" s="19"/>
@@ -13192,7 +13785,7 @@
         <v>469</v>
       </c>
       <c r="P160" s="16" t="str">
-        <f>"Vgl. "&amp;I160&amp;" ("&amp;N160&amp;"), S. "&amp;O160&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Brzeziński et al. (2022), S. 7-8.</v>
       </c>
       <c r="Q160" s="19"/>
@@ -13244,7 +13837,7 @@
         <v>460</v>
       </c>
       <c r="P161" s="16" t="str">
-        <f>"Vgl. "&amp;I161&amp;" ("&amp;N161&amp;"), S. "&amp;O161&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Concha-Meyer et al. (2018), S. 1868-1869.</v>
       </c>
       <c r="Q161" s="19"/>
@@ -13296,7 +13889,7 @@
         <v>846</v>
       </c>
       <c r="P162" s="16" t="str">
-        <f>"Vgl. "&amp;I162&amp;" ("&amp;N162&amp;"), S. "&amp;O162&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Triggs et al. (2000), S. 298-300, 304-305.</v>
       </c>
       <c r="Q162" s="19"/>
@@ -13348,7 +13941,7 @@
         <v>491</v>
       </c>
       <c r="P163" s="16" t="str">
-        <f>"Vgl. "&amp;I163&amp;" ("&amp;N163&amp;"), S. "&amp;O163&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bay, Tuytelaars, Van Gool (2006), S. 404-417.</v>
       </c>
       <c r="Q163" s="19" t="s">
@@ -13402,7 +13995,7 @@
         <v>492</v>
       </c>
       <c r="P164" s="16" t="str">
-        <f>"Vgl. "&amp;I164&amp;" ("&amp;N164&amp;"), S. "&amp;O164&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bay, Tuytelaars, Van Gool (2006), S. 404.</v>
       </c>
       <c r="Q164" s="19"/>
@@ -13454,7 +14047,7 @@
         <v>499</v>
       </c>
       <c r="P165" s="16" t="str">
-        <f>"Vgl. "&amp;I165&amp;" ("&amp;N165&amp;"), S. "&amp;O165&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bansal, Kumar, Kumar (2021), S. 18843-18844.</v>
       </c>
       <c r="Q165" s="19"/>
@@ -13506,7 +14099,7 @@
         <v>499</v>
       </c>
       <c r="P166" s="16" t="str">
-        <f>"Vgl. "&amp;I166&amp;" ("&amp;N166&amp;"), S. "&amp;O166&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Bansal, Kumar, Kumar (2021), S. 18843-18844.</v>
       </c>
       <c r="Q166" s="19"/>
@@ -13558,7 +14151,7 @@
         <v>507</v>
       </c>
       <c r="P167" s="16" t="str">
-        <f>"Vgl. "&amp;I167&amp;" ("&amp;N167&amp;"), S. "&amp;O167&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Furukawa, Ponce (2010), S. 1-8.</v>
       </c>
       <c r="Q167" s="19"/>
@@ -13610,7 +14203,7 @@
         <v>525</v>
       </c>
       <c r="P168" s="16" t="str">
-        <f>"Vgl. "&amp;I168&amp;" ("&amp;N168&amp;"), S. "&amp;O168&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Wang, Xu, Gu (2020), S. 170355-170356.</v>
       </c>
       <c r="Q168" s="19"/>
@@ -13662,7 +14255,7 @@
         <v>223</v>
       </c>
       <c r="P169" s="16" t="str">
-        <f>"Vgl. "&amp;I169&amp;" ("&amp;N169&amp;"), S. "&amp;O169&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Ren et al. (2022), S. 1.</v>
       </c>
       <c r="Q169" s="19"/>
@@ -13714,7 +14307,7 @@
         <v>522</v>
       </c>
       <c r="P170" s="16" t="str">
-        <f>"Vgl. "&amp;I170&amp;" ("&amp;N170&amp;"), S. "&amp;O170&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Wang, Xu, Gu (2020), S. 170355-170363.</v>
       </c>
       <c r="Q170" s="19"/>
@@ -13766,7 +14359,7 @@
         <v>523</v>
       </c>
       <c r="P171" s="16" t="str">
-        <f>"Vgl. "&amp;I171&amp;" ("&amp;N171&amp;"), S. "&amp;O171&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Ren et al. (2022), S. 1-14.</v>
       </c>
       <c r="Q171" s="19"/>
@@ -13818,7 +14411,7 @@
         <v>25</v>
       </c>
       <c r="P172" s="16" t="str">
-        <f>"Vgl. "&amp;I172&amp;" ("&amp;N172&amp;"), S. "&amp;O172&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Raju, Sazonov (2022), S. 1-2.</v>
       </c>
       <c r="Q172" s="19"/>
@@ -13870,7 +14463,7 @@
         <v>885</v>
       </c>
       <c r="P173" s="16" t="str">
-        <f>"Vgl. "&amp;I173&amp;" ("&amp;N173&amp;"), S. "&amp;O173&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Amoutzopoulos et al. (2020), S. 885.</v>
       </c>
       <c r="Q173" s="19"/>
@@ -13922,7 +14515,7 @@
         <v>226</v>
       </c>
       <c r="P174" s="16" t="str">
-        <f>"Vgl. "&amp;I174&amp;" ("&amp;N174&amp;"), S. "&amp;O174&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Tahir, Loo (2021), S. 1-3.</v>
       </c>
       <c r="Q174" s="19"/>
@@ -13974,7 +14567,7 @@
         <v>223</v>
       </c>
       <c r="P175" s="16" t="str">
-        <f>"Vgl. "&amp;I175&amp;" ("&amp;N175&amp;"), S. "&amp;O175&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Raju, Sazonov (2022), S. 1.</v>
       </c>
       <c r="Q175" s="19"/>
@@ -14026,7 +14619,7 @@
         <v>223</v>
       </c>
       <c r="P176" s="16" t="str">
-        <f>"Vgl. "&amp;I176&amp;" ("&amp;N176&amp;"), S. "&amp;O176&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Tahir, Loo (2021), S. 1.</v>
       </c>
       <c r="Q176" s="19"/>
@@ -14078,7 +14671,7 @@
         <v>572</v>
       </c>
       <c r="P177" s="16" t="str">
-        <f>"Vgl. "&amp;I177&amp;" ("&amp;N177&amp;"), S. "&amp;O177&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5-6.</v>
       </c>
       <c r="Q177" s="19"/>
@@ -14130,7 +14723,7 @@
         <v>573</v>
       </c>
       <c r="P178" s="16" t="str">
-        <f>"Vgl. "&amp;I178&amp;" ("&amp;N178&amp;"), S. "&amp;O178&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5-10.</v>
       </c>
       <c r="Q178" s="19"/>
@@ -14182,7 +14775,7 @@
         <v>572</v>
       </c>
       <c r="P179" s="16" t="str">
-        <f>"Vgl. "&amp;I179&amp;" ("&amp;N179&amp;"), S. "&amp;O179&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5-6.</v>
       </c>
       <c r="Q179" s="19"/>
@@ -14234,7 +14827,7 @@
         <v>847</v>
       </c>
       <c r="P180" s="16" t="str">
-        <f>"Vgl. "&amp;I180&amp;" ("&amp;N180&amp;"), S. "&amp;O180&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5-8.</v>
       </c>
       <c r="Q180" s="19"/>
@@ -14286,7 +14879,7 @@
         <v>601</v>
       </c>
       <c r="P181" s="16" t="str">
-        <f>"Vgl. "&amp;I181&amp;" ("&amp;N181&amp;"), S. "&amp;O181&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lam et al. (2021), S. 695-707.</v>
       </c>
       <c r="Q181" s="19"/>
@@ -14338,7 +14931,7 @@
         <v>609</v>
       </c>
       <c r="P182" s="16" t="str">
-        <f>"Vgl. "&amp;I182&amp;" ("&amp;N182&amp;"), S. "&amp;O182&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Naritomi, Yanai (2020), S. 818-819.</v>
       </c>
       <c r="Q182" s="19"/>
@@ -14390,7 +14983,7 @@
         <v>574</v>
       </c>
       <c r="P183" s="16" t="str">
-        <f>"Vgl. "&amp;I183&amp;" ("&amp;N183&amp;"), S. "&amp;O183&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5.</v>
       </c>
       <c r="Q183" s="19"/>
@@ -14442,7 +15035,7 @@
         <v>574</v>
       </c>
       <c r="P184" s="16" t="str">
-        <f>"Vgl. "&amp;I184&amp;" ("&amp;N184&amp;"), S. "&amp;O184&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5.</v>
       </c>
       <c r="Q184" s="19"/>
@@ -14494,7 +15087,7 @@
         <v>610</v>
       </c>
       <c r="P185" s="16" t="str">
-        <f>"Vgl. "&amp;I185&amp;" ("&amp;N185&amp;"), S. "&amp;O185&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 8-9.</v>
       </c>
       <c r="Q185" s="19"/>
@@ -14546,7 +15139,7 @@
         <v>617</v>
       </c>
       <c r="P186" s="16" t="str">
-        <f>"Vgl. "&amp;I186&amp;" ("&amp;N186&amp;"), S. "&amp;O186&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Okamoto, Yanai (2016), S. 63-70.</v>
       </c>
       <c r="Q186" s="19"/>
@@ -14598,7 +15191,7 @@
         <v>610</v>
       </c>
       <c r="P187" s="16" t="str">
-        <f>"Vgl. "&amp;I187&amp;" ("&amp;N187&amp;"), S. "&amp;O187&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 8-9.</v>
       </c>
       <c r="Q187" s="19"/>
@@ -14650,7 +15243,7 @@
         <v>624</v>
       </c>
       <c r="P188" s="16" t="str">
-        <f>"Vgl. "&amp;I188&amp;" ("&amp;N188&amp;"), S. "&amp;O188&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Jia et al. (2012), S. 76-86.</v>
       </c>
       <c r="Q188" s="19"/>
@@ -14702,7 +15295,7 @@
         <v>574</v>
       </c>
       <c r="P189" s="16" t="str">
-        <f>"Vgl. "&amp;I189&amp;" ("&amp;N189&amp;"), S. "&amp;O189&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5.</v>
       </c>
       <c r="Q189" s="19"/>
@@ -14754,7 +15347,7 @@
         <v>626</v>
       </c>
       <c r="P190" s="16" t="str">
-        <f>"Vgl. "&amp;I190&amp;" ("&amp;N190&amp;"), S. "&amp;O190&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5, 6-8.</v>
       </c>
       <c r="Q190" s="19"/>
@@ -14806,7 +15399,7 @@
         <v>633</v>
       </c>
       <c r="P191" s="16" t="str">
-        <f>"Vgl. "&amp;I191&amp;" ("&amp;N191&amp;"), S. "&amp;O191&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Qin et al. (2022), S. 1-16.</v>
       </c>
       <c r="Q191" s="19"/>
@@ -14858,7 +15451,7 @@
         <v>1108</v>
       </c>
       <c r="P192" s="21" t="str">
-        <f>"Vgl. "&amp;I192&amp;" ("&amp;N192&amp;"), S. "&amp;O192&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Ando et al. (2019), S. 76–81.</v>
       </c>
       <c r="Q192" s="19"/>
@@ -14910,7 +15503,7 @@
         <v>643</v>
       </c>
       <c r="P193" s="16" t="str">
-        <f>"Vgl. "&amp;I193&amp;" ("&amp;N193&amp;"), S. "&amp;O193&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Deshmukh, Metre, Pawar (2021), S. 420-421.</v>
       </c>
       <c r="Q193" s="19"/>
@@ -14962,7 +15555,7 @@
         <v>644</v>
       </c>
       <c r="P194" s="16" t="str">
-        <f>"Vgl. "&amp;I194&amp;" ("&amp;N194&amp;"), S. "&amp;O194&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Deshmukh, Metre, Pawar (2021), S. 418-420.</v>
       </c>
       <c r="Q194" s="19"/>
@@ -15014,7 +15607,7 @@
         <v>848</v>
       </c>
       <c r="P195" s="16" t="str">
-        <f>"Vgl. "&amp;I195&amp;" ("&amp;N195&amp;"), S. "&amp;O195&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Lo et al. (2020), S. 5-6, 9-10.</v>
       </c>
       <c r="Q195" s="19"/>
@@ -15066,7 +15659,7 @@
         <v>647</v>
       </c>
       <c r="P196" s="16" t="str">
-        <f>"Vgl. "&amp;I196&amp;" ("&amp;N196&amp;"), S. "&amp;O196&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Deshmukh, Metre, Pawar (2021), S. 418-422.</v>
       </c>
       <c r="Q196" s="19"/>
@@ -15118,7 +15711,7 @@
         <v>652</v>
       </c>
       <c r="P197" s="16" t="str">
-        <f>"Vgl. "&amp;I197&amp;" ("&amp;N197&amp;"), S. "&amp;O197&amp;"."</f>
+        <f t="shared" ref="P197:P209" si="4">"Vgl. "&amp;I197&amp;" ("&amp;N197&amp;"), S. "&amp;O197&amp;"."</f>
         <v>Vgl. Lo et al. (2020), S. 577-586.</v>
       </c>
       <c r="Q197" s="19"/>
@@ -15170,7 +15763,7 @@
         <v>1117</v>
       </c>
       <c r="P198" s="21" t="str">
-        <f>"Vgl. "&amp;I198&amp;" ("&amp;N198&amp;"), S. "&amp;O198&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Tanno, Ege, Yanai (2018), S. 46-47.</v>
       </c>
       <c r="Q198" s="19"/>
@@ -15222,7 +15815,7 @@
         <v>575</v>
       </c>
       <c r="P199" s="16" t="str">
-        <f>"Vgl. "&amp;I199&amp;" ("&amp;N199&amp;"), S. "&amp;O199&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5-7.</v>
       </c>
       <c r="Q199" s="19"/>
@@ -15274,7 +15867,7 @@
         <v>583</v>
       </c>
       <c r="P200" s="16" t="str">
-        <f>"Vgl. "&amp;I200&amp;" ("&amp;N200&amp;"), S. "&amp;O200&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Konstantakopoulos, Georga, Fotiadis (2021), S. 1-4.</v>
       </c>
       <c r="Q200" s="19"/>
@@ -15326,7 +15919,7 @@
         <v>590</v>
       </c>
       <c r="P201" s="16" t="str">
-        <f>"Vgl. "&amp;I201&amp;" ("&amp;N201&amp;"), S. "&amp;O201&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Bándi et al. (2020), S. 55-60.</v>
       </c>
       <c r="Q201" s="19"/>
@@ -15378,7 +15971,7 @@
         <v>1162</v>
       </c>
       <c r="P202" s="21" t="str">
-        <f>"Vgl. "&amp;I202&amp;" ("&amp;N202&amp;"), S. "&amp;O202&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Dehais et al. (2018), S. 1090-1099.</v>
       </c>
       <c r="Q202" s="19"/>
@@ -15430,7 +16023,7 @@
         <v>449</v>
       </c>
       <c r="P203" s="16" t="str">
-        <f>"Vgl. "&amp;I203&amp;" ("&amp;N203&amp;"), S. "&amp;O203&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
       </c>
       <c r="Q203" s="19"/>
@@ -15482,7 +16075,7 @@
         <v>449</v>
       </c>
       <c r="P204" s="16" t="str">
-        <f>"Vgl. "&amp;I204&amp;" ("&amp;N204&amp;"), S. "&amp;O204&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q204" s="19"/>
@@ -15534,7 +16127,7 @@
         <v>449</v>
       </c>
       <c r="P205" s="16" t="str">
-        <f>"Vgl. "&amp;I205&amp;" ("&amp;N205&amp;"), S. "&amp;O205&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="Q205" s="19"/>
@@ -15586,7 +16179,7 @@
         <v>541</v>
       </c>
       <c r="P206" s="16" t="str">
-        <f>"Vgl. "&amp;I206&amp;" ("&amp;N206&amp;"), S. "&amp;O206&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Sutherland (1968), S. 757-764.</v>
       </c>
       <c r="Q206" s="50" t="s">
@@ -15640,7 +16233,7 @@
         <v>25</v>
       </c>
       <c r="P207" s="16" t="str">
-        <f>"Vgl. "&amp;I207&amp;" ("&amp;N207&amp;"), S. "&amp;O207&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Arena et al. (2022), S. 1-2.</v>
       </c>
       <c r="Q207" s="19"/>
@@ -15692,7 +16285,7 @@
         <v>449</v>
       </c>
       <c r="P208" s="16" t="str">
-        <f>"Vgl. "&amp;I208&amp;" ("&amp;N208&amp;"), S. "&amp;O208&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q208" s="19"/>
@@ -15744,7 +16337,7 @@
         <v>449</v>
       </c>
       <c r="P209" s="16" t="str">
-        <f>"Vgl. "&amp;I209&amp;" ("&amp;N209&amp;"), S. "&amp;O209&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q209" s="19"/>
@@ -15796,7 +16389,7 @@
         <v>449</v>
       </c>
       <c r="P210" s="16" t="str">
-        <f t="shared" ref="P210:P214" si="1">"Vgl. "&amp;I210&amp;" ("&amp;N210&amp;"), S. "&amp;O210&amp;"."</f>
+        <f t="shared" ref="P210:P214" si="5">"Vgl. "&amp;I210&amp;" ("&amp;N210&amp;"), S. "&amp;O210&amp;"."</f>
         <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q210" s="19"/>
@@ -15822,7 +16415,7 @@
       <c r="N211" s="20"/>
       <c r="O211" s="22"/>
       <c r="P211" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q211" s="19"/>
@@ -15848,7 +16441,7 @@
       <c r="N212" s="20"/>
       <c r="O212" s="21"/>
       <c r="P212" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q212" s="19"/>
@@ -15874,7 +16467,7 @@
       <c r="N213" s="20"/>
       <c r="O213" s="22"/>
       <c r="P213" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q213" s="19"/>
@@ -15900,7 +16493,7 @@
       <c r="N214" s="20"/>
       <c r="O214" s="22"/>
       <c r="P214" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q214" s="19"/>
@@ -15926,7 +16519,7 @@
       <c r="N215" s="20"/>
       <c r="O215" s="22"/>
       <c r="P215" s="16" t="str">
-        <f t="shared" ref="P212:P262" si="2">"Vgl. "&amp;I215&amp;" ("&amp;N215&amp;"), S. "&amp;O215&amp;"."</f>
+        <f t="shared" ref="P215:P262" si="6">"Vgl. "&amp;I215&amp;" ("&amp;N215&amp;"), S. "&amp;O215&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q215" s="19"/>
@@ -15952,7 +16545,7 @@
       <c r="N216" s="20"/>
       <c r="O216" s="22"/>
       <c r="P216" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q216" s="19"/>
@@ -15978,7 +16571,7 @@
       <c r="N217" s="20"/>
       <c r="O217" s="22"/>
       <c r="P217" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q217" s="19"/>
@@ -16004,7 +16597,7 @@
       <c r="N218" s="20"/>
       <c r="O218" s="22"/>
       <c r="P218" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q218" s="19"/>
@@ -16030,7 +16623,7 @@
       <c r="N219" s="20"/>
       <c r="O219" s="22"/>
       <c r="P219" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q219" s="19"/>
@@ -16056,7 +16649,7 @@
       <c r="N220" s="20"/>
       <c r="O220" s="22"/>
       <c r="P220" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q220" s="19"/>
@@ -16082,7 +16675,7 @@
       <c r="N221" s="20"/>
       <c r="O221" s="22"/>
       <c r="P221" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q221" s="19"/>
@@ -16108,7 +16701,7 @@
       <c r="N222" s="20"/>
       <c r="O222" s="22"/>
       <c r="P222" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q222" s="19"/>
@@ -16134,7 +16727,7 @@
       <c r="N223" s="20"/>
       <c r="O223" s="22"/>
       <c r="P223" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q223" s="19"/>
@@ -16160,7 +16753,7 @@
       <c r="N224" s="20"/>
       <c r="O224" s="22"/>
       <c r="P224" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q224" s="19"/>
@@ -16186,7 +16779,7 @@
       <c r="N225" s="20"/>
       <c r="O225" s="22"/>
       <c r="P225" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q225" s="19"/>
@@ -16212,7 +16805,7 @@
       <c r="N226" s="20"/>
       <c r="O226" s="22"/>
       <c r="P226" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q226" s="19"/>
@@ -16238,7 +16831,7 @@
       <c r="N227" s="20"/>
       <c r="O227" s="22"/>
       <c r="P227" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q227" s="19"/>
@@ -16264,7 +16857,7 @@
       <c r="N228" s="20"/>
       <c r="O228" s="22"/>
       <c r="P228" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q228" s="19"/>
@@ -16290,7 +16883,7 @@
       <c r="N229" s="20"/>
       <c r="O229" s="22"/>
       <c r="P229" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q229" s="19"/>
@@ -16316,7 +16909,7 @@
       <c r="N230" s="20"/>
       <c r="O230" s="22"/>
       <c r="P230" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q230" s="19"/>
@@ -16342,7 +16935,7 @@
       <c r="N231" s="20"/>
       <c r="O231" s="22"/>
       <c r="P231" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q231" s="19"/>
@@ -16368,7 +16961,7 @@
       <c r="N232" s="20"/>
       <c r="O232" s="22"/>
       <c r="P232" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q232" s="19"/>
@@ -16394,7 +16987,7 @@
       <c r="N233" s="20"/>
       <c r="O233" s="22"/>
       <c r="P233" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q233" s="19"/>
@@ -16420,7 +17013,7 @@
       <c r="N234" s="20"/>
       <c r="O234" s="22"/>
       <c r="P234" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q234" s="19"/>
@@ -16446,7 +17039,7 @@
       <c r="N235" s="20"/>
       <c r="O235" s="22"/>
       <c r="P235" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q235" s="19"/>
@@ -16472,7 +17065,7 @@
       <c r="N236" s="20"/>
       <c r="O236" s="22"/>
       <c r="P236" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q236" s="19"/>
@@ -16498,7 +17091,7 @@
       <c r="N237" s="20"/>
       <c r="O237" s="22"/>
       <c r="P237" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q237" s="19"/>
@@ -16524,7 +17117,7 @@
       <c r="N238" s="20"/>
       <c r="O238" s="22"/>
       <c r="P238" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q238" s="19"/>
@@ -16550,7 +17143,7 @@
       <c r="N239" s="20"/>
       <c r="O239" s="22"/>
       <c r="P239" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q239" s="19"/>
@@ -16576,7 +17169,7 @@
       <c r="N240" s="20"/>
       <c r="O240" s="22"/>
       <c r="P240" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q240" s="19"/>
@@ -16602,7 +17195,7 @@
       <c r="N241" s="20"/>
       <c r="O241" s="22"/>
       <c r="P241" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q241" s="19"/>
@@ -16628,7 +17221,7 @@
       <c r="N242" s="20"/>
       <c r="O242" s="22"/>
       <c r="P242" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q242" s="19"/>
@@ -16654,7 +17247,7 @@
       <c r="N243" s="20"/>
       <c r="O243" s="22"/>
       <c r="P243" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q243" s="19"/>
@@ -16680,7 +17273,7 @@
       <c r="N244" s="20"/>
       <c r="O244" s="22"/>
       <c r="P244" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q244" s="19"/>
@@ -16706,7 +17299,7 @@
       <c r="N245" s="20"/>
       <c r="O245" s="22"/>
       <c r="P245" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q245" s="19"/>
@@ -16732,7 +17325,7 @@
       <c r="N246" s="20"/>
       <c r="O246" s="22"/>
       <c r="P246" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q246" s="19"/>
@@ -16758,7 +17351,7 @@
       <c r="N247" s="20"/>
       <c r="O247" s="22"/>
       <c r="P247" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q247" s="19"/>
@@ -16784,7 +17377,7 @@
       <c r="N248" s="20"/>
       <c r="O248" s="22"/>
       <c r="P248" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q248" s="19"/>
@@ -16810,7 +17403,7 @@
       <c r="N249" s="20"/>
       <c r="O249" s="22"/>
       <c r="P249" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q249" s="19"/>
@@ -16836,7 +17429,7 @@
       <c r="N250" s="20"/>
       <c r="O250" s="22"/>
       <c r="P250" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q250" s="19"/>
@@ -16862,7 +17455,7 @@
       <c r="N251" s="20"/>
       <c r="O251" s="22"/>
       <c r="P251" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q251" s="19"/>
@@ -16888,7 +17481,7 @@
       <c r="N252" s="20"/>
       <c r="O252" s="22"/>
       <c r="P252" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q252" s="19"/>
@@ -16914,7 +17507,7 @@
       <c r="N253" s="20"/>
       <c r="O253" s="22"/>
       <c r="P253" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q253" s="19"/>
@@ -16940,7 +17533,7 @@
       <c r="N254" s="20"/>
       <c r="O254" s="22"/>
       <c r="P254" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q254" s="19"/>
@@ -16966,7 +17559,7 @@
       <c r="N255" s="20"/>
       <c r="O255" s="22"/>
       <c r="P255" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q255" s="19"/>
@@ -16992,7 +17585,7 @@
       <c r="N256" s="20"/>
       <c r="O256" s="22"/>
       <c r="P256" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q256" s="19"/>
@@ -17018,7 +17611,7 @@
       <c r="N257" s="20"/>
       <c r="O257" s="22"/>
       <c r="P257" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q257" s="19"/>
@@ -17044,7 +17637,7 @@
       <c r="N258" s="20"/>
       <c r="O258" s="22"/>
       <c r="P258" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q258" s="19"/>
@@ -17070,7 +17663,7 @@
       <c r="N259" s="20"/>
       <c r="O259" s="21"/>
       <c r="P259" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q259" s="19"/>
@@ -17096,7 +17689,7 @@
       <c r="N260" s="20"/>
       <c r="O260" s="21"/>
       <c r="P260" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q260" s="19"/>
@@ -17122,7 +17715,7 @@
       <c r="N261" s="20"/>
       <c r="O261" s="21"/>
       <c r="P261" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q261" s="19"/>
@@ -17148,7 +17741,7 @@
       <c r="N262" s="20"/>
       <c r="O262" s="21"/>
       <c r="P262" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q262" s="19"/>
@@ -17174,7 +17767,7 @@
       <c r="N263" s="20"/>
       <c r="O263" s="21"/>
       <c r="P263" s="30" t="str">
-        <f t="shared" ref="P263:P285" si="3">"Vgl. "&amp;I263&amp;" ("&amp;N263&amp;"), S. "&amp;O263&amp;"."</f>
+        <f t="shared" ref="P263:P285" si="7">"Vgl. "&amp;I263&amp;" ("&amp;N263&amp;"), S. "&amp;O263&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q263" s="19"/>
@@ -17200,7 +17793,7 @@
       <c r="N264" s="20"/>
       <c r="O264" s="21"/>
       <c r="P264" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q264" s="19"/>
@@ -17226,7 +17819,7 @@
       <c r="N265" s="20"/>
       <c r="O265" s="21"/>
       <c r="P265" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q265" s="19"/>
@@ -17252,7 +17845,7 @@
       <c r="N266" s="20"/>
       <c r="O266" s="21"/>
       <c r="P266" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q266" s="19"/>
@@ -17278,7 +17871,7 @@
       <c r="N267" s="20"/>
       <c r="O267" s="21"/>
       <c r="P267" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q267" s="19"/>
@@ -17304,7 +17897,7 @@
       <c r="N268" s="20"/>
       <c r="O268" s="21"/>
       <c r="P268" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q268" s="19"/>
@@ -17330,7 +17923,7 @@
       <c r="N269" s="20"/>
       <c r="O269" s="21"/>
       <c r="P269" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q269" s="19"/>
@@ -17356,7 +17949,7 @@
       <c r="N270" s="20"/>
       <c r="O270" s="21"/>
       <c r="P270" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q270" s="19"/>
@@ -17382,7 +17975,7 @@
       <c r="N271" s="20"/>
       <c r="O271" s="21"/>
       <c r="P271" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q271" s="19"/>
@@ -17408,7 +18001,7 @@
       <c r="N272" s="20"/>
       <c r="O272" s="21"/>
       <c r="P272" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q272" s="19"/>
@@ -17434,7 +18027,7 @@
       <c r="N273" s="20"/>
       <c r="O273" s="21"/>
       <c r="P273" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q273" s="19"/>
@@ -17460,7 +18053,7 @@
       <c r="N274" s="20"/>
       <c r="O274" s="21"/>
       <c r="P274" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q274" s="19"/>
@@ -17486,7 +18079,7 @@
       <c r="N275" s="20"/>
       <c r="O275" s="21"/>
       <c r="P275" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q275" s="19"/>
@@ -17512,7 +18105,7 @@
       <c r="N276" s="20"/>
       <c r="O276" s="21"/>
       <c r="P276" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q276" s="19"/>
@@ -17538,7 +18131,7 @@
       <c r="N277" s="20"/>
       <c r="O277" s="21"/>
       <c r="P277" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q277" s="19"/>
@@ -17564,7 +18157,7 @@
       <c r="N278" s="20"/>
       <c r="O278" s="21"/>
       <c r="P278" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q278" s="19"/>
@@ -17590,7 +18183,7 @@
       <c r="N279" s="20"/>
       <c r="O279" s="21"/>
       <c r="P279" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q279" s="19"/>
@@ -17616,7 +18209,7 @@
       <c r="N280" s="20"/>
       <c r="O280" s="21"/>
       <c r="P280" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q280" s="19"/>
@@ -17642,7 +18235,7 @@
       <c r="N281" s="20"/>
       <c r="O281" s="21"/>
       <c r="P281" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q281" s="19"/>
@@ -17668,7 +18261,7 @@
       <c r="N282" s="20"/>
       <c r="O282" s="21"/>
       <c r="P282" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q282" s="19"/>
@@ -17694,7 +18287,7 @@
       <c r="N283" s="20"/>
       <c r="O283" s="21"/>
       <c r="P283" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q283" s="19"/>
@@ -17720,7 +18313,7 @@
       <c r="N284" s="20"/>
       <c r="O284" s="21"/>
       <c r="P284" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q284" s="19"/>
@@ -17746,7 +18339,7 @@
       <c r="N285" s="20"/>
       <c r="O285" s="21"/>
       <c r="P285" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q285" s="19"/>
@@ -17772,7 +18365,7 @@
       <c r="N286" s="20"/>
       <c r="O286" s="21"/>
       <c r="P286" s="30" t="str">
-        <f t="shared" ref="P286:P317" si="4">"Vgl. "&amp;I286&amp;" ("&amp;N286&amp;"), S. "&amp;O286&amp;"."</f>
+        <f t="shared" ref="P286:P301" si="8">"Vgl. "&amp;I286&amp;" ("&amp;N286&amp;"), S. "&amp;O286&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q286" s="19"/>
@@ -17798,7 +18391,7 @@
       <c r="N287" s="20"/>
       <c r="O287" s="21"/>
       <c r="P287" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q287" s="19"/>
@@ -17824,7 +18417,7 @@
       <c r="N288" s="20"/>
       <c r="O288" s="21"/>
       <c r="P288" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q288" s="19"/>
@@ -17850,7 +18443,7 @@
       <c r="N289" s="20"/>
       <c r="O289" s="21"/>
       <c r="P289" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q289" s="19"/>
@@ -17876,7 +18469,7 @@
       <c r="N290" s="20"/>
       <c r="O290" s="21"/>
       <c r="P290" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q290" s="19"/>
@@ -17902,7 +18495,7 @@
       <c r="N291" s="20"/>
       <c r="O291" s="21"/>
       <c r="P291" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q291" s="19"/>
@@ -17928,7 +18521,7 @@
       <c r="N292" s="20"/>
       <c r="O292" s="21"/>
       <c r="P292" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q292" s="19"/>
@@ -17954,7 +18547,7 @@
       <c r="N293" s="20"/>
       <c r="O293" s="21"/>
       <c r="P293" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q293" s="19"/>
@@ -17980,7 +18573,7 @@
       <c r="N294" s="20"/>
       <c r="O294" s="21"/>
       <c r="P294" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q294" s="19"/>
@@ -18006,7 +18599,7 @@
       <c r="N295" s="20"/>
       <c r="O295" s="21"/>
       <c r="P295" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q295" s="19"/>
@@ -18032,7 +18625,7 @@
       <c r="N296" s="20"/>
       <c r="O296" s="21"/>
       <c r="P296" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q296" s="19"/>
@@ -18058,7 +18651,7 @@
       <c r="N297" s="20"/>
       <c r="O297" s="21"/>
       <c r="P297" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q297" s="19"/>
@@ -18084,7 +18677,7 @@
       <c r="N298" s="20"/>
       <c r="O298" s="21"/>
       <c r="P298" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q298" s="19"/>
@@ -18110,7 +18703,7 @@
       <c r="N299" s="20"/>
       <c r="O299" s="21"/>
       <c r="P299" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q299" s="19"/>
@@ -18136,7 +18729,7 @@
       <c r="N300" s="20"/>
       <c r="O300" s="21"/>
       <c r="P300" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q300" s="19"/>
@@ -18162,7 +18755,7 @@
       <c r="N301" s="20"/>
       <c r="O301" s="22"/>
       <c r="P301" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q301" s="19"/>
@@ -18388,6 +18981,401 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D68D-B64B-B445-8C88-EAE5C724F845}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
+    <col min="10" max="15" width="53.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="143" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F3" s="151" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="147" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C4" s="148" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F4" s="151" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="108" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="110" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="40" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="68" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D7" s="152"/>
+      <c r="E7" s="68" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D4E8E-7C6D-CD45-8905-B898608ADA43}">
+  <dimension ref="B2:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="11" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="107" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C2" s="153" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="3" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C3" s="153">
+        <v>1</v>
+      </c>
+      <c r="D3" s="154"/>
+    </row>
+    <row r="4" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="107" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C4" s="153" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D4" s="154"/>
+    </row>
+    <row r="5" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="107" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C5" s="155" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D5" s="156"/>
+    </row>
+    <row r="6" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D6" s="156"/>
+    </row>
+    <row r="7" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="107" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C7" s="155" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D7" s="156"/>
+    </row>
+    <row r="8" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="107" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C8" s="155" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D8" s="156"/>
+    </row>
+    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="157" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C9" s="142" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="157"/>
+      <c r="C10" s="140" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D10" s="141" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="157"/>
+      <c r="C11" s="140" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D11" s="141" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="157"/>
+      <c r="C12" s="140" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="157"/>
+      <c r="C13" s="140" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D13" s="141" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="107" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C14" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="G14" s="158"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="158"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="158"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="107" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="G17" s="158"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C18" s="153">
+        <v>2</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="G18" s="158"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="107" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C19" s="153" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D19" s="154"/>
+      <c r="G19" s="158"/>
+    </row>
+    <row r="20" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="107" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="G20" s="158"/>
+    </row>
+    <row r="21" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="G21" s="158"/>
+    </row>
+    <row r="22" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="107" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="G22" s="158"/>
+    </row>
+    <row r="23" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="107" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="G23" s="158"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="157" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C24" s="142" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="G24" s="158"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="157"/>
+      <c r="C25" s="139" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D25" s="141"/>
+      <c r="G25" s="158"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="157"/>
+      <c r="C26" s="139" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D26" s="141"/>
+      <c r="G26" s="158"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="157"/>
+      <c r="C27" s="139" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D27" s="141"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="157"/>
+      <c r="C28" s="139" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D28" s="141"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="107" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C48A7A-8BD0-CF4B-BE42-71F225EF32B1}">
   <dimension ref="A1:N27"/>
@@ -20327,7 +21315,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="116" t="s">
         <v>874</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -20341,7 +21329,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="109"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="16" t="s">
         <v>865</v>
       </c>
@@ -20353,7 +21341,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="16" t="s">
         <v>868</v>
       </c>
@@ -20365,7 +21353,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="16" t="s">
         <v>867</v>
       </c>
@@ -20377,7 +21365,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="16" t="s">
         <v>869</v>
       </c>
@@ -20389,7 +21377,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="73" t="s">
         <v>936</v>
       </c>
@@ -20401,7 +21389,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="113" t="s">
         <v>916</v>
       </c>
       <c r="C9" s="75" t="s">
@@ -20415,7 +21403,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="16" t="s">
         <v>881</v>
       </c>
@@ -20427,7 +21415,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="16" t="s">
         <v>912</v>
       </c>
@@ -20439,7 +21427,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="106"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="16" t="s">
         <v>885</v>
       </c>
@@ -20451,7 +21439,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="16" t="s">
         <v>870</v>
       </c>
@@ -20463,7 +21451,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="16" t="s">
         <v>883</v>
       </c>
@@ -20475,7 +21463,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="16" t="s">
         <v>884</v>
       </c>
@@ -20487,7 +21475,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="16" t="s">
         <v>862</v>
       </c>
@@ -20499,7 +21487,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="16" t="s">
         <v>894</v>
       </c>
@@ -20511,7 +21499,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="16" t="s">
         <v>925</v>
       </c>
@@ -20523,7 +21511,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="16" t="s">
         <v>913</v>
       </c>
@@ -20535,7 +21523,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="16" t="s">
         <v>914</v>
       </c>
@@ -20547,7 +21535,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="16" t="s">
         <v>915</v>
       </c>
@@ -20559,7 +21547,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="16" t="s">
         <v>919</v>
       </c>
@@ -20571,7 +21559,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="16" t="s">
         <v>921</v>
       </c>
@@ -20583,7 +21571,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="72" t="s">
         <v>922</v>
       </c>
@@ -20595,7 +21583,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="16" t="s">
         <v>926</v>
       </c>
@@ -20607,7 +21595,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="16" t="s">
         <v>863</v>
       </c>
@@ -20619,7 +21607,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="106"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="16" t="s">
         <v>882</v>
       </c>
@@ -20631,7 +21619,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="107"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="16" t="s">
         <v>927</v>
       </c>
@@ -20655,7 +21643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA91D5D-B4B9-B643-A974-AC5D2CAF9678}">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="177" workbookViewId="0">
+    <sheetView zoomScale="177" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20985,8 +21973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40A5AA-25D9-4D45-BF4F-E667D661E312}">
   <dimension ref="B2:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21968,11 +22956,11 @@
       <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="118" t="s">
         <v>1164</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="66" t="s">
         <v>1165</v>
       </c>
@@ -22073,7 +23061,7 @@
       <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="121" t="s">
         <v>1183</v>
       </c>
       <c r="C14" s="100"/>
@@ -22085,7 +23073,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="101"/>
       <c r="D15" s="98" t="s">
         <v>1178</v>
@@ -22095,7 +23083,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="101"/>
       <c r="D16" s="102" t="s">
         <v>1179</v>
@@ -22105,7 +23093,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="69"/>
       <c r="D17" s="95" t="s">
         <v>1180</v>
@@ -22171,4 +23159,317 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC9B87-324D-FC42-B422-5AB2F001E51E}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="165" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
+    <col min="10" max="15" width="53.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="143" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="135" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F3" s="134" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="68" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D5" s="130"/>
+      <c r="E5" s="85" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="108" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="126"/>
+      <c r="E6" s="110" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="79" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D7" s="132"/>
+      <c r="E7" s="112" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D8" s="128"/>
+      <c r="E8" s="68" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="40" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D9" s="128"/>
+      <c r="E9" s="68" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="68" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D11" s="132"/>
+      <c r="E11" s="112" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="135" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F12" s="134" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="40" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D13" s="128"/>
+      <c r="E13" s="68" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D14" s="128"/>
+      <c r="E14" s="68" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="84" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="85" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="108" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D16" s="126"/>
+      <c r="E16" s="110" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D17" s="133"/>
+      <c r="E17" s="124" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F17" s="125" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="40" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="68" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="40" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D19" s="132"/>
+      <c r="E19" s="105" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="40" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="68" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A821C-7E5C-1B4F-802A-5BB57EB14FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2A648-FC01-314F-9E86-1A00494C7004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="1240" windowWidth="33460" windowHeight="21100" activeTab="10" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1600" yWindow="2220" windowWidth="31200" windowHeight="24460" firstSheet="5" activeTab="12" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="FA Client" sheetId="9" r:id="rId9"/>
     <sheet name="FA Server" sheetId="10" r:id="rId10"/>
     <sheet name="Anwendungsfälle" sheetId="12" r:id="rId11"/>
+    <sheet name="Versuchsablauf" sheetId="13" r:id="rId12"/>
+    <sheet name="Lebensmittelauswahl" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$P$301</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="1402">
   <si>
     <t>Nr</t>
   </si>
@@ -3925,15 +3927,6 @@
     <t>Die iOS App muss in der Lage sein, das Messergebnis zur Dokumentation und weiterführenden Auswertung zu speichern.</t>
   </si>
   <si>
-    <t>Die iOS App muss eine Übersichtsansicht bereitstellen, über die im Vorfeld oder Nachgang an eine Messung alle gespeicherten Messergebnisse aufrufbar sind.</t>
-  </si>
-  <si>
-    <t>Die iOS App muss eine Ansicht zur Einführung und Funktionserläuterung für die korrekt Bedienung durch den Endanwender bereitstellen.</t>
-  </si>
-  <si>
-    <t>Die iOS App verfügt über eine Ansicht zur Einführung und Funktionserläuterung.</t>
-  </si>
-  <si>
     <t>Die iOS App verfügt nur über die zur Abdeckung
 der Kernfunktionalitäten notwendigen
 grafischen Bedienelemente.</t>
@@ -3955,12 +3948,6 @@
     <t>Kernfunktion</t>
   </si>
   <si>
-    <t>Die iOS App muss eine Ansicht bereitstellen, über die Details zu einem gespeicherten Messergebnis angezeigt werden können.</t>
-  </si>
-  <si>
-    <t>Die iOS App verfügt über eine Ansicht zur Anzeige der Details zu einem gespeicherten Messergebnis. Die Detailansicht ist über die Auswahl eines Eintrags in der Übersichtsseite aufrufbar.</t>
-  </si>
-  <si>
     <t>Die iOS App muss eine Ansicht zur Aufnahme von Bildern bereitstellen.</t>
   </si>
   <si>
@@ -4037,9 +4024,6 @@
   </si>
   <si>
     <t>C-FA03.2</t>
-  </si>
-  <si>
-    <t>C-FA03.3</t>
   </si>
   <si>
     <t>C-FA04</t>
@@ -4145,10 +4129,6 @@
     <t>Anforderungen</t>
   </si>
   <si>
-    <t>Der Benutzer wählt das Applikationsicon
-auf dem Homescreen aus.</t>
-  </si>
-  <si>
     <t>iOS Applikation starten</t>
   </si>
   <si>
@@ -4161,9 +4141,6 @@
     <t>Die iOS Applikation ist auf dem Smartphone installiert.</t>
   </si>
   <si>
-    <t>Der Benutzer sieht den Startprozess der iOS Applikation und gelangt zum Einführungsbildschirm.</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -4182,9 +4159,6 @@
     <t>Die iOS Applikation wartet auf weitere Benutzereingaben.</t>
   </si>
   <si>
-    <t>Der Einführungsbildschirm wird angezeigt.</t>
-  </si>
-  <si>
     <t>Der Startprozess der iOS Applikation ist abgeschlossen.</t>
   </si>
   <si>
@@ -4195,6 +4169,340 @@
   </si>
   <si>
     <t>Anwendungsfall</t>
+  </si>
+  <si>
+    <t>Der Benutzer hat die iOS Applikation gestartet.</t>
+  </si>
+  <si>
+    <t>C-FA04, C-FA04.2</t>
+  </si>
+  <si>
+    <t>Messvorgang starten</t>
+  </si>
+  <si>
+    <t>Der Benutzer startet einen neuen Messvorgang.</t>
+  </si>
+  <si>
+    <t>Der Aufnahmebildschirm wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Startvorgang ist abgeschlossen. Der Messvorgang kann nun durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Die iOS Applikation prüft, ob die Server APIs verfügbar sind. Falls diese nicht verfügbar sind, wird der Messvorgang an dieser Stelle abgebrochen. Der Benutzer wird über den Abbruch informiert. Falls die APIs verfügbar sind, werden die Schritte 3 und 4 ausgeführt.</t>
+  </si>
+  <si>
+    <t>Object Capture Konfigurationsprofil auswählen</t>
+  </si>
+  <si>
+    <t>Der Benutzer legt über die grafischen Bedienelemente der iOS Applikation das Konfigurationsprofil für Object Capture fest.</t>
+  </si>
+  <si>
+    <t>Die serverseitige Auswertung wird durch den Benutzer über die iOS Applikation gestartet.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt ein Konfigurationsprofil für Object Capture aus.</t>
+  </si>
+  <si>
+    <t>C-FA02, C-FA02.1</t>
+  </si>
+  <si>
+    <t>Bilder aufnehmen und hochladen</t>
+  </si>
+  <si>
+    <t>Benutzer, iOS Applikation, Server</t>
+  </si>
+  <si>
+    <t>Der Benutzer nimmt ein Bild auf, welches im Anschluss über ein API auf den Server hochgeladen wird.</t>
+  </si>
+  <si>
+    <t>Das aufgenommene Bild wird über ein API auf den Server hochgeladen und dort in einer entsprechenden Dateiablage zur späteren Auswertung gespeichert.</t>
+  </si>
+  <si>
+    <t>Auswertung starten und Lebensmittel analysieren</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt die Schaltfläche zur Aufnahme eines Bildes aus.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt die Schaltfläche zum Starten der serverseitigen Auswertung aus.</t>
+  </si>
+  <si>
+    <t>Der Benutzer startet die serverseitige Auswertung.</t>
+  </si>
+  <si>
+    <t>Das Object Capture Konfigurationsprofil wurde festgelegt und die Bilder wurden aufgenommen und hochgeladen.</t>
+  </si>
+  <si>
+    <t>Sofern kein Fehler aufgetreten ist, wird das Messergebnis dem Benutzer angezeigt. Andernfalls wird der Benutzer auf den Fehler hingewiesen.</t>
+  </si>
+  <si>
+    <t>Sobald der Server das Messergebnis berechnet hat, wird dieses als Antwort an die iOS Applikation zurückgegeben.</t>
+  </si>
+  <si>
+    <t>C-FA02.2, C-FA04, C-FA04.1, S-FA01</t>
+  </si>
+  <si>
+    <t>C-FA01, C-FA01.1, C-FA01.2, C-FA02.3, C-FA04.3, S-FA02</t>
+  </si>
+  <si>
+    <t>Das entsprechende API wird aufgerufen, wodurch die serverseitige Auswertung gestartet wird. Beim Aufruf des APIs wird als Eingabeparameter das zuvor festgelegte Konfigurationsprofil für Object Capture übergeben.</t>
+  </si>
+  <si>
+    <t>Die Auswertung ist abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Das Messergebnis wird angezeigt und kann gespeichert werden.</t>
+  </si>
+  <si>
+    <t>C-FA02.4, C-FA02.5, C-FA04.4, S-FA03, S-FA03.1</t>
+  </si>
+  <si>
+    <t>Messergebnis speichern</t>
+  </si>
+  <si>
+    <t>Der Benutzer speichert das angezeigte Messergebnis.</t>
+  </si>
+  <si>
+    <t>Ein Messergebnis wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Ein Eingabefeld erscheint, in welchem der Benutzer eine Bezeichnung für das Messergebnis zum späteren Auffinden eingeben muss.</t>
+  </si>
+  <si>
+    <t>Der Benutzer gibt eine Bezeichnung an und bestätigt die Eingabe.</t>
+  </si>
+  <si>
+    <t>Das Messergebnis wird innerhalb der iOS Applikation samt eines aktuellen Zeitstempels und der zuvor eingegebenen Bezeichnung  gespeichert.</t>
+  </si>
+  <si>
+    <t>Gespeicherte Messergebnisse anzeigen</t>
+  </si>
+  <si>
+    <t>Der Benutzer lässt sich alle gespeicherten Messergebnisse anzeigen.</t>
+  </si>
+  <si>
+    <t>C-FA03, C-FA03.1</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Übersichtsansicht bereitstellen, über die alle gespeicherten Messergebnisse aufrufbar sind.</t>
+  </si>
+  <si>
+    <t>C-FA03, C-FA03.2</t>
+  </si>
+  <si>
+    <t>Der Benutzer startet einen neuen Messvorgang oder navigiert zur Übersichtsansicht, um sich die gespeicherten Messergebnisse anzeigen zu lassen.</t>
+  </si>
+  <si>
+    <t>Die Aufnahmeansicht wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Messvorgang wurde gestartet und die Aufnahmeansicht wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt die Schaltfläche zum Speichern des Messergebnisses aus.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt die Schaltfläche zur Anzeige der gespeicherten Messergebnisse aus.</t>
+  </si>
+  <si>
+    <t>Die Übersichtsansicht wird gestartet, welche eine Auflistung aller bereits gespeicherten Messergebnisse darstellt.</t>
+  </si>
+  <si>
+    <t>Der Startvorgang ist abgeschlossen und dem Benutzer wird die Auflistung angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wählt die Schaltfläche zum Starten eines neuen Messvorgangs aus.</t>
+  </si>
+  <si>
+    <t>Der Benutzer sieht den Startprozess der iOS Applikation und gelangt zur Instruktionsansicht.</t>
+  </si>
+  <si>
+    <t>Die Instruktionsansicht wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Instruktion durchlaufen</t>
+  </si>
+  <si>
+    <t>Der Benutzer navigiert aktiv durch die Instruktionsansicht.</t>
+  </si>
+  <si>
+    <t>Die iOS Applikation ist gestartet und der Benutzer befindet sich auf der Instruktionsansicht.</t>
+  </si>
+  <si>
+    <t>Der Benutzer navigiert aktiv durch die dargestellten Informationen der Instruktionsansicht.</t>
+  </si>
+  <si>
+    <t>Der Benutzer befindet sich auf der Instruktionsansicht.</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht zur Instruktion und Funktionserläuterung für die korrekt Bedienung durch den Endanwender bereitstellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Instruktion und Funktionserläuterung.</t>
+  </si>
+  <si>
+    <t>Die Übersichtsansicht wird angezeigt, die eine Auflistung der bereits gespeicherten Messergebnisse darstellt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer wird automatisch auf die Übersichtsansicht navigiert.</t>
+  </si>
+  <si>
+    <t>Der grafische Zähler der iOS Applikation, welcher angibt wie viele Bilder bereits auf den Server hochgeladen wurden, wird um eins erhöht.</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Schritt</t>
+  </si>
+  <si>
+    <t>Das Versuchsobjekt wird mittig auf dem Drehteller platziert.</t>
+  </si>
+  <si>
+    <t>Die iPhone Kamera wird auf das Versuchsobjekt ausgerichtet.</t>
+  </si>
+  <si>
+    <t>Der Funkauslöser wird eingeschaltet und via Bluetooth
+mit dem iPhone verbunden.</t>
+  </si>
+  <si>
+    <t>Die iOS Applikation wird auf dem iPhone gestartet und
+ein neuer Messvorgang wird über die gleichnamige 
+Schaltfläche initiiert. Die Kameraansicht ist geöffnet.</t>
+  </si>
+  <si>
+    <t>Das iPhone wird auf dem Stativ befestigt.</t>
+  </si>
+  <si>
+    <t>Durch Betätigen des Funkauslösers wird nun ein Bild
+aufgezeichnet, welcher im Anschluss an das entsprechende 
+Server API hochgeladen wird. Der Zähler innerhalb der Kameraansicht wird bei erfolgtem Upload um eins erhöht.</t>
+  </si>
+  <si>
+    <t>Der Drehteller wird nun um ca. einen Zentimeter* nach links
+gedreht, sodass sich das Versuchsobjekt auf dem Drehteller
+ebenfalls mitdreht.</t>
+  </si>
+  <si>
+    <t>Die Schritte 6 und 7 wiederholen sich solange bis das
+Versuchsobjekt einmal im Kreis gedreht und somit aus jeder Position aufgenommen wurde.</t>
+  </si>
+  <si>
+    <t>Das Versuchsobjekt wird nun seitlich auf der Mitte des
+Drehtellers platziert.</t>
+  </si>
+  <si>
+    <t>Die Schritte 6 bis 8 werden erneut, jetzt allerdings in seitlicher Lage des Versuchsobjekts, durchgeführt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer startet die serverseitige Auswertung über die iOS Applikation.</t>
+  </si>
+  <si>
+    <t>Dem Benutzer wird das Messergebnis angezeigt. Er kann dieses in der iOS Applikation speichern.</t>
+  </si>
+  <si>
+    <t>Der Versuchsablauf ist beendet.</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>Banane</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Birne</t>
+  </si>
+  <si>
+    <t>Brokkoli</t>
+  </si>
+  <si>
+    <t>Hokkaidokürbis</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>Zielwert</t>
+  </si>
+  <si>
+    <t>kugelförmig</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>groß</t>
+  </si>
+  <si>
+    <t>oval-rund</t>
+  </si>
+  <si>
+    <t>195,20 cm3</t>
+  </si>
+  <si>
+    <t>199,98 cm3</t>
+  </si>
+  <si>
+    <t>198,04 cm3</t>
+  </si>
+  <si>
+    <t>144,13 cm3</t>
+  </si>
+  <si>
+    <t>571,29 cm3</t>
+  </si>
+  <si>
+    <t>1173,40 cm3</t>
+  </si>
+  <si>
+    <t>gekrümmt,
+gebogen</t>
+  </si>
+  <si>
+    <t>glatt,
+glänzend</t>
+  </si>
+  <si>
+    <t>glatt,
+matt</t>
+  </si>
+  <si>
+    <t>rau,
+uneben,
+löchrig,
+matt</t>
+  </si>
+  <si>
+    <t>größtenteils
+oval-rund</t>
+  </si>
+  <si>
+    <t>glatt,
+leicht-glänzend</t>
+  </si>
+  <si>
+    <t>behaart,
+matt</t>
+  </si>
+  <si>
+    <t>bauchig,
+birnenförmig</t>
   </si>
 </sst>
 </file>
@@ -4626,7 +4934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4932,44 +5240,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5010,7 +5282,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5050,11 +5321,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5065,7 +5361,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -18985,8 +19298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D68D-B64B-B445-8C88-EAE5C724F845}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="144" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19005,93 +19318,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="130" t="s">
         <v>1210</v>
       </c>
-      <c r="C2" s="144" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146" t="s">
+      <c r="C2" s="131">
+        <v>0</v>
+      </c>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>1209</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="133" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="134" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="134" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C4" s="135" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137" t="s">
         <v>1263</v>
       </c>
-      <c r="C3" s="148" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F3" s="151" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="147" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C4" s="148" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F4" s="151" t="s">
-        <v>1229</v>
+      <c r="F4" s="138" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D5" s="114"/>
+      <c r="E5" s="110" t="s">
         <v>1268</v>
       </c>
-      <c r="C5" s="109" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="110" t="s">
-        <v>1274</v>
-      </c>
       <c r="F5" s="111" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C6" s="127" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D6" s="141"/>
+        <v>1265</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D6" s="128"/>
       <c r="E6" s="68" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C7" s="127" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D7" s="152"/>
+        <v>1274</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D7" s="139"/>
       <c r="E7" s="68" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -19101,10 +19414,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D4E8E-7C6D-CD45-8905-B898608ADA43}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView topLeftCell="A39" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19112,266 +19425,1233 @@
     <col min="1" max="1" width="5" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="3" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" style="5" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="5"/>
     <col min="7" max="7" width="11" style="5" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="107" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D2" s="154"/>
-    </row>
-    <row r="3" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D2" s="155"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C3" s="153">
+      <c r="C3" s="154">
         <v>1</v>
       </c>
-      <c r="D3" s="154"/>
-    </row>
-    <row r="4" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="155"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C4" s="153" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D4" s="154"/>
-    </row>
-    <row r="5" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1277</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D4" s="155"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C5" s="155" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D5" s="156"/>
-    </row>
-    <row r="6" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1278</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D5" s="152"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="151" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D6" s="152"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C7" s="151" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D7" s="152"/>
+    </row>
+    <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C8" s="151" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D8" s="152"/>
+    </row>
+    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="153" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="153"/>
+      <c r="C10" s="127" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="153"/>
+      <c r="C11" s="127" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="153"/>
+      <c r="C12" s="127" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="153"/>
+      <c r="C13" s="127" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D13" s="128" t="s">
         <v>1292</v>
       </c>
-      <c r="D6" s="156"/>
-    </row>
-    <row r="7" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="107" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C7" s="155" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D7" s="156"/>
-    </row>
-    <row r="8" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="107" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C8" s="155" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D8" s="156"/>
-    </row>
-    <row r="9" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C9" s="142" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="157"/>
-      <c r="C10" s="140" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="157"/>
-      <c r="C11" s="140" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="157"/>
-      <c r="C12" s="140" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D12" s="141" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="157"/>
-      <c r="C13" s="140" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D13" s="141" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="107" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C14" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="154"/>
-      <c r="G14" s="158"/>
+        <v>1282</v>
+      </c>
+      <c r="C14" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="155"/>
+      <c r="G14" s="140"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="158"/>
+      <c r="G15" s="140"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="158"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="107" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="G17" s="158"/>
+        <v>1296</v>
+      </c>
+      <c r="C17" s="154" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D17" s="155"/>
+      <c r="G17" s="140"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="154">
         <v>2</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="G18" s="158"/>
+      <c r="D18" s="155"/>
+      <c r="G18" s="140"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="G19" s="158"/>
-    </row>
-    <row r="20" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1277</v>
+      </c>
+      <c r="C19" s="154" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D19" s="155"/>
+      <c r="G19" s="140"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="G20" s="158"/>
-    </row>
-    <row r="21" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1278</v>
+      </c>
+      <c r="C20" s="151" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D20" s="152"/>
+      <c r="G20" s="140"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="G21" s="158"/>
-    </row>
-    <row r="22" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="151" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D21" s="152"/>
+      <c r="G21" s="140"/>
+    </row>
+    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="G22" s="158"/>
-    </row>
-    <row r="23" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+      <c r="C22" s="151" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D22" s="152"/>
+      <c r="G22" s="140"/>
+    </row>
+    <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="G23" s="158"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="157" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C23" s="151" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D23" s="152"/>
+      <c r="G23" s="140"/>
+    </row>
+    <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="107" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C24" s="129" t="s">
         <v>1287</v>
       </c>
-      <c r="C24" s="142" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="G24" s="158"/>
+      <c r="D24" s="116" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G24" s="140"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="157"/>
-      <c r="C25" s="139" t="s">
+      <c r="B25" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C25" s="154" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D25" s="155"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="D25" s="141"/>
-      <c r="G25" s="158"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="157"/>
-      <c r="C26" s="139" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D26" s="141"/>
-      <c r="G26" s="158"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="157"/>
-      <c r="C27" s="139" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D27" s="141"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="157"/>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="154" t="s">
         <v>1299</v>
       </c>
-      <c r="D28" s="141"/>
+      <c r="D28" s="155"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C29" s="154">
+        <v>3</v>
+      </c>
+      <c r="D29" s="155"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C30" s="154" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D30" s="155"/>
+    </row>
+    <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D31" s="152"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D32" s="152"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C33" s="151" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D33" s="152"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D34" s="152"/>
+    </row>
+    <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B35" s="156" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C35" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D35" s="116" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="157"/>
+      <c r="C36" s="129" t="s">
         <v>1288</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
+      <c r="D36" s="116" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="157"/>
+      <c r="C37" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B38" s="158"/>
+      <c r="C38" s="129" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D39" s="155"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="107" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C42" s="154" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D42" s="155"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C43" s="154">
+        <v>4</v>
+      </c>
+      <c r="D43" s="155"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C44" s="154" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D44" s="155"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D45" s="152"/>
+    </row>
+    <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D46" s="152"/>
+    </row>
+    <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D47" s="152"/>
+    </row>
+    <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D48" s="152"/>
+    </row>
+    <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="107" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C49" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C50" s="154" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D50" s="155"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="107" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C53" s="154" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D53" s="155"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C54" s="154">
+        <v>5</v>
+      </c>
+      <c r="D54" s="155"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C55" s="154" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D55" s="155"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C56" s="151" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D56" s="152"/>
+    </row>
+    <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="151" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D57" s="152"/>
+    </row>
+    <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C58" s="151" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D58" s="152"/>
+    </row>
+    <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C59" s="151" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D59" s="152"/>
+    </row>
+    <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="156" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C60" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D60" s="116" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B61" s="157"/>
+      <c r="C61" s="129" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B62" s="158"/>
+      <c r="C62" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D62" s="116" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D63" s="155"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="107" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C66" s="154" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D66" s="155"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C67" s="154">
+        <v>6</v>
+      </c>
+      <c r="D67" s="155"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C68" s="154" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D68" s="155"/>
+    </row>
+    <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C69" s="151" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D69" s="152"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="151" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D70" s="152"/>
+    </row>
+    <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C71" s="151" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D71" s="152"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C72" s="151" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D72" s="152"/>
+    </row>
+    <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B73" s="156" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C73" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D73" s="116" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B74" s="157"/>
+      <c r="C74" s="129" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D74" s="116" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B75" s="157"/>
+      <c r="C75" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D75" s="116" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B76" s="157"/>
+      <c r="C76" s="129" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D76" s="116" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B77" s="158"/>
+      <c r="C77" s="129" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D77" s="116" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C78" s="154" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D78" s="155"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="107" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C81" s="154" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D81" s="155"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C82" s="154">
+        <v>7</v>
+      </c>
+      <c r="D82" s="155"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C83" s="154" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D83" s="155"/>
+    </row>
+    <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C84" s="151" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D84" s="152"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="151" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D85" s="152"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C86" s="151" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D86" s="152"/>
+    </row>
+    <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C87" s="151" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D87" s="152"/>
+    </row>
+    <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B88" s="156" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C88" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D88" s="116" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="157"/>
+      <c r="C89" s="129" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D89" s="116" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B90" s="157"/>
+      <c r="C90" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D90" s="116" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B91" s="157"/>
+      <c r="C91" s="129" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D91" s="116" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B92" s="158"/>
+      <c r="C92" s="129" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D92" s="116" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C93" s="154" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D93" s="155"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="107" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C96" s="154" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D96" s="155"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="107" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C97" s="154">
+        <v>8</v>
+      </c>
+      <c r="D97" s="155"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="107" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C98" s="154" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D98" s="155"/>
+    </row>
+    <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="107" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C99" s="151" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D99" s="152"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="151" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D100" s="152"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="107" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C101" s="151" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D101" s="152"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="107" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C102" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="152"/>
+    </row>
+    <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B103" s="156" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C103" s="129" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D103" s="116" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B104" s="157"/>
+      <c r="C104" s="129" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D104" s="116" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B105" s="157"/>
+      <c r="C105" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D105" s="116" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C106" s="154" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D106" s="155"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B24:B28"/>
+  <mergeCells count="70">
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72D9B7A-BBB7-A54E-A71E-6930D6AA58C8}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="159">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="159">
+        <v>2</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="159">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="159">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" s="159">
+        <v>5</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B8" s="159">
+        <v>6</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="159">
+        <v>7</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="159">
+        <v>8</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="159">
+        <v>9</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="159">
+        <v>10</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="159">
+        <v>11</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="159">
+        <v>12</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="159">
+        <v>13</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B47D4AA-0325-9141-89F9-CDA17DF0008C}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="159">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="159">
+        <v>2</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="159">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B6" s="159">
+        <v>4</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="159">
+        <v>5</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B8" s="159">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21315,7 +22595,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="144" t="s">
         <v>874</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -21329,7 +22609,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="117"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="16" t="s">
         <v>865</v>
       </c>
@@ -21341,7 +22621,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="117"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="16" t="s">
         <v>868</v>
       </c>
@@ -21353,7 +22633,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="117"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="16" t="s">
         <v>867</v>
       </c>
@@ -21365,7 +22645,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="117"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="16" t="s">
         <v>869</v>
       </c>
@@ -21377,7 +22657,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="117"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="73" t="s">
         <v>936</v>
       </c>
@@ -21389,7 +22669,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="141" t="s">
         <v>916</v>
       </c>
       <c r="C9" s="75" t="s">
@@ -21403,7 +22683,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="114"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="16" t="s">
         <v>881</v>
       </c>
@@ -21415,7 +22695,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="16" t="s">
         <v>912</v>
       </c>
@@ -21427,7 +22707,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="16" t="s">
         <v>885</v>
       </c>
@@ -21439,7 +22719,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="114"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="16" t="s">
         <v>870</v>
       </c>
@@ -21451,7 +22731,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="114"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="16" t="s">
         <v>883</v>
       </c>
@@ -21463,7 +22743,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="16" t="s">
         <v>884</v>
       </c>
@@ -21475,7 +22755,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="16" t="s">
         <v>862</v>
       </c>
@@ -21487,7 +22767,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="16" t="s">
         <v>894</v>
       </c>
@@ -21499,7 +22779,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="114"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="16" t="s">
         <v>925</v>
       </c>
@@ -21511,7 +22791,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="114"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="16" t="s">
         <v>913</v>
       </c>
@@ -21523,7 +22803,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="114"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="16" t="s">
         <v>914</v>
       </c>
@@ -21535,7 +22815,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="16" t="s">
         <v>915</v>
       </c>
@@ -21547,7 +22827,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="114"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="16" t="s">
         <v>919</v>
       </c>
@@ -21559,7 +22839,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="114"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="16" t="s">
         <v>921</v>
       </c>
@@ -21571,7 +22851,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
+      <c r="B24" s="142"/>
       <c r="C24" s="72" t="s">
         <v>922</v>
       </c>
@@ -21583,7 +22863,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="114"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="16" t="s">
         <v>926</v>
       </c>
@@ -21595,7 +22875,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="114"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="16" t="s">
         <v>863</v>
       </c>
@@ -21607,7 +22887,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="114"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="16" t="s">
         <v>882</v>
       </c>
@@ -21619,7 +22899,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="115"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="16" t="s">
         <v>927</v>
       </c>
@@ -22956,11 +24236,11 @@
       <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="146" t="s">
         <v>1164</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="66" t="s">
         <v>1165</v>
       </c>
@@ -23061,7 +24341,7 @@
       <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="149" t="s">
         <v>1183</v>
       </c>
       <c r="C14" s="100"/>
@@ -23073,7 +24353,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="122"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="101"/>
       <c r="D15" s="98" t="s">
         <v>1178</v>
@@ -23083,7 +24363,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="122"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="101"/>
       <c r="D16" s="102" t="s">
         <v>1179</v>
@@ -23093,7 +24373,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="122"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="69"/>
       <c r="D17" s="95" t="s">
         <v>1180</v>
@@ -23163,10 +24443,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC9B87-324D-FC42-B422-5AB2F001E51E}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="165" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A5" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23185,58 +24465,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="130" t="s">
         <v>1210</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>1208</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>1209</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="133" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F3" s="134" t="s">
-        <v>1229</v>
+      <c r="B3" s="123" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C4" s="127" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D4" s="128"/>
+        <v>1241</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D4" s="116"/>
       <c r="E4" s="68" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="84" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D5" s="130"/>
+        <v>1242</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D5" s="118"/>
       <c r="E5" s="85" t="s">
         <v>1211</v>
       </c>
@@ -23246,87 +24526,87 @@
     </row>
     <row r="6" spans="2:6" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="108" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C6" s="109" t="s">
         <v>1212</v>
       </c>
-      <c r="D6" s="126"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="110" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="79" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C7" s="131" t="s">
         <v>1244</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="C7" s="119" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D7" s="120"/>
       <c r="E7" s="112" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D8" s="128"/>
+        <v>1245</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D8" s="116"/>
       <c r="E8" s="68" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C9" s="127" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C9" s="115" t="s">
         <v>1213</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="68" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D10" s="128"/>
+        <v>1247</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D10" s="116"/>
       <c r="E10" s="68" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D11" s="132"/>
+        <v>1248</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D11" s="120"/>
       <c r="E11" s="112" t="s">
         <v>1216</v>
       </c>
@@ -23335,105 +24615,105 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="135" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C12" s="136" t="s">
+      <c r="B12" s="123" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C12" s="124" t="s">
         <v>1220</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F12" s="134" t="s">
-        <v>1229</v>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D13" s="116"/>
+      <c r="E13" s="68" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="79" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D14" s="120"/>
+      <c r="E14" s="112" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="123" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F15" s="122" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="83" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="68" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="40" t="s">
         <v>1255</v>
       </c>
-      <c r="C13" s="127" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="68" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C14" s="127" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="68" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="84" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C15" s="129" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="85" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="108" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C16" s="109" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="110" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F16" s="134" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C17" s="123" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="124" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F17" s="125" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="68" t="s">
-        <v>1223</v>
+      <c r="C18" s="115" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D18" s="120"/>
+      <c r="E18" s="105" t="s">
+        <v>1214</v>
       </c>
       <c r="F18" s="71" t="s">
         <v>1217</v>
@@ -23441,31 +24721,16 @@
     </row>
     <row r="19" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="105" t="s">
-        <v>1214</v>
+        <v>1256</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D19" s="116"/>
+      <c r="E19" s="68" t="s">
+        <v>1238</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="68" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F20" s="71" t="s">
         <v>1217</v>
       </c>
     </row>

--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2A648-FC01-314F-9E86-1A00494C7004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7161EA0-6AB9-1B49-9F23-DF55EEE56548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2220" windowWidth="31200" windowHeight="24460" firstSheet="5" activeTab="12" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1260" yWindow="7700" windowWidth="37320" windowHeight="21100" firstSheet="5" activeTab="9" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1413">
   <si>
     <t>Nr</t>
   </si>
@@ -4503,6 +4503,39 @@
   <si>
     <t>bauchig,
 birnenförmig</t>
+  </si>
+  <si>
+    <t>AWF-1</t>
+  </si>
+  <si>
+    <t>AWF-2</t>
+  </si>
+  <si>
+    <t>AWF-3</t>
+  </si>
+  <si>
+    <t>AWF-4</t>
+  </si>
+  <si>
+    <t>AWF-5</t>
+  </si>
+  <si>
+    <t>AWF-6</t>
+  </si>
+  <si>
+    <t>AWF-7</t>
+  </si>
+  <si>
+    <t>AWF-8</t>
+  </si>
+  <si>
+    <t>Erste Iteration</t>
+  </si>
+  <si>
+    <t>Zweite Iteration</t>
+  </si>
+  <si>
+    <t>Dritte Iteration</t>
   </si>
 </sst>
 </file>
@@ -4593,7 +4626,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4621,6 +4654,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E9E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4934,7 +4985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5352,13 +5403,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5367,16 +5415,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19296,10 +19362,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D68D-B64B-B445-8C88-EAE5C724F845}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19317,7 +19383,7 @@
     <col min="16" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="130" t="s">
         <v>1210</v>
       </c>
@@ -19332,7 +19398,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="134" t="s">
         <v>1257</v>
       </c>
@@ -19346,8 +19412,11 @@
       <c r="F3" s="138" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="159" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="134" t="s">
         <v>1258</v>
       </c>
@@ -19361,8 +19430,9 @@
       <c r="F4" s="138" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="159"/>
+    </row>
+    <row r="5" spans="2:7" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
         <v>1262</v>
       </c>
@@ -19376,8 +19446,11 @@
       <c r="F5" s="111" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="165" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>1265</v>
       </c>
@@ -19391,8 +19464,9 @@
       <c r="F6" s="13" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="165"/>
+    </row>
+    <row r="7" spans="2:7" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>1274</v>
       </c>
@@ -19406,8 +19480,13 @@
       <c r="F7" s="13" t="s">
         <v>1225</v>
       </c>
+      <c r="G7" s="165"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19416,8 +19495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D4E8E-7C6D-CD45-8905-B898608ADA43}">
   <dimension ref="B2:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19435,67 +19514,67 @@
       <c r="B2" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="153" t="s">
         <v>1283</v>
       </c>
-      <c r="D2" s="155"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C3" s="154">
-        <v>1</v>
-      </c>
-      <c r="D3" s="155"/>
+      <c r="C3" s="153" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D3" s="154"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="153" t="s">
         <v>1284</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="154"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="155" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="152"/>
+      <c r="D5" s="156"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="155" t="s">
         <v>1285</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="155" t="s">
         <v>1286</v>
       </c>
-      <c r="D7" s="152"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="155" t="s">
         <v>1345</v>
       </c>
-      <c r="D8" s="152"/>
+      <c r="D8" s="156"/>
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="158" t="s">
         <v>1281</v>
       </c>
       <c r="C9" s="129" t="s">
@@ -19506,7 +19585,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="153"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="127" t="s">
         <v>1288</v>
       </c>
@@ -19515,7 +19594,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="153"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="127" t="s">
         <v>1289</v>
       </c>
@@ -19524,7 +19603,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="153"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="127" t="s">
         <v>1290</v>
       </c>
@@ -19533,7 +19612,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="153"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="127" t="s">
         <v>1291</v>
       </c>
@@ -19545,10 +19624,10 @@
       <c r="B14" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C14" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="155"/>
+      <c r="C14" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="154"/>
       <c r="G14" s="140"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -19561,70 +19640,70 @@
       <c r="B17" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="153" t="s">
         <v>1347</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="154"/>
       <c r="G17" s="140"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C18" s="154">
-        <v>2</v>
-      </c>
-      <c r="D18" s="155"/>
+      <c r="C18" s="153" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D18" s="154"/>
       <c r="G18" s="140"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="153" t="s">
         <v>1284</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="154"/>
       <c r="G19" s="140"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="155" t="s">
         <v>1297</v>
       </c>
-      <c r="D20" s="152"/>
+      <c r="D20" s="156"/>
       <c r="G20" s="140"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="155" t="s">
         <v>1348</v>
       </c>
-      <c r="D21" s="152"/>
+      <c r="D21" s="156"/>
       <c r="G21" s="140"/>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="155" t="s">
         <v>1349</v>
       </c>
-      <c r="D22" s="152"/>
+      <c r="D22" s="156"/>
       <c r="G22" s="140"/>
     </row>
     <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="155" t="s">
         <v>1337</v>
       </c>
-      <c r="D23" s="152"/>
+      <c r="D23" s="156"/>
       <c r="G23" s="140"/>
     </row>
     <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -19643,76 +19722,76 @@
       <c r="B25" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="153" t="s">
         <v>1298</v>
       </c>
-      <c r="D25" s="155"/>
+      <c r="D25" s="154"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="153" t="s">
         <v>1299</v>
       </c>
-      <c r="D28" s="155"/>
+      <c r="D28" s="154"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C29" s="154">
-        <v>3</v>
-      </c>
-      <c r="D29" s="155"/>
+      <c r="C29" s="153" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D29" s="154"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="153" t="s">
         <v>1310</v>
       </c>
-      <c r="D30" s="155"/>
+      <c r="D30" s="154"/>
     </row>
     <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C31" s="151" t="s">
+      <c r="C31" s="155" t="s">
         <v>1344</v>
       </c>
-      <c r="D31" s="152"/>
+      <c r="D31" s="156"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="155" t="s">
         <v>1300</v>
       </c>
-      <c r="D32" s="152"/>
+      <c r="D32" s="156"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C33" s="155" t="s">
         <v>1351</v>
       </c>
-      <c r="D33" s="152"/>
+      <c r="D33" s="156"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="155" t="s">
         <v>1301</v>
       </c>
-      <c r="D34" s="152"/>
+      <c r="D34" s="156"/>
     </row>
     <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="151" t="s">
         <v>1281</v>
       </c>
       <c r="C35" s="129" t="s">
@@ -19723,7 +19802,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="157"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="129" t="s">
         <v>1288</v>
       </c>
@@ -19732,7 +19811,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="157"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="129" t="s">
         <v>1289</v>
       </c>
@@ -19741,7 +19820,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="158"/>
+      <c r="B38" s="157"/>
       <c r="C38" s="129" t="s">
         <v>1290</v>
       </c>
@@ -19753,73 +19832,73 @@
       <c r="B39" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="C39" s="153" t="s">
         <v>1320</v>
       </c>
-      <c r="D39" s="155"/>
+      <c r="D39" s="154"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C42" s="154" t="s">
+      <c r="C42" s="153" t="s">
         <v>1304</v>
       </c>
-      <c r="D42" s="155"/>
+      <c r="D42" s="154"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C43" s="154">
-        <v>4</v>
-      </c>
-      <c r="D43" s="155"/>
+      <c r="C43" s="153" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C44" s="154" t="s">
+      <c r="C44" s="153" t="s">
         <v>1284</v>
       </c>
-      <c r="D44" s="155"/>
+      <c r="D44" s="154"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="C45" s="155" t="s">
         <v>1307</v>
       </c>
-      <c r="D45" s="152"/>
+      <c r="D45" s="156"/>
     </row>
     <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="C46" s="155" t="s">
         <v>1305</v>
       </c>
-      <c r="D46" s="152"/>
+      <c r="D46" s="156"/>
     </row>
     <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="155" t="s">
         <v>1339</v>
       </c>
-      <c r="D47" s="152"/>
+      <c r="D47" s="156"/>
     </row>
     <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="155" t="s">
         <v>1306</v>
       </c>
-      <c r="D48" s="152"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
@@ -19836,76 +19915,76 @@
       <c r="B50" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C50" s="154" t="s">
+      <c r="C50" s="153" t="s">
         <v>1308</v>
       </c>
-      <c r="D50" s="155"/>
+      <c r="D50" s="154"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="153" t="s">
         <v>1309</v>
       </c>
-      <c r="D53" s="155"/>
+      <c r="D53" s="154"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C54" s="154">
-        <v>5</v>
-      </c>
-      <c r="D54" s="155"/>
+      <c r="C54" s="153" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D54" s="154"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C55" s="154" t="s">
+      <c r="C55" s="153" t="s">
         <v>1310</v>
       </c>
-      <c r="D55" s="155"/>
+      <c r="D55" s="154"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="C56" s="155" t="s">
         <v>1314</v>
       </c>
-      <c r="D56" s="152"/>
+      <c r="D56" s="156"/>
     </row>
     <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="155" t="s">
         <v>1311</v>
       </c>
-      <c r="D57" s="152"/>
+      <c r="D57" s="156"/>
     </row>
     <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C58" s="151" t="s">
+      <c r="C58" s="155" t="s">
         <v>1339</v>
       </c>
-      <c r="D58" s="152"/>
+      <c r="D58" s="156"/>
     </row>
     <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C59" s="151" t="s">
+      <c r="C59" s="155" t="s">
         <v>1306</v>
       </c>
-      <c r="D59" s="152"/>
+      <c r="D59" s="156"/>
     </row>
     <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="151" t="s">
         <v>1281</v>
       </c>
       <c r="C60" s="129" t="s">
@@ -19916,7 +19995,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="157"/>
+      <c r="B61" s="152"/>
       <c r="C61" s="129" t="s">
         <v>1288</v>
       </c>
@@ -19925,7 +20004,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B62" s="158"/>
+      <c r="B62" s="157"/>
       <c r="C62" s="129" t="s">
         <v>1289</v>
       </c>
@@ -19937,76 +20016,76 @@
       <c r="B63" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C63" s="154" t="s">
+      <c r="C63" s="153" t="s">
         <v>1321</v>
       </c>
-      <c r="D63" s="155"/>
+      <c r="D63" s="154"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C66" s="154" t="s">
+      <c r="C66" s="153" t="s">
         <v>1313</v>
       </c>
-      <c r="D66" s="155"/>
+      <c r="D66" s="154"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C67" s="154">
-        <v>6</v>
-      </c>
-      <c r="D67" s="155"/>
+      <c r="C67" s="153" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D67" s="154"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C68" s="154" t="s">
+      <c r="C68" s="153" t="s">
         <v>1310</v>
       </c>
-      <c r="D68" s="155"/>
+      <c r="D68" s="154"/>
     </row>
     <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C69" s="151" t="s">
+      <c r="C69" s="155" t="s">
         <v>1315</v>
       </c>
-      <c r="D69" s="152"/>
+      <c r="D69" s="156"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="151" t="s">
+      <c r="C70" s="155" t="s">
         <v>1316</v>
       </c>
-      <c r="D70" s="152"/>
+      <c r="D70" s="156"/>
     </row>
     <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C71" s="151" t="s">
+      <c r="C71" s="155" t="s">
         <v>1317</v>
       </c>
-      <c r="D71" s="152"/>
+      <c r="D71" s="156"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C72" s="151" t="s">
+      <c r="C72" s="155" t="s">
         <v>1324</v>
       </c>
-      <c r="D72" s="152"/>
+      <c r="D72" s="156"/>
     </row>
     <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="156" t="s">
+      <c r="B73" s="151" t="s">
         <v>1281</v>
       </c>
       <c r="C73" s="129" t="s">
@@ -20017,7 +20096,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B74" s="157"/>
+      <c r="B74" s="152"/>
       <c r="C74" s="129" t="s">
         <v>1288</v>
       </c>
@@ -20026,7 +20105,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B75" s="157"/>
+      <c r="B75" s="152"/>
       <c r="C75" s="129" t="s">
         <v>1289</v>
       </c>
@@ -20035,7 +20114,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="157"/>
+      <c r="B76" s="152"/>
       <c r="C76" s="129" t="s">
         <v>1290</v>
       </c>
@@ -20044,7 +20123,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="158"/>
+      <c r="B77" s="157"/>
       <c r="C77" s="129" t="s">
         <v>1291</v>
       </c>
@@ -20056,76 +20135,76 @@
       <c r="B78" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C78" s="154" t="s">
+      <c r="C78" s="153" t="s">
         <v>1325</v>
       </c>
-      <c r="D78" s="155"/>
+      <c r="D78" s="154"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C81" s="154" t="s">
+      <c r="C81" s="153" t="s">
         <v>1326</v>
       </c>
-      <c r="D81" s="155"/>
+      <c r="D81" s="154"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C82" s="154">
-        <v>7</v>
-      </c>
-      <c r="D82" s="155"/>
+      <c r="C82" s="153" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D82" s="154"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C83" s="154" t="s">
+      <c r="C83" s="153" t="s">
         <v>1284</v>
       </c>
-      <c r="D83" s="155"/>
+      <c r="D83" s="154"/>
     </row>
     <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C84" s="151" t="s">
+      <c r="C84" s="155" t="s">
         <v>1340</v>
       </c>
-      <c r="D84" s="152"/>
+      <c r="D84" s="156"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="151" t="s">
+      <c r="C85" s="155" t="s">
         <v>1327</v>
       </c>
-      <c r="D85" s="152"/>
+      <c r="D85" s="156"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C86" s="151" t="s">
+      <c r="C86" s="155" t="s">
         <v>1328</v>
       </c>
-      <c r="D86" s="152"/>
+      <c r="D86" s="156"/>
     </row>
     <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C87" s="151" t="s">
+      <c r="C87" s="155" t="s">
         <v>1354</v>
       </c>
-      <c r="D87" s="152"/>
+      <c r="D87" s="156"/>
     </row>
     <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="151" t="s">
         <v>1281</v>
       </c>
       <c r="C88" s="129" t="s">
@@ -20136,7 +20215,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="157"/>
+      <c r="B89" s="152"/>
       <c r="C89" s="129" t="s">
         <v>1288</v>
       </c>
@@ -20145,7 +20224,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="157"/>
+      <c r="B90" s="152"/>
       <c r="C90" s="129" t="s">
         <v>1289</v>
       </c>
@@ -20154,7 +20233,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B91" s="157"/>
+      <c r="B91" s="152"/>
       <c r="C91" s="129" t="s">
         <v>1290</v>
       </c>
@@ -20163,7 +20242,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="158"/>
+      <c r="B92" s="157"/>
       <c r="C92" s="129" t="s">
         <v>1291</v>
       </c>
@@ -20175,76 +20254,76 @@
       <c r="B93" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C93" s="154" t="s">
+      <c r="C93" s="153" t="s">
         <v>1334</v>
       </c>
-      <c r="D93" s="155"/>
+      <c r="D93" s="154"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="C96" s="154" t="s">
+      <c r="C96" s="153" t="s">
         <v>1332</v>
       </c>
-      <c r="D96" s="155"/>
+      <c r="D96" s="154"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C97" s="154">
-        <v>8</v>
-      </c>
-      <c r="D97" s="155"/>
+      <c r="C97" s="153" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D97" s="154"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="107" t="s">
         <v>1277</v>
       </c>
-      <c r="C98" s="154" t="s">
+      <c r="C98" s="153" t="s">
         <v>1284</v>
       </c>
-      <c r="D98" s="155"/>
+      <c r="D98" s="154"/>
     </row>
     <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="107" t="s">
         <v>1278</v>
       </c>
-      <c r="C99" s="151" t="s">
+      <c r="C99" s="155" t="s">
         <v>1341</v>
       </c>
-      <c r="D99" s="152"/>
+      <c r="D99" s="156"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="151" t="s">
+      <c r="C100" s="155" t="s">
         <v>1333</v>
       </c>
-      <c r="D100" s="152"/>
+      <c r="D100" s="156"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="107" t="s">
         <v>1279</v>
       </c>
-      <c r="C101" s="151" t="s">
+      <c r="C101" s="155" t="s">
         <v>1346</v>
       </c>
-      <c r="D101" s="152"/>
+      <c r="D101" s="156"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="107" t="s">
         <v>1280</v>
       </c>
-      <c r="C102" s="151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="152"/>
+      <c r="C102" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="156"/>
     </row>
     <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="156" t="s">
+      <c r="B103" s="151" t="s">
         <v>1281</v>
       </c>
       <c r="C103" s="129" t="s">
@@ -20255,7 +20334,7 @@
       </c>
     </row>
     <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="157"/>
+      <c r="B104" s="152"/>
       <c r="C104" s="129" t="s">
         <v>1288</v>
       </c>
@@ -20264,7 +20343,7 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="157"/>
+      <c r="B105" s="152"/>
       <c r="C105" s="129" t="s">
         <v>1289</v>
       </c>
@@ -20276,30 +20355,50 @@
       <c r="B106" s="107" t="s">
         <v>1282</v>
       </c>
-      <c r="C106" s="154" t="s">
+      <c r="C106" s="153" t="s">
         <v>1336</v>
       </c>
-      <c r="D106" s="155"/>
+      <c r="D106" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B60:B62"/>
@@ -20316,43 +20415,23 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20363,7 +20442,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20383,7 +20462,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="159">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -20391,7 +20470,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="159">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="63" t="s">
@@ -20399,7 +20478,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="159">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -20407,7 +20486,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="159">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -20415,7 +20494,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="159">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
       <c r="C7" s="63" t="s">
@@ -20423,7 +20502,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="B8" s="159">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
       <c r="C8" s="63" t="s">
@@ -20431,7 +20510,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="159">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9" s="68" t="s">
@@ -20439,7 +20518,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="159">
+      <c r="B10" s="13">
         <v>8</v>
       </c>
       <c r="C10" s="68" t="s">
@@ -20447,7 +20526,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="159">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
       <c r="C11" s="68" t="s">
@@ -20455,7 +20534,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="159">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
       <c r="C12" s="68" t="s">
@@ -20463,7 +20542,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="159">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
       <c r="C13" s="68" t="s">
@@ -20471,7 +20550,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="159">
+      <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -20479,7 +20558,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="159">
+      <c r="B15" s="13">
         <v>13</v>
       </c>
       <c r="C15" s="68" t="s">
@@ -20495,7 +20574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B47D4AA-0325-9141-89F9-CDA17DF0008C}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+    <sheetView zoomScale="221" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -20532,7 +20611,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="159">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -20552,7 +20631,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="159">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -20572,7 +20651,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="159">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -20592,7 +20671,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B6" s="159">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -20612,7 +20691,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="159">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
@@ -20632,7 +20711,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="159">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -24443,10 +24522,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC9B87-324D-FC42-B422-5AB2F001E51E}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A11" zoomScale="134" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24457,14 +24536,14 @@
     <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="44.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
     <col min="10" max="15" width="53.83203125" style="5" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="130" t="s">
         <v>1210</v>
       </c>
@@ -24479,7 +24558,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="123" t="s">
         <v>1240</v>
       </c>
@@ -24493,8 +24572,11 @@
       <c r="F3" s="122" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="159" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
         <v>1241</v>
       </c>
@@ -24508,8 +24590,9 @@
       <c r="F4" s="71" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="159"/>
+    </row>
+    <row r="5" spans="2:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="84" t="s">
         <v>1242</v>
       </c>
@@ -24523,8 +24606,9 @@
       <c r="F5" s="87" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="159"/>
+    </row>
+    <row r="6" spans="2:7" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="108" t="s">
         <v>1243</v>
       </c>
@@ -24538,8 +24622,11 @@
       <c r="F6" s="106" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="166" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="79" t="s">
         <v>1244</v>
       </c>
@@ -24553,8 +24640,11 @@
       <c r="F7" s="71" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="159" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>1245</v>
       </c>
@@ -24568,8 +24658,9 @@
       <c r="F8" s="71" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="159"/>
+    </row>
+    <row r="9" spans="2:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>1246</v>
       </c>
@@ -24583,8 +24674,9 @@
       <c r="F9" s="71" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="159"/>
+    </row>
+    <row r="10" spans="2:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>1247</v>
       </c>
@@ -24598,8 +24690,11 @@
       <c r="F10" s="13" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="165" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
         <v>1248</v>
       </c>
@@ -24613,8 +24708,9 @@
       <c r="F11" s="89" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="165"/>
+    </row>
+    <row r="12" spans="2:7" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="123" t="s">
         <v>1249</v>
       </c>
@@ -24628,8 +24724,11 @@
       <c r="F12" s="122" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="164" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>1250</v>
       </c>
@@ -24643,8 +24742,9 @@
       <c r="F13" s="13" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="164"/>
+    </row>
+    <row r="14" spans="2:7" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79" t="s">
         <v>1251</v>
       </c>
@@ -24658,8 +24758,9 @@
       <c r="F14" s="89" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="164"/>
+    </row>
+    <row r="15" spans="2:7" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="123" t="s">
         <v>1252</v>
       </c>
@@ -24673,8 +24774,11 @@
       <c r="F15" s="122" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="159" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>1253</v>
       </c>
@@ -24688,8 +24792,9 @@
       <c r="F16" s="88" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="159"/>
+    </row>
+    <row r="17" spans="2:7" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
         <v>1254</v>
       </c>
@@ -24703,8 +24808,9 @@
       <c r="F17" s="71" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="159"/>
+    </row>
+    <row r="18" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
         <v>1255</v>
       </c>
@@ -24718,8 +24824,9 @@
       <c r="F18" s="71" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="159"/>
+    </row>
+    <row r="19" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
         <v>1256</v>
       </c>
@@ -24733,8 +24840,29 @@
       <c r="F19" s="71" t="s">
         <v>1217</v>
       </c>
+      <c r="G19" s="166" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="162"/>
+      <c r="G20" s="161"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="163"/>
+      <c r="G21" s="161"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="160"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7161EA0-6AB9-1B49-9F23-DF55EEE56548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F993E-9D7D-C745-B7EC-939B5D6C6F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="7700" windowWidth="37320" windowHeight="21100" firstSheet="5" activeTab="9" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1260" yWindow="7700" windowWidth="37320" windowHeight="21100" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Anwendungsfälle" sheetId="12" r:id="rId11"/>
     <sheet name="Versuchsablauf" sheetId="13" r:id="rId12"/>
     <sheet name="Lebensmittelauswahl" sheetId="14" r:id="rId13"/>
+    <sheet name="Core Data" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$P$301</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="1485">
   <si>
     <t>Nr</t>
   </si>
@@ -3911,9 +3912,6 @@
     <t>Die iOS App muss dem Endanwender zu erkennen geben, wie viele Bilder bereits an den Server zur Verarbeitung gesendet wurden.</t>
   </si>
   <si>
-    <t>Die iOS App verfügt über eine Ansicht zur Darstellung des ermittelten Volumens.</t>
-  </si>
-  <si>
     <t>Darstellung</t>
   </si>
   <si>
@@ -3962,9 +3960,6 @@
 startet.</t>
   </si>
   <si>
-    <t>Die iOS App muss eine Ansicht zur Darstellung des serverseitig ermittelten Volumens (Messergebnis) bereitstellen.</t>
-  </si>
-  <si>
     <t>Die iOS App prüft automatisch, ob das API erreichbar ist und informiert den Endanwender im Falle der Nicht-Erreichbarkeit.</t>
   </si>
   <si>
@@ -4062,16 +4057,7 @@
     <t>Der Server stellt ein API für das Hochladen und die Ablage von Bildern bereit.</t>
   </si>
   <si>
-    <t>Der Server muss ein API bereitstellen, über das die Objektrekonstruktion mittels Object Capture und die anschließende Volumenberechnung gestartet werden kann.</t>
-  </si>
-  <si>
     <t>S-FA03.1</t>
-  </si>
-  <si>
-    <t>Das bereitzustellende API muss hierbei Eingabeparameter zur clientseitigen
-Einstellung des Konfigurationsprofils von
-Object Capture akzeptieren und an Object
-Capture zur Objektrekonstruktion weiterreichen.</t>
   </si>
   <si>
     <t>Das API akzeptiert clientseitige 
@@ -4079,9 +4065,6 @@
 Object Capture und ermöglicht so eine clientseitige Steuerung der Objektrekonstruktion.</t>
   </si>
   <si>
-    <t>Der Server stellt ein API zur Ausführung der Objektrekonstruktion durch Object Capture und anschließenden Volumenberechnung bereit. Das Ergebnis dieser Verarbeitung wird an den Client zur Darstellung zurückgeschickt.</t>
-  </si>
-  <si>
     <t>Die iOS App verfügt über eine Schaltfläche zur Erstellung von Bildern des Lebensmittels.</t>
   </si>
   <si>
@@ -4098,17 +4081,6 @@
   </si>
   <si>
     <t>S-FA03.2</t>
-  </si>
-  <si>
-    <t>Das bereitzustellende API muss für die
-anschließende Performanceanalyse von Object
-Capture die benötigte Zeit für die
-Objektrekonstruktion messen und diese in der Antwort an den Client mit zurückgeben.</t>
-  </si>
-  <si>
-    <t>Das API misst die Zeit, die Object Capture zur
-Objektrekonstruktion benötigt und gibt sie an
-den aufrufenden Client als weitere Information innerhalb der Antwort zurück.</t>
   </si>
   <si>
     <t>Akteure</t>
@@ -4536,6 +4508,248 @@
   </si>
   <si>
     <t>Dritte Iteration</t>
+  </si>
+  <si>
+    <t>Die iOS App muss eine Ansicht zur Darstellung des serverseitig ermittelten Messergebnisses bereitstellen.</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Darstellung des Messergebnisses. Im Detail wird hierbei das berechnete Volumen, die für die Rekonstruktion benötigte Zeit und das generierte 3D Modell dargestellt.</t>
+  </si>
+  <si>
+    <t>Das API misst die Zeit, die Object Capture zur
+Objektrekonstruktion benötigt und gibt sie zusammen mit dem berechneten Objektvolumen an den aufrufenden Client zurück.</t>
+  </si>
+  <si>
+    <t>Der Server muss ein API bereitstellen, über das die Objektrekonstruktion mittels Object Capture und die anschließende Volumenberechnung durchgeführt werden kann.</t>
+  </si>
+  <si>
+    <t>Der Server stellt ein API zur Ausführung der Objektrekonstruktion mittels Object Capture und anschließenden Volumenberechnung bereit. Das Ergebnis dieser Verarbeitung wird an den Client zur Darstellung zurückgeschickt.</t>
+  </si>
+  <si>
+    <t>Das API muss Eingabeparameter zur clientseitigen Steuerung des Konfigurationsprofils von
+Object Capture akzeptieren und an Object
+Capture zur Objektrekonstruktion weiterreichen.</t>
+  </si>
+  <si>
+    <t>Das API muss für die anschließende Performanceanalyse von Object
+Capture die benötigte Zeit für die
+Objektrekonstruktion messen und diese zusammen mit dem berechneten Objektvolumen an den anfragenden Client zurückgeben.</t>
+  </si>
+  <si>
+    <t>S-FA04</t>
+  </si>
+  <si>
+    <t>Der Server muss ein API bereitstellen, über das das durch Object Capture generierte 3D Modell abgerufen werden kann.</t>
+  </si>
+  <si>
+    <t>Der Server stellt ein API zum Abruf des generierten 3D Modells bereit.</t>
+  </si>
+  <si>
+    <t>Attributname</t>
+  </si>
+  <si>
+    <t>Datentyp</t>
+  </si>
+  <si>
+    <t>Verwendung</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>detailLevel</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Zeitstempel der Speicherung</t>
+  </si>
+  <si>
+    <t>featureSensitivity</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>measurementTime</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Bezeichnung der Messung</t>
+  </si>
+  <si>
+    <t>Berechnetes Objektvolumen in Kubikzentimeter</t>
+  </si>
+  <si>
+    <t>Benötigte Zeit für die Objektrekonstruktion in Sekunden</t>
+  </si>
+  <si>
+    <t>Verwendete Konfiguration für Object Capture</t>
+  </si>
+  <si>
+    <t>183-185</t>
+  </si>
+  <si>
+    <t>ISBN: 978-1-292-37634-9</t>
+  </si>
+  <si>
+    <t>Ian Sommerville - Engineering Software Products_ An Introduction to Modern Software Engineering-Pearson (2020).pdf</t>
+  </si>
+  <si>
+    <t>Engineering Software Products: An Introduction to Modern Software Engineering, Global Edition</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/capture_setup/requesting_authorization_to_capture_and_save_media</t>
+  </si>
+  <si>
+    <t>Kamera Zugriff</t>
+  </si>
+  <si>
+    <t>Requesting authorization to capture and save media</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023e</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/scenekit/scnview</t>
+  </si>
+  <si>
+    <t>SCNView</t>
+  </si>
+  <si>
+    <t>2023f</t>
+  </si>
+  <si>
+    <t>PyVista: 3D plotting and mesh analysis through a streamlined interface for the Visualization Toolkit (VTK)</t>
+  </si>
+  <si>
+    <t>https://joss.theoj.org/papers/10.21105/joss.01450</t>
+  </si>
+  <si>
+    <t>PyVista</t>
+  </si>
+  <si>
+    <t>10.21105/joss.01450</t>
+  </si>
+  <si>
+    <t>Sullivan, Kaszynski</t>
+  </si>
+  <si>
+    <t>Sullivan, C. Bane; Kaszynski, Alexander A.</t>
+  </si>
+  <si>
+    <t>Journal of Open Source Software, vol. 4, no. 37</t>
+  </si>
+  <si>
+    <t>JOSS</t>
+  </si>
+  <si>
+    <t>https://vtk.org/</t>
+  </si>
+  <si>
+    <t>Leverage the power of VTK by partnering with Kitware</t>
+  </si>
+  <si>
+    <t>VTK</t>
+  </si>
+  <si>
+    <t>Kitware Inc.</t>
+  </si>
+  <si>
+    <t>https://tetgen.pyvista.org/index.html</t>
+  </si>
+  <si>
+    <t>tetgen</t>
+  </si>
+  <si>
+    <t>The PyVista Developers</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/2629697</t>
+  </si>
+  <si>
+    <t>TetGen</t>
+  </si>
+  <si>
+    <t>TetGen, a Delaunay-Based Quality Tetrahedral Mesh Generator</t>
+  </si>
+  <si>
+    <t>10.1145/2629697</t>
+  </si>
+  <si>
+    <t>Si, Hang</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Association for Computing Machinery, USA, New York, vol. 41, no. 2</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>https://fastapi.tiangolo.com/advanced/custom-response/</t>
+  </si>
+  <si>
+    <t>Custom Response - HTML, Stream, File, others</t>
+  </si>
+  <si>
+    <t>FastAPI</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/capture_setup/avcam_building_a_camera_app</t>
+  </si>
+  <si>
+    <t>2023g</t>
+  </si>
+  <si>
+    <t>AVCam: Building a Camera App</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/additional_data_capture/capturing_photos_with_depth</t>
+  </si>
+  <si>
+    <t>2023h</t>
+  </si>
+  <si>
+    <t>Capturing Photos with Depth</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/avdepthdata/2881224-isdepthdatafiltered</t>
+  </si>
+  <si>
+    <t>isDepthDataFiltered</t>
+  </si>
+  <si>
+    <t>2023i</t>
+  </si>
+  <si>
+    <t>Core Data</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/coredata</t>
+  </si>
+  <si>
+    <t>2023j</t>
   </si>
 </sst>
 </file>
@@ -4985,7 +5199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5369,10 +5583,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -5403,11 +5621,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5421,29 +5642,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5771,8 +5983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5782,7 +5994,7 @@
     <col min="3" max="3" width="11.83203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="61" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="7" bestFit="1" customWidth="1"/>
@@ -14379,7 +14591,7 @@
       </c>
       <c r="Q164" s="19"/>
     </row>
-    <row r="165" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="26">
         <v>164</v>
       </c>
@@ -16777,51 +16989,105 @@
       <c r="A211" s="20">
         <v>210</v>
       </c>
-      <c r="B211" s="20"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="22"/>
-      <c r="F211" s="22"/>
+      <c r="B211" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F211" s="22" t="s">
+        <v>1435</v>
+      </c>
       <c r="G211" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H211" s="54"/>
-      <c r="I211" s="22"/>
-      <c r="J211" s="22"/>
-      <c r="K211" s="23"/>
-      <c r="L211" s="22"/>
-      <c r="M211" s="22"/>
-      <c r="N211" s="20"/>
-      <c r="O211" s="22"/>
+        <v>1436</v>
+      </c>
+      <c r="H211" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="J211" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="K211" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L211" s="22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M211" s="22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N211" s="20">
+        <v>2020</v>
+      </c>
+      <c r="O211" s="22" t="s">
+        <v>1432</v>
+      </c>
       <c r="P211" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl.  (), S. .</v>
-      </c>
-      <c r="Q211" s="19"/>
+        <v>Vgl. Sommerville (2020), S. 183-185.</v>
+      </c>
+      <c r="Q211" s="19" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="20">
         <v>211</v>
       </c>
-      <c r="B212" s="20"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="22"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H212" s="54"/>
-      <c r="I212" s="22"/>
-      <c r="J212" s="22"/>
-      <c r="K212" s="23"/>
-      <c r="L212" s="22"/>
-      <c r="M212" s="22"/>
-      <c r="N212" s="20"/>
-      <c r="O212" s="21"/>
+      <c r="B212" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E212" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H212" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I212" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J212" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K212" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L212" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M212" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N212" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="O212" s="22" t="s">
+        <v>449</v>
+      </c>
       <c r="P212" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q212" s="19"/>
     </row>
@@ -16829,25 +17095,51 @@
       <c r="A213" s="20">
         <v>212</v>
       </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="22"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H213" s="54"/>
-      <c r="I213" s="22"/>
-      <c r="J213" s="22"/>
-      <c r="K213" s="23"/>
-      <c r="L213" s="22"/>
-      <c r="M213" s="22"/>
-      <c r="N213" s="20"/>
-      <c r="O213" s="22"/>
+      <c r="B213" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E213" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G213" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H213" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J213" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K213" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L213" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M213" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N213" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="O213" s="22" t="s">
+        <v>449</v>
+      </c>
       <c r="P213" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q213" s="19"/>
     </row>
@@ -16855,25 +17147,51 @@
       <c r="A214" s="20">
         <v>213</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="22"/>
-      <c r="F214" s="22"/>
+      <c r="B214" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="35" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>1441</v>
+      </c>
       <c r="G214" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H214" s="54"/>
-      <c r="I214" s="22"/>
-      <c r="J214" s="22"/>
-      <c r="K214" s="23"/>
-      <c r="L214" s="22"/>
-      <c r="M214" s="22"/>
-      <c r="N214" s="20"/>
-      <c r="O214" s="22"/>
+        <v>1440</v>
+      </c>
+      <c r="H214" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J214" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K214" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L214" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M214" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N214" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O214" s="22" t="s">
+        <v>449</v>
+      </c>
       <c r="P214" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023e), S. o. S..</v>
       </c>
       <c r="Q214" s="19"/>
     </row>
@@ -16881,25 +17199,51 @@
       <c r="A215" s="20">
         <v>214</v>
       </c>
-      <c r="B215" s="20"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="22"/>
-      <c r="F215" s="22"/>
+      <c r="B215" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="35" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>1445</v>
+      </c>
       <c r="G215" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H215" s="54"/>
-      <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
-      <c r="K215" s="23"/>
-      <c r="L215" s="22"/>
-      <c r="M215" s="22"/>
-      <c r="N215" s="20"/>
-      <c r="O215" s="22"/>
+        <v>1445</v>
+      </c>
+      <c r="H215" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I215" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J215" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K215" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L215" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M215" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N215" s="20" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O215" s="22" t="s">
+        <v>449</v>
+      </c>
       <c r="P215" s="16" t="str">
         <f t="shared" ref="P215:P262" si="6">"Vgl. "&amp;I215&amp;" ("&amp;N215&amp;"), S. "&amp;O215&amp;"."</f>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023f), S. o. S..</v>
       </c>
       <c r="Q215" s="19"/>
     </row>
@@ -16907,25 +17251,51 @@
       <c r="A216" s="20">
         <v>215</v>
       </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
+      <c r="B216" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>549</v>
+      </c>
       <c r="G216" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H216" s="54"/>
-      <c r="I216" s="22"/>
-      <c r="J216" s="22"/>
-      <c r="K216" s="23"/>
-      <c r="L216" s="22"/>
-      <c r="M216" s="22"/>
-      <c r="N216" s="20"/>
-      <c r="O216" s="22"/>
+        <v>530</v>
+      </c>
+      <c r="H216" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I216" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J216" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K216" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="L216" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M216" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N216" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="O216" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P216" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q216" s="19"/>
     </row>
@@ -16933,25 +17303,51 @@
       <c r="A217" s="20">
         <v>216</v>
       </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="22"/>
+      <c r="B217" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="22" t="s">
+        <v>549</v>
+      </c>
       <c r="G217" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H217" s="54"/>
-      <c r="I217" s="22"/>
-      <c r="J217" s="22"/>
-      <c r="K217" s="23"/>
-      <c r="L217" s="22"/>
-      <c r="M217" s="22"/>
-      <c r="N217" s="20"/>
-      <c r="O217" s="22"/>
+        <v>530</v>
+      </c>
+      <c r="H217" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J217" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K217" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="L217" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M217" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N217" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="O217" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P217" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q217" s="19"/>
     </row>
@@ -16959,25 +17355,51 @@
       <c r="A218" s="20">
         <v>217</v>
       </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="22"/>
+      <c r="B218" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="35" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>1447</v>
+      </c>
       <c r="G218" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H218" s="54"/>
-      <c r="I218" s="22"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="23"/>
-      <c r="L218" s="22"/>
-      <c r="M218" s="22"/>
-      <c r="N218" s="20"/>
-      <c r="O218" s="22"/>
+        <v>1449</v>
+      </c>
+      <c r="H218" s="54" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I218" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J218" s="22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K218" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L218" s="22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M218" s="22" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N218" s="20">
+        <v>2019</v>
+      </c>
+      <c r="O218" s="21" t="s">
+        <v>226</v>
+      </c>
       <c r="P218" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Sullivan, Kaszynski (2019), S. 1-3.</v>
       </c>
       <c r="Q218" s="19"/>
     </row>
@@ -16985,25 +17407,51 @@
       <c r="A219" s="20">
         <v>218</v>
       </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
+      <c r="B219" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="35" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" s="22" t="s">
+        <v>1456</v>
+      </c>
       <c r="G219" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H219" s="54"/>
-      <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="23"/>
-      <c r="L219" s="22"/>
-      <c r="M219" s="22"/>
-      <c r="N219" s="20"/>
-      <c r="O219" s="22"/>
+        <v>1457</v>
+      </c>
+      <c r="H219" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I219" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J219" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K219" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L219" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M219" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N219" s="20">
+        <v>2023</v>
+      </c>
+      <c r="O219" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P219" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Kitware Inc. (2023), S. o. S..</v>
       </c>
       <c r="Q219" s="19"/>
     </row>
@@ -17011,25 +17459,51 @@
       <c r="A220" s="20">
         <v>219</v>
       </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="22"/>
+      <c r="B220" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="35" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="22" t="s">
+        <v>1460</v>
+      </c>
       <c r="G220" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H220" s="54"/>
-      <c r="I220" s="22"/>
-      <c r="J220" s="22"/>
-      <c r="K220" s="23"/>
-      <c r="L220" s="22"/>
-      <c r="M220" s="22"/>
-      <c r="N220" s="20"/>
-      <c r="O220" s="22"/>
+        <v>1460</v>
+      </c>
+      <c r="H220" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I220" s="22" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J220" s="22" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K220" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L220" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M220" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N220" s="20">
+        <v>2023</v>
+      </c>
+      <c r="O220" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P220" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. The PyVista Developers (2023), S. o. S..</v>
       </c>
       <c r="Q220" s="19"/>
     </row>
@@ -17037,25 +17511,51 @@
       <c r="A221" s="20">
         <v>220</v>
       </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
+      <c r="B221" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="35" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>1464</v>
+      </c>
       <c r="G221" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H221" s="54"/>
-      <c r="I221" s="22"/>
-      <c r="J221" s="22"/>
-      <c r="K221" s="23"/>
-      <c r="L221" s="22"/>
-      <c r="M221" s="22"/>
-      <c r="N221" s="20"/>
-      <c r="O221" s="22"/>
+        <v>1463</v>
+      </c>
+      <c r="H221" s="54" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I221" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J221" s="22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K221" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L221" s="22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M221" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="N221" s="20">
+        <v>2015</v>
+      </c>
+      <c r="O221" s="21" t="s">
+        <v>1469</v>
+      </c>
       <c r="P221" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Si (2015), S. 1-36.</v>
       </c>
       <c r="Q221" s="19"/>
     </row>
@@ -17063,25 +17563,51 @@
       <c r="A222" s="20">
         <v>221</v>
       </c>
-      <c r="B222" s="20"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="22"/>
+      <c r="B222" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="35" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" s="22" t="s">
+        <v>1471</v>
+      </c>
       <c r="G222" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H222" s="54"/>
-      <c r="I222" s="22"/>
-      <c r="J222" s="22"/>
-      <c r="K222" s="23"/>
-      <c r="L222" s="22"/>
-      <c r="M222" s="22"/>
-      <c r="N222" s="20"/>
-      <c r="O222" s="22"/>
+      <c r="H222" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I222" s="22" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J222" s="22" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K222" s="23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L222" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M222" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N222" s="20">
+        <v>2023</v>
+      </c>
+      <c r="O222" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P222" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. FastAPI (2023), S. o. S..</v>
       </c>
       <c r="Q222" s="19"/>
     </row>
@@ -17089,25 +17615,51 @@
       <c r="A223" s="20">
         <v>222</v>
       </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H223" s="54"/>
-      <c r="I223" s="22"/>
-      <c r="J223" s="22"/>
-      <c r="K223" s="23"/>
-      <c r="L223" s="22"/>
-      <c r="M223" s="22"/>
-      <c r="N223" s="20"/>
-      <c r="O223" s="22"/>
+      <c r="B223" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H223" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I223" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J223" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K223" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L223" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M223" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N223" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="O223" s="22" t="s">
+        <v>449</v>
+      </c>
       <c r="P223" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q223" s="19"/>
     </row>
@@ -17115,25 +17667,51 @@
       <c r="A224" s="20">
         <v>223</v>
       </c>
-      <c r="B224" s="20"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
-      <c r="E224" s="22"/>
-      <c r="F224" s="22"/>
+      <c r="B224" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="35" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E224" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="22" t="s">
+        <v>1475</v>
+      </c>
       <c r="G224" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H224" s="54"/>
-      <c r="I224" s="22"/>
-      <c r="J224" s="22"/>
-      <c r="K224" s="23"/>
-      <c r="L224" s="22"/>
-      <c r="M224" s="22"/>
-      <c r="N224" s="20"/>
-      <c r="O224" s="22"/>
+      <c r="H224" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J224" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K224" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L224" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M224" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N224" s="20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="O224" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P224" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023g), S. o. S..</v>
       </c>
       <c r="Q224" s="19"/>
     </row>
@@ -17141,25 +17719,51 @@
       <c r="A225" s="20">
         <v>224</v>
       </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="22"/>
-      <c r="F225" s="22"/>
+      <c r="B225" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="35" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" s="22" t="s">
+        <v>1478</v>
+      </c>
       <c r="G225" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H225" s="54"/>
-      <c r="I225" s="22"/>
-      <c r="J225" s="22"/>
-      <c r="K225" s="23"/>
-      <c r="L225" s="22"/>
-      <c r="M225" s="22"/>
-      <c r="N225" s="20"/>
-      <c r="O225" s="22"/>
+      <c r="H225" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J225" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K225" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L225" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M225" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N225" s="20" t="s">
+        <v>1477</v>
+      </c>
+      <c r="O225" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P225" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023h), S. o. S..</v>
       </c>
       <c r="Q225" s="19"/>
     </row>
@@ -17167,25 +17771,51 @@
       <c r="A226" s="20">
         <v>225</v>
       </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="22"/>
+      <c r="B226" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" s="35" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" s="22" t="s">
+        <v>1480</v>
+      </c>
       <c r="G226" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H226" s="54"/>
-      <c r="I226" s="22"/>
-      <c r="J226" s="22"/>
-      <c r="K226" s="23"/>
-      <c r="L226" s="22"/>
-      <c r="M226" s="22"/>
-      <c r="N226" s="20"/>
-      <c r="O226" s="22"/>
+      <c r="H226" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I226" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J226" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K226" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L226" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M226" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N226" s="20" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O226" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P226" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023i), S. o. S..</v>
       </c>
       <c r="Q226" s="19"/>
     </row>
@@ -17193,25 +17823,51 @@
       <c r="A227" s="20">
         <v>226</v>
       </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
-      <c r="E227" s="22"/>
-      <c r="F227" s="22"/>
+      <c r="B227" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" s="22" t="s">
+        <v>1482</v>
+      </c>
       <c r="G227" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H227" s="54"/>
-      <c r="I227" s="22"/>
-      <c r="J227" s="22"/>
-      <c r="K227" s="23"/>
-      <c r="L227" s="22"/>
-      <c r="M227" s="22"/>
-      <c r="N227" s="20"/>
-      <c r="O227" s="22"/>
+      <c r="H227" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I227" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J227" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K227" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L227" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M227" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N227" s="20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="O227" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P227" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <v>Vgl. Apple Inc. (2023j), S. o. S..</v>
       </c>
       <c r="Q227" s="19"/>
     </row>
@@ -17234,7 +17890,7 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="20"/>
-      <c r="O228" s="22"/>
+      <c r="O228" s="21"/>
       <c r="P228" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17260,7 +17916,7 @@
       <c r="L229" s="22"/>
       <c r="M229" s="22"/>
       <c r="N229" s="20"/>
-      <c r="O229" s="22"/>
+      <c r="O229" s="21"/>
       <c r="P229" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17286,7 +17942,7 @@
       <c r="L230" s="22"/>
       <c r="M230" s="22"/>
       <c r="N230" s="20"/>
-      <c r="O230" s="22"/>
+      <c r="O230" s="21"/>
       <c r="P230" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17312,7 +17968,7 @@
       <c r="L231" s="22"/>
       <c r="M231" s="22"/>
       <c r="N231" s="20"/>
-      <c r="O231" s="22"/>
+      <c r="O231" s="21"/>
       <c r="P231" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17338,7 +17994,7 @@
       <c r="L232" s="22"/>
       <c r="M232" s="22"/>
       <c r="N232" s="20"/>
-      <c r="O232" s="22"/>
+      <c r="O232" s="21"/>
       <c r="P232" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17364,7 +18020,7 @@
       <c r="L233" s="22"/>
       <c r="M233" s="22"/>
       <c r="N233" s="20"/>
-      <c r="O233" s="22"/>
+      <c r="O233" s="21"/>
       <c r="P233" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17390,7 +18046,7 @@
       <c r="L234" s="22"/>
       <c r="M234" s="22"/>
       <c r="N234" s="20"/>
-      <c r="O234" s="22"/>
+      <c r="O234" s="21"/>
       <c r="P234" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17416,7 +18072,7 @@
       <c r="L235" s="22"/>
       <c r="M235" s="22"/>
       <c r="N235" s="20"/>
-      <c r="O235" s="22"/>
+      <c r="O235" s="21"/>
       <c r="P235" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17442,7 +18098,7 @@
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
       <c r="N236" s="20"/>
-      <c r="O236" s="22"/>
+      <c r="O236" s="21"/>
       <c r="P236" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17468,7 +18124,7 @@
       <c r="L237" s="22"/>
       <c r="M237" s="22"/>
       <c r="N237" s="20"/>
-      <c r="O237" s="22"/>
+      <c r="O237" s="21"/>
       <c r="P237" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17494,7 +18150,7 @@
       <c r="L238" s="22"/>
       <c r="M238" s="22"/>
       <c r="N238" s="20"/>
-      <c r="O238" s="22"/>
+      <c r="O238" s="21"/>
       <c r="P238" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17520,7 +18176,7 @@
       <c r="L239" s="22"/>
       <c r="M239" s="22"/>
       <c r="N239" s="20"/>
-      <c r="O239" s="22"/>
+      <c r="O239" s="21"/>
       <c r="P239" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17546,7 +18202,7 @@
       <c r="L240" s="22"/>
       <c r="M240" s="22"/>
       <c r="N240" s="20"/>
-      <c r="O240" s="22"/>
+      <c r="O240" s="21"/>
       <c r="P240" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17572,7 +18228,7 @@
       <c r="L241" s="22"/>
       <c r="M241" s="22"/>
       <c r="N241" s="20"/>
-      <c r="O241" s="22"/>
+      <c r="O241" s="21"/>
       <c r="P241" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17598,7 +18254,7 @@
       <c r="L242" s="22"/>
       <c r="M242" s="22"/>
       <c r="N242" s="20"/>
-      <c r="O242" s="22"/>
+      <c r="O242" s="21"/>
       <c r="P242" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17624,7 +18280,7 @@
       <c r="L243" s="22"/>
       <c r="M243" s="22"/>
       <c r="N243" s="20"/>
-      <c r="O243" s="22"/>
+      <c r="O243" s="21"/>
       <c r="P243" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17650,7 +18306,7 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="20"/>
-      <c r="O244" s="22"/>
+      <c r="O244" s="21"/>
       <c r="P244" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17676,7 +18332,7 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="20"/>
-      <c r="O245" s="22"/>
+      <c r="O245" s="21"/>
       <c r="P245" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17702,7 +18358,7 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="20"/>
-      <c r="O246" s="22"/>
+      <c r="O246" s="21"/>
       <c r="P246" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17728,7 +18384,7 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="20"/>
-      <c r="O247" s="22"/>
+      <c r="O247" s="21"/>
       <c r="P247" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17754,7 +18410,7 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="20"/>
-      <c r="O248" s="22"/>
+      <c r="O248" s="21"/>
       <c r="P248" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17780,7 +18436,7 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="20"/>
-      <c r="O249" s="22"/>
+      <c r="O249" s="21"/>
       <c r="P249" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -17806,7 +18462,7 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="20"/>
-      <c r="O250" s="22"/>
+      <c r="O250" s="21"/>
       <c r="P250" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Vgl.  (), S. .</v>
@@ -19354,6 +20010,22 @@
     <hyperlink ref="D15" r:id="rId205" xr:uid="{61F53178-D73D-9E48-9700-43C8209E896C}"/>
     <hyperlink ref="D16" r:id="rId206" xr:uid="{E8B161D7-D0D6-BE43-85F5-B6787A2C76EA}"/>
     <hyperlink ref="D17" r:id="rId207" xr:uid="{7C861EB7-19A0-134B-9EDD-817B1C8D68FE}"/>
+    <hyperlink ref="D212" r:id="rId208" xr:uid="{6E4BA74E-9C5B-3F48-836F-268F9FFA4BA1}"/>
+    <hyperlink ref="D213" r:id="rId209" xr:uid="{9AAD6D7C-DB39-304F-9157-0624319B54D7}"/>
+    <hyperlink ref="D214" r:id="rId210" xr:uid="{6A2E6B60-FB32-9641-83D8-8EEB858BDE22}"/>
+    <hyperlink ref="D215" r:id="rId211" xr:uid="{6C6D0F88-A395-AE40-92A9-8E94FBD94858}"/>
+    <hyperlink ref="D216" r:id="rId212" xr:uid="{DA582187-BCC0-804C-84C5-5233FF9F223E}"/>
+    <hyperlink ref="D217" r:id="rId213" xr:uid="{A4CBE411-18E5-A04C-B839-3FE17DC84F10}"/>
+    <hyperlink ref="D218" r:id="rId214" xr:uid="{B0817077-49E6-374D-83A9-B6FC11EE6382}"/>
+    <hyperlink ref="D219" r:id="rId215" xr:uid="{75DAC5B3-CB92-5E49-AFFD-5967A4CFEA7F}"/>
+    <hyperlink ref="D220" r:id="rId216" xr:uid="{787405D1-F33B-CE41-B9C5-2464B5BF41F9}"/>
+    <hyperlink ref="D221" r:id="rId217" xr:uid="{7A8EF92A-6D0B-A342-9972-811D96C5EDD5}"/>
+    <hyperlink ref="D222" r:id="rId218" xr:uid="{B9D20C87-1571-4943-9D2D-0EAA14A60403}"/>
+    <hyperlink ref="D223" r:id="rId219" xr:uid="{91A7D49A-00FD-174A-9F03-14A424A07842}"/>
+    <hyperlink ref="D224" r:id="rId220" xr:uid="{E01082E9-34EC-BE4B-99E9-BBD091F43529}"/>
+    <hyperlink ref="D225" r:id="rId221" xr:uid="{CC331DA7-82F3-E44C-8B02-334E5A2206B0}"/>
+    <hyperlink ref="D226" r:id="rId222" xr:uid="{416129F3-1618-D74D-BE2E-DA1374C87A94}"/>
+    <hyperlink ref="D227" r:id="rId223" xr:uid="{47B7AF7F-F964-B747-9B82-F5123E46DE2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -19362,10 +20034,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D68D-B64B-B445-8C88-EAE5C724F845}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19387,8 +20059,8 @@
       <c r="B2" s="130" t="s">
         <v>1210</v>
       </c>
-      <c r="C2" s="131">
-        <v>0</v>
+      <c r="C2" s="131" t="s">
+        <v>1208</v>
       </c>
       <c r="D2" s="132"/>
       <c r="E2" s="133" t="s">
@@ -19400,92 +20072,108 @@
     </row>
     <row r="3" spans="2:7" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="134" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C3" s="135" t="s">
         <v>1257</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>1259</v>
       </c>
       <c r="D3" s="136"/>
       <c r="E3" s="137" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F3" s="138" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G3" s="159" t="s">
-        <v>1410</v>
+        <v>1225</v>
+      </c>
+      <c r="G3" s="153" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="134" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G4" s="159"/>
+        <v>1225</v>
+      </c>
+      <c r="G4" s="153"/>
     </row>
     <row r="5" spans="2:7" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>1264</v>
+        <v>1409</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="110" t="s">
-        <v>1268</v>
+        <v>1410</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G5" s="165" t="s">
-        <v>1411</v>
+        <v>1225</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>1266</v>
+        <v>1411</v>
       </c>
       <c r="D6" s="128"/>
       <c r="E6" s="68" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G6" s="154"/>
+    </row>
+    <row r="7" spans="2:7" ht="124" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D7" s="164"/>
+      <c r="E7" s="85" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G7" s="154"/>
+    </row>
+    <row r="8" spans="2:7" ht="59" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="108" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D8" s="114"/>
+      <c r="E8" s="110" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F8" s="111" t="s">
         <v>1225</v>
       </c>
-      <c r="G6" s="165"/>
-    </row>
-    <row r="7" spans="2:7" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C7" s="115" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="68" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G7" s="165"/>
+      <c r="G8" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G5:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19512,893 +20200,873 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D2" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C3" s="153" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D3" s="154"/>
+      <c r="C3" s="156" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D3" s="157"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C4" s="156" t="s">
         <v>1277</v>
       </c>
-      <c r="C4" s="153" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="157"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C5" s="155" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D5" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D5" s="159"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="155" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D6" s="156"/>
+      <c r="C6" s="158" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D6" s="159"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C7" s="158" t="s">
         <v>1279</v>
       </c>
-      <c r="C7" s="155" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D7" s="156"/>
+      <c r="D7" s="159"/>
     </row>
     <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D8" s="159"/>
+    </row>
+    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="160" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C9" s="129" t="s">
         <v>1280</v>
       </c>
-      <c r="C8" s="155" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D8" s="156"/>
-    </row>
-    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="158" t="s">
+      <c r="D9" s="116" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="160"/>
+      <c r="C10" s="127" t="s">
         <v>1281</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="D10" s="128" t="s">
         <v>1287</v>
       </c>
-      <c r="D9" s="116" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="158"/>
-      <c r="C10" s="127" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="158"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="127" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="158"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="127" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="158"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="127" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C14" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="154"/>
-      <c r="G14" s="140"/>
+        <v>1275</v>
+      </c>
+      <c r="C14" s="156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="157"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="140"/>
+      <c r="G15" s="139"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="140"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C17" s="153" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="G17" s="140"/>
+        <v>1289</v>
+      </c>
+      <c r="C17" s="156" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D17" s="157"/>
+      <c r="G17" s="139"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C18" s="153" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="G18" s="140"/>
+      <c r="C18" s="156" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D18" s="157"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C19" s="156" t="s">
         <v>1277</v>
       </c>
-      <c r="C19" s="153" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="G19" s="140"/>
+      <c r="D19" s="157"/>
+      <c r="G19" s="139"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C20" s="155" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D20" s="156"/>
-      <c r="G20" s="140"/>
+        <v>1271</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D20" s="159"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="155" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D21" s="156"/>
-      <c r="G21" s="140"/>
+      <c r="C21" s="158" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D21" s="159"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C22" s="155" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D22" s="156"/>
-      <c r="G22" s="140"/>
+        <v>1272</v>
+      </c>
+      <c r="C22" s="158" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D22" s="159"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C23" s="155" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D23" s="156"/>
-      <c r="G23" s="140"/>
+        <v>1273</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D23" s="159"/>
+      <c r="G23" s="139"/>
     </row>
     <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="107" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C24" s="129" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="D24" s="116" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G24" s="140"/>
+        <v>1343</v>
+      </c>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C25" s="153" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D25" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C25" s="156" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D25" s="157"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C28" s="153" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D28" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C28" s="156" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D28" s="157"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C29" s="153" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D29" s="154"/>
+      <c r="C29" s="156" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D29" s="157"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C30" s="153" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D30" s="154"/>
+        <v>1270</v>
+      </c>
+      <c r="C30" s="156" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D30" s="157"/>
     </row>
     <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C31" s="155" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D31" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C31" s="158" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D31" s="159"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="155" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D32" s="156"/>
+      <c r="C32" s="158" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D32" s="159"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C33" s="155" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D33" s="156"/>
+        <v>1272</v>
+      </c>
+      <c r="C33" s="158" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D33" s="159"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C34" s="158" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D34" s="159"/>
+    </row>
+    <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B35" s="161" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C35" s="129" t="s">
         <v>1280</v>
       </c>
-      <c r="C34" s="155" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D34" s="156"/>
-    </row>
-    <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="151" t="s">
+      <c r="D35" s="116" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="162"/>
+      <c r="C36" s="129" t="s">
         <v>1281</v>
       </c>
-      <c r="C35" s="129" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D35" s="116" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="152"/>
-      <c r="C36" s="129" t="s">
-        <v>1288</v>
-      </c>
       <c r="D36" s="116" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="152"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="129" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="157"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="129" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C39" s="153" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D39" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C39" s="156" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D39" s="157"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C42" s="153" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D42" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C42" s="156" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D42" s="157"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C43" s="153" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D43" s="154"/>
+      <c r="C43" s="156" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D43" s="157"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C44" s="156" t="s">
         <v>1277</v>
       </c>
-      <c r="C44" s="153" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D44" s="154"/>
+      <c r="D44" s="157"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C45" s="155" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D45" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C45" s="158" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D45" s="159"/>
     </row>
     <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="155" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D46" s="156"/>
+      <c r="C46" s="158" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D46" s="159"/>
     </row>
     <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C47" s="155" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D47" s="156"/>
+        <v>1272</v>
+      </c>
+      <c r="C47" s="158" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D47" s="159"/>
     </row>
     <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C48" s="155" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D48" s="156"/>
+        <v>1273</v>
+      </c>
+      <c r="C48" s="158" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D48" s="159"/>
     </row>
     <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C49" s="129" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C50" s="153" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D50" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C50" s="156" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D50" s="157"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C53" s="153" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D53" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C53" s="156" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D53" s="157"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C54" s="153" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D54" s="154"/>
+      <c r="C54" s="156" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D54" s="157"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C55" s="153" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D55" s="154"/>
+        <v>1270</v>
+      </c>
+      <c r="C55" s="156" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D55" s="157"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C56" s="155" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D56" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C56" s="158" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D56" s="159"/>
     </row>
     <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="155" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D57" s="156"/>
+      <c r="C57" s="158" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D57" s="159"/>
     </row>
     <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C58" s="155" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D58" s="156"/>
+        <v>1272</v>
+      </c>
+      <c r="C58" s="158" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D58" s="159"/>
     </row>
     <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C59" s="158" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D59" s="159"/>
+    </row>
+    <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="161" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C60" s="129" t="s">
         <v>1280</v>
       </c>
-      <c r="C59" s="155" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D59" s="156"/>
-    </row>
-    <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="151" t="s">
+      <c r="D60" s="116" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B61" s="162"/>
+      <c r="C61" s="129" t="s">
         <v>1281</v>
       </c>
-      <c r="C60" s="129" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D60" s="116" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="152"/>
-      <c r="C61" s="129" t="s">
-        <v>1288</v>
-      </c>
       <c r="D61" s="116" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B62" s="157"/>
+      <c r="B62" s="163"/>
       <c r="C62" s="129" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C63" s="153" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D63" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C63" s="156" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D63" s="157"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C66" s="153" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D66" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C66" s="156" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D66" s="157"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C67" s="153" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D67" s="154"/>
+      <c r="C67" s="156" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D67" s="157"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C68" s="153" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D68" s="154"/>
+        <v>1270</v>
+      </c>
+      <c r="C68" s="156" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D68" s="157"/>
     </row>
     <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C69" s="155" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D69" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C69" s="158" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D69" s="159"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="155" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D70" s="156"/>
+      <c r="C70" s="158" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D70" s="159"/>
     </row>
     <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C71" s="155" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D71" s="156"/>
+        <v>1272</v>
+      </c>
+      <c r="C71" s="158" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D71" s="159"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C72" s="158" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D72" s="159"/>
+    </row>
+    <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B73" s="161" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C73" s="129" t="s">
         <v>1280</v>
       </c>
-      <c r="C72" s="155" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D72" s="156"/>
-    </row>
-    <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="151" t="s">
+      <c r="D73" s="116" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B74" s="162"/>
+      <c r="C74" s="129" t="s">
         <v>1281</v>
       </c>
-      <c r="C73" s="129" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D73" s="116" t="s">
+      <c r="D74" s="116" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B74" s="152"/>
-      <c r="C74" s="129" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D74" s="116" t="s">
-        <v>1322</v>
-      </c>
-    </row>
     <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B75" s="152"/>
+      <c r="B75" s="162"/>
       <c r="C75" s="129" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D75" s="116" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="152"/>
+      <c r="B76" s="162"/>
       <c r="C76" s="129" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D76" s="116" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="157"/>
+      <c r="B77" s="163"/>
       <c r="C77" s="129" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D77" s="116" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C78" s="153" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D78" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C78" s="156" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D78" s="157"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C81" s="153" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D81" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C81" s="156" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D81" s="157"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C82" s="153" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D82" s="154"/>
+      <c r="C82" s="156" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D82" s="157"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C83" s="156" t="s">
         <v>1277</v>
       </c>
-      <c r="C83" s="153" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D83" s="154"/>
+      <c r="D83" s="157"/>
     </row>
     <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C84" s="155" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D84" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C84" s="158" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D84" s="159"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="155" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D85" s="156"/>
+      <c r="C85" s="158" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D85" s="159"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C86" s="155" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D86" s="156"/>
+        <v>1272</v>
+      </c>
+      <c r="C86" s="158" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D86" s="159"/>
     </row>
     <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C87" s="158" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D87" s="159"/>
+    </row>
+    <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B88" s="161" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C88" s="129" t="s">
         <v>1280</v>
       </c>
-      <c r="C87" s="155" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D87" s="156"/>
-    </row>
-    <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B88" s="151" t="s">
+      <c r="D88" s="116" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="162"/>
+      <c r="C89" s="129" t="s">
         <v>1281</v>
       </c>
-      <c r="C88" s="129" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D88" s="116" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="152"/>
-      <c r="C89" s="129" t="s">
-        <v>1288</v>
-      </c>
       <c r="D89" s="116" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="152"/>
+      <c r="B90" s="162"/>
       <c r="C90" s="129" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D90" s="116" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B91" s="152"/>
+      <c r="B91" s="162"/>
       <c r="C91" s="129" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D91" s="116" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="157"/>
+      <c r="B92" s="163"/>
       <c r="C92" s="129" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D92" s="116" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C93" s="153" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D93" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C93" s="156" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D93" s="157"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="107" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C96" s="153" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D96" s="154"/>
+        <v>1289</v>
+      </c>
+      <c r="C96" s="156" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D96" s="157"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C97" s="153" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D97" s="154"/>
+      <c r="C97" s="156" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D97" s="157"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C98" s="156" t="s">
         <v>1277</v>
       </c>
-      <c r="C98" s="153" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D98" s="154"/>
+      <c r="D98" s="157"/>
     </row>
     <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="107" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C99" s="155" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D99" s="156"/>
+        <v>1271</v>
+      </c>
+      <c r="C99" s="158" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D99" s="159"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="155" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D100" s="156"/>
+      <c r="C100" s="158" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D100" s="159"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="107" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C101" s="155" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D101" s="156"/>
+        <v>1272</v>
+      </c>
+      <c r="C101" s="158" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D101" s="159"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C102" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="159"/>
+    </row>
+    <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B103" s="161" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C103" s="129" t="s">
         <v>1280</v>
       </c>
-      <c r="C102" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="156"/>
-    </row>
-    <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="151" t="s">
+      <c r="D103" s="116" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B104" s="162"/>
+      <c r="C104" s="129" t="s">
         <v>1281</v>
       </c>
-      <c r="C103" s="129" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D103" s="116" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="152"/>
-      <c r="C104" s="129" t="s">
-        <v>1288</v>
-      </c>
       <c r="D104" s="116" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="152"/>
+      <c r="B105" s="162"/>
       <c r="C105" s="129" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D105" s="116" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="107" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C106" s="153" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D106" s="154"/>
+        <v>1275</v>
+      </c>
+      <c r="C106" s="156" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D106" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B60:B62"/>
@@ -20415,23 +21083,43 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20455,7 +21143,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="66" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C2" s="66" t="s">
         <v>12</v>
@@ -20466,7 +21154,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -20474,7 +21162,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -20482,7 +21170,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -20490,7 +21178,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="51" x14ac:dyDescent="0.2">
@@ -20498,7 +21186,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="68" x14ac:dyDescent="0.2">
@@ -20506,7 +21194,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="51" x14ac:dyDescent="0.2">
@@ -20514,7 +21202,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="51" x14ac:dyDescent="0.2">
@@ -20522,7 +21210,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -20530,7 +21218,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -20538,7 +21226,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -20546,7 +21234,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -20554,7 +21242,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -20562,7 +21250,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
@@ -20575,7 +21263,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView zoomScale="221" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20592,22 +21280,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="66" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="C2" s="66" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>1372</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>1379</v>
-      </c>
       <c r="E2" s="66" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20615,19 +21303,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20635,19 +21323,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20655,19 +21343,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="68" x14ac:dyDescent="0.2">
@@ -20675,19 +21363,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20695,19 +21383,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>1386</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20715,19 +21403,118 @@
         <v>6</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1390</v>
+        <v>1383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2822E957-6EFA-4846-961F-4CEEC9C0590A}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="228" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="66" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -22674,7 +23461,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="146" t="s">
         <v>874</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -22688,7 +23475,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="145"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="16" t="s">
         <v>865</v>
       </c>
@@ -22700,7 +23487,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="145"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="16" t="s">
         <v>868</v>
       </c>
@@ -22712,7 +23499,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="145"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="16" t="s">
         <v>867</v>
       </c>
@@ -22724,7 +23511,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="145"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="16" t="s">
         <v>869</v>
       </c>
@@ -22736,7 +23523,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="145"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="73" t="s">
         <v>936</v>
       </c>
@@ -22748,7 +23535,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="143" t="s">
         <v>916</v>
       </c>
       <c r="C9" s="75" t="s">
@@ -22762,7 +23549,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="16" t="s">
         <v>881</v>
       </c>
@@ -22774,7 +23561,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="142"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="16" t="s">
         <v>912</v>
       </c>
@@ -22786,7 +23573,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="142"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="16" t="s">
         <v>885</v>
       </c>
@@ -22798,7 +23585,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="142"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="16" t="s">
         <v>870</v>
       </c>
@@ -22810,7 +23597,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="142"/>
+      <c r="B14" s="144"/>
       <c r="C14" s="16" t="s">
         <v>883</v>
       </c>
@@ -22822,7 +23609,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="142"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="16" t="s">
         <v>884</v>
       </c>
@@ -22834,7 +23621,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="142"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="16" t="s">
         <v>862</v>
       </c>
@@ -22846,7 +23633,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="142"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="16" t="s">
         <v>894</v>
       </c>
@@ -22858,7 +23645,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="142"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="16" t="s">
         <v>925</v>
       </c>
@@ -22870,7 +23657,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="142"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="16" t="s">
         <v>913</v>
       </c>
@@ -22882,7 +23669,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="142"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="16" t="s">
         <v>914</v>
       </c>
@@ -22894,7 +23681,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="142"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="16" t="s">
         <v>915</v>
       </c>
@@ -22906,7 +23693,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="142"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="16" t="s">
         <v>919</v>
       </c>
@@ -22918,7 +23705,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="142"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="16" t="s">
         <v>921</v>
       </c>
@@ -22930,7 +23717,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="142"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="72" t="s">
         <v>922</v>
       </c>
@@ -22942,7 +23729,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="142"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="16" t="s">
         <v>926</v>
       </c>
@@ -22954,7 +23741,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="142"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="16" t="s">
         <v>863</v>
       </c>
@@ -22966,7 +23753,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="142"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="16" t="s">
         <v>882</v>
       </c>
@@ -22978,7 +23765,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="143"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="16" t="s">
         <v>927</v>
       </c>
@@ -24315,11 +25102,11 @@
       <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="148" t="s">
         <v>1164</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="66" t="s">
         <v>1165</v>
       </c>
@@ -24420,7 +25207,7 @@
       <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="151" t="s">
         <v>1183</v>
       </c>
       <c r="C14" s="100"/>
@@ -24432,7 +25219,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="150"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="101"/>
       <c r="D15" s="98" t="s">
         <v>1178</v>
@@ -24442,7 +25229,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="150"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="101"/>
       <c r="D16" s="102" t="s">
         <v>1179</v>
@@ -24452,7 +25239,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="150"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="69"/>
       <c r="D17" s="95" t="s">
         <v>1180</v>
@@ -24522,10 +25309,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC9B87-324D-FC42-B422-5AB2F001E51E}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="134" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24534,7 +25321,7 @@
     <col min="2" max="2" width="9.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
     <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
@@ -24560,259 +25347,259 @@
     </row>
     <row r="3" spans="2:7" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="123" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D3" s="125"/>
       <c r="E3" s="126" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F3" s="122" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G3" s="159" t="s">
-        <v>1410</v>
+        <v>1225</v>
+      </c>
+      <c r="G3" s="153" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D4" s="116"/>
       <c r="E4" s="68" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G4" s="159"/>
+        <v>1224</v>
+      </c>
+      <c r="G4" s="153"/>
     </row>
     <row r="5" spans="2:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="84" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D5" s="118"/>
       <c r="E5" s="85" t="s">
         <v>1211</v>
       </c>
       <c r="F5" s="87" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G5" s="159"/>
+        <v>1216</v>
+      </c>
+      <c r="G5" s="153"/>
     </row>
     <row r="6" spans="2:7" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="108" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C6" s="109" t="s">
         <v>1212</v>
       </c>
       <c r="D6" s="114"/>
       <c r="E6" s="110" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G6" s="166" t="s">
-        <v>1411</v>
+        <v>1225</v>
+      </c>
+      <c r="G6" s="142" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="79" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D7" s="120"/>
       <c r="E7" s="112" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G7" s="159" t="s">
-        <v>1410</v>
+        <v>1224</v>
+      </c>
+      <c r="G7" s="153" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D8" s="116"/>
       <c r="E8" s="68" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G8" s="159"/>
+        <v>1224</v>
+      </c>
+      <c r="G8" s="153"/>
     </row>
     <row r="9" spans="2:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C9" s="115" t="s">
         <v>1213</v>
       </c>
       <c r="D9" s="116"/>
       <c r="E9" s="68" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G9" s="159"/>
+        <v>1224</v>
+      </c>
+      <c r="G9" s="153"/>
     </row>
     <row r="10" spans="2:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="68" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G10" s="165" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+      <c r="G10" s="154" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>1231</v>
+        <v>1406</v>
       </c>
       <c r="D11" s="120"/>
       <c r="E11" s="112" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F11" s="89" t="s">
         <v>1216</v>
       </c>
-      <c r="F11" s="89" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G11" s="165"/>
+      <c r="G11" s="154"/>
     </row>
     <row r="12" spans="2:7" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="123" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="126" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F12" s="122" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G12" s="164" t="s">
-        <v>1412</v>
+        <v>1225</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D13" s="116"/>
       <c r="E13" s="68" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G13" s="164"/>
+        <v>1224</v>
+      </c>
+      <c r="G13" s="155"/>
     </row>
     <row r="14" spans="2:7" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C14" s="119" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="D14" s="120"/>
       <c r="E14" s="112" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F14" s="89" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G14" s="164"/>
+        <v>1216</v>
+      </c>
+      <c r="G14" s="155"/>
     </row>
     <row r="15" spans="2:7" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="123" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D15" s="125"/>
       <c r="E15" s="126" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F15" s="122" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G15" s="159" t="s">
-        <v>1410</v>
+        <v>1216</v>
+      </c>
+      <c r="G15" s="153" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C16" s="113" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D16" s="121"/>
       <c r="E16" s="83" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G16" s="159"/>
+        <v>1224</v>
+      </c>
+      <c r="G16" s="153"/>
     </row>
     <row r="17" spans="2:7" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="D17" s="116"/>
       <c r="E17" s="68" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G17" s="159"/>
+        <v>1216</v>
+      </c>
+      <c r="G17" s="153"/>
     </row>
     <row r="18" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C18" s="115" t="s">
         <v>1215</v>
@@ -24822,38 +25609,34 @@
         <v>1214</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G18" s="159"/>
+        <v>1216</v>
+      </c>
+      <c r="G18" s="153"/>
     </row>
     <row r="19" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D19" s="116"/>
       <c r="E19" s="68" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G19" s="166" t="s">
-        <v>1411</v>
+        <v>1216</v>
+      </c>
+      <c r="G19" s="142" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="162"/>
-      <c r="G20" s="161"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="140"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="163"/>
-      <c r="G21" s="161"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="160"/>
+      <c r="G21" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F993E-9D7D-C745-B7EC-939B5D6C6F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9927CD63-43CE-F248-B1A0-6DFC1B5C9845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="7700" windowWidth="37320" windowHeight="21100" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" activeTab="13" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1493">
   <si>
     <t>Nr</t>
   </si>
@@ -4332,9 +4332,6 @@
     <t>Das Versuchsobjekt wird mittig auf dem Drehteller platziert.</t>
   </si>
   <si>
-    <t>Die iPhone Kamera wird auf das Versuchsobjekt ausgerichtet.</t>
-  </si>
-  <si>
     <t>Der Funkauslöser wird eingeschaltet und via Bluetooth
 mit dem iPhone verbunden.</t>
   </si>
@@ -4342,23 +4339,6 @@
     <t>Die iOS Applikation wird auf dem iPhone gestartet und
 ein neuer Messvorgang wird über die gleichnamige 
 Schaltfläche initiiert. Die Kameraansicht ist geöffnet.</t>
-  </si>
-  <si>
-    <t>Das iPhone wird auf dem Stativ befestigt.</t>
-  </si>
-  <si>
-    <t>Durch Betätigen des Funkauslösers wird nun ein Bild
-aufgezeichnet, welcher im Anschluss an das entsprechende 
-Server API hochgeladen wird. Der Zähler innerhalb der Kameraansicht wird bei erfolgtem Upload um eins erhöht.</t>
-  </si>
-  <si>
-    <t>Der Drehteller wird nun um ca. einen Zentimeter* nach links
-gedreht, sodass sich das Versuchsobjekt auf dem Drehteller
-ebenfalls mitdreht.</t>
-  </si>
-  <si>
-    <t>Die Schritte 6 und 7 wiederholen sich solange bis das
-Versuchsobjekt einmal im Kreis gedreht und somit aus jeder Position aufgenommen wurde.</t>
   </si>
   <si>
     <t>Das Versuchsobjekt wird nun seitlich auf der Mitte des
@@ -4501,23 +4481,7 @@
     <t>AWF-8</t>
   </si>
   <si>
-    <t>Erste Iteration</t>
-  </si>
-  <si>
-    <t>Zweite Iteration</t>
-  </si>
-  <si>
-    <t>Dritte Iteration</t>
-  </si>
-  <si>
     <t>Die iOS App muss eine Ansicht zur Darstellung des serverseitig ermittelten Messergebnisses bereitstellen.</t>
-  </si>
-  <si>
-    <t>Die iOS App verfügt über eine Ansicht zur Darstellung des Messergebnisses. Im Detail wird hierbei das berechnete Volumen, die für die Rekonstruktion benötigte Zeit und das generierte 3D Modell dargestellt.</t>
-  </si>
-  <si>
-    <t>Das API misst die Zeit, die Object Capture zur
-Objektrekonstruktion benötigt und gibt sie zusammen mit dem berechneten Objektvolumen an den aufrufenden Client zurück.</t>
   </si>
   <si>
     <t>Der Server muss ein API bereitstellen, über das die Objektrekonstruktion mittels Object Capture und die anschließende Volumenberechnung durchgeführt werden kann.</t>
@@ -4531,225 +4495,285 @@
 Capture zur Objektrekonstruktion weiterreichen.</t>
   </si>
   <si>
+    <t>S-FA04</t>
+  </si>
+  <si>
+    <t>Der Server muss ein API bereitstellen, über das das durch Object Capture generierte 3D Modell abgerufen werden kann.</t>
+  </si>
+  <si>
+    <t>Der Server stellt ein API zum Abruf des generierten 3D Modells bereit.</t>
+  </si>
+  <si>
+    <t>Attributname</t>
+  </si>
+  <si>
+    <t>Datentyp</t>
+  </si>
+  <si>
+    <t>Verwendung</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>detailLevel</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Zeitstempel der Speicherung</t>
+  </si>
+  <si>
+    <t>featureSensitivity</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>measurementTime</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Bezeichnung der Messung</t>
+  </si>
+  <si>
+    <t>Berechnetes Objektvolumen in Kubikzentimeter</t>
+  </si>
+  <si>
+    <t>Benötigte Zeit für die Objektrekonstruktion in Sekunden</t>
+  </si>
+  <si>
+    <t>Verwendete Konfiguration für Object Capture</t>
+  </si>
+  <si>
+    <t>183-185</t>
+  </si>
+  <si>
+    <t>ISBN: 978-1-292-37634-9</t>
+  </si>
+  <si>
+    <t>Ian Sommerville - Engineering Software Products_ An Introduction to Modern Software Engineering-Pearson (2020).pdf</t>
+  </si>
+  <si>
+    <t>Engineering Software Products: An Introduction to Modern Software Engineering, Global Edition</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/capture_setup/requesting_authorization_to_capture_and_save_media</t>
+  </si>
+  <si>
+    <t>Kamera Zugriff</t>
+  </si>
+  <si>
+    <t>Requesting authorization to capture and save media</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023e</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/scenekit/scnview</t>
+  </si>
+  <si>
+    <t>SCNView</t>
+  </si>
+  <si>
+    <t>2023f</t>
+  </si>
+  <si>
+    <t>PyVista: 3D plotting and mesh analysis through a streamlined interface for the Visualization Toolkit (VTK)</t>
+  </si>
+  <si>
+    <t>https://joss.theoj.org/papers/10.21105/joss.01450</t>
+  </si>
+  <si>
+    <t>PyVista</t>
+  </si>
+  <si>
+    <t>10.21105/joss.01450</t>
+  </si>
+  <si>
+    <t>Sullivan, Kaszynski</t>
+  </si>
+  <si>
+    <t>Sullivan, C. Bane; Kaszynski, Alexander A.</t>
+  </si>
+  <si>
+    <t>Journal of Open Source Software, vol. 4, no. 37</t>
+  </si>
+  <si>
+    <t>JOSS</t>
+  </si>
+  <si>
+    <t>https://vtk.org/</t>
+  </si>
+  <si>
+    <t>Leverage the power of VTK by partnering with Kitware</t>
+  </si>
+  <si>
+    <t>VTK</t>
+  </si>
+  <si>
+    <t>Kitware Inc.</t>
+  </si>
+  <si>
+    <t>https://tetgen.pyvista.org/index.html</t>
+  </si>
+  <si>
+    <t>tetgen</t>
+  </si>
+  <si>
+    <t>The PyVista Developers</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/2629697</t>
+  </si>
+  <si>
+    <t>TetGen</t>
+  </si>
+  <si>
+    <t>TetGen, a Delaunay-Based Quality Tetrahedral Mesh Generator</t>
+  </si>
+  <si>
+    <t>10.1145/2629697</t>
+  </si>
+  <si>
+    <t>Si, Hang</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Association for Computing Machinery, USA, New York, vol. 41, no. 2</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>https://fastapi.tiangolo.com/advanced/custom-response/</t>
+  </si>
+  <si>
+    <t>Custom Response - HTML, Stream, File, others</t>
+  </si>
+  <si>
+    <t>FastAPI</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/capture_setup/avcam_building_a_camera_app</t>
+  </si>
+  <si>
+    <t>2023g</t>
+  </si>
+  <si>
+    <t>AVCam: Building a Camera App</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/additional_data_capture/capturing_photos_with_depth</t>
+  </si>
+  <si>
+    <t>2023h</t>
+  </si>
+  <si>
+    <t>Capturing Photos with Depth</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/avfoundation/avdepthdata/2881224-isdepthdatafiltered</t>
+  </si>
+  <si>
+    <t>isDepthDataFiltered</t>
+  </si>
+  <si>
+    <t>2023i</t>
+  </si>
+  <si>
+    <t>Core Data</t>
+  </si>
+  <si>
+    <t>https://developer.apple.com/documentation/coredata</t>
+  </si>
+  <si>
+    <t>2023j</t>
+  </si>
+  <si>
+    <t>Die iOS App verfügt über eine Ansicht zur Darstellung des Messergebnisses. Im Detail wird hierbei das berechnete Volumen, die für die Rekonstruktion benötigte Zeit, die Bildanzahl, das verwendete Konfigurationsprofil und das generierte 3D Modell dargestellt.</t>
+  </si>
+  <si>
     <t>Das API muss für die anschließende Performanceanalyse von Object
 Capture die benötigte Zeit für die
-Objektrekonstruktion messen und diese zusammen mit dem berechneten Objektvolumen an den anfragenden Client zurückgeben.</t>
-  </si>
-  <si>
-    <t>S-FA04</t>
-  </si>
-  <si>
-    <t>Der Server muss ein API bereitstellen, über das das durch Object Capture generierte 3D Modell abgerufen werden kann.</t>
-  </si>
-  <si>
-    <t>Der Server stellt ein API zum Abruf des generierten 3D Modells bereit.</t>
-  </si>
-  <si>
-    <t>Attributname</t>
-  </si>
-  <si>
-    <t>Datentyp</t>
-  </si>
-  <si>
-    <t>Verwendung</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>detailLevel</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Zeitstempel der Speicherung</t>
-  </si>
-  <si>
-    <t>featureSensitivity</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>measurementTime</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Bezeichnung der Messung</t>
-  </si>
-  <si>
-    <t>Berechnetes Objektvolumen in Kubikzentimeter</t>
-  </si>
-  <si>
-    <t>Benötigte Zeit für die Objektrekonstruktion in Sekunden</t>
-  </si>
-  <si>
-    <t>Verwendete Konfiguration für Object Capture</t>
-  </si>
-  <si>
-    <t>183-185</t>
-  </si>
-  <si>
-    <t>ISBN: 978-1-292-37634-9</t>
-  </si>
-  <si>
-    <t>Ian Sommerville - Engineering Software Products_ An Introduction to Modern Software Engineering-Pearson (2020).pdf</t>
-  </si>
-  <si>
-    <t>Engineering Software Products: An Introduction to Modern Software Engineering, Global Edition</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Pearson</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t>https://developer.apple.com/documentation/avfoundation/capture_setup/requesting_authorization_to_capture_and_save_media</t>
-  </si>
-  <si>
-    <t>Kamera Zugriff</t>
-  </si>
-  <si>
-    <t>Requesting authorization to capture and save media</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>2023e</t>
-  </si>
-  <si>
-    <t>https://developer.apple.com/documentation/scenekit/scnview</t>
-  </si>
-  <si>
-    <t>SCNView</t>
-  </si>
-  <si>
-    <t>2023f</t>
-  </si>
-  <si>
-    <t>PyVista: 3D plotting and mesh analysis through a streamlined interface for the Visualization Toolkit (VTK)</t>
-  </si>
-  <si>
-    <t>https://joss.theoj.org/papers/10.21105/joss.01450</t>
-  </si>
-  <si>
-    <t>PyVista</t>
-  </si>
-  <si>
-    <t>10.21105/joss.01450</t>
-  </si>
-  <si>
-    <t>Sullivan, Kaszynski</t>
-  </si>
-  <si>
-    <t>Sullivan, C. Bane; Kaszynski, Alexander A.</t>
-  </si>
-  <si>
-    <t>Journal of Open Source Software, vol. 4, no. 37</t>
-  </si>
-  <si>
-    <t>JOSS</t>
-  </si>
-  <si>
-    <t>https://vtk.org/</t>
-  </si>
-  <si>
-    <t>Leverage the power of VTK by partnering with Kitware</t>
-  </si>
-  <si>
-    <t>VTK</t>
-  </si>
-  <si>
-    <t>Kitware Inc.</t>
-  </si>
-  <si>
-    <t>https://tetgen.pyvista.org/index.html</t>
-  </si>
-  <si>
-    <t>tetgen</t>
-  </si>
-  <si>
-    <t>The PyVista Developers</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/doi/10.1145/2629697</t>
-  </si>
-  <si>
-    <t>TetGen</t>
-  </si>
-  <si>
-    <t>TetGen, a Delaunay-Based Quality Tetrahedral Mesh Generator</t>
-  </si>
-  <si>
-    <t>10.1145/2629697</t>
-  </si>
-  <si>
-    <t>Si, Hang</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Association for Computing Machinery, USA, New York, vol. 41, no. 2</t>
-  </si>
-  <si>
-    <t>1-36</t>
-  </si>
-  <si>
-    <t>https://fastapi.tiangolo.com/advanced/custom-response/</t>
-  </si>
-  <si>
-    <t>Custom Response - HTML, Stream, File, others</t>
-  </si>
-  <si>
-    <t>FastAPI</t>
-  </si>
-  <si>
-    <t>https://developer.apple.com/documentation/avfoundation/capture_setup/avcam_building_a_camera_app</t>
-  </si>
-  <si>
-    <t>2023g</t>
-  </si>
-  <si>
-    <t>AVCam: Building a Camera App</t>
-  </si>
-  <si>
-    <t>https://developer.apple.com/documentation/avfoundation/additional_data_capture/capturing_photos_with_depth</t>
-  </si>
-  <si>
-    <t>2023h</t>
-  </si>
-  <si>
-    <t>Capturing Photos with Depth</t>
-  </si>
-  <si>
-    <t>https://developer.apple.com/documentation/avfoundation/avdepthdata/2881224-isdepthdatafiltered</t>
-  </si>
-  <si>
-    <t>isDepthDataFiltered</t>
-  </si>
-  <si>
-    <t>2023i</t>
-  </si>
-  <si>
-    <t>Core Data</t>
-  </si>
-  <si>
-    <t>https://developer.apple.com/documentation/coredata</t>
-  </si>
-  <si>
-    <t>2023j</t>
+Objektrekonstruktion messen und diese zusammen mit dem restlichen Messergebnis an den anfragenden Client zurückgeben.</t>
+  </si>
+  <si>
+    <t>Das API misst die Zeit, die Object Capture zur
+Objektrekonstruktion benötigt und gibt sie zusammen mit dem restlichen Messergebnis an den aufrufenden Client zurück.</t>
+  </si>
+  <si>
+    <t>Bearbeitungsiteration</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Iteration 1 / 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Der Drehteller wird eingeschaltet und per Fernbedienung
+in seine konfigurierte Ausgangsposition versetzt.</t>
+  </si>
+  <si>
+    <t>Das iPhone wird auf dem Stativ befestigt und
+auf das Versuchsobjekt ausgerichtet.</t>
+  </si>
+  <si>
+    <t>Durch Betätigen des Funkauslösers wird nun ein Bild
+aufgezeichnet, welches im Anschluss an das entsprechende 
+serverseitige API hochgeladen wird. Der Zähler innerhalb der Kameraansicht wird bei erfolgtem Upload um eins erhöht.</t>
+  </si>
+  <si>
+    <t>Der Drehteller wird nun per Fernbedienung nach links gedreht, sodass sich das Versuchsobjekt ebenfalls dreht. Hierbei ist der Grad der Drehung abhängig von der vor der Messung festgelegten Anzahl aufzunehmender Bilder und verringert sich im Allgemeinen bei zunehmender Bildanzahl.</t>
+  </si>
+  <si>
+    <t>Die Schritte 6 und 7 wiederholen sich solange bis das
+Versuchsobjekt einmal um 360 Grad gedreht wurde.</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/4OZ5fMZ</t>
+  </si>
+  <si>
+    <t>Drehteller Elektrisch, Aomdom 30CM Drehscheibe Elektrisch mit 100KG Last elektrischer drehteller mit Einstellbarer Geschwindigkeit Fernbedienung 5 Hintergrund für Produktanzeige Fotografie Video</t>
+  </si>
+  <si>
+    <t>Amazon.com, Inc.</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>numberInputImages</t>
+  </si>
+  <si>
+    <t>Anzahl der Eingabebilder für Object Capture</t>
   </si>
 </sst>
 </file>
@@ -4840,7 +4864,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4868,24 +4892,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E9E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5199,7 +5205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5588,8 +5594,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -5621,15 +5627,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5652,9 +5649,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5983,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView topLeftCell="A209" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16980,7 +16974,7 @@
         <v>449</v>
       </c>
       <c r="P210" s="16" t="str">
-        <f t="shared" ref="P210:P214" si="5">"Vgl. "&amp;I210&amp;" ("&amp;N210&amp;"), S. "&amp;O210&amp;"."</f>
+        <f t="shared" ref="P210:P216" si="5">"Vgl. "&amp;I210&amp;" ("&amp;N210&amp;"), S. "&amp;O210&amp;"."</f>
         <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q210" s="19"/>
@@ -16999,13 +16993,13 @@
         <v>15</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="F211" s="22" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="G211" s="22" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="H211" s="54" t="s">
         <v>15</v>
@@ -17020,23 +17014,23 @@
         <v>15</v>
       </c>
       <c r="L211" s="22" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="M211" s="22" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="N211" s="20">
         <v>2020</v>
       </c>
       <c r="O211" s="22" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="P211" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Vgl. Sommerville (2020), S. 183-185.</v>
       </c>
       <c r="Q211" s="19" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -17071,7 +17065,7 @@
         <v>91</v>
       </c>
       <c r="K212" s="23" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="L212" s="22" t="s">
         <v>91</v>
@@ -17101,45 +17095,45 @@
       <c r="C213" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D213" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E213" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F213" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G213" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H213" s="19" t="s">
+      <c r="D213" s="35" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G213" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" s="54" t="s">
         <v>15</v>
       </c>
       <c r="I213" s="22" t="s">
-        <v>91</v>
+        <v>1489</v>
       </c>
       <c r="J213" s="22" t="s">
-        <v>91</v>
+        <v>1489</v>
       </c>
       <c r="K213" s="23" t="s">
-        <v>1438</v>
+        <v>34</v>
       </c>
       <c r="L213" s="22" t="s">
-        <v>91</v>
+        <v>1489</v>
       </c>
       <c r="M213" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="N213" s="20" t="s">
-        <v>850</v>
+        <v>1489</v>
+      </c>
+      <c r="N213" s="20">
+        <v>2023</v>
       </c>
       <c r="O213" s="22" t="s">
         <v>449</v>
       </c>
       <c r="P213" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <v>Vgl. Amazon.com, Inc. (2023), S. o. S..</v>
       </c>
       <c r="Q213" s="19"/>
     </row>
@@ -17153,19 +17147,19 @@
       <c r="C214" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D214" s="35" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E214" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F214" s="22" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G214" s="22" t="s">
-        <v>1440</v>
-      </c>
-      <c r="H214" s="54" t="s">
+      <c r="D214" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G214" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H214" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I214" s="22" t="s">
@@ -17175,7 +17169,7 @@
         <v>91</v>
       </c>
       <c r="K214" s="23" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="L214" s="22" t="s">
         <v>91</v>
@@ -17184,14 +17178,14 @@
         <v>91</v>
       </c>
       <c r="N214" s="20" t="s">
-        <v>1443</v>
+        <v>850</v>
       </c>
       <c r="O214" s="22" t="s">
         <v>449</v>
       </c>
       <c r="P214" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023e), S. o. S..</v>
+        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q214" s="19"/>
     </row>
@@ -17206,16 +17200,16 @@
         <v>15</v>
       </c>
       <c r="D215" s="35" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="E215" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="G215" s="22" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="H215" s="54" t="s">
         <v>15</v>
@@ -17227,7 +17221,7 @@
         <v>91</v>
       </c>
       <c r="K215" s="23" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="L215" s="22" t="s">
         <v>91</v>
@@ -17236,14 +17230,14 @@
         <v>91</v>
       </c>
       <c r="N215" s="20" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="O215" s="22" t="s">
         <v>449</v>
       </c>
       <c r="P215" s="16" t="str">
-        <f t="shared" ref="P215:P262" si="6">"Vgl. "&amp;I215&amp;" ("&amp;N215&amp;"), S. "&amp;O215&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023f), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023e), S. o. S..</v>
       </c>
       <c r="Q215" s="19"/>
     </row>
@@ -17258,16 +17252,16 @@
         <v>15</v>
       </c>
       <c r="D216" s="35" t="s">
-        <v>548</v>
+        <v>1433</v>
       </c>
       <c r="E216" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F216" s="22" t="s">
-        <v>549</v>
+        <v>1434</v>
       </c>
       <c r="G216" s="22" t="s">
-        <v>530</v>
+        <v>1434</v>
       </c>
       <c r="H216" s="54" t="s">
         <v>15</v>
@@ -17279,7 +17273,7 @@
         <v>91</v>
       </c>
       <c r="K216" s="23" t="s">
-        <v>528</v>
+        <v>1431</v>
       </c>
       <c r="L216" s="22" t="s">
         <v>91</v>
@@ -17288,14 +17282,14 @@
         <v>91</v>
       </c>
       <c r="N216" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="O216" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="O216" s="22" t="s">
         <v>449</v>
       </c>
       <c r="P216" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023f), S. o. S..</v>
       </c>
       <c r="Q216" s="19"/>
     </row>
@@ -17346,7 +17340,7 @@
         <v>449</v>
       </c>
       <c r="P217" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f>"Vgl. "&amp;I217&amp;" ("&amp;N217&amp;"), S. "&amp;O217&amp;"."</f>
         <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q217" s="19"/>
@@ -17356,50 +17350,50 @@
         <v>217</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D218" s="35" t="s">
-        <v>1448</v>
+        <v>548</v>
       </c>
       <c r="E218" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F218" s="22" t="s">
-        <v>1447</v>
+        <v>549</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>1449</v>
+        <v>530</v>
       </c>
       <c r="H218" s="54" t="s">
-        <v>1450</v>
+        <v>15</v>
       </c>
       <c r="I218" s="22" t="s">
-        <v>1451</v>
+        <v>91</v>
       </c>
       <c r="J218" s="22" t="s">
-        <v>1452</v>
+        <v>91</v>
       </c>
       <c r="K218" s="23" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="L218" s="22" t="s">
-        <v>1453</v>
+        <v>91</v>
       </c>
       <c r="M218" s="22" t="s">
-        <v>1454</v>
-      </c>
-      <c r="N218" s="20">
-        <v>2019</v>
+        <v>91</v>
+      </c>
+      <c r="N218" s="20" t="s">
+        <v>852</v>
       </c>
       <c r="O218" s="21" t="s">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="P218" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Sullivan, Kaszynski (2019), S. 1-3.</v>
+        <f>"Vgl. "&amp;I218&amp;" ("&amp;N218&amp;"), S. "&amp;O218&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q218" s="19"/>
     </row>
@@ -17408,50 +17402,50 @@
         <v>218</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="35" t="s">
-        <v>1455</v>
+        <v>1437</v>
       </c>
       <c r="E219" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F219" s="22" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
       <c r="G219" s="22" t="s">
-        <v>1457</v>
+        <v>1438</v>
       </c>
       <c r="H219" s="54" t="s">
-        <v>15</v>
+        <v>1439</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>1458</v>
+        <v>1440</v>
       </c>
       <c r="J219" s="22" t="s">
-        <v>1458</v>
+        <v>1441</v>
       </c>
       <c r="K219" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L219" s="22" t="s">
         <v>1442</v>
       </c>
-      <c r="L219" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="M219" s="22" t="s">
-        <v>15</v>
+        <v>1443</v>
       </c>
       <c r="N219" s="20">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="O219" s="21" t="s">
-        <v>449</v>
+        <v>226</v>
       </c>
       <c r="P219" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Kitware Inc. (2023), S. o. S..</v>
+        <f>"Vgl. "&amp;I219&amp;" ("&amp;N219&amp;"), S. "&amp;O219&amp;"."</f>
+        <v>Vgl. Sullivan, Kaszynski (2019), S. 1-3.</v>
       </c>
       <c r="Q219" s="19"/>
     </row>
@@ -17466,28 +17460,28 @@
         <v>15</v>
       </c>
       <c r="D220" s="35" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="E220" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F220" s="22" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="H220" s="54" t="s">
         <v>15</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="J220" s="22" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="K220" s="23" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="L220" s="22" t="s">
         <v>15</v>
@@ -17502,8 +17496,8 @@
         <v>449</v>
       </c>
       <c r="P220" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. The PyVista Developers (2023), S. o. S..</v>
+        <f>"Vgl. "&amp;I220&amp;" ("&amp;N220&amp;"), S. "&amp;O220&amp;"."</f>
+        <v>Vgl. Kitware Inc. (2023), S. o. S..</v>
       </c>
       <c r="Q220" s="19"/>
     </row>
@@ -17512,50 +17506,50 @@
         <v>220</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C221" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D221" s="35" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="E221" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F221" s="7" t="s">
-        <v>1464</v>
+      <c r="F221" s="22" t="s">
+        <v>1449</v>
       </c>
       <c r="G221" s="22" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="H221" s="54" t="s">
-        <v>1465</v>
+        <v>15</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>1467</v>
+        <v>1450</v>
       </c>
       <c r="J221" s="22" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="K221" s="23" t="s">
-        <v>15</v>
+        <v>1431</v>
       </c>
       <c r="L221" s="22" t="s">
-        <v>1468</v>
+        <v>15</v>
       </c>
       <c r="M221" s="22" t="s">
-        <v>979</v>
+        <v>15</v>
       </c>
       <c r="N221" s="20">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="O221" s="21" t="s">
-        <v>1469</v>
+        <v>449</v>
       </c>
       <c r="P221" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Si (2015), S. 1-36.</v>
+        <f>"Vgl. "&amp;I221&amp;" ("&amp;N221&amp;"), S. "&amp;O221&amp;"."</f>
+        <v>Vgl. The PyVista Developers (2023), S. o. S..</v>
       </c>
       <c r="Q221" s="19"/>
     </row>
@@ -17564,50 +17558,50 @@
         <v>221</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D222" s="35" t="s">
-        <v>1470</v>
+        <v>1451</v>
       </c>
       <c r="E222" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F222" s="22" t="s">
-        <v>1471</v>
+      <c r="F222" s="7" t="s">
+        <v>1453</v>
       </c>
       <c r="G222" s="22" t="s">
-        <v>15</v>
+        <v>1452</v>
       </c>
       <c r="H222" s="54" t="s">
-        <v>15</v>
+        <v>1454</v>
       </c>
       <c r="I222" s="22" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="J222" s="22" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="K222" s="23" t="s">
-        <v>1442</v>
+        <v>15</v>
       </c>
       <c r="L222" s="22" t="s">
-        <v>15</v>
+        <v>1457</v>
       </c>
       <c r="M222" s="22" t="s">
-        <v>15</v>
+        <v>979</v>
       </c>
       <c r="N222" s="20">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="O222" s="21" t="s">
-        <v>449</v>
+        <v>1458</v>
       </c>
       <c r="P222" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. FastAPI (2023), S. o. S..</v>
+        <f>"Vgl. "&amp;I222&amp;" ("&amp;N222&amp;"), S. "&amp;O222&amp;"."</f>
+        <v>Vgl. Si (2015), S. 1-36.</v>
       </c>
       <c r="Q222" s="19"/>
     </row>
@@ -17621,45 +17615,45 @@
       <c r="C223" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D223" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E223" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F223" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G223" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H223" s="19" t="s">
+      <c r="D223" s="35" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E223" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" s="22" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G223" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223" s="54" t="s">
         <v>15</v>
       </c>
       <c r="I223" s="22" t="s">
-        <v>91</v>
+        <v>1461</v>
       </c>
       <c r="J223" s="22" t="s">
-        <v>91</v>
+        <v>1461</v>
       </c>
       <c r="K223" s="23" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="M223" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="N223" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="O223" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N223" s="20">
+        <v>2023</v>
+      </c>
+      <c r="O223" s="21" t="s">
         <v>449</v>
       </c>
       <c r="P223" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f>"Vgl. "&amp;I223&amp;" ("&amp;N223&amp;"), S. "&amp;O223&amp;"."</f>
+        <v>Vgl. FastAPI (2023), S. o. S..</v>
       </c>
       <c r="Q223" s="19"/>
     </row>
@@ -17673,17 +17667,17 @@
       <c r="C224" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D224" s="35" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E224" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F224" s="22" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G224" s="22" t="s">
-        <v>15</v>
+      <c r="D224" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G224" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="H224" s="19" t="s">
         <v>15</v>
@@ -17695,7 +17689,7 @@
         <v>91</v>
       </c>
       <c r="K224" s="23" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="L224" s="22" t="s">
         <v>91</v>
@@ -17704,14 +17698,14 @@
         <v>91</v>
       </c>
       <c r="N224" s="20" t="s">
-        <v>1474</v>
-      </c>
-      <c r="O224" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="O224" s="22" t="s">
         <v>449</v>
       </c>
       <c r="P224" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Apple Inc. (2023g), S. o. S..</v>
+        <f>"Vgl. "&amp;I224&amp;" ("&amp;N224&amp;"), S. "&amp;O224&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q224" s="19"/>
     </row>
@@ -17726,18 +17720,18 @@
         <v>15</v>
       </c>
       <c r="D225" s="35" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="E225" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F225" s="22" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="G225" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H225" s="54" t="s">
+      <c r="H225" s="19" t="s">
         <v>15</v>
       </c>
       <c r="I225" s="22" t="s">
@@ -17747,7 +17741,7 @@
         <v>91</v>
       </c>
       <c r="K225" s="23" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="L225" s="22" t="s">
         <v>91</v>
@@ -17756,14 +17750,14 @@
         <v>91</v>
       </c>
       <c r="N225" s="20" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="O225" s="21" t="s">
         <v>449</v>
       </c>
       <c r="P225" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Apple Inc. (2023h), S. o. S..</v>
+        <f>"Vgl. "&amp;I225&amp;" ("&amp;N225&amp;"), S. "&amp;O225&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023g), S. o. S..</v>
       </c>
       <c r="Q225" s="19"/>
     </row>
@@ -17778,13 +17772,13 @@
         <v>15</v>
       </c>
       <c r="D226" s="35" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="E226" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F226" s="22" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="G226" s="22" t="s">
         <v>15</v>
@@ -17799,7 +17793,7 @@
         <v>91</v>
       </c>
       <c r="K226" s="23" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="L226" s="22" t="s">
         <v>91</v>
@@ -17808,14 +17802,14 @@
         <v>91</v>
       </c>
       <c r="N226" s="20" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="O226" s="21" t="s">
         <v>449</v>
       </c>
       <c r="P226" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Apple Inc. (2023i), S. o. S..</v>
+        <f>"Vgl. "&amp;I226&amp;" ("&amp;N226&amp;"), S. "&amp;O226&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023h), S. o. S..</v>
       </c>
       <c r="Q226" s="19"/>
     </row>
@@ -17830,13 +17824,13 @@
         <v>15</v>
       </c>
       <c r="D227" s="35" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="E227" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F227" s="22" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="G227" s="22" t="s">
         <v>15</v>
@@ -17851,7 +17845,7 @@
         <v>91</v>
       </c>
       <c r="K227" s="23" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="L227" s="22" t="s">
         <v>91</v>
@@ -17860,14 +17854,14 @@
         <v>91</v>
       </c>
       <c r="N227" s="20" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="O227" s="21" t="s">
         <v>449</v>
       </c>
       <c r="P227" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl. Apple Inc. (2023j), S. o. S..</v>
+        <f>"Vgl. "&amp;I227&amp;" ("&amp;N227&amp;"), S. "&amp;O227&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023i), S. o. S..</v>
       </c>
       <c r="Q227" s="19"/>
     </row>
@@ -17875,25 +17869,51 @@
       <c r="A228" s="20">
         <v>227</v>
       </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22"/>
+      <c r="B228" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="35" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E228" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" s="22" t="s">
+        <v>1471</v>
+      </c>
       <c r="G228" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H228" s="54"/>
-      <c r="I228" s="22"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="23"/>
-      <c r="L228" s="22"/>
-      <c r="M228" s="22"/>
-      <c r="N228" s="20"/>
-      <c r="O228" s="21"/>
+      <c r="H228" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I228" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J228" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K228" s="23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L228" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M228" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N228" s="20" t="s">
+        <v>1473</v>
+      </c>
+      <c r="O228" s="21" t="s">
+        <v>449</v>
+      </c>
       <c r="P228" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>Vgl.  (), S. .</v>
+        <f>"Vgl. "&amp;I228&amp;" ("&amp;N228&amp;"), S. "&amp;O228&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023j), S. o. S..</v>
       </c>
       <c r="Q228" s="19"/>
     </row>
@@ -17918,7 +17938,7 @@
       <c r="N229" s="20"/>
       <c r="O229" s="21"/>
       <c r="P229" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P215:P262" si="6">"Vgl. "&amp;I229&amp;" ("&amp;N229&amp;"), S. "&amp;O229&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q229" s="19"/>
@@ -20011,21 +20031,22 @@
     <hyperlink ref="D16" r:id="rId206" xr:uid="{E8B161D7-D0D6-BE43-85F5-B6787A2C76EA}"/>
     <hyperlink ref="D17" r:id="rId207" xr:uid="{7C861EB7-19A0-134B-9EDD-817B1C8D68FE}"/>
     <hyperlink ref="D212" r:id="rId208" xr:uid="{6E4BA74E-9C5B-3F48-836F-268F9FFA4BA1}"/>
-    <hyperlink ref="D213" r:id="rId209" xr:uid="{9AAD6D7C-DB39-304F-9157-0624319B54D7}"/>
-    <hyperlink ref="D214" r:id="rId210" xr:uid="{6A2E6B60-FB32-9641-83D8-8EEB858BDE22}"/>
-    <hyperlink ref="D215" r:id="rId211" xr:uid="{6C6D0F88-A395-AE40-92A9-8E94FBD94858}"/>
-    <hyperlink ref="D216" r:id="rId212" xr:uid="{DA582187-BCC0-804C-84C5-5233FF9F223E}"/>
-    <hyperlink ref="D217" r:id="rId213" xr:uid="{A4CBE411-18E5-A04C-B839-3FE17DC84F10}"/>
-    <hyperlink ref="D218" r:id="rId214" xr:uid="{B0817077-49E6-374D-83A9-B6FC11EE6382}"/>
-    <hyperlink ref="D219" r:id="rId215" xr:uid="{75DAC5B3-CB92-5E49-AFFD-5967A4CFEA7F}"/>
-    <hyperlink ref="D220" r:id="rId216" xr:uid="{787405D1-F33B-CE41-B9C5-2464B5BF41F9}"/>
-    <hyperlink ref="D221" r:id="rId217" xr:uid="{7A8EF92A-6D0B-A342-9972-811D96C5EDD5}"/>
-    <hyperlink ref="D222" r:id="rId218" xr:uid="{B9D20C87-1571-4943-9D2D-0EAA14A60403}"/>
-    <hyperlink ref="D223" r:id="rId219" xr:uid="{91A7D49A-00FD-174A-9F03-14A424A07842}"/>
-    <hyperlink ref="D224" r:id="rId220" xr:uid="{E01082E9-34EC-BE4B-99E9-BBD091F43529}"/>
-    <hyperlink ref="D225" r:id="rId221" xr:uid="{CC331DA7-82F3-E44C-8B02-334E5A2206B0}"/>
-    <hyperlink ref="D226" r:id="rId222" xr:uid="{416129F3-1618-D74D-BE2E-DA1374C87A94}"/>
-    <hyperlink ref="D227" r:id="rId223" xr:uid="{47B7AF7F-F964-B747-9B82-F5123E46DE2C}"/>
+    <hyperlink ref="D214" r:id="rId209" xr:uid="{9AAD6D7C-DB39-304F-9157-0624319B54D7}"/>
+    <hyperlink ref="D215" r:id="rId210" xr:uid="{6A2E6B60-FB32-9641-83D8-8EEB858BDE22}"/>
+    <hyperlink ref="D216" r:id="rId211" xr:uid="{6C6D0F88-A395-AE40-92A9-8E94FBD94858}"/>
+    <hyperlink ref="D217" r:id="rId212" xr:uid="{DA582187-BCC0-804C-84C5-5233FF9F223E}"/>
+    <hyperlink ref="D218" r:id="rId213" xr:uid="{A4CBE411-18E5-A04C-B839-3FE17DC84F10}"/>
+    <hyperlink ref="D219" r:id="rId214" xr:uid="{B0817077-49E6-374D-83A9-B6FC11EE6382}"/>
+    <hyperlink ref="D220" r:id="rId215" xr:uid="{75DAC5B3-CB92-5E49-AFFD-5967A4CFEA7F}"/>
+    <hyperlink ref="D221" r:id="rId216" xr:uid="{787405D1-F33B-CE41-B9C5-2464B5BF41F9}"/>
+    <hyperlink ref="D222" r:id="rId217" xr:uid="{7A8EF92A-6D0B-A342-9972-811D96C5EDD5}"/>
+    <hyperlink ref="D223" r:id="rId218" xr:uid="{B9D20C87-1571-4943-9D2D-0EAA14A60403}"/>
+    <hyperlink ref="D224" r:id="rId219" xr:uid="{91A7D49A-00FD-174A-9F03-14A424A07842}"/>
+    <hyperlink ref="D225" r:id="rId220" xr:uid="{E01082E9-34EC-BE4B-99E9-BBD091F43529}"/>
+    <hyperlink ref="D226" r:id="rId221" xr:uid="{CC331DA7-82F3-E44C-8B02-334E5A2206B0}"/>
+    <hyperlink ref="D227" r:id="rId222" xr:uid="{416129F3-1618-D74D-BE2E-DA1374C87A94}"/>
+    <hyperlink ref="D228" r:id="rId223" xr:uid="{47B7AF7F-F964-B747-9B82-F5123E46DE2C}"/>
+    <hyperlink ref="D213" r:id="rId224" xr:uid="{44C88233-9835-0443-92E2-31F0538C03D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -20036,8 +20057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D68D-B64B-B445-8C88-EAE5C724F845}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20047,7 +20068,7 @@
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
     <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
@@ -20069,6 +20090,9 @@
       <c r="F2" s="133" t="s">
         <v>988</v>
       </c>
+      <c r="G2" s="133" t="s">
+        <v>1477</v>
+      </c>
     </row>
     <row r="3" spans="2:7" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="134" t="s">
@@ -20084,8 +20108,8 @@
       <c r="F3" s="138" t="s">
         <v>1225</v>
       </c>
-      <c r="G3" s="153" t="s">
-        <v>1403</v>
+      <c r="G3" s="138" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -20102,24 +20126,26 @@
       <c r="F4" s="138" t="s">
         <v>1225</v>
       </c>
-      <c r="G4" s="153"/>
+      <c r="G4" s="138" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
         <v>1260</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="110" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="F5" s="111" t="s">
         <v>1225</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>1404</v>
+      <c r="G5" s="111" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="109" customHeight="1" x14ac:dyDescent="0.2">
@@ -20127,7 +20153,7 @@
         <v>1262</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="D6" s="128"/>
       <c r="E6" s="68" t="s">
@@ -20136,45 +20162,47 @@
       <c r="F6" s="13" t="s">
         <v>1224</v>
       </c>
-      <c r="G6" s="154"/>
+      <c r="G6" s="13" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="124" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="84" t="s">
         <v>1269</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D7" s="164"/>
+        <v>1475</v>
+      </c>
+      <c r="D7" s="142"/>
       <c r="E7" s="85" t="s">
-        <v>1408</v>
+        <v>1476</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>1224</v>
       </c>
-      <c r="G7" s="154"/>
+      <c r="G7" s="86" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="59" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="108" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="110" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="F8" s="111" t="s">
         <v>1225</v>
       </c>
-      <c r="G8" s="154"/>
+      <c r="G8" s="111" t="s">
+        <v>1479</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20202,67 +20230,67 @@
       <c r="B2" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="153" t="s">
         <v>1276</v>
       </c>
-      <c r="D2" s="157"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C3" s="156" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D3" s="157"/>
+      <c r="C3" s="153" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D3" s="154"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="154"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="155" t="s">
         <v>1288</v>
       </c>
-      <c r="D5" s="159"/>
+      <c r="D5" s="156"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="155" t="s">
         <v>1278</v>
       </c>
-      <c r="D6" s="159"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="155" t="s">
         <v>1279</v>
       </c>
-      <c r="D7" s="159"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>1338</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="157" t="s">
         <v>1274</v>
       </c>
       <c r="C9" s="129" t="s">
@@ -20273,7 +20301,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="160"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="127" t="s">
         <v>1281</v>
       </c>
@@ -20282,7 +20310,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="160"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="127" t="s">
         <v>1282</v>
       </c>
@@ -20291,7 +20319,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="160"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="127" t="s">
         <v>1283</v>
       </c>
@@ -20300,7 +20328,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="160"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="127" t="s">
         <v>1284</v>
       </c>
@@ -20312,10 +20340,10 @@
       <c r="B14" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C14" s="156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="157"/>
+      <c r="C14" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="154"/>
       <c r="G14" s="139"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -20328,70 +20356,70 @@
       <c r="B17" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="153" t="s">
         <v>1340</v>
       </c>
-      <c r="D17" s="157"/>
+      <c r="D17" s="154"/>
       <c r="G17" s="139"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C18" s="156" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D18" s="157"/>
+      <c r="C18" s="153" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D18" s="154"/>
       <c r="G18" s="139"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D19" s="157"/>
+      <c r="D19" s="154"/>
       <c r="G19" s="139"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="155" t="s">
         <v>1290</v>
       </c>
-      <c r="D20" s="159"/>
+      <c r="D20" s="156"/>
       <c r="G20" s="139"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="155" t="s">
         <v>1341</v>
       </c>
-      <c r="D21" s="159"/>
+      <c r="D21" s="156"/>
       <c r="G21" s="139"/>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C22" s="158" t="s">
+      <c r="C22" s="155" t="s">
         <v>1342</v>
       </c>
-      <c r="D22" s="159"/>
+      <c r="D22" s="156"/>
       <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="155" t="s">
         <v>1330</v>
       </c>
-      <c r="D23" s="159"/>
+      <c r="D23" s="156"/>
       <c r="G23" s="139"/>
     </row>
     <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20410,76 +20438,76 @@
       <c r="B25" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="153" t="s">
         <v>1291</v>
       </c>
-      <c r="D25" s="157"/>
+      <c r="D25" s="154"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="153" t="s">
         <v>1292</v>
       </c>
-      <c r="D28" s="157"/>
+      <c r="D28" s="154"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C29" s="156" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D29" s="157"/>
+      <c r="C29" s="153" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D29" s="154"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D30" s="157"/>
+      <c r="D30" s="154"/>
     </row>
     <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C31" s="158" t="s">
+      <c r="C31" s="155" t="s">
         <v>1337</v>
       </c>
-      <c r="D31" s="159"/>
+      <c r="D31" s="156"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="158" t="s">
+      <c r="C32" s="155" t="s">
         <v>1293</v>
       </c>
-      <c r="D32" s="159"/>
+      <c r="D32" s="156"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C33" s="158" t="s">
+      <c r="C33" s="155" t="s">
         <v>1344</v>
       </c>
-      <c r="D33" s="159"/>
+      <c r="D33" s="156"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="155" t="s">
         <v>1294</v>
       </c>
-      <c r="D34" s="159"/>
+      <c r="D34" s="156"/>
     </row>
     <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C35" s="129" t="s">
@@ -20490,7 +20518,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="162"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20499,7 +20527,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="162"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20508,7 +20536,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="163"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20520,73 +20548,73 @@
       <c r="B39" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="153" t="s">
         <v>1313</v>
       </c>
-      <c r="D39" s="157"/>
+      <c r="D39" s="154"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C42" s="156" t="s">
+      <c r="C42" s="153" t="s">
         <v>1297</v>
       </c>
-      <c r="D42" s="157"/>
+      <c r="D42" s="154"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C43" s="156" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D43" s="157"/>
+      <c r="C43" s="153" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C44" s="156" t="s">
+      <c r="C44" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D44" s="157"/>
+      <c r="D44" s="154"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C45" s="158" t="s">
+      <c r="C45" s="155" t="s">
         <v>1300</v>
       </c>
-      <c r="D45" s="159"/>
+      <c r="D45" s="156"/>
     </row>
     <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="158" t="s">
+      <c r="C46" s="155" t="s">
         <v>1298</v>
       </c>
-      <c r="D46" s="159"/>
+      <c r="D46" s="156"/>
     </row>
     <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C47" s="158" t="s">
+      <c r="C47" s="155" t="s">
         <v>1332</v>
       </c>
-      <c r="D47" s="159"/>
+      <c r="D47" s="156"/>
     </row>
     <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C48" s="158" t="s">
+      <c r="C48" s="155" t="s">
         <v>1299</v>
       </c>
-      <c r="D48" s="159"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
@@ -20603,76 +20631,76 @@
       <c r="B50" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C50" s="156" t="s">
+      <c r="C50" s="153" t="s">
         <v>1301</v>
       </c>
-      <c r="D50" s="157"/>
+      <c r="D50" s="154"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="153" t="s">
         <v>1302</v>
       </c>
-      <c r="D53" s="157"/>
+      <c r="D53" s="154"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C54" s="156" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D54" s="157"/>
+      <c r="C54" s="153" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D54" s="154"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C55" s="156" t="s">
+      <c r="C55" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D55" s="157"/>
+      <c r="D55" s="154"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C56" s="158" t="s">
+      <c r="C56" s="155" t="s">
         <v>1307</v>
       </c>
-      <c r="D56" s="159"/>
+      <c r="D56" s="156"/>
     </row>
     <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="158" t="s">
+      <c r="C57" s="155" t="s">
         <v>1304</v>
       </c>
-      <c r="D57" s="159"/>
+      <c r="D57" s="156"/>
     </row>
     <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C58" s="158" t="s">
+      <c r="C58" s="155" t="s">
         <v>1332</v>
       </c>
-      <c r="D58" s="159"/>
+      <c r="D58" s="156"/>
     </row>
     <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C59" s="158" t="s">
+      <c r="C59" s="155" t="s">
         <v>1299</v>
       </c>
-      <c r="D59" s="159"/>
+      <c r="D59" s="156"/>
     </row>
     <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C60" s="129" t="s">
@@ -20683,7 +20711,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="162"/>
+      <c r="B61" s="159"/>
       <c r="C61" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20692,7 +20720,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B62" s="163"/>
+      <c r="B62" s="160"/>
       <c r="C62" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20704,76 +20732,76 @@
       <c r="B63" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C63" s="156" t="s">
+      <c r="C63" s="153" t="s">
         <v>1314</v>
       </c>
-      <c r="D63" s="157"/>
+      <c r="D63" s="154"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C66" s="156" t="s">
+      <c r="C66" s="153" t="s">
         <v>1306</v>
       </c>
-      <c r="D66" s="157"/>
+      <c r="D66" s="154"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C67" s="156" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D67" s="157"/>
+      <c r="C67" s="153" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D67" s="154"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C68" s="156" t="s">
+      <c r="C68" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D68" s="157"/>
+      <c r="D68" s="154"/>
     </row>
     <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C69" s="158" t="s">
+      <c r="C69" s="155" t="s">
         <v>1308</v>
       </c>
-      <c r="D69" s="159"/>
+      <c r="D69" s="156"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="158" t="s">
+      <c r="C70" s="155" t="s">
         <v>1309</v>
       </c>
-      <c r="D70" s="159"/>
+      <c r="D70" s="156"/>
     </row>
     <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C71" s="158" t="s">
+      <c r="C71" s="155" t="s">
         <v>1310</v>
       </c>
-      <c r="D71" s="159"/>
+      <c r="D71" s="156"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C72" s="158" t="s">
+      <c r="C72" s="155" t="s">
         <v>1317</v>
       </c>
-      <c r="D72" s="159"/>
+      <c r="D72" s="156"/>
     </row>
     <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="161" t="s">
+      <c r="B73" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C73" s="129" t="s">
@@ -20784,7 +20812,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B74" s="162"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20793,7 +20821,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B75" s="162"/>
+      <c r="B75" s="159"/>
       <c r="C75" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20802,7 +20830,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="162"/>
+      <c r="B76" s="159"/>
       <c r="C76" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20811,7 +20839,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="163"/>
+      <c r="B77" s="160"/>
       <c r="C77" s="129" t="s">
         <v>1284</v>
       </c>
@@ -20823,76 +20851,76 @@
       <c r="B78" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C78" s="156" t="s">
+      <c r="C78" s="153" t="s">
         <v>1318</v>
       </c>
-      <c r="D78" s="157"/>
+      <c r="D78" s="154"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C81" s="156" t="s">
+      <c r="C81" s="153" t="s">
         <v>1319</v>
       </c>
-      <c r="D81" s="157"/>
+      <c r="D81" s="154"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C82" s="156" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D82" s="157"/>
+      <c r="C82" s="153" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D82" s="154"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C83" s="156" t="s">
+      <c r="C83" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D83" s="157"/>
+      <c r="D83" s="154"/>
     </row>
     <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C84" s="158" t="s">
+      <c r="C84" s="155" t="s">
         <v>1333</v>
       </c>
-      <c r="D84" s="159"/>
+      <c r="D84" s="156"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="158" t="s">
+      <c r="C85" s="155" t="s">
         <v>1320</v>
       </c>
-      <c r="D85" s="159"/>
+      <c r="D85" s="156"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C86" s="158" t="s">
+      <c r="C86" s="155" t="s">
         <v>1321</v>
       </c>
-      <c r="D86" s="159"/>
+      <c r="D86" s="156"/>
     </row>
     <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C87" s="158" t="s">
+      <c r="C87" s="155" t="s">
         <v>1347</v>
       </c>
-      <c r="D87" s="159"/>
+      <c r="D87" s="156"/>
     </row>
     <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B88" s="161" t="s">
+      <c r="B88" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C88" s="129" t="s">
@@ -20903,7 +20931,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="162"/>
+      <c r="B89" s="159"/>
       <c r="C89" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20912,7 +20940,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="162"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20921,7 +20949,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B91" s="162"/>
+      <c r="B91" s="159"/>
       <c r="C91" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20930,7 +20958,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="163"/>
+      <c r="B92" s="160"/>
       <c r="C92" s="129" t="s">
         <v>1284</v>
       </c>
@@ -20942,76 +20970,76 @@
       <c r="B93" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C93" s="156" t="s">
+      <c r="C93" s="153" t="s">
         <v>1327</v>
       </c>
-      <c r="D93" s="157"/>
+      <c r="D93" s="154"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C96" s="156" t="s">
+      <c r="C96" s="153" t="s">
         <v>1325</v>
       </c>
-      <c r="D96" s="157"/>
+      <c r="D96" s="154"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C97" s="156" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D97" s="157"/>
+      <c r="C97" s="153" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D97" s="154"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C98" s="156" t="s">
+      <c r="C98" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D98" s="157"/>
+      <c r="D98" s="154"/>
     </row>
     <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C99" s="158" t="s">
+      <c r="C99" s="155" t="s">
         <v>1334</v>
       </c>
-      <c r="D99" s="159"/>
+      <c r="D99" s="156"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="158" t="s">
+      <c r="C100" s="155" t="s">
         <v>1326</v>
       </c>
-      <c r="D100" s="159"/>
+      <c r="D100" s="156"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C101" s="158" t="s">
+      <c r="C101" s="155" t="s">
         <v>1339</v>
       </c>
-      <c r="D101" s="159"/>
+      <c r="D101" s="156"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C102" s="158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="159"/>
+      <c r="C102" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="156"/>
     </row>
     <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="161" t="s">
+      <c r="B103" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C103" s="129" t="s">
@@ -21022,7 +21050,7 @@
       </c>
     </row>
     <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="162"/>
+      <c r="B104" s="159"/>
       <c r="C104" s="129" t="s">
         <v>1281</v>
       </c>
@@ -21031,7 +21059,7 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="162"/>
+      <c r="B105" s="159"/>
       <c r="C105" s="129" t="s">
         <v>1282</v>
       </c>
@@ -21043,10 +21071,10 @@
       <c r="B106" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C106" s="156" t="s">
+      <c r="C106" s="153" t="s">
         <v>1329</v>
       </c>
-      <c r="D106" s="157"/>
+      <c r="D106" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -21130,7 +21158,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21149,36 +21177,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C3" s="63" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="22" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="63" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>1353</v>
+      <c r="C6" s="63" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="51" x14ac:dyDescent="0.2">
@@ -21186,7 +21214,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="68" x14ac:dyDescent="0.2">
@@ -21194,23 +21222,23 @@
         <v>6</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>8</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>1359</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -21218,7 +21246,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -21226,7 +21254,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -21234,7 +21262,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -21242,7 +21270,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -21250,7 +21278,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -21283,19 +21311,19 @@
         <v>1350</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -21303,19 +21331,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E3" s="40" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>1377</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -21323,19 +21351,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -21343,19 +21371,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="68" x14ac:dyDescent="0.2">
@@ -21363,19 +21391,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -21383,19 +21411,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -21403,19 +21431,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
@@ -21425,10 +21453,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2822E957-6EFA-4846-961F-4CEEC9C0590A}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView zoomScale="228" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21442,35 +21470,35 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="66" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -21478,43 +21506,54 @@
         <v>865</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>1431</v>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
@@ -25312,7 +25351,7 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25323,7 +25362,7 @@
     <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
     <col min="10" max="15" width="53.83203125" style="5" customWidth="1"/>
@@ -25344,6 +25383,9 @@
       <c r="F2" s="133" t="s">
         <v>988</v>
       </c>
+      <c r="G2" s="133" t="s">
+        <v>1477</v>
+      </c>
     </row>
     <row r="3" spans="2:7" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="123" t="s">
@@ -25359,8 +25401,8 @@
       <c r="F3" s="122" t="s">
         <v>1225</v>
       </c>
-      <c r="G3" s="153" t="s">
-        <v>1403</v>
+      <c r="G3" s="122" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -25377,7 +25419,9 @@
       <c r="F4" s="71" t="s">
         <v>1224</v>
       </c>
-      <c r="G4" s="153"/>
+      <c r="G4" s="71" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="84" t="s">
@@ -25393,7 +25437,9 @@
       <c r="F5" s="87" t="s">
         <v>1216</v>
       </c>
-      <c r="G5" s="153"/>
+      <c r="G5" s="87" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="108" t="s">
@@ -25409,8 +25455,8 @@
       <c r="F6" s="106" t="s">
         <v>1225</v>
       </c>
-      <c r="G6" s="142" t="s">
-        <v>1404</v>
+      <c r="G6" s="106" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -25427,8 +25473,8 @@
       <c r="F7" s="71" t="s">
         <v>1224</v>
       </c>
-      <c r="G7" s="153" t="s">
-        <v>1403</v>
+      <c r="G7" s="71" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -25445,7 +25491,9 @@
       <c r="F8" s="71" t="s">
         <v>1224</v>
       </c>
-      <c r="G8" s="153"/>
+      <c r="G8" s="71" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
@@ -25461,7 +25509,9 @@
       <c r="F9" s="71" t="s">
         <v>1224</v>
       </c>
-      <c r="G9" s="153"/>
+      <c r="G9" s="71" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
@@ -25477,25 +25527,27 @@
       <c r="F10" s="13" t="s">
         <v>1224</v>
       </c>
-      <c r="G10" s="154" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="71" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
         <v>1246</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="D11" s="120"/>
       <c r="E11" s="112" t="s">
-        <v>1407</v>
+        <v>1474</v>
       </c>
       <c r="F11" s="89" t="s">
         <v>1216</v>
       </c>
-      <c r="G11" s="154"/>
+      <c r="G11" s="89" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="123" t="s">
@@ -25511,8 +25563,8 @@
       <c r="F12" s="122" t="s">
         <v>1225</v>
       </c>
-      <c r="G12" s="155" t="s">
-        <v>1405</v>
+      <c r="G12" s="122" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25529,7 +25581,9 @@
       <c r="F13" s="13" t="s">
         <v>1224</v>
       </c>
-      <c r="G13" s="155"/>
+      <c r="G13" s="13" t="s">
+        <v>1481</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79" t="s">
@@ -25545,7 +25599,9 @@
       <c r="F14" s="89" t="s">
         <v>1216</v>
       </c>
-      <c r="G14" s="155"/>
+      <c r="G14" s="89" t="s">
+        <v>1481</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="123" t="s">
@@ -25561,8 +25617,8 @@
       <c r="F15" s="122" t="s">
         <v>1216</v>
       </c>
-      <c r="G15" s="153" t="s">
-        <v>1403</v>
+      <c r="G15" s="122" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -25579,7 +25635,9 @@
       <c r="F16" s="88" t="s">
         <v>1224</v>
       </c>
-      <c r="G16" s="153"/>
+      <c r="G16" s="71" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
@@ -25595,7 +25653,9 @@
       <c r="F17" s="71" t="s">
         <v>1216</v>
       </c>
-      <c r="G17" s="153"/>
+      <c r="G17" s="71" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
@@ -25611,7 +25671,9 @@
       <c r="F18" s="71" t="s">
         <v>1216</v>
       </c>
-      <c r="G18" s="153"/>
+      <c r="G18" s="71" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
@@ -25627,8 +25689,8 @@
       <c r="F19" s="71" t="s">
         <v>1216</v>
       </c>
-      <c r="G19" s="142" t="s">
-        <v>1404</v>
+      <c r="G19" s="71" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -25639,13 +25701,6 @@
       <c r="G21" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G7:G9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9927CD63-43CE-F248-B1A0-6DFC1B5C9845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0551844-4C38-CC4B-B81E-4F72DF5E26FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" activeTab="13" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="33780" windowHeight="28300" firstSheet="1" activeTab="14" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Versuchsablauf" sheetId="13" r:id="rId12"/>
     <sheet name="Lebensmittelauswahl" sheetId="14" r:id="rId13"/>
     <sheet name="Core Data" sheetId="15" r:id="rId14"/>
+    <sheet name="Detail Level" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$P$301</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1511">
   <si>
     <t>Nr</t>
   </si>
@@ -4774,6 +4775,63 @@
   </si>
   <si>
     <t>Anzahl der Eingabebilder für Object Capture</t>
+  </si>
+  <si>
+    <t>Anzahl der
+Dreiecke</t>
+  </si>
+  <si>
+    <t>.preview</t>
+  </si>
+  <si>
+    <t>.reduced</t>
+  </si>
+  <si>
+    <t>.medium</t>
+  </si>
+  <si>
+    <t>.full</t>
+  </si>
+  <si>
+    <t>.raw</t>
+  </si>
+  <si>
+    <t>&lt; 25.000</t>
+  </si>
+  <si>
+    <t>&lt; 50.000</t>
+  </si>
+  <si>
+    <t>&lt; 100.000</t>
+  </si>
+  <si>
+    <t>&lt; 250.000</t>
+  </si>
+  <si>
+    <t>&lt; 30.000.000</t>
+  </si>
+  <si>
+    <t>Geschätzte Dateigröße
+des Modells</t>
+  </si>
+  <si>
+    <t>Detail
+Level</t>
+  </si>
+  <si>
+    <t>ca. 5 MB</t>
+  </si>
+  <si>
+    <t>ca. 10 MB</t>
+  </si>
+  <si>
+    <t>ca. 30 MB</t>
+  </si>
+  <si>
+    <t>ca. 100MB</t>
+  </si>
+  <si>
+    <t>variiert</t>
   </si>
 </sst>
 </file>
@@ -5627,6 +5685,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5639,16 +5703,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17340,7 +17398,7 @@
         <v>449</v>
       </c>
       <c r="P217" s="16" t="str">
-        <f>"Vgl. "&amp;I217&amp;" ("&amp;N217&amp;"), S. "&amp;O217&amp;"."</f>
+        <f t="shared" ref="P217:P228" si="6">"Vgl. "&amp;I217&amp;" ("&amp;N217&amp;"), S. "&amp;O217&amp;"."</f>
         <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q217" s="19"/>
@@ -17392,7 +17450,7 @@
         <v>449</v>
       </c>
       <c r="P218" s="16" t="str">
-        <f>"Vgl. "&amp;I218&amp;" ("&amp;N218&amp;"), S. "&amp;O218&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
       </c>
       <c r="Q218" s="19"/>
@@ -17444,7 +17502,7 @@
         <v>226</v>
       </c>
       <c r="P219" s="16" t="str">
-        <f>"Vgl. "&amp;I219&amp;" ("&amp;N219&amp;"), S. "&amp;O219&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Sullivan, Kaszynski (2019), S. 1-3.</v>
       </c>
       <c r="Q219" s="19"/>
@@ -17496,7 +17554,7 @@
         <v>449</v>
       </c>
       <c r="P220" s="16" t="str">
-        <f>"Vgl. "&amp;I220&amp;" ("&amp;N220&amp;"), S. "&amp;O220&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Kitware Inc. (2023), S. o. S..</v>
       </c>
       <c r="Q220" s="19"/>
@@ -17548,7 +17606,7 @@
         <v>449</v>
       </c>
       <c r="P221" s="16" t="str">
-        <f>"Vgl. "&amp;I221&amp;" ("&amp;N221&amp;"), S. "&amp;O221&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. The PyVista Developers (2023), S. o. S..</v>
       </c>
       <c r="Q221" s="19"/>
@@ -17600,7 +17658,7 @@
         <v>1458</v>
       </c>
       <c r="P222" s="16" t="str">
-        <f>"Vgl. "&amp;I222&amp;" ("&amp;N222&amp;"), S. "&amp;O222&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Si (2015), S. 1-36.</v>
       </c>
       <c r="Q222" s="19"/>
@@ -17652,7 +17710,7 @@
         <v>449</v>
       </c>
       <c r="P223" s="16" t="str">
-        <f>"Vgl. "&amp;I223&amp;" ("&amp;N223&amp;"), S. "&amp;O223&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. FastAPI (2023), S. o. S..</v>
       </c>
       <c r="Q223" s="19"/>
@@ -17704,7 +17762,7 @@
         <v>449</v>
       </c>
       <c r="P224" s="16" t="str">
-        <f>"Vgl. "&amp;I224&amp;" ("&amp;N224&amp;"), S. "&amp;O224&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="Q224" s="19"/>
@@ -17756,7 +17814,7 @@
         <v>449</v>
       </c>
       <c r="P225" s="16" t="str">
-        <f>"Vgl. "&amp;I225&amp;" ("&amp;N225&amp;"), S. "&amp;O225&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Apple Inc. (2023g), S. o. S..</v>
       </c>
       <c r="Q225" s="19"/>
@@ -17808,7 +17866,7 @@
         <v>449</v>
       </c>
       <c r="P226" s="16" t="str">
-        <f>"Vgl. "&amp;I226&amp;" ("&amp;N226&amp;"), S. "&amp;O226&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Apple Inc. (2023h), S. o. S..</v>
       </c>
       <c r="Q226" s="19"/>
@@ -17860,7 +17918,7 @@
         <v>449</v>
       </c>
       <c r="P227" s="16" t="str">
-        <f>"Vgl. "&amp;I227&amp;" ("&amp;N227&amp;"), S. "&amp;O227&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Apple Inc. (2023i), S. o. S..</v>
       </c>
       <c r="Q227" s="19"/>
@@ -17912,7 +17970,7 @@
         <v>449</v>
       </c>
       <c r="P228" s="16" t="str">
-        <f>"Vgl. "&amp;I228&amp;" ("&amp;N228&amp;"), S. "&amp;O228&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Apple Inc. (2023j), S. o. S..</v>
       </c>
       <c r="Q228" s="19"/>
@@ -17938,7 +17996,7 @@
       <c r="N229" s="20"/>
       <c r="O229" s="21"/>
       <c r="P229" s="16" t="str">
-        <f t="shared" ref="P215:P262" si="6">"Vgl. "&amp;I229&amp;" ("&amp;N229&amp;"), S. "&amp;O229&amp;"."</f>
+        <f t="shared" ref="P229:P262" si="7">"Vgl. "&amp;I229&amp;" ("&amp;N229&amp;"), S. "&amp;O229&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q229" s="19"/>
@@ -17964,7 +18022,7 @@
       <c r="N230" s="20"/>
       <c r="O230" s="21"/>
       <c r="P230" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q230" s="19"/>
@@ -17990,7 +18048,7 @@
       <c r="N231" s="20"/>
       <c r="O231" s="21"/>
       <c r="P231" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q231" s="19"/>
@@ -18016,7 +18074,7 @@
       <c r="N232" s="20"/>
       <c r="O232" s="21"/>
       <c r="P232" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q232" s="19"/>
@@ -18042,7 +18100,7 @@
       <c r="N233" s="20"/>
       <c r="O233" s="21"/>
       <c r="P233" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q233" s="19"/>
@@ -18068,7 +18126,7 @@
       <c r="N234" s="20"/>
       <c r="O234" s="21"/>
       <c r="P234" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q234" s="19"/>
@@ -18094,7 +18152,7 @@
       <c r="N235" s="20"/>
       <c r="O235" s="21"/>
       <c r="P235" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q235" s="19"/>
@@ -18120,7 +18178,7 @@
       <c r="N236" s="20"/>
       <c r="O236" s="21"/>
       <c r="P236" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q236" s="19"/>
@@ -18146,7 +18204,7 @@
       <c r="N237" s="20"/>
       <c r="O237" s="21"/>
       <c r="P237" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q237" s="19"/>
@@ -18172,7 +18230,7 @@
       <c r="N238" s="20"/>
       <c r="O238" s="21"/>
       <c r="P238" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q238" s="19"/>
@@ -18198,7 +18256,7 @@
       <c r="N239" s="20"/>
       <c r="O239" s="21"/>
       <c r="P239" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q239" s="19"/>
@@ -18224,7 +18282,7 @@
       <c r="N240" s="20"/>
       <c r="O240" s="21"/>
       <c r="P240" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q240" s="19"/>
@@ -18250,7 +18308,7 @@
       <c r="N241" s="20"/>
       <c r="O241" s="21"/>
       <c r="P241" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q241" s="19"/>
@@ -18276,7 +18334,7 @@
       <c r="N242" s="20"/>
       <c r="O242" s="21"/>
       <c r="P242" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q242" s="19"/>
@@ -18302,7 +18360,7 @@
       <c r="N243" s="20"/>
       <c r="O243" s="21"/>
       <c r="P243" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q243" s="19"/>
@@ -18328,7 +18386,7 @@
       <c r="N244" s="20"/>
       <c r="O244" s="21"/>
       <c r="P244" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q244" s="19"/>
@@ -18354,7 +18412,7 @@
       <c r="N245" s="20"/>
       <c r="O245" s="21"/>
       <c r="P245" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q245" s="19"/>
@@ -18380,7 +18438,7 @@
       <c r="N246" s="20"/>
       <c r="O246" s="21"/>
       <c r="P246" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q246" s="19"/>
@@ -18406,7 +18464,7 @@
       <c r="N247" s="20"/>
       <c r="O247" s="21"/>
       <c r="P247" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q247" s="19"/>
@@ -18432,7 +18490,7 @@
       <c r="N248" s="20"/>
       <c r="O248" s="21"/>
       <c r="P248" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q248" s="19"/>
@@ -18458,7 +18516,7 @@
       <c r="N249" s="20"/>
       <c r="O249" s="21"/>
       <c r="P249" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q249" s="19"/>
@@ -18484,7 +18542,7 @@
       <c r="N250" s="20"/>
       <c r="O250" s="21"/>
       <c r="P250" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q250" s="19"/>
@@ -18510,7 +18568,7 @@
       <c r="N251" s="20"/>
       <c r="O251" s="22"/>
       <c r="P251" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q251" s="19"/>
@@ -18536,7 +18594,7 @@
       <c r="N252" s="20"/>
       <c r="O252" s="22"/>
       <c r="P252" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q252" s="19"/>
@@ -18562,7 +18620,7 @@
       <c r="N253" s="20"/>
       <c r="O253" s="22"/>
       <c r="P253" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q253" s="19"/>
@@ -18588,7 +18646,7 @@
       <c r="N254" s="20"/>
       <c r="O254" s="22"/>
       <c r="P254" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q254" s="19"/>
@@ -18614,7 +18672,7 @@
       <c r="N255" s="20"/>
       <c r="O255" s="22"/>
       <c r="P255" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q255" s="19"/>
@@ -18640,7 +18698,7 @@
       <c r="N256" s="20"/>
       <c r="O256" s="22"/>
       <c r="P256" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q256" s="19"/>
@@ -18666,7 +18724,7 @@
       <c r="N257" s="20"/>
       <c r="O257" s="22"/>
       <c r="P257" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q257" s="19"/>
@@ -18692,7 +18750,7 @@
       <c r="N258" s="20"/>
       <c r="O258" s="22"/>
       <c r="P258" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q258" s="19"/>
@@ -18718,7 +18776,7 @@
       <c r="N259" s="20"/>
       <c r="O259" s="21"/>
       <c r="P259" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q259" s="19"/>
@@ -18744,7 +18802,7 @@
       <c r="N260" s="20"/>
       <c r="O260" s="21"/>
       <c r="P260" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q260" s="19"/>
@@ -18770,7 +18828,7 @@
       <c r="N261" s="20"/>
       <c r="O261" s="21"/>
       <c r="P261" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q261" s="19"/>
@@ -18796,7 +18854,7 @@
       <c r="N262" s="20"/>
       <c r="O262" s="21"/>
       <c r="P262" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q262" s="19"/>
@@ -18822,7 +18880,7 @@
       <c r="N263" s="20"/>
       <c r="O263" s="21"/>
       <c r="P263" s="30" t="str">
-        <f t="shared" ref="P263:P285" si="7">"Vgl. "&amp;I263&amp;" ("&amp;N263&amp;"), S. "&amp;O263&amp;"."</f>
+        <f t="shared" ref="P263:P285" si="8">"Vgl. "&amp;I263&amp;" ("&amp;N263&amp;"), S. "&amp;O263&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q263" s="19"/>
@@ -18848,7 +18906,7 @@
       <c r="N264" s="20"/>
       <c r="O264" s="21"/>
       <c r="P264" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q264" s="19"/>
@@ -18874,7 +18932,7 @@
       <c r="N265" s="20"/>
       <c r="O265" s="21"/>
       <c r="P265" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q265" s="19"/>
@@ -18900,7 +18958,7 @@
       <c r="N266" s="20"/>
       <c r="O266" s="21"/>
       <c r="P266" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q266" s="19"/>
@@ -18926,7 +18984,7 @@
       <c r="N267" s="20"/>
       <c r="O267" s="21"/>
       <c r="P267" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q267" s="19"/>
@@ -18952,7 +19010,7 @@
       <c r="N268" s="20"/>
       <c r="O268" s="21"/>
       <c r="P268" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q268" s="19"/>
@@ -18978,7 +19036,7 @@
       <c r="N269" s="20"/>
       <c r="O269" s="21"/>
       <c r="P269" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q269" s="19"/>
@@ -19004,7 +19062,7 @@
       <c r="N270" s="20"/>
       <c r="O270" s="21"/>
       <c r="P270" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q270" s="19"/>
@@ -19030,7 +19088,7 @@
       <c r="N271" s="20"/>
       <c r="O271" s="21"/>
       <c r="P271" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q271" s="19"/>
@@ -19056,7 +19114,7 @@
       <c r="N272" s="20"/>
       <c r="O272" s="21"/>
       <c r="P272" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q272" s="19"/>
@@ -19082,7 +19140,7 @@
       <c r="N273" s="20"/>
       <c r="O273" s="21"/>
       <c r="P273" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q273" s="19"/>
@@ -19108,7 +19166,7 @@
       <c r="N274" s="20"/>
       <c r="O274" s="21"/>
       <c r="P274" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q274" s="19"/>
@@ -19134,7 +19192,7 @@
       <c r="N275" s="20"/>
       <c r="O275" s="21"/>
       <c r="P275" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q275" s="19"/>
@@ -19160,7 +19218,7 @@
       <c r="N276" s="20"/>
       <c r="O276" s="21"/>
       <c r="P276" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q276" s="19"/>
@@ -19186,7 +19244,7 @@
       <c r="N277" s="20"/>
       <c r="O277" s="21"/>
       <c r="P277" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q277" s="19"/>
@@ -19212,7 +19270,7 @@
       <c r="N278" s="20"/>
       <c r="O278" s="21"/>
       <c r="P278" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q278" s="19"/>
@@ -19238,7 +19296,7 @@
       <c r="N279" s="20"/>
       <c r="O279" s="21"/>
       <c r="P279" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q279" s="19"/>
@@ -19264,7 +19322,7 @@
       <c r="N280" s="20"/>
       <c r="O280" s="21"/>
       <c r="P280" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q280" s="19"/>
@@ -19290,7 +19348,7 @@
       <c r="N281" s="20"/>
       <c r="O281" s="21"/>
       <c r="P281" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q281" s="19"/>
@@ -19316,7 +19374,7 @@
       <c r="N282" s="20"/>
       <c r="O282" s="21"/>
       <c r="P282" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q282" s="19"/>
@@ -19342,7 +19400,7 @@
       <c r="N283" s="20"/>
       <c r="O283" s="21"/>
       <c r="P283" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q283" s="19"/>
@@ -19368,7 +19426,7 @@
       <c r="N284" s="20"/>
       <c r="O284" s="21"/>
       <c r="P284" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q284" s="19"/>
@@ -19394,7 +19452,7 @@
       <c r="N285" s="20"/>
       <c r="O285" s="21"/>
       <c r="P285" s="30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q285" s="19"/>
@@ -19420,7 +19478,7 @@
       <c r="N286" s="20"/>
       <c r="O286" s="21"/>
       <c r="P286" s="30" t="str">
-        <f t="shared" ref="P286:P301" si="8">"Vgl. "&amp;I286&amp;" ("&amp;N286&amp;"), S. "&amp;O286&amp;"."</f>
+        <f t="shared" ref="P286:P301" si="9">"Vgl. "&amp;I286&amp;" ("&amp;N286&amp;"), S. "&amp;O286&amp;"."</f>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q286" s="19"/>
@@ -19446,7 +19504,7 @@
       <c r="N287" s="20"/>
       <c r="O287" s="21"/>
       <c r="P287" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q287" s="19"/>
@@ -19472,7 +19530,7 @@
       <c r="N288" s="20"/>
       <c r="O288" s="21"/>
       <c r="P288" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q288" s="19"/>
@@ -19498,7 +19556,7 @@
       <c r="N289" s="20"/>
       <c r="O289" s="21"/>
       <c r="P289" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q289" s="19"/>
@@ -19524,7 +19582,7 @@
       <c r="N290" s="20"/>
       <c r="O290" s="21"/>
       <c r="P290" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q290" s="19"/>
@@ -19550,7 +19608,7 @@
       <c r="N291" s="20"/>
       <c r="O291" s="21"/>
       <c r="P291" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q291" s="19"/>
@@ -19576,7 +19634,7 @@
       <c r="N292" s="20"/>
       <c r="O292" s="21"/>
       <c r="P292" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q292" s="19"/>
@@ -19602,7 +19660,7 @@
       <c r="N293" s="20"/>
       <c r="O293" s="21"/>
       <c r="P293" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q293" s="19"/>
@@ -19628,7 +19686,7 @@
       <c r="N294" s="20"/>
       <c r="O294" s="21"/>
       <c r="P294" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q294" s="19"/>
@@ -19654,7 +19712,7 @@
       <c r="N295" s="20"/>
       <c r="O295" s="21"/>
       <c r="P295" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q295" s="19"/>
@@ -19680,7 +19738,7 @@
       <c r="N296" s="20"/>
       <c r="O296" s="21"/>
       <c r="P296" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q296" s="19"/>
@@ -19706,7 +19764,7 @@
       <c r="N297" s="20"/>
       <c r="O297" s="21"/>
       <c r="P297" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q297" s="19"/>
@@ -19732,7 +19790,7 @@
       <c r="N298" s="20"/>
       <c r="O298" s="21"/>
       <c r="P298" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q298" s="19"/>
@@ -19758,7 +19816,7 @@
       <c r="N299" s="20"/>
       <c r="O299" s="21"/>
       <c r="P299" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q299" s="19"/>
@@ -19784,7 +19842,7 @@
       <c r="N300" s="20"/>
       <c r="O300" s="21"/>
       <c r="P300" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q300" s="19"/>
@@ -19810,7 +19868,7 @@
       <c r="N301" s="20"/>
       <c r="O301" s="22"/>
       <c r="P301" s="30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Vgl.  (), S. .</v>
       </c>
       <c r="Q301" s="19"/>
@@ -20230,67 +20288,67 @@
       <c r="B2" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="155" t="s">
         <v>1276</v>
       </c>
-      <c r="D2" s="154"/>
+      <c r="D2" s="156"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="155" t="s">
         <v>1390</v>
       </c>
-      <c r="D3" s="154"/>
+      <c r="D3" s="156"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="155" t="s">
         <v>1277</v>
       </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="156"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="157" t="s">
         <v>1288</v>
       </c>
-      <c r="D5" s="156"/>
+      <c r="D5" s="158"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="157" t="s">
         <v>1278</v>
       </c>
-      <c r="D6" s="156"/>
+      <c r="D6" s="158"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="157" t="s">
         <v>1279</v>
       </c>
-      <c r="D7" s="156"/>
+      <c r="D7" s="158"/>
     </row>
     <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="157" t="s">
         <v>1338</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="158"/>
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="160" t="s">
         <v>1274</v>
       </c>
       <c r="C9" s="129" t="s">
@@ -20301,7 +20359,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="157"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="127" t="s">
         <v>1281</v>
       </c>
@@ -20310,7 +20368,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="157"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="127" t="s">
         <v>1282</v>
       </c>
@@ -20319,7 +20377,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="157"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="127" t="s">
         <v>1283</v>
       </c>
@@ -20328,7 +20386,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="157"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="127" t="s">
         <v>1284</v>
       </c>
@@ -20340,10 +20398,10 @@
       <c r="B14" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C14" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="154"/>
+      <c r="C14" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="156"/>
       <c r="G14" s="139"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -20356,70 +20414,70 @@
       <c r="B17" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="155" t="s">
         <v>1340</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="156"/>
       <c r="G17" s="139"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="155" t="s">
         <v>1391</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="156"/>
       <c r="G18" s="139"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="155" t="s">
         <v>1277</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="156"/>
       <c r="G19" s="139"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="157" t="s">
         <v>1290</v>
       </c>
-      <c r="D20" s="156"/>
+      <c r="D20" s="158"/>
       <c r="G20" s="139"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="157" t="s">
         <v>1341</v>
       </c>
-      <c r="D21" s="156"/>
+      <c r="D21" s="158"/>
       <c r="G21" s="139"/>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="157" t="s">
         <v>1342</v>
       </c>
-      <c r="D22" s="156"/>
+      <c r="D22" s="158"/>
       <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="157" t="s">
         <v>1330</v>
       </c>
-      <c r="D23" s="156"/>
+      <c r="D23" s="158"/>
       <c r="G23" s="139"/>
     </row>
     <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20438,76 +20496,76 @@
       <c r="B25" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="155" t="s">
         <v>1291</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="156"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="155" t="s">
         <v>1292</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="156"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C29" s="153" t="s">
+      <c r="C29" s="155" t="s">
         <v>1392</v>
       </c>
-      <c r="D29" s="154"/>
+      <c r="D29" s="156"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="C30" s="155" t="s">
         <v>1303</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="156"/>
     </row>
     <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="157" t="s">
         <v>1337</v>
       </c>
-      <c r="D31" s="156"/>
+      <c r="D31" s="158"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="157" t="s">
         <v>1293</v>
       </c>
-      <c r="D32" s="156"/>
+      <c r="D32" s="158"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="157" t="s">
         <v>1344</v>
       </c>
-      <c r="D33" s="156"/>
+      <c r="D33" s="158"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="157" t="s">
         <v>1294</v>
       </c>
-      <c r="D34" s="156"/>
+      <c r="D34" s="158"/>
     </row>
     <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="158" t="s">
+      <c r="B35" s="153" t="s">
         <v>1274</v>
       </c>
       <c r="C35" s="129" t="s">
@@ -20518,7 +20576,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="159"/>
+      <c r="B36" s="154"/>
       <c r="C36" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20527,7 +20585,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="159"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20536,7 +20594,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="160"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20548,73 +20606,73 @@
       <c r="B39" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C39" s="153" t="s">
+      <c r="C39" s="155" t="s">
         <v>1313</v>
       </c>
-      <c r="D39" s="154"/>
+      <c r="D39" s="156"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C42" s="153" t="s">
+      <c r="C42" s="155" t="s">
         <v>1297</v>
       </c>
-      <c r="D42" s="154"/>
+      <c r="D42" s="156"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C43" s="153" t="s">
+      <c r="C43" s="155" t="s">
         <v>1393</v>
       </c>
-      <c r="D43" s="154"/>
+      <c r="D43" s="156"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C44" s="153" t="s">
+      <c r="C44" s="155" t="s">
         <v>1277</v>
       </c>
-      <c r="D44" s="154"/>
+      <c r="D44" s="156"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="157" t="s">
         <v>1300</v>
       </c>
-      <c r="D45" s="156"/>
+      <c r="D45" s="158"/>
     </row>
     <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="155" t="s">
+      <c r="C46" s="157" t="s">
         <v>1298</v>
       </c>
-      <c r="D46" s="156"/>
+      <c r="D46" s="158"/>
     </row>
     <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="157" t="s">
         <v>1332</v>
       </c>
-      <c r="D47" s="156"/>
+      <c r="D47" s="158"/>
     </row>
     <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C48" s="155" t="s">
+      <c r="C48" s="157" t="s">
         <v>1299</v>
       </c>
-      <c r="D48" s="156"/>
+      <c r="D48" s="158"/>
     </row>
     <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
@@ -20631,76 +20689,76 @@
       <c r="B50" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C50" s="153" t="s">
+      <c r="C50" s="155" t="s">
         <v>1301</v>
       </c>
-      <c r="D50" s="154"/>
+      <c r="D50" s="156"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C53" s="153" t="s">
+      <c r="C53" s="155" t="s">
         <v>1302</v>
       </c>
-      <c r="D53" s="154"/>
+      <c r="D53" s="156"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C54" s="153" t="s">
+      <c r="C54" s="155" t="s">
         <v>1394</v>
       </c>
-      <c r="D54" s="154"/>
+      <c r="D54" s="156"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C55" s="153" t="s">
+      <c r="C55" s="155" t="s">
         <v>1303</v>
       </c>
-      <c r="D55" s="154"/>
+      <c r="D55" s="156"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C56" s="155" t="s">
+      <c r="C56" s="157" t="s">
         <v>1307</v>
       </c>
-      <c r="D56" s="156"/>
+      <c r="D56" s="158"/>
     </row>
     <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="155" t="s">
+      <c r="C57" s="157" t="s">
         <v>1304</v>
       </c>
-      <c r="D57" s="156"/>
+      <c r="D57" s="158"/>
     </row>
     <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C58" s="155" t="s">
+      <c r="C58" s="157" t="s">
         <v>1332</v>
       </c>
-      <c r="D58" s="156"/>
+      <c r="D58" s="158"/>
     </row>
     <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C59" s="155" t="s">
+      <c r="C59" s="157" t="s">
         <v>1299</v>
       </c>
-      <c r="D59" s="156"/>
+      <c r="D59" s="158"/>
     </row>
     <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="158" t="s">
+      <c r="B60" s="153" t="s">
         <v>1274</v>
       </c>
       <c r="C60" s="129" t="s">
@@ -20711,7 +20769,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="159"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20720,7 +20778,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B62" s="160"/>
+      <c r="B62" s="159"/>
       <c r="C62" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20732,76 +20790,76 @@
       <c r="B63" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C63" s="153" t="s">
+      <c r="C63" s="155" t="s">
         <v>1314</v>
       </c>
-      <c r="D63" s="154"/>
+      <c r="D63" s="156"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C66" s="153" t="s">
+      <c r="C66" s="155" t="s">
         <v>1306</v>
       </c>
-      <c r="D66" s="154"/>
+      <c r="D66" s="156"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C67" s="153" t="s">
+      <c r="C67" s="155" t="s">
         <v>1395</v>
       </c>
-      <c r="D67" s="154"/>
+      <c r="D67" s="156"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C68" s="153" t="s">
+      <c r="C68" s="155" t="s">
         <v>1303</v>
       </c>
-      <c r="D68" s="154"/>
+      <c r="D68" s="156"/>
     </row>
     <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C69" s="155" t="s">
+      <c r="C69" s="157" t="s">
         <v>1308</v>
       </c>
-      <c r="D69" s="156"/>
+      <c r="D69" s="158"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="155" t="s">
+      <c r="C70" s="157" t="s">
         <v>1309</v>
       </c>
-      <c r="D70" s="156"/>
+      <c r="D70" s="158"/>
     </row>
     <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C71" s="155" t="s">
+      <c r="C71" s="157" t="s">
         <v>1310</v>
       </c>
-      <c r="D71" s="156"/>
+      <c r="D71" s="158"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C72" s="155" t="s">
+      <c r="C72" s="157" t="s">
         <v>1317</v>
       </c>
-      <c r="D72" s="156"/>
+      <c r="D72" s="158"/>
     </row>
     <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="158" t="s">
+      <c r="B73" s="153" t="s">
         <v>1274</v>
       </c>
       <c r="C73" s="129" t="s">
@@ -20812,7 +20870,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B74" s="159"/>
+      <c r="B74" s="154"/>
       <c r="C74" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20821,7 +20879,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B75" s="159"/>
+      <c r="B75" s="154"/>
       <c r="C75" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20830,7 +20888,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="159"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20839,7 +20897,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="160"/>
+      <c r="B77" s="159"/>
       <c r="C77" s="129" t="s">
         <v>1284</v>
       </c>
@@ -20851,76 +20909,76 @@
       <c r="B78" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C78" s="153" t="s">
+      <c r="C78" s="155" t="s">
         <v>1318</v>
       </c>
-      <c r="D78" s="154"/>
+      <c r="D78" s="156"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C81" s="153" t="s">
+      <c r="C81" s="155" t="s">
         <v>1319</v>
       </c>
-      <c r="D81" s="154"/>
+      <c r="D81" s="156"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C82" s="153" t="s">
+      <c r="C82" s="155" t="s">
         <v>1396</v>
       </c>
-      <c r="D82" s="154"/>
+      <c r="D82" s="156"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C83" s="153" t="s">
+      <c r="C83" s="155" t="s">
         <v>1277</v>
       </c>
-      <c r="D83" s="154"/>
+      <c r="D83" s="156"/>
     </row>
     <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C84" s="155" t="s">
+      <c r="C84" s="157" t="s">
         <v>1333</v>
       </c>
-      <c r="D84" s="156"/>
+      <c r="D84" s="158"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="155" t="s">
+      <c r="C85" s="157" t="s">
         <v>1320</v>
       </c>
-      <c r="D85" s="156"/>
+      <c r="D85" s="158"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C86" s="155" t="s">
+      <c r="C86" s="157" t="s">
         <v>1321</v>
       </c>
-      <c r="D86" s="156"/>
+      <c r="D86" s="158"/>
     </row>
     <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C87" s="155" t="s">
+      <c r="C87" s="157" t="s">
         <v>1347</v>
       </c>
-      <c r="D87" s="156"/>
+      <c r="D87" s="158"/>
     </row>
     <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B88" s="158" t="s">
+      <c r="B88" s="153" t="s">
         <v>1274</v>
       </c>
       <c r="C88" s="129" t="s">
@@ -20931,7 +20989,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="159"/>
+      <c r="B89" s="154"/>
       <c r="C89" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20940,7 +20998,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="159"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20949,7 +21007,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B91" s="159"/>
+      <c r="B91" s="154"/>
       <c r="C91" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20958,7 +21016,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="160"/>
+      <c r="B92" s="159"/>
       <c r="C92" s="129" t="s">
         <v>1284</v>
       </c>
@@ -20970,76 +21028,76 @@
       <c r="B93" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C93" s="153" t="s">
+      <c r="C93" s="155" t="s">
         <v>1327</v>
       </c>
-      <c r="D93" s="154"/>
+      <c r="D93" s="156"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C96" s="153" t="s">
+      <c r="C96" s="155" t="s">
         <v>1325</v>
       </c>
-      <c r="D96" s="154"/>
+      <c r="D96" s="156"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C97" s="153" t="s">
+      <c r="C97" s="155" t="s">
         <v>1397</v>
       </c>
-      <c r="D97" s="154"/>
+      <c r="D97" s="156"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C98" s="153" t="s">
+      <c r="C98" s="155" t="s">
         <v>1277</v>
       </c>
-      <c r="D98" s="154"/>
+      <c r="D98" s="156"/>
     </row>
     <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C99" s="155" t="s">
+      <c r="C99" s="157" t="s">
         <v>1334</v>
       </c>
-      <c r="D99" s="156"/>
+      <c r="D99" s="158"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="155" t="s">
+      <c r="C100" s="157" t="s">
         <v>1326</v>
       </c>
-      <c r="D100" s="156"/>
+      <c r="D100" s="158"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C101" s="155" t="s">
+      <c r="C101" s="157" t="s">
         <v>1339</v>
       </c>
-      <c r="D101" s="156"/>
+      <c r="D101" s="158"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C102" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="156"/>
+      <c r="C102" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="158"/>
     </row>
     <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="158" t="s">
+      <c r="B103" s="153" t="s">
         <v>1274</v>
       </c>
       <c r="C103" s="129" t="s">
@@ -21050,7 +21108,7 @@
       </c>
     </row>
     <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="159"/>
+      <c r="B104" s="154"/>
       <c r="C104" s="129" t="s">
         <v>1281</v>
       </c>
@@ -21059,7 +21117,7 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="159"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="129" t="s">
         <v>1282</v>
       </c>
@@ -21071,30 +21129,50 @@
       <c r="B106" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C106" s="153" t="s">
+      <c r="C106" s="155" t="s">
         <v>1329</v>
       </c>
-      <c r="D106" s="154"/>
+      <c r="D106" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B60:B62"/>
@@ -21111,43 +21189,23 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21455,8 +21513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2822E957-6EFA-4846-961F-4CEEC9C0590A}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="228" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21554,6 +21612,94 @@
       </c>
       <c r="D9" s="68" t="s">
         <v>1492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BB55F0-4ED5-A546-B675-537821A54970}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="67" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>1510</v>
       </c>
     </row>
   </sheetData>

--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0551844-4C38-CC4B-B81E-4F72DF5E26FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E3F7E-E023-2849-9A37-8F64CD98095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="500" windowWidth="33780" windowHeight="28300" firstSheet="1" activeTab="14" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
@@ -5685,12 +5685,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5703,10 +5697,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20288,67 +20288,67 @@
       <c r="B2" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="153" t="s">
         <v>1276</v>
       </c>
-      <c r="D2" s="156"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="153" t="s">
         <v>1390</v>
       </c>
-      <c r="D3" s="156"/>
+      <c r="D3" s="154"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="154"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="155" t="s">
         <v>1288</v>
       </c>
-      <c r="D5" s="158"/>
+      <c r="D5" s="156"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="155" t="s">
         <v>1278</v>
       </c>
-      <c r="D6" s="158"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="155" t="s">
         <v>1279</v>
       </c>
-      <c r="D7" s="158"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="155" t="s">
         <v>1338</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="156"/>
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="157" t="s">
         <v>1274</v>
       </c>
       <c r="C9" s="129" t="s">
@@ -20359,7 +20359,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="160"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="127" t="s">
         <v>1281</v>
       </c>
@@ -20368,7 +20368,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="160"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="127" t="s">
         <v>1282</v>
       </c>
@@ -20377,7 +20377,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="160"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="127" t="s">
         <v>1283</v>
       </c>
@@ -20386,7 +20386,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="160"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="127" t="s">
         <v>1284</v>
       </c>
@@ -20398,10 +20398,10 @@
       <c r="B14" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C14" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="156"/>
+      <c r="C14" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="154"/>
       <c r="G14" s="139"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
@@ -20414,70 +20414,70 @@
       <c r="B17" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="153" t="s">
         <v>1340</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="154"/>
       <c r="G17" s="139"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="153" t="s">
         <v>1391</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="154"/>
       <c r="G18" s="139"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="154"/>
       <c r="G19" s="139"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="155" t="s">
         <v>1290</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="156"/>
       <c r="G20" s="139"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="157" t="s">
+      <c r="C21" s="155" t="s">
         <v>1341</v>
       </c>
-      <c r="D21" s="158"/>
+      <c r="D21" s="156"/>
       <c r="G21" s="139"/>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="155" t="s">
         <v>1342</v>
       </c>
-      <c r="D22" s="158"/>
+      <c r="D22" s="156"/>
       <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="155" t="s">
         <v>1330</v>
       </c>
-      <c r="D23" s="158"/>
+      <c r="D23" s="156"/>
       <c r="G23" s="139"/>
     </row>
     <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -20496,76 +20496,76 @@
       <c r="B25" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="153" t="s">
         <v>1291</v>
       </c>
-      <c r="D25" s="156"/>
+      <c r="D25" s="154"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="153" t="s">
         <v>1292</v>
       </c>
-      <c r="D28" s="156"/>
+      <c r="D28" s="154"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="153" t="s">
         <v>1392</v>
       </c>
-      <c r="D29" s="156"/>
+      <c r="D29" s="154"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D30" s="156"/>
+      <c r="D30" s="154"/>
     </row>
     <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>1337</v>
       </c>
-      <c r="D31" s="158"/>
+      <c r="D31" s="156"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="157" t="s">
+      <c r="C32" s="155" t="s">
         <v>1293</v>
       </c>
-      <c r="D32" s="158"/>
+      <c r="D32" s="156"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C33" s="157" t="s">
+      <c r="C33" s="155" t="s">
         <v>1344</v>
       </c>
-      <c r="D33" s="158"/>
+      <c r="D33" s="156"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C34" s="157" t="s">
+      <c r="C34" s="155" t="s">
         <v>1294</v>
       </c>
-      <c r="D34" s="158"/>
+      <c r="D34" s="156"/>
     </row>
     <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C35" s="129" t="s">
@@ -20576,7 +20576,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="154"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20585,7 +20585,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="154"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20594,7 +20594,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="159"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20606,73 +20606,73 @@
       <c r="B39" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="153" t="s">
         <v>1313</v>
       </c>
-      <c r="D39" s="156"/>
+      <c r="D39" s="154"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C42" s="155" t="s">
+      <c r="C42" s="153" t="s">
         <v>1297</v>
       </c>
-      <c r="D42" s="156"/>
+      <c r="D42" s="154"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C43" s="155" t="s">
+      <c r="C43" s="153" t="s">
         <v>1393</v>
       </c>
-      <c r="D43" s="156"/>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D44" s="156"/>
+      <c r="D44" s="154"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C45" s="157" t="s">
+      <c r="C45" s="155" t="s">
         <v>1300</v>
       </c>
-      <c r="D45" s="158"/>
+      <c r="D45" s="156"/>
     </row>
     <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="157" t="s">
+      <c r="C46" s="155" t="s">
         <v>1298</v>
       </c>
-      <c r="D46" s="158"/>
+      <c r="D46" s="156"/>
     </row>
     <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C47" s="157" t="s">
+      <c r="C47" s="155" t="s">
         <v>1332</v>
       </c>
-      <c r="D47" s="158"/>
+      <c r="D47" s="156"/>
     </row>
     <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C48" s="157" t="s">
+      <c r="C48" s="155" t="s">
         <v>1299</v>
       </c>
-      <c r="D48" s="158"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
@@ -20689,76 +20689,76 @@
       <c r="B50" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C50" s="155" t="s">
+      <c r="C50" s="153" t="s">
         <v>1301</v>
       </c>
-      <c r="D50" s="156"/>
+      <c r="D50" s="154"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C53" s="155" t="s">
+      <c r="C53" s="153" t="s">
         <v>1302</v>
       </c>
-      <c r="D53" s="156"/>
+      <c r="D53" s="154"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C54" s="155" t="s">
+      <c r="C54" s="153" t="s">
         <v>1394</v>
       </c>
-      <c r="D54" s="156"/>
+      <c r="D54" s="154"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C55" s="155" t="s">
+      <c r="C55" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D55" s="156"/>
+      <c r="D55" s="154"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C56" s="157" t="s">
+      <c r="C56" s="155" t="s">
         <v>1307</v>
       </c>
-      <c r="D56" s="158"/>
+      <c r="D56" s="156"/>
     </row>
     <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="157" t="s">
+      <c r="C57" s="155" t="s">
         <v>1304</v>
       </c>
-      <c r="D57" s="158"/>
+      <c r="D57" s="156"/>
     </row>
     <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="155" t="s">
         <v>1332</v>
       </c>
-      <c r="D58" s="158"/>
+      <c r="D58" s="156"/>
     </row>
     <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C59" s="157" t="s">
+      <c r="C59" s="155" t="s">
         <v>1299</v>
       </c>
-      <c r="D59" s="158"/>
+      <c r="D59" s="156"/>
     </row>
     <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="153" t="s">
+      <c r="B60" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C60" s="129" t="s">
@@ -20769,7 +20769,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="154"/>
+      <c r="B61" s="159"/>
       <c r="C61" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20778,7 +20778,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B62" s="159"/>
+      <c r="B62" s="160"/>
       <c r="C62" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20790,76 +20790,76 @@
       <c r="B63" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C63" s="155" t="s">
+      <c r="C63" s="153" t="s">
         <v>1314</v>
       </c>
-      <c r="D63" s="156"/>
+      <c r="D63" s="154"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C66" s="155" t="s">
+      <c r="C66" s="153" t="s">
         <v>1306</v>
       </c>
-      <c r="D66" s="156"/>
+      <c r="D66" s="154"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C67" s="155" t="s">
+      <c r="C67" s="153" t="s">
         <v>1395</v>
       </c>
-      <c r="D67" s="156"/>
+      <c r="D67" s="154"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C68" s="155" t="s">
+      <c r="C68" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D68" s="156"/>
+      <c r="D68" s="154"/>
     </row>
     <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C69" s="157" t="s">
+      <c r="C69" s="155" t="s">
         <v>1308</v>
       </c>
-      <c r="D69" s="158"/>
+      <c r="D69" s="156"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="157" t="s">
+      <c r="C70" s="155" t="s">
         <v>1309</v>
       </c>
-      <c r="D70" s="158"/>
+      <c r="D70" s="156"/>
     </row>
     <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C71" s="157" t="s">
+      <c r="C71" s="155" t="s">
         <v>1310</v>
       </c>
-      <c r="D71" s="158"/>
+      <c r="D71" s="156"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C72" s="157" t="s">
+      <c r="C72" s="155" t="s">
         <v>1317</v>
       </c>
-      <c r="D72" s="158"/>
+      <c r="D72" s="156"/>
     </row>
     <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="153" t="s">
+      <c r="B73" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C73" s="129" t="s">
@@ -20870,7 +20870,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B74" s="154"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20879,7 +20879,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B75" s="154"/>
+      <c r="B75" s="159"/>
       <c r="C75" s="129" t="s">
         <v>1282</v>
       </c>
@@ -20888,7 +20888,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="154"/>
+      <c r="B76" s="159"/>
       <c r="C76" s="129" t="s">
         <v>1283</v>
       </c>
@@ -20897,7 +20897,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="159"/>
+      <c r="B77" s="160"/>
       <c r="C77" s="129" t="s">
         <v>1284</v>
       </c>
@@ -20909,76 +20909,76 @@
       <c r="B78" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C78" s="155" t="s">
+      <c r="C78" s="153" t="s">
         <v>1318</v>
       </c>
-      <c r="D78" s="156"/>
+      <c r="D78" s="154"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C81" s="155" t="s">
+      <c r="C81" s="153" t="s">
         <v>1319</v>
       </c>
-      <c r="D81" s="156"/>
+      <c r="D81" s="154"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C82" s="155" t="s">
+      <c r="C82" s="153" t="s">
         <v>1396</v>
       </c>
-      <c r="D82" s="156"/>
+      <c r="D82" s="154"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C83" s="155" t="s">
+      <c r="C83" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D83" s="156"/>
+      <c r="D83" s="154"/>
     </row>
     <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C84" s="157" t="s">
+      <c r="C84" s="155" t="s">
         <v>1333</v>
       </c>
-      <c r="D84" s="158"/>
+      <c r="D84" s="156"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="157" t="s">
+      <c r="C85" s="155" t="s">
         <v>1320</v>
       </c>
-      <c r="D85" s="158"/>
+      <c r="D85" s="156"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C86" s="157" t="s">
+      <c r="C86" s="155" t="s">
         <v>1321</v>
       </c>
-      <c r="D86" s="158"/>
+      <c r="D86" s="156"/>
     </row>
     <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C87" s="157" t="s">
+      <c r="C87" s="155" t="s">
         <v>1347</v>
       </c>
-      <c r="D87" s="158"/>
+      <c r="D87" s="156"/>
     </row>
     <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B88" s="153" t="s">
+      <c r="B88" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C88" s="129" t="s">
@@ -20989,7 +20989,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="154"/>
+      <c r="B89" s="159"/>
       <c r="C89" s="129" t="s">
         <v>1281</v>
       </c>
@@ -20998,7 +20998,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="154"/>
+      <c r="B90" s="159"/>
       <c r="C90" s="129" t="s">
         <v>1282</v>
       </c>
@@ -21007,7 +21007,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B91" s="154"/>
+      <c r="B91" s="159"/>
       <c r="C91" s="129" t="s">
         <v>1283</v>
       </c>
@@ -21016,7 +21016,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="159"/>
+      <c r="B92" s="160"/>
       <c r="C92" s="129" t="s">
         <v>1284</v>
       </c>
@@ -21028,76 +21028,76 @@
       <c r="B93" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C93" s="155" t="s">
+      <c r="C93" s="153" t="s">
         <v>1327</v>
       </c>
-      <c r="D93" s="156"/>
+      <c r="D93" s="154"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="107" t="s">
         <v>1289</v>
       </c>
-      <c r="C96" s="155" t="s">
+      <c r="C96" s="153" t="s">
         <v>1325</v>
       </c>
-      <c r="D96" s="156"/>
+      <c r="D96" s="154"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="107" t="s">
         <v>1210</v>
       </c>
-      <c r="C97" s="155" t="s">
+      <c r="C97" s="153" t="s">
         <v>1397</v>
       </c>
-      <c r="D97" s="156"/>
+      <c r="D97" s="154"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="107" t="s">
         <v>1270</v>
       </c>
-      <c r="C98" s="155" t="s">
+      <c r="C98" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="D98" s="156"/>
+      <c r="D98" s="154"/>
     </row>
     <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="107" t="s">
         <v>1271</v>
       </c>
-      <c r="C99" s="157" t="s">
+      <c r="C99" s="155" t="s">
         <v>1334</v>
       </c>
-      <c r="D99" s="158"/>
+      <c r="D99" s="156"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="157" t="s">
+      <c r="C100" s="155" t="s">
         <v>1326</v>
       </c>
-      <c r="D100" s="158"/>
+      <c r="D100" s="156"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="107" t="s">
         <v>1272</v>
       </c>
-      <c r="C101" s="157" t="s">
+      <c r="C101" s="155" t="s">
         <v>1339</v>
       </c>
-      <c r="D101" s="158"/>
+      <c r="D101" s="156"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="107" t="s">
         <v>1273</v>
       </c>
-      <c r="C102" s="157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="158"/>
+      <c r="C102" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="156"/>
     </row>
     <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="153" t="s">
+      <c r="B103" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="C103" s="129" t="s">
@@ -21108,7 +21108,7 @@
       </c>
     </row>
     <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="154"/>
+      <c r="B104" s="159"/>
       <c r="C104" s="129" t="s">
         <v>1281</v>
       </c>
@@ -21117,7 +21117,7 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="154"/>
+      <c r="B105" s="159"/>
       <c r="C105" s="129" t="s">
         <v>1282</v>
       </c>
@@ -21129,50 +21129,30 @@
       <c r="B106" s="107" t="s">
         <v>1275</v>
       </c>
-      <c r="C106" s="155" t="s">
+      <c r="C106" s="153" t="s">
         <v>1329</v>
       </c>
-      <c r="D106" s="156"/>
+      <c r="D106" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B60:B62"/>
@@ -21189,23 +21169,43 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21624,7 +21624,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/03_thesis/Literaturverzeichnis.xlsx
+++ b/03_thesis/Literaturverzeichnis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Desktop/FoodAnalyser/03_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA8254A-2662-3947-A59C-70B098F3ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC7C4F9-EED8-244C-8636-0DF6144A2B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="5360" windowWidth="37320" windowHeight="21100" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="33780" windowHeight="28300" activeTab="7" xr2:uid="{3701A8F3-D4B0-D940-B81D-3D1CB3DADD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Literatur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Detail Level" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$Q$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Literatur!$A$1:$Q$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1377">
   <si>
     <t>Nr</t>
   </si>
@@ -3230,9 +3230,6 @@
     <t>Aktueller Forschungsstand</t>
   </si>
   <si>
-    <t>Quellen ID</t>
-  </si>
-  <si>
     <t>Lösungsansätze</t>
   </si>
   <si>
@@ -3258,36 +3255,6 @@
   </si>
   <si>
     <t>Q02, Q04, Q06, Q07, Q10, Q17</t>
-  </si>
-  <si>
-    <t>Implementierungsdetails</t>
-  </si>
-  <si>
-    <t>OpenCV (C++)</t>
-  </si>
-  <si>
-    <t>Q03, Q10, Q17</t>
-  </si>
-  <si>
-    <t>Point Cloud Library (PCL)</t>
-  </si>
-  <si>
-    <t>3DF Zephyr</t>
-  </si>
-  <si>
-    <t>CNN / Faster R-CNN / Mask R-CNN</t>
-  </si>
-  <si>
-    <t>Q02, Q04, Q06</t>
-  </si>
-  <si>
-    <t>ARKit</t>
-  </si>
-  <si>
-    <t>eingesetzte Softwarebibliotheken und Frameworks zur 3D Rekonstruktion</t>
-  </si>
-  <si>
-    <t>Andere (inhaltlich nicht beschrieben)</t>
   </si>
   <si>
     <t>S15</t>
@@ -3388,9 +3355,6 @@
     <t>Die iOS App muss dem Endanwender zu erkennen geben, wie viele Bilder bereits an den Server zur Verarbeitung gesendet wurden.</t>
   </si>
   <si>
-    <t>Darstellung</t>
-  </si>
-  <si>
     <t>Die iOS App verfügt über eine Übersichtsansicht
 zur Auflistung aller gespeicherten Messergebnisse.</t>
   </si>
@@ -3414,12 +3378,6 @@
   </si>
   <si>
     <t>Die iOS App ermöglicht das Speichern von Messergebnissen inkl. Zeitstempel. Ebenso können gespeicherte Messergebnisse zu einem späteren Zeitpunkt abgerufen werden.</t>
-  </si>
-  <si>
-    <t>Funktion</t>
-  </si>
-  <si>
-    <t>Kernfunktion</t>
   </si>
   <si>
     <t>Die iOS App muss eine Ansicht zur Aufnahme von Bildern bereitstellen.</t>
@@ -4199,21 +4157,6 @@
 Objektrekonstruktion benötigt und gibt sie zusammen mit dem restlichen Messergebnis an den aufrufenden Client zurück.</t>
   </si>
   <si>
-    <t>Bearbeitungsiteration</t>
-  </si>
-  <si>
-    <t>Iteration 1</t>
-  </si>
-  <si>
-    <t>Iteration 2</t>
-  </si>
-  <si>
-    <t>Iteration 1 / 2</t>
-  </si>
-  <si>
-    <t>Iteration 3</t>
-  </si>
-  <si>
     <t>Der Drehteller wird eingeschaltet und per Fernbedienung
 in seine konfigurierte Ausgangsposition versetzt.</t>
   </si>
@@ -4386,13 +4329,109 @@
     <t>Kopie?</t>
   </si>
   <si>
-    <t>nein</t>
-  </si>
-  <si>
     <t>ja</t>
   </si>
   <si>
     <t>ISBN 978-3-030-34371-2</t>
+  </si>
+  <si>
+    <t>Surface/Volume</t>
+  </si>
+  <si>
+    <t>https://www.google.de/books/edition/Surface_Volume/FTOxEAAAQBAJ?hl=de&amp;gbpv=0</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Rubin, Alan E.</t>
+  </si>
+  <si>
+    <t>Springer Nature Switzerland</t>
+  </si>
+  <si>
+    <t>ISBN 9783031237492</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>ppcor_kim_2022_manual.pdf</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/ppcor/ppcor.pdf</t>
+  </si>
+  <si>
+    <t>Package ‘ppcor’</t>
+  </si>
+  <si>
+    <t>Kim, Seongho</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>Wickham, Hadley; Bryan, Jennifer</t>
+  </si>
+  <si>
+    <t>Wickham, Bryan</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/readxl/readxl.pdf</t>
+  </si>
+  <si>
+    <t>readxl_wickham_bryan_2023_manual.pdf</t>
+  </si>
+  <si>
+    <t>Package ‘readxl’</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/sjPlot/sjPlot.pdf</t>
+  </si>
+  <si>
+    <t>Package ‘sjPlot’</t>
+  </si>
+  <si>
+    <t>Lüdecke</t>
+  </si>
+  <si>
+    <t>Lüdecke, Daniel</t>
+  </si>
+  <si>
+    <t>73-75</t>
+  </si>
+  <si>
+    <t>sjPlot_lüdecke_2023_manual.pdf</t>
+  </si>
+  <si>
+    <t>2023_Mobile_Computer_Vision-Based_Applicatoins.pdf</t>
+  </si>
+  <si>
+    <t>Mobile Computer Vision-Based Applications for Food Recognition and Volume and Calorific Estimation: A Systematic Review</t>
+  </si>
+  <si>
+    <t>Amugongo, Lameck Mbangula; Kriebitz, Alexander; Boch, Auxane; Lütge, Christoph</t>
+  </si>
+  <si>
+    <t>Amugongo et al.</t>
+  </si>
+  <si>
+    <t>MDPI Healthcare, vol. 11, no. 1</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare11010059</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2227-9032/11/1/59</t>
+  </si>
+  <si>
+    <t>Quellen-ID (siehe Anhang X)</t>
   </si>
 </sst>
 </file>
@@ -4527,7 +4566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -4686,15 +4725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -4836,7 +4866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5090,24 +5120,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5115,22 +5129,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5139,31 +5150,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5181,46 +5189,43 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -5246,12 +5251,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5275,6 +5274,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5600,10 +5602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB0257-C51B-E14C-83D3-EA7E67364B51}">
-  <dimension ref="A1:T182"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B138" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView topLeftCell="N97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5634,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -5689,8 +5691,8 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="139" t="s">
-        <v>1361</v>
+      <c r="B2" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>16</v>
@@ -5746,8 +5748,8 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="139" t="s">
-        <v>1361</v>
+      <c r="B3" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>16</v>
@@ -5803,8 +5805,8 @@
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
-        <v>1361</v>
+      <c r="B4" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>16</v>
@@ -5861,7 +5863,7 @@
       <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>565</v>
       </c>
       <c r="Q5" s="15" t="str">
-        <f t="shared" ref="Q5:Q51" si="1">"Vgl. "&amp;J5&amp;" ("&amp;O5&amp;"), S. "&amp;P5&amp;"."</f>
+        <f t="shared" ref="Q5:Q43" si="1">"Vgl. "&amp;J5&amp;" ("&amp;O5&amp;"), S. "&amp;P5&amp;"."</f>
         <v>Vgl. Hevner et al. (2004), S. 75–105.</v>
       </c>
       <c r="R5" s="18" t="s">
@@ -6210,10 +6212,10 @@
         <v>15</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>15</v>
@@ -6248,31 +6250,31 @@
         <v>818</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="N12" s="21" t="s">
         <v>470</v>
@@ -6281,14 +6283,14 @@
         <v>2006</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Vgl. Petticrew, Roberts (2006), S. 74-74.</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -6303,31 +6305,31 @@
         <v>818</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="N13" s="21" t="s">
         <v>470</v>
@@ -6343,7 +6345,7 @@
         <v>Vgl. Petticrew, Roberts (2006), S. 74-75.</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -6358,31 +6360,31 @@
         <v>818</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="L14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="N14" s="21" t="s">
         <v>470</v>
@@ -6411,31 +6413,31 @@
         <v>818</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="L15" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="N15" s="21" t="s">
         <v>470</v>
@@ -6444,7 +6446,7 @@
         <v>2015</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6464,31 +6466,31 @@
         <v>818</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>470</v>
@@ -6497,7 +6499,7 @@
         <v>2015</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6517,31 +6519,31 @@
         <v>818</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="N17" s="21" t="s">
         <v>470</v>
@@ -6882,8 +6884,8 @@
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="140" t="s">
-        <v>1362</v>
+      <c r="B24" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>16</v>
@@ -6992,8 +6994,8 @@
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="140" t="s">
-        <v>1362</v>
+      <c r="B26" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>16</v>
@@ -7960,10 +7962,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>43</v>
-      </c>
-      <c r="B44" s="140" t="s">
-        <v>1362</v>
+        <v>144</v>
+      </c>
+      <c r="B44" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>16</v>
@@ -7971,19 +7973,19 @@
       <c r="D44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="18" t="s">
+      <c r="E44" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="I44" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="21" t="s">
@@ -7993,7 +7995,7 @@
         <v>90</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="M44" s="21" t="s">
         <v>90</v>
@@ -8004,11 +8006,11 @@
       <c r="O44" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="P44" s="21" t="s">
+      <c r="P44" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q44" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q44:Q75" si="2">"Vgl. "&amp;J44&amp;" ("&amp;O44&amp;"), S. "&amp;P44&amp;"."</f>
         <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
       </c>
       <c r="R44" s="18"/>
@@ -8061,7 +8063,7 @@
         <v>139</v>
       </c>
       <c r="Q45" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Do, Nguyen (2019), S. 139.</v>
       </c>
       <c r="R45" s="18"/>
@@ -8114,7 +8116,7 @@
         <v>100</v>
       </c>
       <c r="Q46" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Karunachandra, Herath (2020), S. 689-690.</v>
       </c>
       <c r="R46" s="18"/>
@@ -8167,7 +8169,7 @@
         <v>108</v>
       </c>
       <c r="Q47" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Ding, Levi (2021), S. 11-12.</v>
       </c>
       <c r="R47" s="18"/>
@@ -8220,7 +8222,7 @@
         <v>69</v>
       </c>
       <c r="Q48" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Do, Nguyen (2019), S. 139-140.</v>
       </c>
       <c r="R48" s="18"/>
@@ -8273,7 +8275,7 @@
         <v>69</v>
       </c>
       <c r="Q49" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Do, Nguyen (2019), S. 139-140.</v>
       </c>
       <c r="R49" s="18"/>
@@ -8282,8 +8284,8 @@
       <c r="A50" s="19">
         <v>49</v>
       </c>
-      <c r="B50" s="139" t="s">
-        <v>1361</v>
+      <c r="B50" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>16</v>
@@ -8328,7 +8330,7 @@
         <v>350</v>
       </c>
       <c r="Q50" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Statista (2019), S. o. S..</v>
       </c>
       <c r="R50" s="18" t="s">
@@ -8383,11 +8385,11 @@
         <v>143</v>
       </c>
       <c r="Q51" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Vgl. Szeliski (2022), S. 41, 43-46.</v>
       </c>
       <c r="R51" s="18" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -8438,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="15" t="str">
-        <f>"Vgl. "&amp;J52&amp;" ("&amp;O52&amp;"), S. "&amp;P52&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Victor, Neigel (2021), S. 1.</v>
       </c>
       <c r="R52" s="18"/>
@@ -8491,7 +8493,7 @@
         <v>1959</v>
       </c>
       <c r="Q53" s="21" t="str">
-        <f>"Vgl. "&amp;J53&amp;" ("&amp;O53&amp;"), S. "&amp;P53&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Xu, Zhang (2020), S. 1959.</v>
       </c>
       <c r="R53" s="18"/>
@@ -8544,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="Q54" s="21" t="str">
-        <f>"Vgl. "&amp;J54&amp;" ("&amp;O54&amp;"), S. "&amp;P54&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Chandrashekar et al. (2021), S. 2.</v>
       </c>
       <c r="R54" s="18"/>
@@ -8597,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="15" t="str">
-        <f>"Vgl. "&amp;J55&amp;" ("&amp;O55&amp;"), S. "&amp;P55&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Tao, Xiang, You (2022), S. 1.</v>
       </c>
       <c r="R55" s="18"/>
@@ -8650,7 +8652,7 @@
         <v>176</v>
       </c>
       <c r="Q56" s="15" t="str">
-        <f>"Vgl. "&amp;J56&amp;" ("&amp;O56&amp;"), S. "&amp;P56&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1.</v>
       </c>
       <c r="R56" s="18"/>
@@ -8703,7 +8705,7 @@
         <v>182</v>
       </c>
       <c r="Q57" s="15" t="str">
-        <f>"Vgl. "&amp;J57&amp;" ("&amp;O57&amp;"), S. "&amp;P57&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 3.</v>
       </c>
       <c r="R57" s="18"/>
@@ -8756,7 +8758,7 @@
         <v>173</v>
       </c>
       <c r="Q58" s="15" t="str">
-        <f>"Vgl. "&amp;J58&amp;" ("&amp;O58&amp;"), S. "&amp;P58&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 25.</v>
       </c>
       <c r="R58" s="18"/>
@@ -8809,7 +8811,7 @@
         <v>177</v>
       </c>
       <c r="Q59" s="15" t="str">
-        <f>"Vgl. "&amp;J59&amp;" ("&amp;O59&amp;"), S. "&amp;P59&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 1-2, 10-13, 16.</v>
       </c>
       <c r="R59" s="18"/>
@@ -8862,7 +8864,7 @@
         <v>25</v>
       </c>
       <c r="Q60" s="15" t="str">
-        <f>"Vgl. "&amp;J60&amp;" ("&amp;O60&amp;"), S. "&amp;P60&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1-2.</v>
       </c>
       <c r="R60" s="18"/>
@@ -8915,7 +8917,7 @@
         <v>176</v>
       </c>
       <c r="Q61" s="15" t="str">
-        <f>"Vgl. "&amp;J61&amp;" ("&amp;O61&amp;"), S. "&amp;P61&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1.</v>
       </c>
       <c r="R61" s="18"/>
@@ -8968,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="Q62" s="15" t="str">
-        <f>"Vgl. "&amp;J62&amp;" ("&amp;O62&amp;"), S. "&amp;P62&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 3.</v>
       </c>
       <c r="R62" s="18"/>
@@ -9021,7 +9023,7 @@
         <v>178</v>
       </c>
       <c r="Q63" s="15" t="str">
-        <f>"Vgl. "&amp;J63&amp;" ("&amp;O63&amp;"), S. "&amp;P63&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1-3.</v>
       </c>
       <c r="R63" s="18"/>
@@ -9074,7 +9076,7 @@
         <v>179</v>
       </c>
       <c r="Q64" s="15" t="str">
-        <f>"Vgl. "&amp;J64&amp;" ("&amp;O64&amp;"), S. "&amp;P64&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 14-16.</v>
       </c>
       <c r="R64" s="18"/>
@@ -9127,7 +9129,7 @@
         <v>180</v>
       </c>
       <c r="Q65" s="15" t="str">
-        <f>"Vgl. "&amp;J65&amp;" ("&amp;O65&amp;"), S. "&amp;P65&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 1-3, 14-17.</v>
       </c>
       <c r="R65" s="18"/>
@@ -9180,7 +9182,7 @@
         <v>181</v>
       </c>
       <c r="Q66" s="15" t="str">
-        <f>"Vgl. "&amp;J66&amp;" ("&amp;O66&amp;"), S. "&amp;P66&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 2-3.</v>
       </c>
       <c r="R66" s="18"/>
@@ -9233,7 +9235,7 @@
         <v>178</v>
       </c>
       <c r="Q67" s="15" t="str">
-        <f>"Vgl. "&amp;J67&amp;" ("&amp;O67&amp;"), S. "&amp;P67&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 1-3.</v>
       </c>
       <c r="R67" s="18"/>
@@ -9286,7 +9288,7 @@
         <v>182</v>
       </c>
       <c r="Q68" s="15" t="str">
-        <f>"Vgl. "&amp;J68&amp;" ("&amp;O68&amp;"), S. "&amp;P68&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (1999), S. 3.</v>
       </c>
       <c r="R68" s="18"/>
@@ -9339,7 +9341,7 @@
         <v>950</v>
       </c>
       <c r="Q69" s="15" t="str">
-        <f>"Vgl. "&amp;J69&amp;" ("&amp;O69&amp;"), S. "&amp;P69&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Luhmann et al. (2019), S. 502-503.</v>
       </c>
       <c r="R69" s="18"/>
@@ -9392,7 +9394,7 @@
         <v>676</v>
       </c>
       <c r="Q70" s="15" t="str">
-        <f>"Vgl. "&amp;J70&amp;" ("&amp;O70&amp;"), S. "&amp;P70&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Lowe (2004), S. 2, 13-16.</v>
       </c>
       <c r="R70" s="18"/>
@@ -9445,7 +9447,7 @@
         <v>215</v>
       </c>
       <c r="Q71" s="15" t="str">
-        <f>"Vgl. "&amp;J71&amp;" ("&amp;O71&amp;"), S. "&amp;P71&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Jain, Kasturi, Schunck (1995), S. 289-290.</v>
       </c>
       <c r="R71" s="18" t="s">
@@ -9500,7 +9502,7 @@
         <v>206</v>
       </c>
       <c r="Q72" s="15" t="str">
-        <f>"Vgl. "&amp;J72&amp;" ("&amp;O72&amp;"), S. "&amp;P72&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Zhang (2021), S. 1335-1336.</v>
       </c>
       <c r="R72" s="18"/>
@@ -9553,7 +9555,7 @@
         <v>213</v>
       </c>
       <c r="Q73" s="15" t="str">
-        <f>"Vgl. "&amp;J73&amp;" ("&amp;O73&amp;"), S. "&amp;P73&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Zhang (2021), S. 1336.</v>
       </c>
       <c r="R73" s="18"/>
@@ -9606,7 +9608,7 @@
         <v>213</v>
       </c>
       <c r="Q74" s="15" t="str">
-        <f>"Vgl. "&amp;J74&amp;" ("&amp;O74&amp;"), S. "&amp;P74&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Zhang (2021), S. 1336.</v>
       </c>
       <c r="R74" s="18"/>
@@ -9659,7 +9661,7 @@
         <v>677</v>
       </c>
       <c r="Q75" s="15" t="str">
-        <f>"Vgl. "&amp;J75&amp;" ("&amp;O75&amp;"), S. "&amp;P75&amp;"."</f>
+        <f t="shared" si="2"/>
         <v>Vgl. Adil, Mikou, Mouhsen (2022), S. 179-181.</v>
       </c>
       <c r="R75" s="18" t="s">
@@ -9714,7 +9716,7 @@
         <v>216</v>
       </c>
       <c r="Q76" s="15" t="str">
-        <f>"Vgl. "&amp;J76&amp;" ("&amp;O76&amp;"), S. "&amp;P76&amp;"."</f>
+        <f t="shared" ref="Q76:Q107" si="3">"Vgl. "&amp;J76&amp;" ("&amp;O76&amp;"), S. "&amp;P76&amp;"."</f>
         <v>Vgl. Jain, Kasturi, Schunck (1995), S. 291.</v>
       </c>
       <c r="R76" s="18"/>
@@ -9767,7 +9769,7 @@
         <v>176</v>
       </c>
       <c r="Q77" s="15" t="str">
-        <f>"Vgl. "&amp;J77&amp;" ("&amp;O77&amp;"), S. "&amp;P77&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Jang et al. (2022), S. 1.</v>
       </c>
       <c r="R77" s="18"/>
@@ -9820,7 +9822,7 @@
         <v>176</v>
       </c>
       <c r="Q78" s="15" t="str">
-        <f>"Vgl. "&amp;J78&amp;" ("&amp;O78&amp;"), S. "&amp;P78&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Jang et al. (2022), S. 1.</v>
       </c>
       <c r="R78" s="18"/>
@@ -9873,7 +9875,7 @@
         <v>239</v>
       </c>
       <c r="Q79" s="15" t="str">
-        <f>"Vgl. "&amp;J79&amp;" ("&amp;O79&amp;"), S. "&amp;P79&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Wang et al. (2022), S. 26273-26274.</v>
       </c>
       <c r="R79" s="18"/>
@@ -9926,7 +9928,7 @@
         <v>244</v>
       </c>
       <c r="Q80" s="15" t="str">
-        <f>"Vgl. "&amp;J80&amp;" ("&amp;O80&amp;"), S. "&amp;P80&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Xie et al. (2021), S. 136.</v>
       </c>
       <c r="R80" s="18"/>
@@ -9979,7 +9981,7 @@
         <v>240</v>
       </c>
       <c r="Q81" s="15" t="str">
-        <f>"Vgl. "&amp;J81&amp;" ("&amp;O81&amp;"), S. "&amp;P81&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Wang et al. (2022), S. 26274.</v>
       </c>
       <c r="R81" s="18"/>
@@ -10032,7 +10034,7 @@
         <v>254</v>
       </c>
       <c r="Q82" s="15" t="str">
-        <f>"Vgl. "&amp;J82&amp;" ("&amp;O82&amp;"), S. "&amp;P82&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Besl, McKay (1992), S. 239-255.</v>
       </c>
       <c r="R82" s="18"/>
@@ -10085,7 +10087,7 @@
         <v>255</v>
       </c>
       <c r="Q83" s="15" t="str">
-        <f>"Vgl. "&amp;J83&amp;" ("&amp;O83&amp;"), S. "&amp;P83&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Xie et al. (2021), S. 138.</v>
       </c>
       <c r="R83" s="18"/>
@@ -10138,7 +10140,7 @@
         <v>75</v>
       </c>
       <c r="Q84" s="15" t="str">
-        <f>"Vgl. "&amp;J84&amp;" ("&amp;O84&amp;"), S. "&amp;P84&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Mukundan (2022), S. 6-7.</v>
       </c>
       <c r="R84" s="18" t="s">
@@ -10193,7 +10195,7 @@
         <v>279</v>
       </c>
       <c r="Q85" s="15" t="str">
-        <f t="shared" ref="Q85:Q113" si="2">"Vgl. "&amp;J85&amp;" ("&amp;O85&amp;"), S. "&amp;P85&amp;"."</f>
+        <f t="shared" si="3"/>
         <v>Vgl. Mukundan (2022), S. 6-7, 11-12.</v>
       </c>
       <c r="R85" s="18" t="s">
@@ -10248,7 +10250,7 @@
         <v>272</v>
       </c>
       <c r="Q86" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Bunge, Botsch, Alexa (2021), S. 217.</v>
       </c>
       <c r="R86" s="18"/>
@@ -10301,7 +10303,7 @@
         <v>280</v>
       </c>
       <c r="Q87" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Mukundan (2022), S. 9-11.</v>
       </c>
       <c r="R87" s="18" t="s">
@@ -10356,7 +10358,7 @@
         <v>292</v>
       </c>
       <c r="Q88" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Arndt et al. (2015), S. 198.</v>
       </c>
       <c r="R88" s="18"/>
@@ -10409,7 +10411,7 @@
         <v>281</v>
       </c>
       <c r="Q89" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R89" s="18"/>
@@ -10462,7 +10464,7 @@
         <v>291</v>
       </c>
       <c r="Q90" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-800.</v>
       </c>
       <c r="R90" s="18"/>
@@ -10515,7 +10517,7 @@
         <v>297</v>
       </c>
       <c r="Q91" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-794.</v>
       </c>
       <c r="R91" s="18"/>
@@ -10568,7 +10570,7 @@
         <v>297</v>
       </c>
       <c r="Q92" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Delaunay (1934), S. 793-794.</v>
       </c>
       <c r="R92" s="18"/>
@@ -10621,7 +10623,7 @@
         <v>321</v>
       </c>
       <c r="Q93" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Bowyer (1981), S. 162, 165-166.</v>
       </c>
       <c r="R93" s="18"/>
@@ -10674,7 +10676,7 @@
         <v>299</v>
       </c>
       <c r="Q94" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 4-5.</v>
       </c>
       <c r="R94" s="18"/>
@@ -10727,7 +10729,7 @@
         <v>312</v>
       </c>
       <c r="Q95" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Bowyer (1981), S. 162-166.</v>
       </c>
       <c r="R95" s="18"/>
@@ -10780,7 +10782,7 @@
         <v>320</v>
       </c>
       <c r="Q96" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Watson (1981), S. 167-172.</v>
       </c>
       <c r="R96" s="18"/>
@@ -10833,7 +10835,7 @@
         <v>322</v>
       </c>
       <c r="Q97" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 4.</v>
       </c>
       <c r="R97" s="18"/>
@@ -10886,7 +10888,7 @@
         <v>281</v>
       </c>
       <c r="Q98" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R98" s="18"/>
@@ -10939,7 +10941,7 @@
         <v>281</v>
       </c>
       <c r="Q99" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R99" s="18"/>
@@ -10992,7 +10994,7 @@
         <v>344</v>
       </c>
       <c r="Q100" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Liu, Zheng (2021), S. 4, 6-7.</v>
       </c>
       <c r="R100" s="18"/>
@@ -11045,7 +11047,7 @@
         <v>281</v>
       </c>
       <c r="Q101" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R101" s="18"/>
@@ -11098,7 +11100,7 @@
         <v>281</v>
       </c>
       <c r="Q102" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R102" s="18"/>
@@ -11151,7 +11153,7 @@
         <v>327</v>
       </c>
       <c r="Q103" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Sloan, Houlsby (1984), S. 193-194.</v>
       </c>
       <c r="R103" s="18"/>
@@ -11204,7 +11206,7 @@
         <v>327</v>
       </c>
       <c r="Q104" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Sloan, Houlsby (1984), S. 193-194.</v>
       </c>
       <c r="R104" s="18"/>
@@ -11257,7 +11259,7 @@
         <v>281</v>
       </c>
       <c r="Q105" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R105" s="18"/>
@@ -11310,7 +11312,7 @@
         <v>281</v>
       </c>
       <c r="Q106" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Du et al. (2022), S. 627.</v>
       </c>
       <c r="R106" s="18"/>
@@ -11363,7 +11365,7 @@
         <v>331</v>
       </c>
       <c r="Q107" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Vgl. Sloan, Houlsby (1984), S. 194.</v>
       </c>
       <c r="R107" s="18"/>
@@ -11416,7 +11418,7 @@
         <v>332</v>
       </c>
       <c r="Q108" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q108:Q139" si="4">"Vgl. "&amp;J108&amp;" ("&amp;O108&amp;"), S. "&amp;P108&amp;"."</f>
         <v>Vgl. Bowyer (1981), S. 162-163.</v>
       </c>
       <c r="R108" s="18"/>
@@ -11469,7 +11471,7 @@
         <v>353</v>
       </c>
       <c r="Q109" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vgl. Delaunay (1934), S. 793-796.</v>
       </c>
       <c r="R109" s="18"/>
@@ -11522,7 +11524,7 @@
         <v>182</v>
       </c>
       <c r="Q110" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vgl. Liu, Zheng (2021), S. 3.</v>
       </c>
       <c r="R110" s="18"/>
@@ -11575,7 +11577,7 @@
         <v>182</v>
       </c>
       <c r="Q111" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vgl. Liu, Zheng (2021), S. 3.</v>
       </c>
       <c r="R111" s="18"/>
@@ -11628,7 +11630,7 @@
         <v>370</v>
       </c>
       <c r="Q112" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vgl. Brzeziński et al. (2022), S. 7-8.</v>
       </c>
       <c r="R112" s="18"/>
@@ -11681,7 +11683,7 @@
         <v>361</v>
       </c>
       <c r="Q113" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vgl. Concha-Meyer et al. (2018), S. 1868-1869.</v>
       </c>
       <c r="R113" s="18"/>
@@ -11734,7 +11736,7 @@
         <v>25</v>
       </c>
       <c r="Q114" s="15" t="str">
-        <f>"Vgl. "&amp;J114&amp;" ("&amp;O114&amp;"), S. "&amp;P114&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Raju, Sazonov (2022), S. 1-2.</v>
       </c>
       <c r="R114" s="18"/>
@@ -11787,7 +11789,7 @@
         <v>885</v>
       </c>
       <c r="Q115" s="15" t="str">
-        <f>"Vgl. "&amp;J115&amp;" ("&amp;O115&amp;"), S. "&amp;P115&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Amoutzopoulos et al. (2020), S. 885.</v>
       </c>
       <c r="R115" s="18"/>
@@ -11840,7 +11842,7 @@
         <v>178</v>
       </c>
       <c r="Q116" s="15" t="str">
-        <f>"Vgl. "&amp;J116&amp;" ("&amp;O116&amp;"), S. "&amp;P116&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Tahir, Loo (2021), S. 1-3.</v>
       </c>
       <c r="R116" s="18"/>
@@ -11893,7 +11895,7 @@
         <v>176</v>
       </c>
       <c r="Q117" s="15" t="str">
-        <f>"Vgl. "&amp;J117&amp;" ("&amp;O117&amp;"), S. "&amp;P117&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Raju, Sazonov (2022), S. 1.</v>
       </c>
       <c r="R117" s="18"/>
@@ -11946,7 +11948,7 @@
         <v>176</v>
       </c>
       <c r="Q118" s="15" t="str">
-        <f>"Vgl. "&amp;J118&amp;" ("&amp;O118&amp;"), S. "&amp;P118&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Tahir, Loo (2021), S. 1.</v>
       </c>
       <c r="R118" s="18"/>
@@ -11999,7 +12001,7 @@
         <v>423</v>
       </c>
       <c r="Q119" s="15" t="str">
-        <f>"Vgl. "&amp;J119&amp;" ("&amp;O119&amp;"), S. "&amp;P119&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5-6.</v>
       </c>
       <c r="R119" s="18"/>
@@ -12052,7 +12054,7 @@
         <v>424</v>
       </c>
       <c r="Q120" s="15" t="str">
-        <f>"Vgl. "&amp;J120&amp;" ("&amp;O120&amp;"), S. "&amp;P120&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5-10.</v>
       </c>
       <c r="R120" s="18"/>
@@ -12105,7 +12107,7 @@
         <v>423</v>
       </c>
       <c r="Q121" s="15" t="str">
-        <f>"Vgl. "&amp;J121&amp;" ("&amp;O121&amp;"), S. "&amp;P121&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5-6.</v>
       </c>
       <c r="R121" s="18"/>
@@ -12158,7 +12160,7 @@
         <v>678</v>
       </c>
       <c r="Q122" s="15" t="str">
-        <f>"Vgl. "&amp;J122&amp;" ("&amp;O122&amp;"), S. "&amp;P122&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5-8.</v>
       </c>
       <c r="R122" s="18"/>
@@ -12211,7 +12213,7 @@
         <v>452</v>
       </c>
       <c r="Q123" s="15" t="str">
-        <f>"Vgl. "&amp;J123&amp;" ("&amp;O123&amp;"), S. "&amp;P123&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lam et al. (2021), S. 695-707.</v>
       </c>
       <c r="R123" s="18"/>
@@ -12264,7 +12266,7 @@
         <v>460</v>
       </c>
       <c r="Q124" s="15" t="str">
-        <f>"Vgl. "&amp;J124&amp;" ("&amp;O124&amp;"), S. "&amp;P124&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Naritomi, Yanai (2020), S. 818-819.</v>
       </c>
       <c r="R124" s="18"/>
@@ -12317,7 +12319,7 @@
         <v>425</v>
       </c>
       <c r="Q125" s="15" t="str">
-        <f>"Vgl. "&amp;J125&amp;" ("&amp;O125&amp;"), S. "&amp;P125&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5.</v>
       </c>
       <c r="R125" s="18"/>
@@ -12370,7 +12372,7 @@
         <v>425</v>
       </c>
       <c r="Q126" s="15" t="str">
-        <f>"Vgl. "&amp;J126&amp;" ("&amp;O126&amp;"), S. "&amp;P126&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5.</v>
       </c>
       <c r="R126" s="18"/>
@@ -12423,7 +12425,7 @@
         <v>461</v>
       </c>
       <c r="Q127" s="15" t="str">
-        <f>"Vgl. "&amp;J127&amp;" ("&amp;O127&amp;"), S. "&amp;P127&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 8-9.</v>
       </c>
       <c r="R127" s="18"/>
@@ -12476,7 +12478,7 @@
         <v>468</v>
       </c>
       <c r="Q128" s="15" t="str">
-        <f>"Vgl. "&amp;J128&amp;" ("&amp;O128&amp;"), S. "&amp;P128&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Okamoto, Yanai (2016), S. 63-70.</v>
       </c>
       <c r="R128" s="18"/>
@@ -12529,7 +12531,7 @@
         <v>461</v>
       </c>
       <c r="Q129" s="15" t="str">
-        <f>"Vgl. "&amp;J129&amp;" ("&amp;O129&amp;"), S. "&amp;P129&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 8-9.</v>
       </c>
       <c r="R129" s="18"/>
@@ -12582,7 +12584,7 @@
         <v>475</v>
       </c>
       <c r="Q130" s="15" t="str">
-        <f>"Vgl. "&amp;J130&amp;" ("&amp;O130&amp;"), S. "&amp;P130&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Jia et al. (2012), S. 76-86.</v>
       </c>
       <c r="R130" s="18"/>
@@ -12635,7 +12637,7 @@
         <v>425</v>
       </c>
       <c r="Q131" s="15" t="str">
-        <f>"Vgl. "&amp;J131&amp;" ("&amp;O131&amp;"), S. "&amp;P131&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5.</v>
       </c>
       <c r="R131" s="18"/>
@@ -12688,7 +12690,7 @@
         <v>477</v>
       </c>
       <c r="Q132" s="15" t="str">
-        <f>"Vgl. "&amp;J132&amp;" ("&amp;O132&amp;"), S. "&amp;P132&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5, 6-8.</v>
       </c>
       <c r="R132" s="18"/>
@@ -12741,7 +12743,7 @@
         <v>484</v>
       </c>
       <c r="Q133" s="15" t="str">
-        <f>"Vgl. "&amp;J133&amp;" ("&amp;O133&amp;"), S. "&amp;P133&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Qin et al. (2022), S. 1-16.</v>
       </c>
       <c r="R133" s="18"/>
@@ -12794,7 +12796,7 @@
         <v>935</v>
       </c>
       <c r="Q134" s="20" t="str">
-        <f>"Vgl. "&amp;J134&amp;" ("&amp;O134&amp;"), S. "&amp;P134&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Ando et al. (2019), S. 76–81.</v>
       </c>
       <c r="R134" s="18"/>
@@ -12847,7 +12849,7 @@
         <v>494</v>
       </c>
       <c r="Q135" s="15" t="str">
-        <f>"Vgl. "&amp;J135&amp;" ("&amp;O135&amp;"), S. "&amp;P135&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Deshmukh, Metre, Pawar (2021), S. 420-421.</v>
       </c>
       <c r="R135" s="18"/>
@@ -12900,7 +12902,7 @@
         <v>495</v>
       </c>
       <c r="Q136" s="15" t="str">
-        <f>"Vgl. "&amp;J136&amp;" ("&amp;O136&amp;"), S. "&amp;P136&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Deshmukh, Metre, Pawar (2021), S. 418-420.</v>
       </c>
       <c r="R136" s="18"/>
@@ -12953,7 +12955,7 @@
         <v>679</v>
       </c>
       <c r="Q137" s="15" t="str">
-        <f>"Vgl. "&amp;J137&amp;" ("&amp;O137&amp;"), S. "&amp;P137&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 5-6, 9-10.</v>
       </c>
       <c r="R137" s="18"/>
@@ -13006,7 +13008,7 @@
         <v>498</v>
       </c>
       <c r="Q138" s="15" t="str">
-        <f>"Vgl. "&amp;J138&amp;" ("&amp;O138&amp;"), S. "&amp;P138&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Deshmukh, Metre, Pawar (2021), S. 418-422.</v>
       </c>
       <c r="R138" s="18"/>
@@ -13059,7 +13061,7 @@
         <v>503</v>
       </c>
       <c r="Q139" s="15" t="str">
-        <f t="shared" ref="Q139:Q151" si="3">"Vgl. "&amp;J139&amp;" ("&amp;O139&amp;"), S. "&amp;P139&amp;"."</f>
+        <f t="shared" si="4"/>
         <v>Vgl. Lo et al. (2020), S. 577-586.</v>
       </c>
       <c r="R139" s="18"/>
@@ -13112,7 +13114,7 @@
         <v>944</v>
       </c>
       <c r="Q140" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q140:Q171" si="5">"Vgl. "&amp;J140&amp;" ("&amp;O140&amp;"), S. "&amp;P140&amp;"."</f>
         <v>Vgl. Tanno, Ege, Yanai (2018), S. 46-47.</v>
       </c>
       <c r="R140" s="18"/>
@@ -13165,7 +13167,7 @@
         <v>426</v>
       </c>
       <c r="Q141" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Lo et al. (2020), S. 5-7.</v>
       </c>
       <c r="R141" s="18"/>
@@ -13218,7 +13220,7 @@
         <v>434</v>
       </c>
       <c r="Q142" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Konstantakopoulos, Georga, Fotiadis (2021), S. 1-4.</v>
       </c>
       <c r="R142" s="18"/>
@@ -13271,7 +13273,7 @@
         <v>441</v>
       </c>
       <c r="Q143" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Bándi et al. (2020), S. 55-60.</v>
       </c>
       <c r="R143" s="18"/>
@@ -13324,17 +13326,17 @@
         <v>987</v>
       </c>
       <c r="Q144" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Dehais et al. (2018), S. 1090-1099.</v>
       </c>
       <c r="R144" s="18"/>
     </row>
     <row r="145" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
-        <v>144</v>
-      </c>
-      <c r="B145" s="140" t="s">
-        <v>1362</v>
+        <v>43</v>
+      </c>
+      <c r="B145" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>16</v>
@@ -13342,19 +13344,19 @@
       <c r="D145" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="F145" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="H145" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="I145" s="50" t="s">
+      <c r="E145" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I145" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J145" s="21" t="s">
@@ -13364,7 +13366,7 @@
         <v>90</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="M145" s="21" t="s">
         <v>90</v>
@@ -13373,14 +13375,14 @@
         <v>90</v>
       </c>
       <c r="O145" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="P145" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="P145" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q145" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R145" s="18"/>
     </row>
@@ -13388,8 +13390,8 @@
       <c r="A146" s="19">
         <v>145</v>
       </c>
-      <c r="B146" s="140" t="s">
-        <v>1362</v>
+      <c r="B146" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>16</v>
@@ -13428,23 +13430,23 @@
         <v>90</v>
       </c>
       <c r="O146" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P146" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q146" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R146" s="18"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="25">
-        <v>146</v>
-      </c>
-      <c r="B147" s="140" t="s">
-        <v>1362</v>
+        <v>151</v>
+      </c>
+      <c r="B147" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>16</v>
@@ -13453,16 +13455,16 @@
         <v>15</v>
       </c>
       <c r="E147" s="34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F147" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I147" s="50" t="s">
         <v>15</v>
@@ -13489,7 +13491,7 @@
         <v>350</v>
       </c>
       <c r="Q147" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R147" s="18"/>
@@ -13542,7 +13544,7 @@
         <v>392</v>
       </c>
       <c r="Q148" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Sutherland (1968), S. 757-764.</v>
       </c>
       <c r="R148" s="47" t="s">
@@ -13597,17 +13599,17 @@
         <v>25</v>
       </c>
       <c r="Q149" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Arena et al. (2022), S. 1-2.</v>
       </c>
       <c r="R149" s="18"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
-        <v>149</v>
-      </c>
-      <c r="B150" s="140" t="s">
-        <v>1362</v>
+        <v>153</v>
+      </c>
+      <c r="B150" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>16</v>
@@ -13615,19 +13617,19 @@
       <c r="D150" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="H150" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="I150" s="50" t="s">
+      <c r="E150" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I150" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J150" s="21" t="s">
@@ -13637,7 +13639,7 @@
         <v>90</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>379</v>
+        <v>1238</v>
       </c>
       <c r="M150" s="21" t="s">
         <v>90</v>
@@ -13646,23 +13648,23 @@
         <v>90</v>
       </c>
       <c r="O150" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="P150" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="P150" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q150" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R150" s="18"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="25">
-        <v>150</v>
-      </c>
-      <c r="B151" s="140" t="s">
-        <v>1362</v>
+        <v>155</v>
+      </c>
+      <c r="B151" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>16</v>
@@ -13670,19 +13672,19 @@
       <c r="D151" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E151" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="F151" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="H151" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="I151" s="50" t="s">
+      <c r="E151" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I151" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J151" s="21" t="s">
@@ -13692,7 +13694,7 @@
         <v>90</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>379</v>
+        <v>1238</v>
       </c>
       <c r="M151" s="21" t="s">
         <v>90</v>
@@ -13701,23 +13703,23 @@
         <v>90</v>
       </c>
       <c r="O151" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="P151" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="P151" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q151" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R151" s="18"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
-        <v>151</v>
-      </c>
-      <c r="B152" s="140" t="s">
-        <v>1362</v>
+        <v>165</v>
+      </c>
+      <c r="B152" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>16</v>
@@ -13725,19 +13727,19 @@
       <c r="D152" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E152" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" s="21" t="s">
+      <c r="E152" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H152" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="I152" s="50" t="s">
+      <c r="H152" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I152" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J152" s="21" t="s">
@@ -13747,7 +13749,7 @@
         <v>90</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>379</v>
+        <v>1238</v>
       </c>
       <c r="M152" s="21" t="s">
         <v>90</v>
@@ -13756,14 +13758,14 @@
         <v>90</v>
       </c>
       <c r="O152" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="P152" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="P152" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q152" s="15" t="str">
-        <f t="shared" ref="Q152:Q158" si="4">"Vgl. "&amp;J152&amp;" ("&amp;O152&amp;"), S. "&amp;P152&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R152" s="18"/>
     </row>
@@ -13782,13 +13784,13 @@
         <v>15</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="H153" s="21" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="I153" s="50" t="s">
         <v>15</v>
@@ -13803,31 +13805,31 @@
         <v>15</v>
       </c>
       <c r="M153" s="21" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="N153" s="21" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="O153" s="19">
         <v>2020</v>
       </c>
       <c r="P153" s="21" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="Q153" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Sommerville (2020), S. 183-185.</v>
       </c>
       <c r="R153" s="18" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
-        <v>153</v>
-      </c>
-      <c r="B154" s="140" t="s">
-        <v>1362</v>
+        <v>170</v>
+      </c>
+      <c r="B154" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>16</v>
@@ -13857,7 +13859,7 @@
         <v>90</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M154" s="21" t="s">
         <v>90</v>
@@ -13866,14 +13868,14 @@
         <v>90</v>
       </c>
       <c r="O154" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P154" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q154" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R154" s="18"/>
     </row>
@@ -13881,8 +13883,8 @@
       <c r="A155" s="19">
         <v>154</v>
       </c>
-      <c r="B155" s="140" t="s">
-        <v>1362</v>
+      <c r="B155" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>16</v>
@@ -13891,13 +13893,13 @@
         <v>15</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>1312</v>
+        <v>1293</v>
       </c>
       <c r="F155" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
       <c r="H155" s="21" t="s">
         <v>15</v>
@@ -13906,19 +13908,19 @@
         <v>15</v>
       </c>
       <c r="J155" s="21" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="L155" s="22" t="s">
         <v>34</v>
       </c>
       <c r="M155" s="21" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="N155" s="21" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
       <c r="O155" s="19">
         <v>2023</v>
@@ -13927,17 +13929,17 @@
         <v>350</v>
       </c>
       <c r="Q155" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Vgl. Amazon.com, Inc. (2023), S. o. S..</v>
       </c>
       <c r="R155" s="18"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
-        <v>155</v>
-      </c>
-      <c r="B156" s="140" t="s">
-        <v>1362</v>
+        <v>176</v>
+      </c>
+      <c r="B156" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>16</v>
@@ -13967,7 +13969,7 @@
         <v>90</v>
       </c>
       <c r="L156" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M156" s="21" t="s">
         <v>90</v>
@@ -13976,23 +13978,23 @@
         <v>90</v>
       </c>
       <c r="O156" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P156" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q156" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R156" s="18"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="25">
-        <v>156</v>
-      </c>
-      <c r="B157" s="140" t="s">
-        <v>1362</v>
+        <v>177</v>
+      </c>
+      <c r="B157" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>16</v>
@@ -14000,19 +14002,19 @@
       <c r="D157" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="34" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F157" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" s="21" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H157" s="21" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I157" s="50" t="s">
+      <c r="E157" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I157" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J157" s="21" t="s">
@@ -14022,7 +14024,7 @@
         <v>90</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="M157" s="21" t="s">
         <v>90</v>
@@ -14031,23 +14033,23 @@
         <v>90</v>
       </c>
       <c r="O157" s="19" t="s">
-        <v>1257</v>
+        <v>682</v>
       </c>
       <c r="P157" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q157" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>Vgl. Apple Inc. (2023e), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R157" s="18"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
-        <v>157</v>
-      </c>
-      <c r="B158" s="140" t="s">
-        <v>1362</v>
+        <v>178</v>
+      </c>
+      <c r="B158" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>16</v>
@@ -14055,19 +14057,19 @@
       <c r="D158" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="34" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="21" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H158" s="21" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I158" s="50" t="s">
+      <c r="E158" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I158" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J158" s="21" t="s">
@@ -14077,7 +14079,7 @@
         <v>90</v>
       </c>
       <c r="L158" s="22" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="M158" s="21" t="s">
         <v>90</v>
@@ -14086,23 +14088,23 @@
         <v>90</v>
       </c>
       <c r="O158" s="19" t="s">
-        <v>1260</v>
+        <v>682</v>
       </c>
       <c r="P158" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q158" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>Vgl. Apple Inc. (2023f), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R158" s="18"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="25">
-        <v>158</v>
-      </c>
-      <c r="B159" s="140" t="s">
-        <v>1362</v>
+        <v>179</v>
+      </c>
+      <c r="B159" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C159" s="19" t="s">
         <v>16</v>
@@ -14110,19 +14112,19 @@
       <c r="D159" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="F159" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="H159" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="I159" s="50" t="s">
+      <c r="E159" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I159" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J159" s="21" t="s">
@@ -14132,7 +14134,7 @@
         <v>90</v>
       </c>
       <c r="L159" s="22" t="s">
-        <v>379</v>
+        <v>1238</v>
       </c>
       <c r="M159" s="21" t="s">
         <v>90</v>
@@ -14141,23 +14143,23 @@
         <v>90</v>
       </c>
       <c r="O159" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="P159" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="P159" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q159" s="15" t="str">
-        <f t="shared" ref="Q159:Q170" si="5">"Vgl. "&amp;J159&amp;" ("&amp;O159&amp;"), S. "&amp;P159&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023c), S. o. S..</v>
       </c>
       <c r="R159" s="18"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
-        <v>159</v>
-      </c>
-      <c r="B160" s="140" t="s">
-        <v>1362</v>
+        <v>146</v>
+      </c>
+      <c r="B160" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>16</v>
@@ -14166,16 +14168,16 @@
         <v>15</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F160" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H160" s="21" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I160" s="50" t="s">
         <v>15</v>
@@ -14219,34 +14221,34 @@
         <v>15</v>
       </c>
       <c r="E161" s="34" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="F161" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="H161" s="21" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="I161" s="50" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="K161" s="21" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="L161" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M161" s="21" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="N161" s="21" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="O161" s="19">
         <v>2019</v>
@@ -14264,8 +14266,8 @@
       <c r="A162" s="19">
         <v>161</v>
       </c>
-      <c r="B162" s="140" t="s">
-        <v>1362</v>
+      <c r="B162" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>16</v>
@@ -14274,28 +14276,28 @@
         <v>15</v>
       </c>
       <c r="E162" s="34" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="F162" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="H162" s="21" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="I162" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="K162" s="21" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="M162" s="21" t="s">
         <v>15</v>
@@ -14319,8 +14321,8 @@
       <c r="A163" s="19">
         <v>162</v>
       </c>
-      <c r="B163" s="140" t="s">
-        <v>1362</v>
+      <c r="B163" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>16</v>
@@ -14329,28 +14331,28 @@
         <v>15</v>
       </c>
       <c r="E163" s="34" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="F163" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="H163" s="21" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="I163" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="K163" s="21" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="M163" s="21" t="s">
         <v>15</v>
@@ -14382,31 +14384,31 @@
         <v>15</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="F164" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="H164" s="21" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="I164" s="50" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="K164" s="21" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="L164" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M164" s="21" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="N164" s="21" t="s">
         <v>809</v>
@@ -14415,7 +14417,7 @@
         <v>2015</v>
       </c>
       <c r="P164" s="20" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="Q164" s="15" t="str">
         <f t="shared" si="5"/>
@@ -14427,8 +14429,8 @@
       <c r="A165" s="25">
         <v>164</v>
       </c>
-      <c r="B165" s="140" t="s">
-        <v>1362</v>
+      <c r="B165" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>16</v>
@@ -14437,13 +14439,13 @@
         <v>15</v>
       </c>
       <c r="E165" s="34" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="F165" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="H165" s="21" t="s">
         <v>15</v>
@@ -14452,13 +14454,13 @@
         <v>15</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="K165" s="21" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="M165" s="21" t="s">
         <v>15</v>
@@ -14480,10 +14482,10 @@
     </row>
     <row r="166" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
-        <v>165</v>
-      </c>
-      <c r="B166" s="140" t="s">
-        <v>1362</v>
+        <v>149</v>
+      </c>
+      <c r="B166" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>16</v>
@@ -14491,19 +14493,19 @@
       <c r="D166" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E166" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F166" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I166" s="18" t="s">
+      <c r="E166" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="H166" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="I166" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J166" s="21" t="s">
@@ -14513,7 +14515,7 @@
         <v>90</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>1252</v>
+        <v>379</v>
       </c>
       <c r="M166" s="21" t="s">
         <v>90</v>
@@ -14522,23 +14524,23 @@
         <v>90</v>
       </c>
       <c r="O166" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="P166" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="P166" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q166" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
       </c>
       <c r="R166" s="18"/>
     </row>
     <row r="167" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="25">
-        <v>166</v>
-      </c>
-      <c r="B167" s="140" t="s">
-        <v>1362</v>
+        <v>150</v>
+      </c>
+      <c r="B167" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>16</v>
@@ -14547,18 +14549,18 @@
         <v>15</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>1287</v>
+        <v>399</v>
       </c>
       <c r="F167" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>1289</v>
+        <v>400</v>
       </c>
       <c r="H167" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I167" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I167" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J167" s="21" t="s">
@@ -14568,7 +14570,7 @@
         <v>90</v>
       </c>
       <c r="L167" s="22" t="s">
-        <v>1252</v>
+        <v>379</v>
       </c>
       <c r="M167" s="21" t="s">
         <v>90</v>
@@ -14577,23 +14579,23 @@
         <v>90</v>
       </c>
       <c r="O167" s="19" t="s">
-        <v>1288</v>
+        <v>680</v>
       </c>
       <c r="P167" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q167" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023g), S. o. S..</v>
+        <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
       </c>
       <c r="R167" s="18"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
-        <v>167</v>
-      </c>
-      <c r="B168" s="140" t="s">
-        <v>1362</v>
+        <v>158</v>
+      </c>
+      <c r="B168" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>16</v>
@@ -14602,16 +14604,16 @@
         <v>15</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>1290</v>
+        <v>399</v>
       </c>
       <c r="F168" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>1292</v>
+        <v>400</v>
       </c>
       <c r="H168" s="21" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="I168" s="50" t="s">
         <v>15</v>
@@ -14623,7 +14625,7 @@
         <v>90</v>
       </c>
       <c r="L168" s="22" t="s">
-        <v>1252</v>
+        <v>379</v>
       </c>
       <c r="M168" s="21" t="s">
         <v>90</v>
@@ -14632,23 +14634,23 @@
         <v>90</v>
       </c>
       <c r="O168" s="19" t="s">
-        <v>1291</v>
+        <v>680</v>
       </c>
       <c r="P168" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q168" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023h), S. o. S..</v>
+        <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
       </c>
       <c r="R168" s="18"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="25">
-        <v>168</v>
-      </c>
-      <c r="B169" s="140" t="s">
-        <v>1362</v>
+        <v>159</v>
+      </c>
+      <c r="B169" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>16</v>
@@ -14657,16 +14659,16 @@
         <v>15</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>1293</v>
+        <v>399</v>
       </c>
       <c r="F169" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>1294</v>
+        <v>400</v>
       </c>
       <c r="H169" s="21" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="I169" s="50" t="s">
         <v>15</v>
@@ -14678,7 +14680,7 @@
         <v>90</v>
       </c>
       <c r="L169" s="22" t="s">
-        <v>1252</v>
+        <v>379</v>
       </c>
       <c r="M169" s="21" t="s">
         <v>90</v>
@@ -14687,23 +14689,23 @@
         <v>90</v>
       </c>
       <c r="O169" s="19" t="s">
-        <v>1295</v>
+        <v>680</v>
       </c>
       <c r="P169" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q169" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023i), S. o. S..</v>
+        <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
       </c>
       <c r="R169" s="18"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
-        <v>169</v>
-      </c>
-      <c r="B170" s="140" t="s">
-        <v>1362</v>
+        <v>173</v>
+      </c>
+      <c r="B170" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>16</v>
@@ -14712,16 +14714,16 @@
         <v>15</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>1297</v>
+        <v>399</v>
       </c>
       <c r="F170" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>1296</v>
+        <v>400</v>
       </c>
       <c r="H170" s="21" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="I170" s="50" t="s">
         <v>15</v>
@@ -14733,7 +14735,7 @@
         <v>90</v>
       </c>
       <c r="L170" s="22" t="s">
-        <v>1252</v>
+        <v>379</v>
       </c>
       <c r="M170" s="21" t="s">
         <v>90</v>
@@ -14742,23 +14744,23 @@
         <v>90</v>
       </c>
       <c r="O170" s="19" t="s">
-        <v>1298</v>
+        <v>680</v>
       </c>
       <c r="P170" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q170" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>Vgl. Apple Inc. (2023j), S. o. S..</v>
+        <v>Vgl. Apple Inc. (2023a), S. o. S..</v>
       </c>
       <c r="R170" s="18"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="25">
-        <v>170</v>
-      </c>
-      <c r="B171" s="140" t="s">
-        <v>1362</v>
+        <v>156</v>
+      </c>
+      <c r="B171" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>16</v>
@@ -14766,19 +14768,19 @@
       <c r="D171" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E171" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F171" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I171" s="18" t="s">
+      <c r="E171" s="34" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H171" s="21" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I171" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J171" s="21" t="s">
@@ -14788,7 +14790,7 @@
         <v>90</v>
       </c>
       <c r="L171" s="22" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="M171" s="21" t="s">
         <v>90</v>
@@ -14797,23 +14799,23 @@
         <v>90</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>681</v>
+        <v>1243</v>
       </c>
       <c r="P171" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q171" s="15" t="str">
-        <f>"Vgl. "&amp;J171&amp;" ("&amp;O171&amp;"), S. "&amp;P171&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="5"/>
+        <v>Vgl. Apple Inc. (2023e), S. o. S..</v>
       </c>
       <c r="R171" s="18"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
-        <v>171</v>
-      </c>
-      <c r="B172" s="140" t="s">
-        <v>1362</v>
+        <v>157</v>
+      </c>
+      <c r="B172" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>16</v>
@@ -14822,16 +14824,16 @@
         <v>15</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>1336</v>
+        <v>1244</v>
       </c>
       <c r="F172" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>1337</v>
+        <v>1245</v>
+      </c>
+      <c r="H172" s="21" t="s">
+        <v>1245</v>
       </c>
       <c r="I172" s="50" t="s">
         <v>15</v>
@@ -14843,7 +14845,7 @@
         <v>90</v>
       </c>
       <c r="L172" s="22" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="M172" s="21" t="s">
         <v>90</v>
@@ -14852,23 +14854,23 @@
         <v>90</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1339</v>
+        <v>1246</v>
       </c>
       <c r="P172" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q172" s="15" t="str">
-        <f>"Vgl. "&amp;J172&amp;" ("&amp;O172&amp;"), S. "&amp;P172&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023k), S. o. S..</v>
+        <f t="shared" ref="Q172:Q187" si="6">"Vgl. "&amp;J172&amp;" ("&amp;O172&amp;"), S. "&amp;P172&amp;"."</f>
+        <v>Vgl. Apple Inc. (2023f), S. o. S..</v>
       </c>
       <c r="R172" s="18"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="25">
-        <v>172</v>
-      </c>
-      <c r="B173" s="140" t="s">
-        <v>1362</v>
+        <v>166</v>
+      </c>
+      <c r="B173" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>16</v>
@@ -14877,18 +14879,18 @@
         <v>15</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>1340</v>
+        <v>1273</v>
       </c>
       <c r="F173" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>1342</v>
-      </c>
-      <c r="I173" s="50" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H173" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J173" s="21" t="s">
@@ -14898,7 +14900,7 @@
         <v>90</v>
       </c>
       <c r="L173" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M173" s="21" t="s">
         <v>90</v>
@@ -14907,23 +14909,23 @@
         <v>90</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1341</v>
-      </c>
-      <c r="P173" s="21" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P173" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q173" s="15" t="str">
-        <f>"Vgl. "&amp;J173&amp;" ("&amp;O173&amp;"), S. "&amp;P173&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023l), S. o. S..</v>
+        <f t="shared" si="6"/>
+        <v>Vgl. Apple Inc. (2023g), S. o. S..</v>
       </c>
       <c r="R173" s="18"/>
     </row>
     <row r="174" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
-        <v>173</v>
-      </c>
-      <c r="B174" s="140" t="s">
-        <v>1362</v>
+        <v>167</v>
+      </c>
+      <c r="B174" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>16</v>
@@ -14932,16 +14934,16 @@
         <v>15</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>399</v>
+        <v>1276</v>
       </c>
       <c r="F174" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>400</v>
+        <v>1278</v>
       </c>
       <c r="H174" s="21" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="I174" s="50" t="s">
         <v>15</v>
@@ -14953,7 +14955,7 @@
         <v>90</v>
       </c>
       <c r="L174" s="22" t="s">
-        <v>379</v>
+        <v>1238</v>
       </c>
       <c r="M174" s="21" t="s">
         <v>90</v>
@@ -14962,14 +14964,14 @@
         <v>90</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>683</v>
+        <v>1277</v>
       </c>
       <c r="P174" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q174" s="15" t="str">
-        <f>"Vgl. "&amp;J174&amp;" ("&amp;O174&amp;"), S. "&amp;P174&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023d), S. o. S..</v>
+        <f t="shared" si="6"/>
+        <v>Vgl. Apple Inc. (2023h), S. o. S..</v>
       </c>
       <c r="R174" s="18"/>
     </row>
@@ -14991,41 +14993,41 @@
         <v>15</v>
       </c>
       <c r="G175" s="58" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="H175" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I175" s="50" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="J175" s="21" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="K175" s="21" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="L175" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M175" s="21" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="N175" s="21" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="O175" s="19">
         <v>2016</v>
       </c>
       <c r="P175" s="20" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="Q175" s="15" t="str">
-        <f>"Vgl. "&amp;J175&amp;" ("&amp;O175&amp;"), S. "&amp;P175&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Fahrmeir et al. (2016), S. 134.</v>
       </c>
       <c r="R175" s="18" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -15046,49 +15048,49 @@
         <v>15</v>
       </c>
       <c r="G176" s="58" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="H176" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I176" s="50" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="J176" s="21" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="K176" s="21" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="L176" s="22" t="s">
         <v>15</v>
       </c>
       <c r="M176" s="21" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="N176" s="21" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="O176" s="19">
         <v>2016</v>
       </c>
       <c r="P176" s="20" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="Q176" s="15" t="str">
-        <f>"Vgl. "&amp;J176&amp;" ("&amp;O176&amp;"), S. "&amp;P176&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Fahrmeir et al. (2016), S. 134.</v>
       </c>
       <c r="R176" s="18" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="25">
-        <v>176</v>
-      </c>
-      <c r="B177" s="140" t="s">
-        <v>1362</v>
+        <v>168</v>
+      </c>
+      <c r="B177" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C177" s="19" t="s">
         <v>16</v>
@@ -15096,19 +15098,19 @@
       <c r="D177" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E177" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F177" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I177" s="18" t="s">
+      <c r="E177" s="34" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" s="21" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H177" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J177" s="21" t="s">
@@ -15118,7 +15120,7 @@
         <v>90</v>
       </c>
       <c r="L177" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M177" s="21" t="s">
         <v>90</v>
@@ -15127,23 +15129,23 @@
         <v>90</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="P177" s="21" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P177" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q177" s="15" t="str">
-        <f>"Vgl. "&amp;J177&amp;" ("&amp;O177&amp;"), S. "&amp;P177&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="6"/>
+        <v>Vgl. Apple Inc. (2023i), S. o. S..</v>
       </c>
       <c r="R177" s="18"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
-        <v>177</v>
-      </c>
-      <c r="B178" s="140" t="s">
-        <v>1362</v>
+        <v>169</v>
+      </c>
+      <c r="B178" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>16</v>
@@ -15151,19 +15153,19 @@
       <c r="D178" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E178" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F178" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H178" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I178" s="18" t="s">
+      <c r="E178" s="34" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="21" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H178" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J178" s="21" t="s">
@@ -15173,7 +15175,7 @@
         <v>90</v>
       </c>
       <c r="L178" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M178" s="21" t="s">
         <v>90</v>
@@ -15182,23 +15184,23 @@
         <v>90</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="P178" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P178" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q178" s="15" t="str">
-        <f>"Vgl. "&amp;J178&amp;" ("&amp;O178&amp;"), S. "&amp;P178&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="6"/>
+        <v>Vgl. Apple Inc. (2023j), S. o. S..</v>
       </c>
       <c r="R178" s="18"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="25">
-        <v>178</v>
-      </c>
-      <c r="B179" s="140" t="s">
-        <v>1362</v>
+        <v>171</v>
+      </c>
+      <c r="B179" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>16</v>
@@ -15206,19 +15208,19 @@
       <c r="D179" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E179" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F179" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" s="18" t="s">
-        <v>92</v>
+      <c r="E179" s="34" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>1319</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I179" s="18" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I179" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J179" s="21" t="s">
@@ -15228,7 +15230,7 @@
         <v>90</v>
       </c>
       <c r="L179" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M179" s="21" t="s">
         <v>90</v>
@@ -15237,23 +15239,23 @@
         <v>90</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>681</v>
+        <v>1320</v>
       </c>
       <c r="P179" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q179" s="15" t="str">
-        <f>"Vgl. "&amp;J179&amp;" ("&amp;O179&amp;"), S. "&amp;P179&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="6"/>
+        <v>Vgl. Apple Inc. (2023k), S. o. S..</v>
       </c>
       <c r="R179" s="18"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
-        <v>179</v>
-      </c>
-      <c r="B180" s="140" t="s">
-        <v>1362</v>
+        <v>172</v>
+      </c>
+      <c r="B180" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C180" s="19" t="s">
         <v>16</v>
@@ -15261,19 +15263,19 @@
       <c r="D180" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E180" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F180" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" s="18" t="s">
-        <v>92</v>
+      <c r="E180" s="34" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>1224</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I180" s="18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I180" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J180" s="21" t="s">
@@ -15283,7 +15285,7 @@
         <v>90</v>
       </c>
       <c r="L180" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M180" s="21" t="s">
         <v>90</v>
@@ -15292,14 +15294,14 @@
         <v>90</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>681</v>
+        <v>1322</v>
       </c>
       <c r="P180" s="21" t="s">
         <v>350</v>
       </c>
       <c r="Q180" s="15" t="str">
-        <f>"Vgl. "&amp;J180&amp;" ("&amp;O180&amp;"), S. "&amp;P180&amp;"."</f>
-        <v>Vgl. Apple Inc. (2023b), S. o. S..</v>
+        <f t="shared" si="6"/>
+        <v>Vgl. Apple Inc. (2023l), S. o. S..</v>
       </c>
       <c r="R180" s="18"/>
     </row>
@@ -15307,8 +15309,8 @@
       <c r="A181" s="19">
         <v>180</v>
       </c>
-      <c r="B181" s="140" t="s">
-        <v>1362</v>
+      <c r="B181" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C181" s="19" t="s">
         <v>16</v>
@@ -15317,13 +15319,13 @@
         <v>15</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="F181" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G181" s="58" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="H181" s="21" t="s">
         <v>15</v>
@@ -15332,19 +15334,19 @@
         <v>15</v>
       </c>
       <c r="J181" s="21" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="K181" s="21" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="L181" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M181" s="21" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="N181" s="21" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="O181" s="19">
         <v>2023</v>
@@ -15353,7 +15355,7 @@
         <v>350</v>
       </c>
       <c r="Q181" s="15" t="str">
-        <f>"Vgl. "&amp;J181&amp;" ("&amp;O181&amp;"), S. "&amp;P181&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Open3D (2023), S. o. S..</v>
       </c>
       <c r="R181" s="18"/>
@@ -15362,8 +15364,8 @@
       <c r="A182" s="19">
         <v>181</v>
       </c>
-      <c r="B182" s="140" t="s">
-        <v>1362</v>
+      <c r="B182" s="128" t="s">
+        <v>1342</v>
       </c>
       <c r="C182" s="19" t="s">
         <v>16</v>
@@ -15372,13 +15374,13 @@
         <v>15</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="F182" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G182" s="21" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="H182" s="21" t="s">
         <v>15</v>
@@ -15387,36 +15389,322 @@
         <v>15</v>
       </c>
       <c r="J182" s="21" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="K182" s="21" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="L182" s="22" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M182" s="21" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="N182" s="21" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="O182" s="19">
         <v>2023</v>
       </c>
-      <c r="P182" s="21" t="s">
+      <c r="P182" s="20" t="s">
         <v>350</v>
       </c>
       <c r="Q182" s="15" t="str">
-        <f>"Vgl. "&amp;J182&amp;" ("&amp;O182&amp;"), S. "&amp;P182&amp;"."</f>
+        <f t="shared" si="6"/>
         <v>Vgl. Dawson-Haggerty (2023), S. o. S..</v>
       </c>
       <c r="R182" s="18"/>
     </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A183" s="19">
+        <v>183</v>
+      </c>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H183" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J183" s="21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K183" s="21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L183" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M183" s="21" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N183" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O183" s="19">
+        <v>2023</v>
+      </c>
+      <c r="P183" s="20">
+        <v>63</v>
+      </c>
+      <c r="Q183" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>Vgl. Rubin (2023), S. 63.</v>
+      </c>
+      <c r="R183" s="18" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>184</v>
+      </c>
+      <c r="B184" s="128" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="131" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L184" s="23" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O184" s="6">
+        <v>2022</v>
+      </c>
+      <c r="P184" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q184" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>Vgl. Kim (2022), S. 1-5.</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>185</v>
+      </c>
+      <c r="B185" s="128" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="131" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L185" s="23" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O185" s="6">
+        <v>2023</v>
+      </c>
+      <c r="P185" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Q185" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Vgl. Wickham, Bryan (2023), S. 6-9.</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
+        <v>186</v>
+      </c>
+      <c r="B186" s="128" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="131" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L186" s="23" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M186" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N186" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O186" s="6">
+        <v>2023</v>
+      </c>
+      <c r="P186" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Q186" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Vgl. Lüdecke (2023), S. 73-75.</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>187</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="131" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G187" s="148" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I187" s="56" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J187" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L187" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M187" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N187" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="O187" s="6">
+        <v>2023</v>
+      </c>
+      <c r="P187" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q187" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>Vgl. Amugongo et al. (2023), S. 1-2.</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
+        <v>188</v>
+      </c>
+      <c r="P188" s="11"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P189" s="11"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P190" s="11"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P191" s="11"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P192" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q181" xr:uid="{DEEDF95C-8D58-DC4B-A71E-8BBAD6EC869A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q181">
-      <sortCondition ref="A1:A181"/>
+  <autoFilter ref="A1:Q182" xr:uid="{DEEDF95C-8D58-DC4B-A71E-8BBAD6EC869A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:Q180">
+      <sortCondition ref="O1:O182"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -15434,7 +15722,7 @@
     <hyperlink ref="E41" r:id="rId11" xr:uid="{877A48C0-E938-734B-9DDC-1F0EDDA6D41F}"/>
     <hyperlink ref="E38" r:id="rId12" xr:uid="{F8FBCF23-4053-5A4C-88A6-63B38ACEB866}"/>
     <hyperlink ref="E43" r:id="rId13" xr:uid="{D214B19E-8697-1D4E-9C82-2995C5013938}"/>
-    <hyperlink ref="E44" r:id="rId14" xr:uid="{EAC3F864-5A58-AC46-9222-EEACED6A1F82}"/>
+    <hyperlink ref="E145" r:id="rId14" xr:uid="{EAC3F864-5A58-AC46-9222-EEACED6A1F82}"/>
     <hyperlink ref="E45" r:id="rId15" xr:uid="{AC53A15B-3C08-0045-9BEB-8F48D3FFFFFE}"/>
     <hyperlink ref="E46" r:id="rId16" xr:uid="{B286A504-7A1E-2A4D-AC60-E943B42A9045}"/>
     <hyperlink ref="E47" r:id="rId17" xr:uid="{44461F10-D1FB-1343-AAD8-B69AD8DEB861}"/>
@@ -15500,14 +15788,14 @@
     <hyperlink ref="E109" r:id="rId77" xr:uid="{38A42C96-E847-674C-850C-EBEAB933D601}"/>
     <hyperlink ref="E113" r:id="rId78" xr:uid="{4CF9D765-7499-864E-8091-24A550C2F96F}"/>
     <hyperlink ref="E112" r:id="rId79" xr:uid="{0A3E6E3D-121A-7646-A301-0DC4A5483518}"/>
-    <hyperlink ref="E145" r:id="rId80" xr:uid="{46CDA66F-1188-E141-BB82-2713DF20651D}"/>
+    <hyperlink ref="E44" r:id="rId80" xr:uid="{46CDA66F-1188-E141-BB82-2713DF20651D}"/>
     <hyperlink ref="E146" r:id="rId81" xr:uid="{9C50888C-D413-EE4C-9F84-15D7B6E33D40}"/>
-    <hyperlink ref="E147" r:id="rId82" xr:uid="{75EB647A-AE8E-0240-B507-BEF427BBE2F8}"/>
+    <hyperlink ref="E160" r:id="rId82" xr:uid="{75EB647A-AE8E-0240-B507-BEF427BBE2F8}"/>
     <hyperlink ref="E148" r:id="rId83" xr:uid="{4D117CD9-F7A8-AC42-A63A-194013A4122E}"/>
     <hyperlink ref="E149" r:id="rId84" xr:uid="{549EA58B-D42F-DD47-BDB4-A2F91E82EEF2}"/>
-    <hyperlink ref="E150" r:id="rId85" xr:uid="{935C9F91-9341-3740-BAD9-82ABDDE8FB36}"/>
-    <hyperlink ref="E151" r:id="rId86" xr:uid="{0542D0C3-4E9E-884D-B8B8-977C3F5FF3A3}"/>
-    <hyperlink ref="E152" r:id="rId87" xr:uid="{DDA39FC2-0F09-F142-9CE6-C6FC4F7994CE}"/>
+    <hyperlink ref="E166" r:id="rId85" xr:uid="{935C9F91-9341-3740-BAD9-82ABDDE8FB36}"/>
+    <hyperlink ref="E167" r:id="rId86" xr:uid="{0542D0C3-4E9E-884D-B8B8-977C3F5FF3A3}"/>
+    <hyperlink ref="E147" r:id="rId87" xr:uid="{DDA39FC2-0F09-F142-9CE6-C6FC4F7994CE}"/>
     <hyperlink ref="E119" r:id="rId88" xr:uid="{EDB6CD98-FC94-EB4D-8790-86E33F29609B}"/>
     <hyperlink ref="E114" r:id="rId89" xr:uid="{43FE8B56-44BA-4743-9C94-95B4F167AFBB}"/>
     <hyperlink ref="E116" r:id="rId90" xr:uid="{B047299D-73BD-144F-A26B-AA801C9A4AB0}"/>
@@ -15569,34 +15857,38 @@
     <hyperlink ref="E15" r:id="rId146" xr:uid="{61F53178-D73D-9E48-9700-43C8209E896C}"/>
     <hyperlink ref="E16" r:id="rId147" xr:uid="{E8B161D7-D0D6-BE43-85F5-B6787A2C76EA}"/>
     <hyperlink ref="E17" r:id="rId148" xr:uid="{7C861EB7-19A0-134B-9EDD-817B1C8D68FE}"/>
-    <hyperlink ref="E154" r:id="rId149" xr:uid="{6E4BA74E-9C5B-3F48-836F-268F9FFA4BA1}"/>
-    <hyperlink ref="E156" r:id="rId150" xr:uid="{9AAD6D7C-DB39-304F-9157-0624319B54D7}"/>
-    <hyperlink ref="E157" r:id="rId151" xr:uid="{6A2E6B60-FB32-9641-83D8-8EEB858BDE22}"/>
-    <hyperlink ref="E158" r:id="rId152" xr:uid="{6C6D0F88-A395-AE40-92A9-8E94FBD94858}"/>
-    <hyperlink ref="E159" r:id="rId153" xr:uid="{DA582187-BCC0-804C-84C5-5233FF9F223E}"/>
-    <hyperlink ref="E160" r:id="rId154" xr:uid="{A4CBE411-18E5-A04C-B839-3FE17DC84F10}"/>
+    <hyperlink ref="E150" r:id="rId149" xr:uid="{6E4BA74E-9C5B-3F48-836F-268F9FFA4BA1}"/>
+    <hyperlink ref="E151" r:id="rId150" xr:uid="{9AAD6D7C-DB39-304F-9157-0624319B54D7}"/>
+    <hyperlink ref="E171" r:id="rId151" xr:uid="{6A2E6B60-FB32-9641-83D8-8EEB858BDE22}"/>
+    <hyperlink ref="E172" r:id="rId152" xr:uid="{6C6D0F88-A395-AE40-92A9-8E94FBD94858}"/>
+    <hyperlink ref="E168" r:id="rId153" xr:uid="{DA582187-BCC0-804C-84C5-5233FF9F223E}"/>
+    <hyperlink ref="E169" r:id="rId154" xr:uid="{A4CBE411-18E5-A04C-B839-3FE17DC84F10}"/>
     <hyperlink ref="E161" r:id="rId155" xr:uid="{B0817077-49E6-374D-83A9-B6FC11EE6382}"/>
     <hyperlink ref="E162" r:id="rId156" xr:uid="{75DAC5B3-CB92-5E49-AFFD-5967A4CFEA7F}"/>
     <hyperlink ref="E163" r:id="rId157" xr:uid="{787405D1-F33B-CE41-B9C5-2464B5BF41F9}"/>
     <hyperlink ref="E164" r:id="rId158" xr:uid="{7A8EF92A-6D0B-A342-9972-811D96C5EDD5}"/>
     <hyperlink ref="E165" r:id="rId159" xr:uid="{B9D20C87-1571-4943-9D2D-0EAA14A60403}"/>
-    <hyperlink ref="E166" r:id="rId160" xr:uid="{91A7D49A-00FD-174A-9F03-14A424A07842}"/>
-    <hyperlink ref="E167" r:id="rId161" xr:uid="{E01082E9-34EC-BE4B-99E9-BBD091F43529}"/>
-    <hyperlink ref="E168" r:id="rId162" xr:uid="{CC331DA7-82F3-E44C-8B02-334E5A2206B0}"/>
-    <hyperlink ref="E169" r:id="rId163" xr:uid="{416129F3-1618-D74D-BE2E-DA1374C87A94}"/>
-    <hyperlink ref="E170" r:id="rId164" xr:uid="{47B7AF7F-F964-B747-9B82-F5123E46DE2C}"/>
+    <hyperlink ref="E152" r:id="rId160" xr:uid="{91A7D49A-00FD-174A-9F03-14A424A07842}"/>
+    <hyperlink ref="E173" r:id="rId161" xr:uid="{E01082E9-34EC-BE4B-99E9-BBD091F43529}"/>
+    <hyperlink ref="E174" r:id="rId162" xr:uid="{CC331DA7-82F3-E44C-8B02-334E5A2206B0}"/>
+    <hyperlink ref="E177" r:id="rId163" xr:uid="{416129F3-1618-D74D-BE2E-DA1374C87A94}"/>
+    <hyperlink ref="E178" r:id="rId164" xr:uid="{47B7AF7F-F964-B747-9B82-F5123E46DE2C}"/>
     <hyperlink ref="E155" r:id="rId165" xr:uid="{44C88233-9835-0443-92E2-31F0538C03D8}"/>
-    <hyperlink ref="E171" r:id="rId166" xr:uid="{B7D508CA-B1F4-3947-9253-7C38886AC551}"/>
-    <hyperlink ref="E172" r:id="rId167" xr:uid="{5F694F3E-0C04-2C41-AFD0-961BEE09EB88}"/>
-    <hyperlink ref="E173" r:id="rId168" xr:uid="{D279183C-1913-5740-99CC-FCA78BA51576}"/>
-    <hyperlink ref="E174" r:id="rId169" xr:uid="{BF34C36B-EC48-5E47-8D45-01676071F075}"/>
-    <hyperlink ref="E177" r:id="rId170" xr:uid="{3D881349-FFE0-2C40-AE29-0ABB05C12111}"/>
-    <hyperlink ref="E178" r:id="rId171" xr:uid="{8F71984F-9BE7-AD47-9EFC-075DBC541E2C}"/>
-    <hyperlink ref="E179" r:id="rId172" xr:uid="{8303813B-B57A-2245-8878-DDE79B125FA4}"/>
-    <hyperlink ref="E180" r:id="rId173" xr:uid="{388FCED9-E727-2146-A149-986D88120561}"/>
+    <hyperlink ref="E154" r:id="rId166" xr:uid="{B7D508CA-B1F4-3947-9253-7C38886AC551}"/>
+    <hyperlink ref="E179" r:id="rId167" xr:uid="{5F694F3E-0C04-2C41-AFD0-961BEE09EB88}"/>
+    <hyperlink ref="E180" r:id="rId168" xr:uid="{D279183C-1913-5740-99CC-FCA78BA51576}"/>
+    <hyperlink ref="E170" r:id="rId169" xr:uid="{BF34C36B-EC48-5E47-8D45-01676071F075}"/>
+    <hyperlink ref="E156" r:id="rId170" xr:uid="{3D881349-FFE0-2C40-AE29-0ABB05C12111}"/>
+    <hyperlink ref="E157" r:id="rId171" xr:uid="{8F71984F-9BE7-AD47-9EFC-075DBC541E2C}"/>
+    <hyperlink ref="E158" r:id="rId172" xr:uid="{8303813B-B57A-2245-8878-DDE79B125FA4}"/>
+    <hyperlink ref="E159" r:id="rId173" xr:uid="{388FCED9-E727-2146-A149-986D88120561}"/>
     <hyperlink ref="E181" r:id="rId174" xr:uid="{539C1AFB-B94C-D44E-B39F-F84B0323015F}"/>
     <hyperlink ref="E182" r:id="rId175" xr:uid="{CF381355-8227-4848-BBBB-B49FECD97A43}"/>
     <hyperlink ref="E51" r:id="rId176" xr:uid="{9B827686-F7B7-5540-AC69-302F6EFDA3A1}"/>
+    <hyperlink ref="E183" r:id="rId177" xr:uid="{10D61D48-9DDF-3D45-BD7B-272F4573DDD6}"/>
+    <hyperlink ref="E186" r:id="rId178" xr:uid="{455B61B2-F33B-5F4E-9C55-61461B9D13BD}"/>
+    <hyperlink ref="E185" r:id="rId179" xr:uid="{4113D155-FFB0-7142-B626-71A7F765D36E}"/>
+    <hyperlink ref="E187" r:id="rId180" xr:uid="{1A32059E-CBC8-7F4D-8528-67D2F824A096}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15605,10 +15897,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D68D-B64B-B445-8C88-EAE5C724F845}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15618,138 +15910,94 @@
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
     <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
-    <col min="10" max="15" width="53.83203125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="41.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" style="5" customWidth="1"/>
+    <col min="8" max="13" width="53.83203125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="125" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C2" s="126" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F2" s="128" t="s">
-        <v>817</v>
-      </c>
-      <c r="G2" s="128" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="129" t="s">
+    <row r="2" spans="2:5" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="117" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="58" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="121" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="121" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="97" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D5" s="102"/>
+      <c r="E5" s="99" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="63" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="124" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
         <v>1080</v>
       </c>
-      <c r="C3" s="130" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C4" s="130" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F4" s="133" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="92" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="105" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F5" s="106" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="63" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="124" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D7" s="137"/>
+      <c r="C7" s="105" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D7" s="126"/>
       <c r="E7" s="80" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G7" s="81" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="59" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="105" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F8" s="106" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G8" s="106" t="s">
-        <v>1304</v>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="59" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="97" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="99" t="s">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -15777,854 +16025,854 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D2" s="143"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D3" s="143"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D4" s="143"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D5" s="145"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D6" s="145"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D7" s="145"/>
+    </row>
+    <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C8" s="144" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D8" s="145"/>
+    </row>
+    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="147" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="147"/>
+      <c r="C10" s="114" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="147"/>
+      <c r="C11" s="114" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="147"/>
+      <c r="C12" s="114" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="147"/>
+      <c r="C13" s="114" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="143"/>
+      <c r="G14" s="125"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="125"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="125"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="G17" s="125"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D18" s="143"/>
+      <c r="G18" s="125"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="G19" s="125"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C20" s="144" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D20" s="145"/>
+      <c r="G20" s="125"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D21" s="145"/>
+      <c r="G21" s="125"/>
+    </row>
+    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C22" s="144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D22" s="145"/>
+      <c r="G22" s="125"/>
+    </row>
+    <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C23" s="144" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D23" s="145"/>
+      <c r="G23" s="125"/>
+    </row>
+    <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="96" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G24" s="125"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C25" s="142" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D25" s="143"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C28" s="142" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D28" s="143"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C29" s="142" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D29" s="143"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C30" s="142" t="s">
         <v>1114</v>
       </c>
-      <c r="C2" s="153" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D2" s="154"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C3" s="153" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D3" s="154"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+      <c r="D30" s="143"/>
+    </row>
+    <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C31" s="144" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D31" s="145"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D32" s="145"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C33" s="144" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D33" s="145"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C34" s="144" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D34" s="145"/>
+    </row>
+    <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B35" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="141"/>
+      <c r="C36" s="116" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="141"/>
+      <c r="C37" s="116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B38" s="146"/>
+      <c r="C38" s="116" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D38" s="104" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C39" s="142" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D39" s="143"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C42" s="142" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D42" s="143"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C43" s="142" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D43" s="143"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C44" s="142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D44" s="143"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C45" s="144" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D45" s="145"/>
+    </row>
+    <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="144" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D46" s="145"/>
+    </row>
+    <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C47" s="144" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D47" s="145"/>
+    </row>
+    <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C48" s="144" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D48" s="145"/>
+    </row>
+    <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="96" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C50" s="142" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D50" s="143"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C53" s="142" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D53" s="143"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C54" s="142" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D54" s="143"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C55" s="142" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D55" s="143"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C56" s="144" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D56" s="145"/>
+    </row>
+    <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="144" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D57" s="145"/>
+    </row>
+    <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C58" s="144" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D58" s="145"/>
+    </row>
+    <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C59" s="144" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D59" s="145"/>
+    </row>
+    <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D60" s="104" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B61" s="141"/>
+      <c r="C61" s="116" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D61" s="104" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B62" s="146"/>
+      <c r="C62" s="116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D62" s="104" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C63" s="142" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D63" s="143"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C66" s="142" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D66" s="143"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C67" s="142" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D67" s="143"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C68" s="142" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D68" s="143"/>
+    </row>
+    <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C69" s="144" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D69" s="145"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="144" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D70" s="145"/>
+    </row>
+    <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C71" s="144" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D71" s="145"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C72" s="144" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D72" s="145"/>
+    </row>
+    <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B73" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C73" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D73" s="104" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B74" s="141"/>
+      <c r="C74" s="116" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D74" s="104" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B75" s="141"/>
+      <c r="C75" s="116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D75" s="104" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B76" s="141"/>
+      <c r="C76" s="116" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D76" s="104" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B77" s="146"/>
+      <c r="C77" s="116" t="s">
         <v>1095</v>
       </c>
-      <c r="C4" s="153" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D4" s="154"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C5" s="155" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D5" s="156"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="102" t="s">
+      <c r="D77" s="104" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C78" s="142" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D78" s="143"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="96" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C81" s="142" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D81" s="143"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C82" s="142" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D82" s="143"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C83" s="142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D83" s="143"/>
+    </row>
+    <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C84" s="144" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D84" s="145"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="155" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D6" s="156"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C7" s="155" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D7" s="156"/>
-    </row>
-    <row r="8" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C8" s="155" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D8" s="156"/>
-    </row>
-    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="158" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="158"/>
-      <c r="C10" s="122" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D10" s="123" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="158"/>
-      <c r="C11" s="122" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D11" s="123" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="158"/>
-      <c r="C12" s="122" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="158"/>
-      <c r="C13" s="122" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="102" t="s">
+      <c r="C85" s="144" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D85" s="145"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C86" s="144" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D86" s="145"/>
+    </row>
+    <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C87" s="144" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D87" s="145"/>
+    </row>
+    <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B88" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C88" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D88" s="104" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="141"/>
+      <c r="C89" s="116" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D89" s="104" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B90" s="141"/>
+      <c r="C90" s="116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D90" s="104" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B91" s="141"/>
+      <c r="C91" s="116" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D91" s="104" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B92" s="146"/>
+      <c r="C92" s="116" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D92" s="104" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C93" s="142" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D93" s="143"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="96" t="s">
         <v>1100</v>
       </c>
-      <c r="C14" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="154"/>
-      <c r="G14" s="134"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="134"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="134"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C17" s="153" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="G17" s="134"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C18" s="153" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="G18" s="134"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="G19" s="134"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C20" s="155" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D20" s="156"/>
-      <c r="G20" s="134"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="102" t="s">
+      <c r="C96" s="142" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D96" s="143"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="96" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C97" s="142" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D97" s="143"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C98" s="142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D98" s="143"/>
+    </row>
+    <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C99" s="144" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D99" s="145"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="155" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D21" s="156"/>
-      <c r="G21" s="134"/>
-    </row>
-    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C22" s="155" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D22" s="156"/>
-      <c r="G22" s="134"/>
-    </row>
-    <row r="23" spans="2:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C23" s="155" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D23" s="156"/>
-      <c r="G23" s="134"/>
-    </row>
-    <row r="24" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B24" s="102" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G24" s="134"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C25" s="153" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D25" s="154"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C28" s="153" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D28" s="154"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C29" s="153" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D29" s="154"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C30" s="153" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D30" s="154"/>
-    </row>
-    <row r="31" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C31" s="155" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D31" s="156"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="155" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D32" s="156"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C33" s="155" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D33" s="156"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C34" s="155" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D34" s="156"/>
-    </row>
-    <row r="35" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="151" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D35" s="111" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="152"/>
-      <c r="C36" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D36" s="111" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="152"/>
-      <c r="C37" s="124" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="157"/>
-      <c r="C38" s="124" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D38" s="111" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C39" s="153" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D39" s="154"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C42" s="153" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D42" s="154"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C43" s="153" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D43" s="154"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C44" s="153" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D44" s="154"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C45" s="155" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D45" s="156"/>
-    </row>
-    <row r="46" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="155" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D46" s="156"/>
-    </row>
-    <row r="47" spans="2:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C47" s="155" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D47" s="156"/>
-    </row>
-    <row r="48" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C48" s="155" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D48" s="156"/>
-    </row>
-    <row r="49" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="102" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C49" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D49" s="111" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C50" s="153" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D50" s="154"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C53" s="153" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D53" s="154"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C54" s="153" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D54" s="154"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C55" s="153" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D55" s="154"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C56" s="155" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D56" s="156"/>
-    </row>
-    <row r="57" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="155" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D57" s="156"/>
-    </row>
-    <row r="58" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C58" s="155" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D58" s="156"/>
-    </row>
-    <row r="59" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C59" s="155" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D59" s="156"/>
-    </row>
-    <row r="60" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="151" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C60" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D60" s="111" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B61" s="152"/>
-      <c r="C61" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D61" s="111" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B62" s="157"/>
-      <c r="C62" s="124" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D62" s="111" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C63" s="153" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D63" s="154"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C66" s="153" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D66" s="154"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C67" s="153" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D67" s="154"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C68" s="153" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D68" s="154"/>
-    </row>
-    <row r="69" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C69" s="155" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D69" s="156"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="155" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D70" s="156"/>
-    </row>
-    <row r="71" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C71" s="155" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D71" s="156"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C72" s="155" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D72" s="156"/>
-    </row>
-    <row r="73" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="151" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C73" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D73" s="111" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B74" s="152"/>
-      <c r="C74" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D74" s="111" t="s">
+      <c r="C100" s="144" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D100" s="145"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="96" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C101" s="144" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D101" s="145"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C102" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="145"/>
+    </row>
+    <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B103" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C103" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D103" s="104" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B104" s="141"/>
+      <c r="C104" s="116" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D104" s="104" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B105" s="141"/>
+      <c r="C105" s="116" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D105" s="104" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="96" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C106" s="142" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B75" s="152"/>
-      <c r="C75" s="124" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D75" s="111" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B76" s="152"/>
-      <c r="C76" s="124" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D76" s="111" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="157"/>
-      <c r="C77" s="124" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D77" s="111" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C78" s="153" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D78" s="154"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C81" s="153" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D81" s="154"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C82" s="153" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D82" s="154"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C83" s="153" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D83" s="154"/>
-    </row>
-    <row r="84" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C84" s="155" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D84" s="156"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="155" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D85" s="156"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C86" s="155" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D86" s="156"/>
-    </row>
-    <row r="87" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C87" s="155" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D87" s="156"/>
-    </row>
-    <row r="88" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B88" s="151" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C88" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D88" s="111" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="152"/>
-      <c r="C89" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="152"/>
-      <c r="C90" s="124" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B91" s="152"/>
-      <c r="C91" s="124" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D91" s="111" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B92" s="157"/>
-      <c r="C92" s="124" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D92" s="111" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C93" s="153" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D93" s="154"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="102" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C96" s="153" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D96" s="154"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="102" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C97" s="153" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D97" s="154"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="102" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C98" s="153" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D98" s="154"/>
-    </row>
-    <row r="99" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="102" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C99" s="155" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D99" s="156"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="155" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D100" s="156"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C101" s="155" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D101" s="156"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C102" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="156"/>
-    </row>
-    <row r="103" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="151" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C103" s="124" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="152"/>
-      <c r="C104" s="124" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D104" s="111" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="152"/>
-      <c r="C105" s="124" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D105" s="111" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C106" s="153" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D106" s="154"/>
+      <c r="D106" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -16721,7 +16969,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="61" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>12</v>
@@ -16732,7 +16980,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>1307</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -16740,7 +16988,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16748,7 +16996,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16756,7 +17004,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="51" x14ac:dyDescent="0.2">
@@ -16764,7 +17012,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="68" x14ac:dyDescent="0.2">
@@ -16772,7 +17020,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="85" x14ac:dyDescent="0.2">
@@ -16780,7 +17028,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16788,7 +17036,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>1311</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16796,7 +17044,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16804,7 +17052,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16812,7 +17060,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -16820,7 +17068,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -16828,7 +17076,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -16858,22 +17106,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="61" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -16881,19 +17129,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -16901,19 +17149,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="63" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>1187</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -16921,19 +17169,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="68" x14ac:dyDescent="0.2">
@@ -16941,19 +17189,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -16961,19 +17209,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -16981,19 +17229,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -17020,35 +17268,35 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="61" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -17056,54 +17304,54 @@
         <v>696</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>1316</v>
+        <v>1297</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1315</v>
+        <v>1296</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>1317</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
@@ -17130,68 +17378,68 @@
   <sheetData>
     <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="62" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1318</v>
+        <v>1299</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>1329</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>1319</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1324</v>
+        <v>1305</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1325</v>
+        <v>1306</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1332</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>1322</v>
+        <v>1303</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>1323</v>
+        <v>1304</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>1335</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -17203,8 +17451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C48A7A-8BD0-CF4B-BE42-71F225EF32B1}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18859,17 +19107,17 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="35" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12">
         <v>2016</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="I13" s="2">
         <v>130</v>
@@ -18877,8 +19125,8 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="138" t="s">
-        <v>1346</v>
+      <c r="M13" s="127" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -19127,7 +19375,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C27" activeCellId="4" sqref="C20:E20 C22:E22 C25:E25 C26:E26 C27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19153,7 +19401,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="135" t="s">
         <v>705</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -19167,7 +19415,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="145"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="15" t="s">
         <v>696</v>
       </c>
@@ -19179,7 +19427,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="145"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="15" t="s">
         <v>699</v>
       </c>
@@ -19191,7 +19439,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="145"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="15" t="s">
         <v>698</v>
       </c>
@@ -19203,7 +19451,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="145"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="15" t="s">
         <v>700</v>
       </c>
@@ -19215,7 +19463,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="145"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="68" t="s">
         <v>767</v>
       </c>
@@ -19227,7 +19475,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="132" t="s">
         <v>747</v>
       </c>
       <c r="C9" s="70" t="s">
@@ -19241,7 +19489,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="142"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="15" t="s">
         <v>712</v>
       </c>
@@ -19253,7 +19501,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="142"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="15" t="s">
         <v>743</v>
       </c>
@@ -19265,7 +19513,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="142"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="15" t="s">
         <v>716</v>
       </c>
@@ -19277,7 +19525,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="142"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="15" t="s">
         <v>701</v>
       </c>
@@ -19289,7 +19537,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="142"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="15" t="s">
         <v>714</v>
       </c>
@@ -19301,7 +19549,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="142"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="15" t="s">
         <v>715</v>
       </c>
@@ -19313,7 +19561,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="142"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="15" t="s">
         <v>693</v>
       </c>
@@ -19325,7 +19573,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="142"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="15" t="s">
         <v>725</v>
       </c>
@@ -19337,7 +19585,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="142"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="15" t="s">
         <v>756</v>
       </c>
@@ -19349,7 +19597,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="142"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="15" t="s">
         <v>744</v>
       </c>
@@ -19361,19 +19609,19 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="142"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="129" t="s">
         <v>745</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="130" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="142"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="15" t="s">
         <v>746</v>
       </c>
@@ -19385,19 +19633,19 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="142"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="130" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="142"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="15" t="s">
         <v>752</v>
       </c>
@@ -19409,7 +19657,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="142"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="67" t="s">
         <v>753</v>
       </c>
@@ -19421,50 +19669,50 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="142"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="133"/>
+      <c r="C25" s="129" t="s">
         <v>757</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="130" t="s">
         <v>766</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="130" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="142"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="133"/>
+      <c r="C26" s="129" t="s">
         <v>694</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="130" t="s">
         <v>729</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="130" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="142"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="133"/>
+      <c r="C27" s="129" t="s">
         <v>713</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="130" t="s">
         <v>720</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="130" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="143"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="134"/>
+      <c r="C28" s="129" t="s">
         <v>758</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="130" t="s">
         <v>845</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="130" t="s">
         <v>773</v>
       </c>
     </row>
@@ -19481,7 +19729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA91D5D-B4B9-B643-A974-AC5D2CAF9678}">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView zoomScale="177" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="177" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -19636,10 +19884,10 @@
         <v>779</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="E11" s="66" t="s">
         <v>785</v>
@@ -19717,7 +19965,7 @@
     </row>
     <row r="17" spans="2:5" ht="102" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>846</v>
@@ -20762,10 +21010,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A85A07F-7BA6-BC40-96EB-DE2BA8389A9C}">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20794,13 +21042,13 @@
       <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="137" t="s">
         <v>989</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="61" t="s">
-        <v>990</v>
+        <v>1376</v>
       </c>
       <c r="F2" s="65"/>
     </row>
@@ -20812,7 +21060,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="88" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="90"/>
@@ -20822,10 +21070,10 @@
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
       <c r="D5" s="91" t="s">
+        <v>991</v>
+      </c>
+      <c r="E5" s="91" t="s">
         <v>992</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -20841,17 +21089,17 @@
         <v>447</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="93" t="s">
+        <v>994</v>
+      </c>
+      <c r="E8" s="93" t="s">
         <v>995</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -20861,7 +21109,7 @@
         <v>486</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -20871,7 +21119,7 @@
         <v>487</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -20881,7 +21129,7 @@
         <v>446</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20890,110 +21138,29 @@
       <c r="D12" s="94"/>
       <c r="E12" s="94"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="88" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="149" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="93" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="150"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="93" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="150"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="150"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="90" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="93" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="E19" s="98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="94" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-    </row>
-    <row r="22" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21001,10 +21168,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC9B87-324D-FC42-B422-5AB2F001E51E}">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21014,344 +21181,227 @@
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
     <col min="4" max="4" width="1.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" style="5" customWidth="1"/>
-    <col min="10" max="15" width="53.83203125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="41.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" style="5" customWidth="1"/>
+    <col min="8" max="13" width="53.83203125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="125" t="s">
+    <row r="2" spans="2:5" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="117" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="110" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="63" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="79" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="80" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="97" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="99" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="74" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="100" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="63" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D9" s="104"/>
+      <c r="E9" s="63" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="63" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="74" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="100" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="110" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C13" s="103" t="s">
         <v>1035</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="74" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="100" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="110" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113" t="s">
         <v>1033</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="s">
+    </row>
+    <row r="16" spans="2:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="78" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="63" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D18" s="108"/>
+      <c r="E18" s="95" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C19" s="103" t="s">
         <v>1034</v>
       </c>
-      <c r="F2" s="128" t="s">
-        <v>817</v>
-      </c>
-      <c r="G2" s="128" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="118" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F3" s="117" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G3" s="117" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="63" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="79" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="80" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="103" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="105" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F6" s="101" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="74" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="107" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C8" s="110" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="63" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="63" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="63" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="74" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C11" s="114" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="107" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="73" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="118" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C12" s="119" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="121" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F12" s="117" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C13" s="110" t="s">
+      <c r="D19" s="104"/>
+      <c r="E19" s="63" t="s">
         <v>1047</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="63" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C14" s="114" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="107" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F14" s="84" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="118" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F15" s="117" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="38" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="78" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="63" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="100" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="63" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="136"/>
-      <c r="G20" s="135"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
